--- a/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
+++ b/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
@@ -1470,12 +1470,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1500,6 +1494,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1776,7 +1776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1816,85 +1816,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2240,9 +2242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K484"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,82 +2254,82 @@
     <col min="3" max="3" width="53.140625" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="29" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="29"/>
+    <col min="7" max="7" width="16.28515625" style="19" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="28"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="28"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -2335,25 +2337,25 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="40"/>
-      <c r="G5" s="27">
+      <c r="E5" s="24"/>
+      <c r="G5" s="50">
         <v>2</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="50">
         <v>4</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="50">
         <v>1</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="50">
         <v>3</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2361,25 +2363,25 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="41"/>
-      <c r="G6" s="27">
+      <c r="E6" s="25"/>
+      <c r="G6" s="50">
         <v>2</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="50">
         <v>2</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="50">
         <v>1</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="50">
         <v>1</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2387,25 +2389,25 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="41"/>
-      <c r="G7" s="27">
+      <c r="E7" s="25"/>
+      <c r="G7" s="50">
         <v>4</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="50">
         <v>2</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="50">
         <v>2</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="50">
         <v>4</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2413,46 +2415,48 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="41"/>
-      <c r="G8" s="27">
+      <c r="E8" s="25"/>
+      <c r="G8" s="50">
         <v>5</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="50">
         <v>3</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="50">
         <v>4</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="50">
         <v>3</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -2463,11 +2467,12 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="41"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -2478,20 +2483,20 @@
         <v>186</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="41"/>
-      <c r="G12" s="27">
+      <c r="E12" s="25"/>
+      <c r="G12" s="18">
         <v>0.5</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="18">
         <v>0.5</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="18">
         <v>1</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="19">
         <v>2</v>
       </c>
     </row>
@@ -2504,20 +2509,20 @@
         <v>64</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="41"/>
-      <c r="G13" s="27">
+      <c r="E13" s="25"/>
+      <c r="G13" s="18">
         <v>1</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="18">
         <v>0.5</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="18">
         <v>0.5</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="18">
         <v>1.5</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2530,20 +2535,20 @@
         <v>65</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="41"/>
-      <c r="G14" s="27">
+      <c r="E14" s="25"/>
+      <c r="G14" s="18">
         <v>2</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="18">
         <v>0.5</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="18">
         <v>2</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2556,20 +2561,20 @@
         <v>66</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="41"/>
-      <c r="G15" s="27">
+      <c r="E15" s="25"/>
+      <c r="G15" s="18">
         <v>1</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="18">
         <v>1</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="18">
         <v>0.5</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="18">
         <v>2</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2582,20 +2587,20 @@
         <v>67</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="41"/>
-      <c r="G16" s="27">
+      <c r="E16" s="25"/>
+      <c r="G16" s="18">
         <v>2</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="18">
         <v>1</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="18">
         <v>0.5</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="18">
         <v>2</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2608,20 +2613,20 @@
         <v>68</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="41"/>
-      <c r="G17" s="27">
+      <c r="E17" s="25"/>
+      <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="18">
         <v>1</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="18">
         <v>0.5</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="18">
         <v>1</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2634,20 +2639,20 @@
         <v>69</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="41"/>
-      <c r="G18" s="27">
+      <c r="E18" s="25"/>
+      <c r="G18" s="18">
         <v>1</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="18">
         <v>1</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="18">
         <v>0.5</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="18">
         <v>1.5</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2660,20 +2665,20 @@
         <v>70</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="41"/>
-      <c r="G19" s="27">
+      <c r="E19" s="25"/>
+      <c r="G19" s="18">
         <v>2</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="18">
         <v>1.5</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="18">
         <v>0.5</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="18">
         <v>2</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2686,20 +2691,20 @@
         <v>71</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="41"/>
-      <c r="G20" s="27">
+      <c r="E20" s="25"/>
+      <c r="G20" s="18">
         <v>3</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="18">
         <v>2</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="18">
         <v>0.5</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="18">
         <v>0.5</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2712,20 +2717,20 @@
         <v>112</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="41"/>
-      <c r="G21" s="27">
+      <c r="E21" s="25"/>
+      <c r="G21" s="18">
         <v>1</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="18">
         <v>0.5</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="18">
         <v>1</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2738,20 +2743,20 @@
         <v>72</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="41"/>
-      <c r="G22" s="27">
+      <c r="E22" s="25"/>
+      <c r="G22" s="18">
         <v>2</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="18">
         <v>1</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="18">
         <v>0.5</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="18">
         <v>2</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2764,20 +2769,20 @@
         <v>73</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="41"/>
-      <c r="G23" s="27">
+      <c r="E23" s="25"/>
+      <c r="G23" s="18">
         <v>2</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="18">
         <v>1</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="18">
         <v>0.5</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="18">
         <v>2</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2790,20 +2795,20 @@
         <v>74</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="41"/>
-      <c r="G24" s="27">
+      <c r="E24" s="25"/>
+      <c r="G24" s="18">
         <v>1.5</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="18">
         <v>1.5</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="18">
         <v>0.5</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="18">
         <v>2.5</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2816,20 +2821,20 @@
         <v>75</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="41"/>
-      <c r="G25" s="27">
+      <c r="E25" s="25"/>
+      <c r="G25" s="18">
         <v>1</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="18">
         <v>0.5</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="18">
         <v>0.5</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="18">
         <v>1</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2842,20 +2847,20 @@
         <v>76</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="41"/>
-      <c r="G26" s="27">
+      <c r="E26" s="25"/>
+      <c r="G26" s="18">
         <v>2</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="18">
         <v>0.5</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="18">
         <v>0.5</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="18">
         <v>1.5</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="19">
         <v>1.5</v>
       </c>
     </row>
@@ -2868,20 +2873,20 @@
         <v>113</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="41"/>
-      <c r="G27" s="27">
+      <c r="E27" s="25"/>
+      <c r="G27" s="18">
         <v>3</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="18">
         <v>1</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="18">
         <v>0.5</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="18">
         <v>0.5</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2894,20 +2899,20 @@
         <v>77</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="41"/>
-      <c r="G28" s="27">
+      <c r="E28" s="25"/>
+      <c r="G28" s="18">
         <v>2</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="18">
         <v>1.5</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="18">
         <v>0.5</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="18">
         <v>1.5</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2920,20 +2925,20 @@
         <v>78</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="41"/>
-      <c r="G29" s="27">
+      <c r="E29" s="25"/>
+      <c r="G29" s="18">
         <v>3</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="18">
         <v>2</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="18">
         <v>0.5</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="18">
         <v>2.5</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="19">
         <v>2</v>
       </c>
     </row>
@@ -2946,20 +2951,20 @@
         <v>79</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="41"/>
-      <c r="G30" s="27">
+      <c r="E30" s="25"/>
+      <c r="G30" s="18">
         <v>1</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="18">
         <v>1</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="18">
         <v>0.5</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="18">
         <v>1</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2972,20 +2977,20 @@
         <v>80</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="41"/>
-      <c r="G31" s="27">
+      <c r="E31" s="25"/>
+      <c r="G31" s="18">
         <v>2</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="18">
         <v>1.5</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="18">
         <v>0.5</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="18">
         <v>1.5</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2998,20 +3003,20 @@
         <v>81</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="41"/>
-      <c r="G32" s="27">
+      <c r="E32" s="25"/>
+      <c r="G32" s="18">
         <v>1</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="18">
         <v>1</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="18">
         <v>0.5</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="18">
         <v>1</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="19">
         <v>2</v>
       </c>
     </row>
@@ -3024,20 +3029,20 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="41"/>
-      <c r="G33" s="27">
+      <c r="E33" s="25"/>
+      <c r="G33" s="18">
         <v>5</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="18">
         <v>7</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="18">
         <v>4</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="18">
         <v>7</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="19">
         <v>2</v>
       </c>
     </row>
@@ -3050,20 +3055,20 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="41"/>
-      <c r="G34" s="27">
+      <c r="E34" s="25"/>
+      <c r="G34" s="18">
         <v>6</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="18">
         <v>10</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="18">
         <v>5</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="18">
         <v>7</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="19">
         <v>6</v>
       </c>
     </row>
@@ -3076,13 +3081,13 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="41"/>
-      <c r="G35" s="27" t="s">
+      <c r="E35" s="25"/>
+      <c r="G35" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
@@ -3093,20 +3098,20 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="41"/>
-      <c r="G36" s="27">
+      <c r="E36" s="25"/>
+      <c r="G36" s="18">
         <v>7</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="18">
         <v>10</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="18">
         <v>6</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="18">
         <v>15</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="19">
         <v>8</v>
       </c>
     </row>
@@ -3119,20 +3124,20 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="41"/>
-      <c r="G37" s="27">
+      <c r="E37" s="25"/>
+      <c r="G37" s="18">
         <v>7</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="18">
         <v>10</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="18">
         <v>6</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="18">
         <v>10</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="19">
         <v>4</v>
       </c>
     </row>
@@ -3145,20 +3150,20 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="41"/>
-      <c r="G38" s="27">
+      <c r="E38" s="25"/>
+      <c r="G38" s="18">
         <v>8</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="18">
         <v>10</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="18">
         <v>10</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="18">
         <v>5</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="19">
         <v>10</v>
       </c>
     </row>
@@ -3171,20 +3176,20 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="41"/>
-      <c r="G39" s="27">
+      <c r="E39" s="25"/>
+      <c r="G39" s="18">
         <v>6</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="18">
         <v>10</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="18">
         <v>6</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="18">
         <v>6</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="19">
         <v>5</v>
       </c>
     </row>
@@ -3197,20 +3202,20 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="41"/>
-      <c r="G40" s="27">
+      <c r="E40" s="25"/>
+      <c r="G40" s="18">
         <v>8</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="18">
         <v>10</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="18">
         <v>6</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="18">
         <v>6</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="19">
         <v>5</v>
       </c>
     </row>
@@ -3223,20 +3228,20 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="41"/>
-      <c r="G41" s="27">
+      <c r="E41" s="25"/>
+      <c r="G41" s="18">
         <v>7</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="18">
         <v>8</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="18">
         <v>8</v>
       </c>
-      <c r="J41" s="27">
+      <c r="J41" s="18">
         <v>10</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="19">
         <v>8</v>
       </c>
     </row>
@@ -3249,20 +3254,20 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="41"/>
-      <c r="G42" s="27">
+      <c r="E42" s="25"/>
+      <c r="G42" s="18">
         <v>7</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="18">
         <v>8</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="18">
         <v>8</v>
       </c>
-      <c r="J42" s="27">
+      <c r="J42" s="18">
         <v>10</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="19">
         <v>7</v>
       </c>
     </row>
@@ -3275,20 +3280,20 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="41"/>
-      <c r="G43" s="27">
+      <c r="E43" s="25"/>
+      <c r="G43" s="18">
         <v>9</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="18">
         <v>7</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="18">
         <v>6</v>
       </c>
-      <c r="J43" s="27">
+      <c r="J43" s="18">
         <v>10</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="19">
         <v>5</v>
       </c>
     </row>
@@ -3301,20 +3306,20 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="41"/>
-      <c r="G44" s="27">
+      <c r="E44" s="25"/>
+      <c r="G44" s="18">
         <v>5</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="18">
         <v>8</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="18">
         <v>8</v>
       </c>
-      <c r="J44" s="27">
+      <c r="J44" s="18">
         <v>4</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="19">
         <v>3</v>
       </c>
     </row>
@@ -3327,20 +3332,20 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="41"/>
-      <c r="G45" s="27">
+      <c r="E45" s="25"/>
+      <c r="G45" s="18">
         <v>6</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="18">
         <v>4</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="18">
         <v>3</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="18">
         <v>7</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="19">
         <v>7</v>
       </c>
     </row>
@@ -3353,20 +3358,20 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="41"/>
-      <c r="G46" s="27">
+      <c r="E46" s="25"/>
+      <c r="G46" s="18">
         <v>7</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H46" s="18">
         <v>6</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="18">
         <v>4</v>
       </c>
-      <c r="J46" s="27">
+      <c r="J46" s="18">
         <v>5</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="19">
         <v>4</v>
       </c>
     </row>
@@ -3379,20 +3384,20 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="41"/>
-      <c r="G47" s="27">
+      <c r="E47" s="25"/>
+      <c r="G47" s="18">
         <v>9</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="18">
         <v>7</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="18">
         <v>4</v>
       </c>
-      <c r="J47" s="27">
+      <c r="J47" s="18">
         <v>5</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="19">
         <v>4</v>
       </c>
     </row>
@@ -3405,46 +3410,46 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="41"/>
-      <c r="G48" s="27">
+      <c r="E48" s="25"/>
+      <c r="G48" s="18">
         <v>9</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="18">
         <v>10</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="18">
         <v>8</v>
       </c>
-      <c r="J48" s="27">
+      <c r="J48" s="18">
         <v>8</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -3455,11 +3460,11 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="41"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+      <c r="E51" s="25"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
@@ -3470,20 +3475,20 @@
         <v>51</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="41"/>
-      <c r="G52" s="27">
+      <c r="E52" s="25"/>
+      <c r="G52" s="18">
         <v>1</v>
       </c>
-      <c r="H52" s="27">
+      <c r="H52" s="18">
         <v>2</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="18">
         <v>1</v>
       </c>
-      <c r="J52" s="27">
+      <c r="J52" s="18">
         <v>1</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -3496,20 +3501,20 @@
         <v>52</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="41"/>
-      <c r="G53" s="27">
+      <c r="E53" s="25"/>
+      <c r="G53" s="18">
         <v>2</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="18">
         <v>3</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="18">
         <v>2</v>
       </c>
-      <c r="J53" s="27">
+      <c r="J53" s="18">
         <v>1</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="19">
         <v>2</v>
       </c>
     </row>
@@ -3522,20 +3527,20 @@
         <v>53</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="41"/>
-      <c r="G54" s="27">
+      <c r="E54" s="25"/>
+      <c r="G54" s="18">
         <v>1</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H54" s="18">
         <v>4</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="18">
         <v>2</v>
       </c>
-      <c r="J54" s="27">
+      <c r="J54" s="18">
         <v>2</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="19">
         <v>2</v>
       </c>
     </row>
@@ -3548,20 +3553,20 @@
         <v>54</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="41"/>
-      <c r="G55" s="27">
+      <c r="E55" s="25"/>
+      <c r="G55" s="18">
         <v>2</v>
       </c>
-      <c r="H55" s="27">
+      <c r="H55" s="18">
         <v>3</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="18">
         <v>1</v>
       </c>
-      <c r="J55" s="27">
+      <c r="J55" s="18">
         <v>2</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="19">
         <v>2</v>
       </c>
     </row>
@@ -3574,11 +3579,11 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="41"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
+      <c r="E56" s="25"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -3589,20 +3594,20 @@
         <v>13</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" s="41"/>
-      <c r="G57" s="27">
+      <c r="E57" s="25"/>
+      <c r="G57" s="18">
         <v>1</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H57" s="18">
         <v>1</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="18">
         <v>1</v>
       </c>
-      <c r="J57" s="27">
+      <c r="J57" s="18">
         <v>1</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -3615,20 +3620,20 @@
         <v>14</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="41"/>
-      <c r="G58" s="27">
+      <c r="E58" s="25"/>
+      <c r="G58" s="18">
         <v>0.5</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H58" s="18">
         <v>2</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="18">
         <v>1</v>
       </c>
-      <c r="J58" s="27">
+      <c r="J58" s="18">
         <v>4</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="19">
         <v>3</v>
       </c>
     </row>
@@ -3641,20 +3646,20 @@
         <v>120</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="41"/>
-      <c r="G59" s="27">
+      <c r="E59" s="25"/>
+      <c r="G59" s="18">
         <v>2</v>
       </c>
-      <c r="H59" s="27">
+      <c r="H59" s="18">
         <v>2</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="18">
         <v>2</v>
       </c>
-      <c r="J59" s="27">
+      <c r="J59" s="18">
         <v>4</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="19">
         <v>2</v>
       </c>
     </row>
@@ -3667,20 +3672,20 @@
         <v>121</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="41"/>
-      <c r="G60" s="27">
+      <c r="E60" s="25"/>
+      <c r="G60" s="18">
         <v>2</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H60" s="18">
         <v>3</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="18">
         <v>2</v>
       </c>
-      <c r="J60" s="27">
+      <c r="J60" s="18">
         <v>2</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3693,20 +3698,20 @@
         <v>49</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61" s="41"/>
-      <c r="G61" s="27">
+      <c r="E61" s="25"/>
+      <c r="G61" s="18">
         <v>2</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="18">
         <v>2</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="18">
         <v>2</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J61" s="18">
         <v>3</v>
       </c>
-      <c r="K61" s="29">
+      <c r="K61" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3719,20 +3724,20 @@
         <v>50</v>
       </c>
       <c r="D62" s="4"/>
-      <c r="E62" s="41"/>
-      <c r="G62" s="27">
+      <c r="E62" s="25"/>
+      <c r="G62" s="18">
         <v>1</v>
       </c>
-      <c r="H62" s="27">
+      <c r="H62" s="18">
         <v>2</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="18">
         <v>1</v>
       </c>
-      <c r="J62" s="27">
+      <c r="J62" s="18">
         <v>2</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -3745,20 +3750,20 @@
         <v>119</v>
       </c>
       <c r="D63" s="4"/>
-      <c r="E63" s="41"/>
-      <c r="G63" s="27">
+      <c r="E63" s="25"/>
+      <c r="G63" s="18">
         <v>1</v>
       </c>
-      <c r="H63" s="27">
+      <c r="H63" s="18">
         <v>1</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="18">
         <v>1</v>
       </c>
-      <c r="J63" s="27">
+      <c r="J63" s="18">
         <v>0.5</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3771,11 +3776,11 @@
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="41"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
+      <c r="E64" s="25"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -3786,20 +3791,20 @@
         <v>27</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="41"/>
-      <c r="G65" s="27">
+      <c r="E65" s="25"/>
+      <c r="G65" s="18">
         <v>20</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H65" s="18">
         <v>25</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="18">
         <v>22</v>
       </c>
-      <c r="J65" s="27">
+      <c r="J65" s="18">
         <v>15</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K65" s="19">
         <v>24</v>
       </c>
     </row>
@@ -3812,20 +3817,20 @@
         <v>26</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="41"/>
-      <c r="G66" s="27">
+      <c r="E66" s="25"/>
+      <c r="G66" s="18">
         <v>10</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H66" s="18">
         <v>12</v>
       </c>
-      <c r="I66" s="27">
+      <c r="I66" s="18">
         <v>15</v>
       </c>
-      <c r="J66" s="27">
+      <c r="J66" s="18">
         <v>10</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K66" s="19">
         <v>12</v>
       </c>
     </row>
@@ -3838,11 +3843,11 @@
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="41"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
+      <c r="E67" s="25"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
@@ -3853,35 +3858,35 @@
         <v>122</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="41"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
+      <c r="E68" s="25"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
     </row>
     <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B69" s="4"/>
-      <c r="C69" s="41"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="41"/>
-      <c r="G69" s="27">
+      <c r="E69" s="25"/>
+      <c r="G69" s="18">
         <v>10</v>
       </c>
-      <c r="H69" s="27">
+      <c r="H69" s="18">
         <v>24</v>
       </c>
-      <c r="I69" s="27">
+      <c r="I69" s="18">
         <v>20</v>
       </c>
-      <c r="J69" s="27">
+      <c r="J69" s="18">
         <v>25</v>
       </c>
-      <c r="K69" s="29">
+      <c r="K69" s="19">
         <v>8</v>
       </c>
     </row>
@@ -3890,24 +3895,24 @@
         <v>188</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="41"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="41"/>
-      <c r="G70" s="27">
+      <c r="E70" s="25"/>
+      <c r="G70" s="18">
         <v>8</v>
       </c>
-      <c r="H70" s="27">
+      <c r="H70" s="18">
         <v>18</v>
       </c>
-      <c r="I70" s="27">
+      <c r="I70" s="18">
         <v>15</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J70" s="18">
         <v>10</v>
       </c>
-      <c r="K70" s="29">
+      <c r="K70" s="19">
         <v>5</v>
       </c>
     </row>
@@ -3916,24 +3921,24 @@
         <v>189</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="41"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="41"/>
-      <c r="G71" s="27">
+      <c r="E71" s="25"/>
+      <c r="G71" s="18">
         <v>6</v>
       </c>
-      <c r="H71" s="27">
+      <c r="H71" s="18">
         <v>8</v>
       </c>
-      <c r="I71" s="27">
+      <c r="I71" s="18">
         <v>8</v>
       </c>
-      <c r="J71" s="27">
+      <c r="J71" s="18">
         <v>6</v>
       </c>
-      <c r="K71" s="29">
+      <c r="K71" s="19">
         <v>3</v>
       </c>
     </row>
@@ -3942,24 +3947,24 @@
         <v>190</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="41"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="41"/>
-      <c r="G72" s="27">
+      <c r="E72" s="25"/>
+      <c r="G72" s="18">
         <v>4</v>
       </c>
-      <c r="H72" s="27">
+      <c r="H72" s="18">
         <v>8</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="18">
         <v>8</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J72" s="18">
         <v>6</v>
       </c>
-      <c r="K72" s="29">
+      <c r="K72" s="19">
         <v>3</v>
       </c>
     </row>
@@ -3968,24 +3973,24 @@
         <v>191</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="41"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="41"/>
-      <c r="G73" s="27">
+      <c r="E73" s="25"/>
+      <c r="G73" s="18">
         <v>4</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H73" s="18">
         <v>8</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="18">
         <v>8</v>
       </c>
-      <c r="J73" s="27">
+      <c r="J73" s="18">
         <v>6</v>
       </c>
-      <c r="K73" s="29">
+      <c r="K73" s="19">
         <v>3</v>
       </c>
     </row>
@@ -3994,24 +3999,24 @@
         <v>192</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="41"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="41"/>
-      <c r="G74" s="27">
+      <c r="E74" s="25"/>
+      <c r="G74" s="18">
         <v>3</v>
       </c>
-      <c r="H74" s="27">
+      <c r="H74" s="18">
         <v>8</v>
       </c>
-      <c r="I74" s="27">
+      <c r="I74" s="18">
         <v>6</v>
       </c>
-      <c r="J74" s="27">
+      <c r="J74" s="18">
         <v>8</v>
       </c>
-      <c r="K74" s="29">
+      <c r="K74" s="19">
         <v>3</v>
       </c>
     </row>
@@ -4020,24 +4025,24 @@
         <v>193</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="41"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="G75" s="27">
+      <c r="E75" s="25"/>
+      <c r="G75" s="18">
         <v>6</v>
       </c>
-      <c r="H75" s="27">
+      <c r="H75" s="18">
         <v>10</v>
       </c>
-      <c r="I75" s="27">
+      <c r="I75" s="18">
         <v>8</v>
       </c>
-      <c r="J75" s="27">
+      <c r="J75" s="18">
         <v>11</v>
       </c>
-      <c r="K75" s="29">
+      <c r="K75" s="19">
         <v>4</v>
       </c>
     </row>
@@ -4046,24 +4051,24 @@
         <v>194</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="41"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="G76" s="27">
+      <c r="E76" s="25"/>
+      <c r="G76" s="18">
         <v>3</v>
       </c>
-      <c r="H76" s="27">
+      <c r="H76" s="18">
         <v>1.5</v>
       </c>
-      <c r="I76" s="27">
+      <c r="I76" s="18">
         <v>3</v>
       </c>
-      <c r="J76" s="27">
+      <c r="J76" s="18">
         <v>0.5</v>
       </c>
-      <c r="K76" s="29">
+      <c r="K76" s="19">
         <v>1</v>
       </c>
     </row>
@@ -4072,24 +4077,24 @@
         <v>195</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="41"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="41"/>
-      <c r="G77" s="27">
+      <c r="E77" s="25"/>
+      <c r="G77" s="18">
         <v>5</v>
       </c>
-      <c r="H77" s="27">
+      <c r="H77" s="18">
         <v>6</v>
       </c>
-      <c r="I77" s="27">
+      <c r="I77" s="18">
         <v>6</v>
       </c>
-      <c r="J77" s="27">
+      <c r="J77" s="18">
         <v>5</v>
       </c>
-      <c r="K77" s="29">
+      <c r="K77" s="19">
         <v>2</v>
       </c>
     </row>
@@ -4098,24 +4103,24 @@
         <v>196</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="41"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E78" s="41"/>
-      <c r="G78" s="27">
+      <c r="E78" s="25"/>
+      <c r="G78" s="18">
         <v>6</v>
       </c>
-      <c r="H78" s="27">
+      <c r="H78" s="18">
         <v>7</v>
       </c>
-      <c r="I78" s="27">
+      <c r="I78" s="18">
         <v>6</v>
       </c>
-      <c r="J78" s="27">
+      <c r="J78" s="18">
         <v>6</v>
       </c>
-      <c r="K78" s="29">
+      <c r="K78" s="19">
         <v>5</v>
       </c>
     </row>
@@ -4128,20 +4133,20 @@
         <v>61</v>
       </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="41"/>
-      <c r="G79" s="27">
+      <c r="E79" s="25"/>
+      <c r="G79" s="18">
         <v>10</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H79" s="18">
         <v>10</v>
       </c>
-      <c r="I79" s="27">
+      <c r="I79" s="18">
         <v>6</v>
       </c>
-      <c r="J79" s="27">
+      <c r="J79" s="18">
         <v>6</v>
       </c>
-      <c r="K79" s="29">
+      <c r="K79" s="19">
         <v>5</v>
       </c>
     </row>
@@ -4154,11 +4159,11 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="41"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
+      <c r="E80" s="25"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
     </row>
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
@@ -4169,20 +4174,20 @@
         <v>55</v>
       </c>
       <c r="D81" s="4"/>
-      <c r="E81" s="41"/>
-      <c r="G81" s="27">
+      <c r="E81" s="25"/>
+      <c r="G81" s="18">
         <v>1</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H81" s="18">
         <v>1</v>
       </c>
-      <c r="I81" s="27">
+      <c r="I81" s="18">
         <v>1</v>
       </c>
-      <c r="J81" s="27">
+      <c r="J81" s="18">
         <v>1</v>
       </c>
-      <c r="K81" s="29">
+      <c r="K81" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -4195,20 +4200,20 @@
         <v>56</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="41"/>
-      <c r="G82" s="27">
+      <c r="E82" s="25"/>
+      <c r="G82" s="18">
         <v>1</v>
       </c>
-      <c r="H82" s="27">
+      <c r="H82" s="18">
         <v>1</v>
       </c>
-      <c r="I82" s="27">
+      <c r="I82" s="18">
         <v>1</v>
       </c>
-      <c r="J82" s="27">
+      <c r="J82" s="18">
         <v>2</v>
       </c>
-      <c r="K82" s="29">
+      <c r="K82" s="19">
         <v>1</v>
       </c>
     </row>
@@ -4221,20 +4226,20 @@
         <v>57</v>
       </c>
       <c r="D83" s="4"/>
-      <c r="E83" s="41"/>
-      <c r="G83" s="27">
+      <c r="E83" s="25"/>
+      <c r="G83" s="18">
         <v>2</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H83" s="18">
         <v>1</v>
       </c>
-      <c r="I83" s="27">
+      <c r="I83" s="18">
         <v>2</v>
       </c>
-      <c r="J83" s="27">
+      <c r="J83" s="18">
         <v>2</v>
       </c>
-      <c r="K83" s="29">
+      <c r="K83" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -4247,11 +4252,11 @@
         <v>58</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="41"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
+      <c r="E84" s="25"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
     </row>
     <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
@@ -4262,20 +4267,20 @@
       <c r="D85" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E85" s="41"/>
-      <c r="G85" s="27">
+      <c r="E85" s="25"/>
+      <c r="G85" s="18">
         <v>1</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H85" s="18">
         <v>1</v>
       </c>
-      <c r="I85" s="27">
+      <c r="I85" s="18">
         <v>0.5</v>
       </c>
-      <c r="J85" s="27">
+      <c r="J85" s="18">
         <v>1</v>
       </c>
-      <c r="K85" s="29">
+      <c r="K85" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -4288,20 +4293,20 @@
       <c r="D86" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E86" s="41"/>
-      <c r="G86" s="27">
+      <c r="E86" s="25"/>
+      <c r="G86" s="18">
         <v>1</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H86" s="18">
         <v>1</v>
       </c>
-      <c r="I86" s="27">
+      <c r="I86" s="18">
         <v>0.5</v>
       </c>
-      <c r="J86" s="27">
+      <c r="J86" s="18">
         <v>0.5</v>
       </c>
-      <c r="K86" s="29">
+      <c r="K86" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -4314,20 +4319,20 @@
         <v>59</v>
       </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="41"/>
-      <c r="G87" s="27">
+      <c r="E87" s="25"/>
+      <c r="G87" s="18">
         <v>1</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H87" s="18">
         <v>3</v>
       </c>
-      <c r="I87" s="27">
+      <c r="I87" s="18">
         <v>3</v>
       </c>
-      <c r="J87" s="27">
+      <c r="J87" s="18">
         <v>5</v>
       </c>
-      <c r="K87" s="29">
+      <c r="K87" s="19">
         <v>6</v>
       </c>
     </row>
@@ -4340,20 +4345,20 @@
         <v>24</v>
       </c>
       <c r="D88" s="4"/>
-      <c r="E88" s="41"/>
-      <c r="G88" s="27">
+      <c r="E88" s="25"/>
+      <c r="G88" s="18">
         <v>4</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H88" s="18">
         <v>12</v>
       </c>
-      <c r="I88" s="27">
+      <c r="I88" s="18">
         <v>8</v>
       </c>
-      <c r="J88" s="27">
+      <c r="J88" s="18">
         <v>10</v>
       </c>
-      <c r="K88" s="29" t="s">
+      <c r="K88" s="19" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4366,20 +4371,20 @@
         <v>60</v>
       </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="41"/>
-      <c r="G89" s="27">
+      <c r="E89" s="25"/>
+      <c r="G89" s="18">
         <v>5</v>
       </c>
-      <c r="H89" s="27">
+      <c r="H89" s="18">
         <v>10</v>
       </c>
-      <c r="I89" s="27">
+      <c r="I89" s="18">
         <v>6</v>
       </c>
-      <c r="J89" s="27">
+      <c r="J89" s="18">
         <v>5</v>
       </c>
-      <c r="K89" s="29">
+      <c r="K89" s="19">
         <v>4</v>
       </c>
     </row>
@@ -4392,11 +4397,11 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="41"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
+      <c r="E90" s="25"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
@@ -4407,20 +4412,20 @@
         <v>83</v>
       </c>
       <c r="D91" s="4"/>
-      <c r="E91" s="41"/>
-      <c r="G91" s="27">
+      <c r="E91" s="25"/>
+      <c r="G91" s="18">
         <v>15</v>
       </c>
-      <c r="H91" s="27">
+      <c r="H91" s="18">
         <v>24</v>
       </c>
-      <c r="I91" s="27">
+      <c r="I91" s="18">
         <v>20</v>
       </c>
-      <c r="J91" s="27">
+      <c r="J91" s="18">
         <v>25</v>
       </c>
-      <c r="K91" s="29">
+      <c r="K91" s="19">
         <v>36</v>
       </c>
     </row>
@@ -4433,20 +4438,20 @@
         <v>84</v>
       </c>
       <c r="D92" s="4"/>
-      <c r="E92" s="41"/>
-      <c r="G92" s="27">
+      <c r="E92" s="25"/>
+      <c r="G92" s="18">
         <v>10</v>
       </c>
-      <c r="H92" s="27">
+      <c r="H92" s="18">
         <v>12</v>
       </c>
-      <c r="I92" s="27">
+      <c r="I92" s="18">
         <v>15</v>
       </c>
-      <c r="J92" s="27">
+      <c r="J92" s="18">
         <v>8</v>
       </c>
-      <c r="K92" s="29">
+      <c r="K92" s="19">
         <v>17</v>
       </c>
     </row>
@@ -4459,20 +4464,20 @@
         <v>85</v>
       </c>
       <c r="D93" s="4"/>
-      <c r="E93" s="41"/>
-      <c r="G93" s="27">
+      <c r="E93" s="25"/>
+      <c r="G93" s="18">
         <v>8</v>
       </c>
-      <c r="H93" s="27">
+      <c r="H93" s="18">
         <v>8</v>
       </c>
-      <c r="I93" s="27">
+      <c r="I93" s="18">
         <v>10</v>
       </c>
-      <c r="J93" s="27">
+      <c r="J93" s="18">
         <v>5</v>
       </c>
-      <c r="K93" s="29">
+      <c r="K93" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4485,20 +4490,20 @@
         <v>86</v>
       </c>
       <c r="D94" s="4"/>
-      <c r="E94" s="41"/>
-      <c r="G94" s="27">
+      <c r="E94" s="25"/>
+      <c r="G94" s="18">
         <v>8</v>
       </c>
-      <c r="H94" s="27">
+      <c r="H94" s="18">
         <v>6</v>
       </c>
-      <c r="I94" s="27">
+      <c r="I94" s="18">
         <v>8</v>
       </c>
-      <c r="J94" s="27">
+      <c r="J94" s="18">
         <v>5</v>
       </c>
-      <c r="K94" s="29">
+      <c r="K94" s="19">
         <v>4</v>
       </c>
     </row>
@@ -4511,20 +4516,20 @@
         <v>87</v>
       </c>
       <c r="D95" s="4"/>
-      <c r="E95" s="41"/>
-      <c r="G95" s="27">
+      <c r="E95" s="25"/>
+      <c r="G95" s="18">
         <v>5</v>
       </c>
-      <c r="H95" s="27">
+      <c r="H95" s="18">
         <v>6</v>
       </c>
-      <c r="I95" s="27">
+      <c r="I95" s="18">
         <v>8</v>
       </c>
-      <c r="J95" s="27">
+      <c r="J95" s="18">
         <v>5</v>
       </c>
-      <c r="K95" s="29">
+      <c r="K95" s="19">
         <v>2</v>
       </c>
     </row>
@@ -4537,20 +4542,20 @@
         <v>88</v>
       </c>
       <c r="D96" s="4"/>
-      <c r="E96" s="41"/>
-      <c r="G96" s="27">
+      <c r="E96" s="25"/>
+      <c r="G96" s="18">
         <v>3</v>
       </c>
-      <c r="H96" s="27">
+      <c r="H96" s="18">
         <v>4</v>
       </c>
-      <c r="I96" s="27">
+      <c r="I96" s="18">
         <v>6</v>
       </c>
-      <c r="J96" s="27">
+      <c r="J96" s="18">
         <v>5</v>
       </c>
-      <c r="K96" s="29">
+      <c r="K96" s="19">
         <v>2</v>
       </c>
     </row>
@@ -4563,20 +4568,20 @@
         <v>123</v>
       </c>
       <c r="D97" s="4"/>
-      <c r="E97" s="41"/>
-      <c r="G97" s="27">
+      <c r="E97" s="25"/>
+      <c r="G97" s="18">
         <v>5</v>
       </c>
-      <c r="H97" s="27">
+      <c r="H97" s="18">
         <v>8</v>
       </c>
-      <c r="I97" s="27">
+      <c r="I97" s="18">
         <v>6</v>
       </c>
-      <c r="J97" s="27">
+      <c r="J97" s="18">
         <v>8</v>
       </c>
-      <c r="K97" s="29">
+      <c r="K97" s="19">
         <v>5</v>
       </c>
     </row>
@@ -4589,20 +4594,20 @@
         <v>89</v>
       </c>
       <c r="D98" s="4"/>
-      <c r="E98" s="41"/>
-      <c r="G98" s="27">
+      <c r="E98" s="25"/>
+      <c r="G98" s="18">
         <v>3</v>
       </c>
-      <c r="H98" s="27">
+      <c r="H98" s="18">
         <v>1</v>
       </c>
-      <c r="I98" s="27">
+      <c r="I98" s="18">
         <v>2</v>
       </c>
-      <c r="J98" s="27">
+      <c r="J98" s="18">
         <v>1</v>
       </c>
-      <c r="K98" s="29">
+      <c r="K98" s="19">
         <v>1.5</v>
       </c>
     </row>
@@ -4615,20 +4620,20 @@
         <v>125</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="41"/>
-      <c r="G99" s="27">
+      <c r="E99" s="25"/>
+      <c r="G99" s="18">
         <v>4</v>
       </c>
-      <c r="H99" s="27">
+      <c r="H99" s="18">
         <v>5</v>
       </c>
-      <c r="I99" s="27">
+      <c r="I99" s="18">
         <v>5</v>
       </c>
-      <c r="J99" s="27">
+      <c r="J99" s="18">
         <v>6</v>
       </c>
-      <c r="K99" s="29">
+      <c r="K99" s="19">
         <v>5</v>
       </c>
     </row>
@@ -4641,46 +4646,46 @@
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="41"/>
-      <c r="G100" s="27">
+      <c r="E100" s="25"/>
+      <c r="G100" s="18">
         <v>1</v>
       </c>
-      <c r="H100" s="27">
+      <c r="H100" s="18">
         <v>1</v>
       </c>
-      <c r="I100" s="27">
+      <c r="I100" s="18">
         <v>1</v>
       </c>
-      <c r="J100" s="27">
+      <c r="J100" s="18">
         <v>1</v>
       </c>
-      <c r="K100" s="29">
+      <c r="K100" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
     </row>
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
@@ -4691,11 +4696,11 @@
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="41"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
+      <c r="E103" s="25"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
@@ -4706,20 +4711,20 @@
         <v>19</v>
       </c>
       <c r="D104" s="4"/>
-      <c r="E104" s="41"/>
-      <c r="G104" s="27">
+      <c r="E104" s="25"/>
+      <c r="G104" s="18">
         <v>10</v>
       </c>
-      <c r="H104" s="27">
+      <c r="H104" s="18">
         <v>15</v>
       </c>
-      <c r="I104" s="27">
+      <c r="I104" s="18">
         <v>10</v>
       </c>
-      <c r="J104" s="27">
+      <c r="J104" s="18">
         <v>8</v>
       </c>
-      <c r="K104" s="29">
+      <c r="K104" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4732,20 +4737,20 @@
         <v>20</v>
       </c>
       <c r="D105" s="4"/>
-      <c r="E105" s="41"/>
-      <c r="G105" s="27">
+      <c r="E105" s="25"/>
+      <c r="G105" s="18">
         <v>8</v>
       </c>
-      <c r="H105" s="27">
+      <c r="H105" s="18">
         <v>5</v>
       </c>
-      <c r="I105" s="27">
+      <c r="I105" s="18">
         <v>10</v>
       </c>
-      <c r="J105" s="27">
+      <c r="J105" s="18">
         <v>8</v>
       </c>
-      <c r="K105" s="29">
+      <c r="K105" s="19">
         <v>8</v>
       </c>
     </row>
@@ -4758,46 +4763,46 @@
         <v>21</v>
       </c>
       <c r="D106" s="4"/>
-      <c r="E106" s="41"/>
-      <c r="G106" s="27">
+      <c r="E106" s="25"/>
+      <c r="G106" s="18">
         <v>15</v>
       </c>
-      <c r="H106" s="27">
+      <c r="H106" s="18">
         <v>20</v>
       </c>
-      <c r="I106" s="27">
+      <c r="I106" s="18">
         <v>12</v>
       </c>
-      <c r="J106" s="27">
+      <c r="J106" s="18">
         <v>15</v>
       </c>
-      <c r="K106" s="29">
+      <c r="K106" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
@@ -4808,11 +4813,11 @@
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="41"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
+      <c r="E109" s="25"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
     </row>
     <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
@@ -4823,11 +4828,11 @@
         <v>22</v>
       </c>
       <c r="D110" s="4"/>
-      <c r="E110" s="41"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
+      <c r="E110" s="25"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
     </row>
     <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
@@ -4838,11 +4843,11 @@
       <c r="D111" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E111" s="41"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
+      <c r="E111" s="25"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
     </row>
     <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -4853,11 +4858,11 @@
       <c r="D112" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E112" s="41"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
+      <c r="E112" s="25"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
     </row>
     <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
@@ -4868,11 +4873,11 @@
       <c r="D113" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="41"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
+      <c r="E113" s="25"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
     </row>
     <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
@@ -4883,11 +4888,11 @@
         <v>152</v>
       </c>
       <c r="D114" s="4"/>
-      <c r="E114" s="41"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
+      <c r="E114" s="25"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
     </row>
     <row r="115" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
@@ -4898,11 +4903,11 @@
       <c r="D115" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E115" s="41"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
+      <c r="E115" s="25"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
     </row>
     <row r="116" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
@@ -4914,10 +4919,10 @@
       <c r="E116" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
     </row>
     <row r="117" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
@@ -4929,10 +4934,10 @@
       <c r="E117" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
     </row>
     <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
@@ -4944,10 +4949,10 @@
       <c r="E118" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
     </row>
     <row r="119" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
@@ -4959,10 +4964,10 @@
       <c r="E119" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
     </row>
     <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
@@ -4974,10 +4979,10 @@
       <c r="E120" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="27"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
     </row>
     <row r="121" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
@@ -4989,10 +4994,10 @@
       <c r="E121" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
     </row>
     <row r="122" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
@@ -5004,10 +5009,10 @@
       <c r="E122" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="27"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
     </row>
     <row r="123" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
@@ -5019,10 +5024,10 @@
       <c r="E123" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
     </row>
     <row r="124" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -5034,10 +5039,10 @@
       <c r="E124" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -5049,10 +5054,10 @@
       <c r="E125" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
     </row>
     <row r="126" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -5064,10 +5069,10 @@
       <c r="E126" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
     </row>
     <row r="127" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
@@ -5079,10 +5084,10 @@
       <c r="E127" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
     </row>
     <row r="128" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
@@ -5094,10 +5099,10 @@
       <c r="E128" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
     </row>
     <row r="129" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
@@ -5108,11 +5113,11 @@
       <c r="D129" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E129" s="41"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
+      <c r="E129" s="25"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
     </row>
     <row r="130" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
@@ -5124,10 +5129,10 @@
       <c r="E130" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
     </row>
     <row r="131" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
@@ -5139,10 +5144,10 @@
       <c r="E131" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
     </row>
     <row r="132" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -5154,10 +5159,10 @@
       <c r="E132" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
     </row>
     <row r="133" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
@@ -5169,10 +5174,10 @@
       <c r="E133" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
     </row>
     <row r="134" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
@@ -5184,10 +5189,10 @@
       <c r="E134" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="27"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
     </row>
     <row r="135" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
@@ -5199,10 +5204,10 @@
       <c r="E135" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="27"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
     </row>
     <row r="136" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
@@ -5214,10 +5219,10 @@
       <c r="E136" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="27"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
     </row>
     <row r="137" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
@@ -5229,10 +5234,10 @@
       <c r="E137" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
     </row>
     <row r="138" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
@@ -5244,10 +5249,10 @@
       <c r="E138" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="27"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
     </row>
     <row r="139" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
@@ -5259,10 +5264,10 @@
       <c r="E139" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
     </row>
     <row r="140" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
@@ -5274,10 +5279,10 @@
       <c r="E140" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="27"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
     </row>
     <row r="141" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
@@ -5288,11 +5293,11 @@
       <c r="D141" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E141" s="41"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
+      <c r="E141" s="25"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
     </row>
     <row r="142" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -5304,10 +5309,10 @@
       <c r="E142" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
     </row>
     <row r="143" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
@@ -5319,10 +5324,10 @@
       <c r="E143" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
     </row>
     <row r="144" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
@@ -5334,10 +5339,10 @@
       <c r="E144" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
     </row>
     <row r="145" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
@@ -5348,14 +5353,14 @@
       <c r="D145" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E145" s="41"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="27"/>
+      <c r="E145" s="25"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
     </row>
     <row r="146" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="26" t="s">
         <v>233</v>
       </c>
       <c r="B146" s="4"/>
@@ -5364,13 +5369,13 @@
       <c r="E146" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="27"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
     </row>
     <row r="147" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="42" t="s">
+      <c r="A147" s="26" t="s">
         <v>234</v>
       </c>
       <c r="B147" s="4"/>
@@ -5379,13 +5384,13 @@
       <c r="E147" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
     </row>
     <row r="148" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="42" t="s">
+      <c r="A148" s="26" t="s">
         <v>235</v>
       </c>
       <c r="B148" s="4"/>
@@ -5394,13 +5399,13 @@
       <c r="E148" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
     </row>
     <row r="149" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="42" t="s">
+      <c r="A149" s="26" t="s">
         <v>236</v>
       </c>
       <c r="B149" s="4"/>
@@ -5409,10 +5414,10 @@
       <c r="E149" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
     </row>
     <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
@@ -5423,11 +5428,11 @@
         <v>151</v>
       </c>
       <c r="D150" s="4"/>
-      <c r="E150" s="41"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
+      <c r="E150" s="25"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
@@ -5438,11 +5443,11 @@
       <c r="D151" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E151" s="41"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
+      <c r="E151" s="25"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
     </row>
     <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
@@ -5453,11 +5458,11 @@
       <c r="D152" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E152" s="41"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="27"/>
+      <c r="E152" s="25"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
     </row>
     <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
@@ -5468,11 +5473,11 @@
         <v>24</v>
       </c>
       <c r="D153" s="4"/>
-      <c r="E153" s="41"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
+      <c r="E153" s="25"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
     </row>
     <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -5483,11 +5488,11 @@
       <c r="D154" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E154" s="41"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="27"/>
+      <c r="E154" s="25"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
     </row>
     <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
@@ -5499,10 +5504,10 @@
       <c r="E155" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
     </row>
     <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
@@ -5514,10 +5519,10 @@
       <c r="E156" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="27"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="18"/>
     </row>
     <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
@@ -5529,10 +5534,10 @@
       <c r="E157" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
     </row>
     <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
@@ -5544,10 +5549,10 @@
       <c r="E158" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
     </row>
     <row r="159" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
@@ -5559,10 +5564,10 @@
       <c r="E159" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
     </row>
     <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
@@ -5574,10 +5579,10 @@
       <c r="E160" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="27"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="18"/>
     </row>
     <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
@@ -5589,10 +5594,10 @@
       <c r="E161" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
     </row>
     <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
@@ -5604,10 +5609,10 @@
       <c r="E162" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="27"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
     </row>
     <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
@@ -5619,10 +5624,10 @@
       <c r="E163" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
     </row>
     <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
@@ -5634,10 +5639,10 @@
       <c r="E164" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="27"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
@@ -5649,10 +5654,10 @@
       <c r="E165" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="27"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
     </row>
     <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
@@ -5664,10 +5669,10 @@
       <c r="E166" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="27"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+      <c r="J166" s="18"/>
     </row>
     <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
@@ -5679,10 +5684,10 @@
       <c r="E167" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="27"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="18"/>
     </row>
     <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
@@ -5693,11 +5698,11 @@
       <c r="D168" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E168" s="41"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
+      <c r="E168" s="25"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+      <c r="J168" s="18"/>
     </row>
     <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
@@ -5709,10 +5714,10 @@
       <c r="E169" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="27"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="18"/>
     </row>
     <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
@@ -5724,10 +5729,10 @@
       <c r="E170" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="27"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+      <c r="J170" s="18"/>
     </row>
     <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
@@ -5739,10 +5744,10 @@
       <c r="E171" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="27"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
     </row>
     <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
@@ -5754,10 +5759,10 @@
       <c r="E172" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="18"/>
+      <c r="J172" s="18"/>
     </row>
     <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
@@ -5769,10 +5774,10 @@
       <c r="E173" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+      <c r="J173" s="18"/>
     </row>
     <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
@@ -5784,10 +5789,10 @@
       <c r="E174" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
     </row>
     <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
@@ -5799,10 +5804,10 @@
       <c r="E175" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="27"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="18"/>
     </row>
     <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
@@ -5814,10 +5819,10 @@
       <c r="E176" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="27"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="18"/>
     </row>
     <row r="177" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
@@ -5829,10 +5834,10 @@
       <c r="E177" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
     </row>
     <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
@@ -5844,10 +5849,10 @@
       <c r="E178" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
     </row>
     <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
@@ -5859,10 +5864,10 @@
       <c r="E179" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="27"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
@@ -5873,11 +5878,11 @@
       <c r="D180" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E180" s="41"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
+      <c r="E180" s="25"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
     </row>
     <row r="181" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
@@ -5889,10 +5894,10 @@
       <c r="E181" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
     </row>
     <row r="182" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
@@ -5904,10 +5909,10 @@
       <c r="E182" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
+      <c r="G182" s="18"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
     </row>
     <row r="183" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
@@ -5919,10 +5924,10 @@
       <c r="E183" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
     </row>
     <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -5933,11 +5938,11 @@
       <c r="D184" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E184" s="41"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
+      <c r="E184" s="25"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="18"/>
     </row>
     <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
@@ -5949,10 +5954,10 @@
       <c r="E185" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
     </row>
     <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
@@ -5964,10 +5969,10 @@
       <c r="E186" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
@@ -5979,10 +5984,10 @@
       <c r="E187" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="27"/>
+      <c r="G187" s="18"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18"/>
     </row>
     <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
@@ -5994,10 +5999,10 @@
       <c r="E188" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="18"/>
     </row>
     <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
@@ -6008,13 +6013,13 @@
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="41"/>
-      <c r="G189" s="27">
+      <c r="E189" s="25"/>
+      <c r="G189" s="18">
         <v>50</v>
       </c>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
     </row>
     <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
@@ -6025,11 +6030,11 @@
         <v>153</v>
       </c>
       <c r="D190" s="4"/>
-      <c r="E190" s="41"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="27"/>
+      <c r="E190" s="25"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="18"/>
     </row>
     <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
@@ -6040,11 +6045,11 @@
       <c r="D191" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E191" s="41"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
+      <c r="E191" s="25"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18"/>
     </row>
     <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
@@ -6055,11 +6060,11 @@
       <c r="D192" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E192" s="41"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="27"/>
+      <c r="E192" s="25"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="18"/>
     </row>
     <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -6070,11 +6075,11 @@
       <c r="D193" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E193" s="41"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="27"/>
+      <c r="E193" s="25"/>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="18"/>
     </row>
     <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
@@ -6085,11 +6090,11 @@
       <c r="D194" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E194" s="41"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="27"/>
+      <c r="E194" s="25"/>
+      <c r="G194" s="18"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="18"/>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
@@ -6100,11 +6105,11 @@
       <c r="D195" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E195" s="41"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="27"/>
+      <c r="E195" s="25"/>
+      <c r="G195" s="18"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="18"/>
     </row>
     <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
@@ -6115,11 +6120,11 @@
       <c r="D196" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E196" s="41"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="27"/>
+      <c r="E196" s="25"/>
+      <c r="G196" s="18"/>
+      <c r="H196" s="18"/>
+      <c r="I196" s="18"/>
+      <c r="J196" s="18"/>
     </row>
     <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
@@ -6130,26 +6135,26 @@
       <c r="D197" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E197" s="41"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="27"/>
+      <c r="E197" s="25"/>
+      <c r="G197" s="18"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="18"/>
+      <c r="J197" s="18"/>
     </row>
     <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B198" s="4"/>
-      <c r="C198" s="41"/>
+      <c r="C198" s="25"/>
       <c r="D198" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E198" s="41"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="27"/>
+      <c r="E198" s="25"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="18"/>
+      <c r="J198" s="18"/>
     </row>
     <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
@@ -6160,11 +6165,11 @@
       <c r="D199" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E199" s="41"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="27"/>
+      <c r="E199" s="25"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="J199" s="18"/>
     </row>
     <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
@@ -6175,11 +6180,11 @@
       <c r="D200" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E200" s="41"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="27"/>
+      <c r="E200" s="25"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
+      <c r="J200" s="18"/>
     </row>
     <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
@@ -6190,11 +6195,11 @@
       <c r="D201" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E201" s="41"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="27"/>
+      <c r="E201" s="25"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="18"/>
     </row>
     <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
@@ -6205,11 +6210,11 @@
       <c r="D202" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E202" s="41"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="27"/>
+      <c r="E202" s="25"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
     </row>
     <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
@@ -6220,11 +6225,11 @@
       <c r="D203" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E203" s="41"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27"/>
-      <c r="J203" s="27"/>
+      <c r="E203" s="25"/>
+      <c r="G203" s="18"/>
+      <c r="H203" s="18"/>
+      <c r="I203" s="18"/>
+      <c r="J203" s="18"/>
     </row>
     <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
@@ -6235,11 +6240,11 @@
         <v>154</v>
       </c>
       <c r="D204" s="4"/>
-      <c r="E204" s="41"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="27"/>
+      <c r="E204" s="25"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="18"/>
+      <c r="I204" s="18"/>
+      <c r="J204" s="18"/>
     </row>
     <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
@@ -6250,11 +6255,11 @@
       <c r="D205" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E205" s="41"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-      <c r="J205" s="27"/>
+      <c r="E205" s="25"/>
+      <c r="G205" s="18"/>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18"/>
+      <c r="J205" s="18"/>
     </row>
     <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
@@ -6265,11 +6270,11 @@
       <c r="D206" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E206" s="41"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="27"/>
-      <c r="J206" s="27"/>
+      <c r="E206" s="25"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18"/>
     </row>
     <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -6280,11 +6285,11 @@
       <c r="D207" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E207" s="41"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="27"/>
-      <c r="J207" s="27"/>
+      <c r="E207" s="25"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="18"/>
     </row>
     <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
@@ -6295,11 +6300,11 @@
       <c r="D208" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E208" s="41"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="27"/>
-      <c r="J208" s="27"/>
+      <c r="E208" s="25"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
+      <c r="J208" s="18"/>
     </row>
     <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
@@ -6310,11 +6315,11 @@
       <c r="D209" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E209" s="41"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="27"/>
-      <c r="J209" s="27"/>
+      <c r="E209" s="25"/>
+      <c r="G209" s="18"/>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+      <c r="J209" s="18"/>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
@@ -6325,11 +6330,11 @@
       <c r="D210" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E210" s="41"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
-      <c r="I210" s="27"/>
-      <c r="J210" s="27"/>
+      <c r="E210" s="25"/>
+      <c r="G210" s="18"/>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
+      <c r="J210" s="18"/>
     </row>
     <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
@@ -6340,11 +6345,11 @@
       <c r="D211" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E211" s="41"/>
-      <c r="G211" s="27"/>
-      <c r="H211" s="27"/>
-      <c r="I211" s="27"/>
-      <c r="J211" s="27"/>
+      <c r="E211" s="25"/>
+      <c r="G211" s="18"/>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
+      <c r="J211" s="18"/>
     </row>
     <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
@@ -6355,11 +6360,11 @@
       <c r="D212" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E212" s="41"/>
-      <c r="G212" s="27"/>
-      <c r="H212" s="27"/>
-      <c r="I212" s="27"/>
-      <c r="J212" s="27"/>
+      <c r="E212" s="25"/>
+      <c r="G212" s="18"/>
+      <c r="H212" s="18"/>
+      <c r="I212" s="18"/>
+      <c r="J212" s="18"/>
     </row>
     <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
@@ -6370,11 +6375,11 @@
       <c r="D213" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E213" s="41"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27"/>
+      <c r="E213" s="25"/>
+      <c r="G213" s="18"/>
+      <c r="H213" s="18"/>
+      <c r="I213" s="18"/>
+      <c r="J213" s="18"/>
     </row>
     <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
@@ -6385,11 +6390,11 @@
       <c r="D214" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E214" s="41"/>
-      <c r="G214" s="27"/>
-      <c r="H214" s="27"/>
-      <c r="I214" s="27"/>
-      <c r="J214" s="27"/>
+      <c r="E214" s="25"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="18"/>
+      <c r="I214" s="18"/>
+      <c r="J214" s="18"/>
     </row>
     <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
@@ -6400,11 +6405,11 @@
       <c r="D215" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E215" s="41"/>
-      <c r="G215" s="27"/>
-      <c r="H215" s="27"/>
-      <c r="I215" s="27"/>
-      <c r="J215" s="27"/>
+      <c r="E215" s="25"/>
+      <c r="G215" s="18"/>
+      <c r="H215" s="18"/>
+      <c r="I215" s="18"/>
+      <c r="J215" s="18"/>
     </row>
     <row r="216" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
@@ -6414,12 +6419,12 @@
       <c r="C216" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D216" s="41"/>
-      <c r="E216" s="41"/>
-      <c r="G216" s="27"/>
-      <c r="H216" s="27"/>
-      <c r="I216" s="27"/>
-      <c r="J216" s="27"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
+      <c r="G216" s="18"/>
+      <c r="H216" s="18"/>
+      <c r="I216" s="18"/>
+      <c r="J216" s="18"/>
     </row>
     <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
@@ -6430,11 +6435,11 @@
       <c r="D217" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E217" s="41"/>
-      <c r="G217" s="27"/>
-      <c r="H217" s="27"/>
-      <c r="I217" s="27"/>
-      <c r="J217" s="27"/>
+      <c r="E217" s="25"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
+      <c r="J217" s="18"/>
     </row>
     <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
@@ -6445,11 +6450,11 @@
       <c r="D218" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E218" s="41"/>
-      <c r="G218" s="27"/>
-      <c r="H218" s="27"/>
-      <c r="I218" s="27"/>
-      <c r="J218" s="27"/>
+      <c r="E218" s="25"/>
+      <c r="G218" s="18"/>
+      <c r="H218" s="18"/>
+      <c r="I218" s="18"/>
+      <c r="J218" s="18"/>
     </row>
     <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
@@ -6460,11 +6465,11 @@
       <c r="D219" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E219" s="41"/>
-      <c r="G219" s="27"/>
-      <c r="H219" s="27"/>
-      <c r="I219" s="27"/>
-      <c r="J219" s="27"/>
+      <c r="E219" s="25"/>
+      <c r="G219" s="18"/>
+      <c r="H219" s="18"/>
+      <c r="I219" s="18"/>
+      <c r="J219" s="18"/>
     </row>
     <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
@@ -6475,11 +6480,11 @@
         <v>155</v>
       </c>
       <c r="D220" s="4"/>
-      <c r="E220" s="41"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27"/>
-      <c r="J220" s="27"/>
+      <c r="E220" s="25"/>
+      <c r="G220" s="18"/>
+      <c r="H220" s="18"/>
+      <c r="I220" s="18"/>
+      <c r="J220" s="18"/>
     </row>
     <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
@@ -6490,11 +6495,11 @@
       <c r="D221" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E221" s="41"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="27"/>
-      <c r="I221" s="27"/>
-      <c r="J221" s="27"/>
+      <c r="E221" s="25"/>
+      <c r="G221" s="18"/>
+      <c r="H221" s="18"/>
+      <c r="I221" s="18"/>
+      <c r="J221" s="18"/>
     </row>
     <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
@@ -6505,11 +6510,11 @@
       <c r="D222" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E222" s="41"/>
-      <c r="G222" s="27"/>
-      <c r="H222" s="27"/>
-      <c r="I222" s="27"/>
-      <c r="J222" s="27"/>
+      <c r="E222" s="25"/>
+      <c r="G222" s="18"/>
+      <c r="H222" s="18"/>
+      <c r="I222" s="18"/>
+      <c r="J222" s="18"/>
     </row>
     <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
@@ -6520,11 +6525,11 @@
       <c r="D223" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E223" s="41"/>
-      <c r="G223" s="27"/>
-      <c r="H223" s="27"/>
-      <c r="I223" s="27"/>
-      <c r="J223" s="27"/>
+      <c r="E223" s="25"/>
+      <c r="G223" s="18"/>
+      <c r="H223" s="18"/>
+      <c r="I223" s="18"/>
+      <c r="J223" s="18"/>
     </row>
     <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
@@ -6535,11 +6540,11 @@
       <c r="D224" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E224" s="41"/>
-      <c r="G224" s="27"/>
-      <c r="H224" s="27"/>
-      <c r="I224" s="27"/>
-      <c r="J224" s="27"/>
+      <c r="E224" s="25"/>
+      <c r="G224" s="18"/>
+      <c r="H224" s="18"/>
+      <c r="I224" s="18"/>
+      <c r="J224" s="18"/>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
@@ -6550,11 +6555,11 @@
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="41"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
+      <c r="E225" s="25"/>
+      <c r="G225" s="18"/>
+      <c r="H225" s="18"/>
+      <c r="I225" s="18"/>
+      <c r="J225" s="18"/>
     </row>
     <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
@@ -6565,11 +6570,11 @@
         <v>157</v>
       </c>
       <c r="D226" s="4"/>
-      <c r="E226" s="41"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="27"/>
-      <c r="I226" s="27"/>
-      <c r="J226" s="27"/>
+      <c r="E226" s="25"/>
+      <c r="G226" s="18"/>
+      <c r="H226" s="18"/>
+      <c r="I226" s="18"/>
+      <c r="J226" s="18"/>
     </row>
     <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
@@ -6580,11 +6585,11 @@
       <c r="D227" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E227" s="41"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
-      <c r="J227" s="27"/>
+      <c r="E227" s="25"/>
+      <c r="G227" s="18"/>
+      <c r="H227" s="18"/>
+      <c r="I227" s="18"/>
+      <c r="J227" s="18"/>
     </row>
     <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
@@ -6596,10 +6601,10 @@
       <c r="E228" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
-      <c r="I228" s="27"/>
-      <c r="J228" s="27"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="18"/>
+      <c r="I228" s="18"/>
+      <c r="J228" s="18"/>
     </row>
     <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
@@ -6611,10 +6616,10 @@
       <c r="E229" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="G229" s="27"/>
-      <c r="H229" s="27"/>
-      <c r="I229" s="27"/>
-      <c r="J229" s="27"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
+      <c r="J229" s="18"/>
     </row>
     <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
@@ -6626,10 +6631,10 @@
       <c r="E230" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27"/>
-      <c r="I230" s="27"/>
-      <c r="J230" s="27"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
+      <c r="J230" s="18"/>
     </row>
     <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
@@ -6641,10 +6646,10 @@
       <c r="E231" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G231" s="27"/>
-      <c r="H231" s="27"/>
-      <c r="I231" s="27"/>
-      <c r="J231" s="27"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="18"/>
+      <c r="I231" s="18"/>
+      <c r="J231" s="18"/>
     </row>
     <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
@@ -6656,10 +6661,10 @@
       <c r="E232" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G232" s="27"/>
-      <c r="H232" s="27"/>
-      <c r="I232" s="27"/>
-      <c r="J232" s="27"/>
+      <c r="G232" s="18"/>
+      <c r="H232" s="18"/>
+      <c r="I232" s="18"/>
+      <c r="J232" s="18"/>
     </row>
     <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
@@ -6671,10 +6676,10 @@
       <c r="E233" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27"/>
-      <c r="I233" s="27"/>
-      <c r="J233" s="27"/>
+      <c r="G233" s="18"/>
+      <c r="H233" s="18"/>
+      <c r="I233" s="18"/>
+      <c r="J233" s="18"/>
     </row>
     <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -6686,10 +6691,10 @@
       <c r="E234" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G234" s="27"/>
-      <c r="H234" s="27"/>
-      <c r="I234" s="27"/>
-      <c r="J234" s="27"/>
+      <c r="G234" s="18"/>
+      <c r="H234" s="18"/>
+      <c r="I234" s="18"/>
+      <c r="J234" s="18"/>
     </row>
     <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
@@ -6701,10 +6706,10 @@
       <c r="E235" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G235" s="27"/>
-      <c r="H235" s="27"/>
-      <c r="I235" s="27"/>
-      <c r="J235" s="27"/>
+      <c r="G235" s="18"/>
+      <c r="H235" s="18"/>
+      <c r="I235" s="18"/>
+      <c r="J235" s="18"/>
     </row>
     <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
@@ -6716,10 +6721,10 @@
       <c r="E236" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G236" s="27"/>
-      <c r="H236" s="27"/>
-      <c r="I236" s="27"/>
-      <c r="J236" s="27"/>
+      <c r="G236" s="18"/>
+      <c r="H236" s="18"/>
+      <c r="I236" s="18"/>
+      <c r="J236" s="18"/>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
@@ -6731,10 +6736,10 @@
       <c r="E237" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G237" s="27"/>
-      <c r="H237" s="27"/>
-      <c r="I237" s="27"/>
-      <c r="J237" s="27"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18"/>
+      <c r="J237" s="18"/>
     </row>
     <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
@@ -6746,10 +6751,10 @@
       <c r="E238" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G238" s="27"/>
-      <c r="H238" s="27"/>
-      <c r="I238" s="27"/>
-      <c r="J238" s="27"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="18"/>
+      <c r="I238" s="18"/>
+      <c r="J238" s="18"/>
     </row>
     <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
@@ -6761,10 +6766,10 @@
       <c r="E239" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G239" s="27"/>
-      <c r="H239" s="27"/>
-      <c r="I239" s="27"/>
-      <c r="J239" s="27"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="18"/>
+      <c r="I239" s="18"/>
+      <c r="J239" s="18"/>
     </row>
     <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
@@ -6776,10 +6781,10 @@
       <c r="E240" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G240" s="27"/>
-      <c r="H240" s="27"/>
-      <c r="I240" s="27"/>
-      <c r="J240" s="27"/>
+      <c r="G240" s="18"/>
+      <c r="H240" s="18"/>
+      <c r="I240" s="18"/>
+      <c r="J240" s="18"/>
     </row>
     <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
@@ -6790,11 +6795,11 @@
       <c r="D241" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E241" s="41"/>
-      <c r="G241" s="27"/>
-      <c r="H241" s="27"/>
-      <c r="I241" s="27"/>
-      <c r="J241" s="27"/>
+      <c r="E241" s="25"/>
+      <c r="G241" s="18"/>
+      <c r="H241" s="18"/>
+      <c r="I241" s="18"/>
+      <c r="J241" s="18"/>
     </row>
     <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
@@ -6806,10 +6811,10 @@
       <c r="E242" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G242" s="27"/>
-      <c r="H242" s="27"/>
-      <c r="I242" s="27"/>
-      <c r="J242" s="27"/>
+      <c r="G242" s="18"/>
+      <c r="H242" s="18"/>
+      <c r="I242" s="18"/>
+      <c r="J242" s="18"/>
     </row>
     <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
@@ -6821,10 +6826,10 @@
       <c r="E243" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G243" s="27"/>
-      <c r="H243" s="27"/>
-      <c r="I243" s="27"/>
-      <c r="J243" s="27"/>
+      <c r="G243" s="18"/>
+      <c r="H243" s="18"/>
+      <c r="I243" s="18"/>
+      <c r="J243" s="18"/>
     </row>
     <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
@@ -6836,10 +6841,10 @@
       <c r="E244" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G244" s="27"/>
-      <c r="H244" s="27"/>
-      <c r="I244" s="27"/>
-      <c r="J244" s="27"/>
+      <c r="G244" s="18"/>
+      <c r="H244" s="18"/>
+      <c r="I244" s="18"/>
+      <c r="J244" s="18"/>
     </row>
     <row r="245" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
@@ -6851,10 +6856,10 @@
       <c r="E245" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G245" s="27"/>
-      <c r="H245" s="27"/>
-      <c r="I245" s="27"/>
-      <c r="J245" s="27"/>
+      <c r="G245" s="18"/>
+      <c r="H245" s="18"/>
+      <c r="I245" s="18"/>
+      <c r="J245" s="18"/>
     </row>
     <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
@@ -6866,10 +6871,10 @@
       <c r="E246" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G246" s="27"/>
-      <c r="H246" s="27"/>
-      <c r="I246" s="27"/>
-      <c r="J246" s="27"/>
+      <c r="G246" s="18"/>
+      <c r="H246" s="18"/>
+      <c r="I246" s="18"/>
+      <c r="J246" s="18"/>
     </row>
     <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
@@ -6881,10 +6886,10 @@
       <c r="E247" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G247" s="27"/>
-      <c r="H247" s="27"/>
-      <c r="I247" s="27"/>
-      <c r="J247" s="27"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="18"/>
+      <c r="I247" s="18"/>
+      <c r="J247" s="18"/>
     </row>
     <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
@@ -6896,10 +6901,10 @@
       <c r="E248" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G248" s="27"/>
-      <c r="H248" s="27"/>
-      <c r="I248" s="27"/>
-      <c r="J248" s="27"/>
+      <c r="G248" s="18"/>
+      <c r="H248" s="18"/>
+      <c r="I248" s="18"/>
+      <c r="J248" s="18"/>
     </row>
     <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
@@ -6911,10 +6916,10 @@
       <c r="E249" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G249" s="27"/>
-      <c r="H249" s="27"/>
-      <c r="I249" s="27"/>
-      <c r="J249" s="27"/>
+      <c r="G249" s="18"/>
+      <c r="H249" s="18"/>
+      <c r="I249" s="18"/>
+      <c r="J249" s="18"/>
     </row>
     <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
@@ -6926,10 +6931,10 @@
       <c r="E250" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G250" s="27"/>
-      <c r="H250" s="27"/>
-      <c r="I250" s="27"/>
-      <c r="J250" s="27"/>
+      <c r="G250" s="18"/>
+      <c r="H250" s="18"/>
+      <c r="I250" s="18"/>
+      <c r="J250" s="18"/>
     </row>
     <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
@@ -6941,10 +6946,10 @@
       <c r="E251" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G251" s="27"/>
-      <c r="H251" s="27"/>
-      <c r="I251" s="27"/>
-      <c r="J251" s="27"/>
+      <c r="G251" s="18"/>
+      <c r="H251" s="18"/>
+      <c r="I251" s="18"/>
+      <c r="J251" s="18"/>
     </row>
     <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -6956,10 +6961,10 @@
       <c r="E252" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G252" s="27"/>
-      <c r="H252" s="27"/>
-      <c r="I252" s="27"/>
-      <c r="J252" s="27"/>
+      <c r="G252" s="18"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="18"/>
+      <c r="J252" s="18"/>
     </row>
     <row r="253" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
@@ -6970,11 +6975,11 @@
       <c r="D253" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E253" s="41"/>
-      <c r="G253" s="27"/>
-      <c r="H253" s="27"/>
-      <c r="I253" s="27"/>
-      <c r="J253" s="27"/>
+      <c r="E253" s="25"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="18"/>
+      <c r="I253" s="18"/>
+      <c r="J253" s="18"/>
     </row>
     <row r="254" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
@@ -6986,10 +6991,10 @@
       <c r="E254" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G254" s="27"/>
-      <c r="H254" s="27"/>
-      <c r="I254" s="27"/>
-      <c r="J254" s="27"/>
+      <c r="G254" s="18"/>
+      <c r="H254" s="18"/>
+      <c r="I254" s="18"/>
+      <c r="J254" s="18"/>
     </row>
     <row r="255" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
@@ -7001,10 +7006,10 @@
       <c r="E255" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G255" s="27"/>
-      <c r="H255" s="27"/>
-      <c r="I255" s="27"/>
-      <c r="J255" s="27"/>
+      <c r="G255" s="18"/>
+      <c r="H255" s="18"/>
+      <c r="I255" s="18"/>
+      <c r="J255" s="18"/>
     </row>
     <row r="256" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
@@ -7016,10 +7021,10 @@
       <c r="E256" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G256" s="27"/>
-      <c r="H256" s="27"/>
-      <c r="I256" s="27"/>
-      <c r="J256" s="27"/>
+      <c r="G256" s="18"/>
+      <c r="H256" s="18"/>
+      <c r="I256" s="18"/>
+      <c r="J256" s="18"/>
     </row>
     <row r="257" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
@@ -7030,11 +7035,11 @@
       <c r="D257" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E257" s="41"/>
-      <c r="G257" s="27"/>
-      <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="27"/>
+      <c r="E257" s="25"/>
+      <c r="G257" s="18"/>
+      <c r="H257" s="18"/>
+      <c r="I257" s="18"/>
+      <c r="J257" s="18"/>
     </row>
     <row r="258" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
@@ -7046,10 +7051,10 @@
       <c r="E258" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G258" s="27"/>
-      <c r="H258" s="27"/>
-      <c r="I258" s="27"/>
-      <c r="J258" s="27"/>
+      <c r="G258" s="18"/>
+      <c r="H258" s="18"/>
+      <c r="I258" s="18"/>
+      <c r="J258" s="18"/>
     </row>
     <row r="259" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
@@ -7061,10 +7066,10 @@
       <c r="E259" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G259" s="27"/>
-      <c r="H259" s="27"/>
-      <c r="I259" s="27"/>
-      <c r="J259" s="27"/>
+      <c r="G259" s="18"/>
+      <c r="H259" s="18"/>
+      <c r="I259" s="18"/>
+      <c r="J259" s="18"/>
     </row>
     <row r="260" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
@@ -7076,10 +7081,10 @@
       <c r="E260" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G260" s="27"/>
-      <c r="H260" s="27"/>
-      <c r="I260" s="27"/>
-      <c r="J260" s="27"/>
+      <c r="G260" s="18"/>
+      <c r="H260" s="18"/>
+      <c r="I260" s="18"/>
+      <c r="J260" s="18"/>
     </row>
     <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
@@ -7091,10 +7096,10 @@
       <c r="E261" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G261" s="27"/>
-      <c r="H261" s="27"/>
-      <c r="I261" s="27"/>
-      <c r="J261" s="27"/>
+      <c r="G261" s="18"/>
+      <c r="H261" s="18"/>
+      <c r="I261" s="18"/>
+      <c r="J261" s="18"/>
     </row>
     <row r="262" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
@@ -7105,11 +7110,11 @@
         <v>32</v>
       </c>
       <c r="D262" s="4"/>
-      <c r="E262" s="41"/>
-      <c r="G262" s="27"/>
-      <c r="H262" s="27"/>
-      <c r="I262" s="27"/>
-      <c r="J262" s="27"/>
+      <c r="E262" s="25"/>
+      <c r="G262" s="18"/>
+      <c r="H262" s="18"/>
+      <c r="I262" s="18"/>
+      <c r="J262" s="18"/>
     </row>
     <row r="263" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
@@ -7120,11 +7125,11 @@
         <v>33</v>
       </c>
       <c r="D263" s="4"/>
-      <c r="E263" s="41"/>
-      <c r="G263" s="27"/>
-      <c r="H263" s="27"/>
-      <c r="I263" s="27"/>
-      <c r="J263" s="27"/>
+      <c r="E263" s="25"/>
+      <c r="G263" s="18"/>
+      <c r="H263" s="18"/>
+      <c r="I263" s="18"/>
+      <c r="J263" s="18"/>
     </row>
     <row r="264" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
@@ -7135,11 +7140,11 @@
         <v>34</v>
       </c>
       <c r="D264" s="4"/>
-      <c r="E264" s="41"/>
-      <c r="G264" s="27"/>
-      <c r="H264" s="27"/>
-      <c r="I264" s="27"/>
-      <c r="J264" s="27"/>
+      <c r="E264" s="25"/>
+      <c r="G264" s="18"/>
+      <c r="H264" s="18"/>
+      <c r="I264" s="18"/>
+      <c r="J264" s="18"/>
     </row>
     <row r="265" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
@@ -7150,11 +7155,11 @@
         <v>31</v>
       </c>
       <c r="D265" s="4"/>
-      <c r="E265" s="41"/>
-      <c r="G265" s="27"/>
-      <c r="H265" s="27"/>
-      <c r="I265" s="27"/>
-      <c r="J265" s="27"/>
+      <c r="E265" s="25"/>
+      <c r="G265" s="18"/>
+      <c r="H265" s="18"/>
+      <c r="I265" s="18"/>
+      <c r="J265" s="18"/>
     </row>
     <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
@@ -7165,11 +7170,11 @@
         <v>35</v>
       </c>
       <c r="D266" s="4"/>
-      <c r="E266" s="41"/>
-      <c r="G266" s="27"/>
-      <c r="H266" s="27"/>
-      <c r="I266" s="27"/>
-      <c r="J266" s="27"/>
+      <c r="E266" s="25"/>
+      <c r="G266" s="18"/>
+      <c r="H266" s="18"/>
+      <c r="I266" s="18"/>
+      <c r="J266" s="18"/>
     </row>
     <row r="267" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -7180,11 +7185,11 @@
         <v>33</v>
       </c>
       <c r="D267" s="4"/>
-      <c r="E267" s="41"/>
-      <c r="G267" s="27"/>
-      <c r="H267" s="27"/>
-      <c r="I267" s="27"/>
-      <c r="J267" s="27"/>
+      <c r="E267" s="25"/>
+      <c r="G267" s="18"/>
+      <c r="H267" s="18"/>
+      <c r="I267" s="18"/>
+      <c r="J267" s="18"/>
     </row>
     <row r="268" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
@@ -7195,35 +7200,35 @@
         <v>34</v>
       </c>
       <c r="D268" s="4"/>
-      <c r="E268" s="41"/>
-      <c r="G268" s="27"/>
-      <c r="H268" s="27"/>
-      <c r="I268" s="27"/>
-      <c r="J268" s="27"/>
+      <c r="E268" s="25"/>
+      <c r="G268" s="18"/>
+      <c r="H268" s="18"/>
+      <c r="I268" s="18"/>
+      <c r="J268" s="18"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="24" t="s">
+      <c r="A269" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B269" s="24"/>
-      <c r="C269" s="24"/>
-      <c r="D269" s="24"/>
-      <c r="E269" s="24"/>
-      <c r="G269" s="27"/>
-      <c r="H269" s="27"/>
-      <c r="I269" s="27"/>
-      <c r="J269" s="27"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="34"/>
+      <c r="D269" s="34"/>
+      <c r="E269" s="34"/>
+      <c r="G269" s="18"/>
+      <c r="H269" s="18"/>
+      <c r="I269" s="18"/>
+      <c r="J269" s="18"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="24"/>
-      <c r="B270" s="24"/>
-      <c r="C270" s="24"/>
-      <c r="D270" s="24"/>
-      <c r="E270" s="24"/>
-      <c r="G270" s="27"/>
-      <c r="H270" s="27"/>
-      <c r="I270" s="27"/>
-      <c r="J270" s="27"/>
+      <c r="A270" s="34"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
+      <c r="G270" s="18"/>
+      <c r="H270" s="18"/>
+      <c r="I270" s="18"/>
+      <c r="J270" s="18"/>
     </row>
     <row r="271" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
@@ -7234,11 +7239,11 @@
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
-      <c r="E271" s="41"/>
-      <c r="G271" s="27"/>
-      <c r="H271" s="27"/>
-      <c r="I271" s="27"/>
-      <c r="J271" s="27"/>
+      <c r="E271" s="25"/>
+      <c r="G271" s="18"/>
+      <c r="H271" s="18"/>
+      <c r="I271" s="18"/>
+      <c r="J271" s="18"/>
     </row>
     <row r="272" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
@@ -7249,11 +7254,11 @@
         <v>156</v>
       </c>
       <c r="D272" s="4"/>
-      <c r="E272" s="41"/>
-      <c r="G272" s="27"/>
-      <c r="H272" s="27"/>
-      <c r="I272" s="27"/>
-      <c r="J272" s="27"/>
+      <c r="E272" s="25"/>
+      <c r="G272" s="18"/>
+      <c r="H272" s="18"/>
+      <c r="I272" s="18"/>
+      <c r="J272" s="18"/>
     </row>
     <row r="273" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
@@ -7264,11 +7269,11 @@
       <c r="D273" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E273" s="41"/>
-      <c r="G273" s="27"/>
-      <c r="H273" s="27"/>
-      <c r="I273" s="27"/>
-      <c r="J273" s="27"/>
+      <c r="E273" s="25"/>
+      <c r="G273" s="18"/>
+      <c r="H273" s="18"/>
+      <c r="I273" s="18"/>
+      <c r="J273" s="18"/>
     </row>
     <row r="274" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
@@ -7279,11 +7284,11 @@
       <c r="D274" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E274" s="41"/>
-      <c r="G274" s="27"/>
-      <c r="H274" s="27"/>
-      <c r="I274" s="27"/>
-      <c r="J274" s="27"/>
+      <c r="E274" s="25"/>
+      <c r="G274" s="18"/>
+      <c r="H274" s="18"/>
+      <c r="I274" s="18"/>
+      <c r="J274" s="18"/>
     </row>
     <row r="275" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
@@ -7294,11 +7299,11 @@
       <c r="D275" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E275" s="41"/>
-      <c r="G275" s="27"/>
-      <c r="H275" s="27"/>
-      <c r="I275" s="27"/>
-      <c r="J275" s="27"/>
+      <c r="E275" s="25"/>
+      <c r="G275" s="18"/>
+      <c r="H275" s="18"/>
+      <c r="I275" s="18"/>
+      <c r="J275" s="18"/>
     </row>
     <row r="276" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
@@ -7309,11 +7314,11 @@
         <v>152</v>
       </c>
       <c r="D276" s="4"/>
-      <c r="E276" s="41"/>
-      <c r="G276" s="27"/>
-      <c r="H276" s="27"/>
-      <c r="I276" s="27"/>
-      <c r="J276" s="27"/>
+      <c r="E276" s="25"/>
+      <c r="G276" s="18"/>
+      <c r="H276" s="18"/>
+      <c r="I276" s="18"/>
+      <c r="J276" s="18"/>
     </row>
     <row r="277" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
@@ -7324,11 +7329,11 @@
       <c r="D277" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E277" s="41"/>
-      <c r="G277" s="27"/>
-      <c r="H277" s="27"/>
-      <c r="I277" s="27"/>
-      <c r="J277" s="27"/>
+      <c r="E277" s="25"/>
+      <c r="G277" s="18"/>
+      <c r="H277" s="18"/>
+      <c r="I277" s="18"/>
+      <c r="J277" s="18"/>
     </row>
     <row r="278" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
@@ -7340,10 +7345,10 @@
       <c r="E278" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G278" s="27"/>
-      <c r="H278" s="27"/>
-      <c r="I278" s="27"/>
-      <c r="J278" s="27"/>
+      <c r="G278" s="18"/>
+      <c r="H278" s="18"/>
+      <c r="I278" s="18"/>
+      <c r="J278" s="18"/>
     </row>
     <row r="279" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -7355,10 +7360,10 @@
       <c r="E279" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G279" s="27"/>
-      <c r="H279" s="27"/>
-      <c r="I279" s="27"/>
-      <c r="J279" s="27"/>
+      <c r="G279" s="18"/>
+      <c r="H279" s="18"/>
+      <c r="I279" s="18"/>
+      <c r="J279" s="18"/>
     </row>
     <row r="280" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
@@ -7370,10 +7375,10 @@
       <c r="E280" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G280" s="27"/>
-      <c r="H280" s="27"/>
-      <c r="I280" s="27"/>
-      <c r="J280" s="27"/>
+      <c r="G280" s="18"/>
+      <c r="H280" s="18"/>
+      <c r="I280" s="18"/>
+      <c r="J280" s="18"/>
     </row>
     <row r="281" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
@@ -7385,10 +7390,10 @@
       <c r="E281" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G281" s="27"/>
-      <c r="H281" s="27"/>
-      <c r="I281" s="27"/>
-      <c r="J281" s="27"/>
+      <c r="G281" s="18"/>
+      <c r="H281" s="18"/>
+      <c r="I281" s="18"/>
+      <c r="J281" s="18"/>
     </row>
     <row r="282" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
@@ -7400,10 +7405,10 @@
       <c r="E282" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G282" s="27"/>
-      <c r="H282" s="27"/>
-      <c r="I282" s="27"/>
-      <c r="J282" s="27"/>
+      <c r="G282" s="18"/>
+      <c r="H282" s="18"/>
+      <c r="I282" s="18"/>
+      <c r="J282" s="18"/>
     </row>
     <row r="283" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
@@ -7415,10 +7420,10 @@
       <c r="E283" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G283" s="27"/>
-      <c r="H283" s="27"/>
-      <c r="I283" s="27"/>
-      <c r="J283" s="27"/>
+      <c r="G283" s="18"/>
+      <c r="H283" s="18"/>
+      <c r="I283" s="18"/>
+      <c r="J283" s="18"/>
     </row>
     <row r="284" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
@@ -7429,11 +7434,11 @@
       <c r="D284" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E284" s="41"/>
-      <c r="G284" s="27"/>
-      <c r="H284" s="27"/>
-      <c r="I284" s="27"/>
-      <c r="J284" s="27"/>
+      <c r="E284" s="25"/>
+      <c r="G284" s="18"/>
+      <c r="H284" s="18"/>
+      <c r="I284" s="18"/>
+      <c r="J284" s="18"/>
     </row>
     <row r="285" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
@@ -7445,10 +7450,10 @@
       <c r="E285" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G285" s="27"/>
-      <c r="H285" s="27"/>
-      <c r="I285" s="27"/>
-      <c r="J285" s="27"/>
+      <c r="G285" s="18"/>
+      <c r="H285" s="18"/>
+      <c r="I285" s="18"/>
+      <c r="J285" s="18"/>
     </row>
     <row r="286" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -7460,10 +7465,10 @@
       <c r="E286" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G286" s="27"/>
-      <c r="H286" s="27"/>
-      <c r="I286" s="27"/>
-      <c r="J286" s="27"/>
+      <c r="G286" s="18"/>
+      <c r="H286" s="18"/>
+      <c r="I286" s="18"/>
+      <c r="J286" s="18"/>
     </row>
     <row r="287" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
@@ -7475,10 +7480,10 @@
       <c r="E287" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G287" s="27"/>
-      <c r="H287" s="27"/>
-      <c r="I287" s="27"/>
-      <c r="J287" s="27"/>
+      <c r="G287" s="18"/>
+      <c r="H287" s="18"/>
+      <c r="I287" s="18"/>
+      <c r="J287" s="18"/>
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
@@ -7490,10 +7495,10 @@
       <c r="E288" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G288" s="27"/>
-      <c r="H288" s="27"/>
-      <c r="I288" s="27"/>
-      <c r="J288" s="27"/>
+      <c r="G288" s="18"/>
+      <c r="H288" s="18"/>
+      <c r="I288" s="18"/>
+      <c r="J288" s="18"/>
     </row>
     <row r="289" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
@@ -7505,10 +7510,10 @@
       <c r="E289" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G289" s="27"/>
-      <c r="H289" s="27"/>
-      <c r="I289" s="27"/>
-      <c r="J289" s="27"/>
+      <c r="G289" s="18"/>
+      <c r="H289" s="18"/>
+      <c r="I289" s="18"/>
+      <c r="J289" s="18"/>
     </row>
     <row r="290" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
@@ -7520,10 +7525,10 @@
       <c r="E290" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G290" s="27"/>
-      <c r="H290" s="27"/>
-      <c r="I290" s="27"/>
-      <c r="J290" s="27"/>
+      <c r="G290" s="18"/>
+      <c r="H290" s="18"/>
+      <c r="I290" s="18"/>
+      <c r="J290" s="18"/>
     </row>
     <row r="291" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -7534,11 +7539,11 @@
       <c r="D291" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E291" s="41"/>
-      <c r="G291" s="27"/>
-      <c r="H291" s="27"/>
-      <c r="I291" s="27"/>
-      <c r="J291" s="27"/>
+      <c r="E291" s="25"/>
+      <c r="G291" s="18"/>
+      <c r="H291" s="18"/>
+      <c r="I291" s="18"/>
+      <c r="J291" s="18"/>
     </row>
     <row r="292" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
@@ -7550,10 +7555,10 @@
       <c r="E292" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G292" s="27"/>
-      <c r="H292" s="27"/>
-      <c r="I292" s="27"/>
-      <c r="J292" s="27"/>
+      <c r="G292" s="18"/>
+      <c r="H292" s="18"/>
+      <c r="I292" s="18"/>
+      <c r="J292" s="18"/>
     </row>
     <row r="293" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
@@ -7565,10 +7570,10 @@
       <c r="E293" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G293" s="27"/>
-      <c r="H293" s="27"/>
-      <c r="I293" s="27"/>
-      <c r="J293" s="27"/>
+      <c r="G293" s="18"/>
+      <c r="H293" s="18"/>
+      <c r="I293" s="18"/>
+      <c r="J293" s="18"/>
     </row>
     <row r="294" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
@@ -7580,10 +7585,10 @@
       <c r="E294" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G294" s="27"/>
-      <c r="H294" s="27"/>
-      <c r="I294" s="27"/>
-      <c r="J294" s="27"/>
+      <c r="G294" s="18"/>
+      <c r="H294" s="18"/>
+      <c r="I294" s="18"/>
+      <c r="J294" s="18"/>
     </row>
     <row r="295" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
@@ -7595,10 +7600,10 @@
       <c r="E295" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G295" s="27"/>
-      <c r="H295" s="27"/>
-      <c r="I295" s="27"/>
-      <c r="J295" s="27"/>
+      <c r="G295" s="18"/>
+      <c r="H295" s="18"/>
+      <c r="I295" s="18"/>
+      <c r="J295" s="18"/>
     </row>
     <row r="296" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
@@ -7610,10 +7615,10 @@
       <c r="E296" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G296" s="27"/>
-      <c r="H296" s="27"/>
-      <c r="I296" s="27"/>
-      <c r="J296" s="27"/>
+      <c r="G296" s="18"/>
+      <c r="H296" s="18"/>
+      <c r="I296" s="18"/>
+      <c r="J296" s="18"/>
     </row>
     <row r="297" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
@@ -7624,11 +7629,11 @@
         <v>151</v>
       </c>
       <c r="D297" s="4"/>
-      <c r="E297" s="41"/>
-      <c r="G297" s="27"/>
-      <c r="H297" s="27"/>
-      <c r="I297" s="27"/>
-      <c r="J297" s="27"/>
+      <c r="E297" s="25"/>
+      <c r="G297" s="18"/>
+      <c r="H297" s="18"/>
+      <c r="I297" s="18"/>
+      <c r="J297" s="18"/>
     </row>
     <row r="298" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
@@ -7639,11 +7644,11 @@
       <c r="D298" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E298" s="41"/>
-      <c r="G298" s="27"/>
-      <c r="H298" s="27"/>
-      <c r="I298" s="27"/>
-      <c r="J298" s="27"/>
+      <c r="E298" s="25"/>
+      <c r="G298" s="18"/>
+      <c r="H298" s="18"/>
+      <c r="I298" s="18"/>
+      <c r="J298" s="18"/>
     </row>
     <row r="299" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
@@ -7654,11 +7659,11 @@
       <c r="D299" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E299" s="41"/>
-      <c r="G299" s="27"/>
-      <c r="H299" s="27"/>
-      <c r="I299" s="27"/>
-      <c r="J299" s="27"/>
+      <c r="E299" s="25"/>
+      <c r="G299" s="18"/>
+      <c r="H299" s="18"/>
+      <c r="I299" s="18"/>
+      <c r="J299" s="18"/>
     </row>
     <row r="300" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
@@ -7669,11 +7674,11 @@
         <v>24</v>
       </c>
       <c r="D300" s="4"/>
-      <c r="E300" s="41"/>
-      <c r="G300" s="27"/>
-      <c r="H300" s="27"/>
-      <c r="I300" s="27"/>
-      <c r="J300" s="27"/>
+      <c r="E300" s="25"/>
+      <c r="G300" s="18"/>
+      <c r="H300" s="18"/>
+      <c r="I300" s="18"/>
+      <c r="J300" s="18"/>
     </row>
     <row r="301" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
@@ -7684,11 +7689,11 @@
       <c r="D301" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E301" s="41"/>
-      <c r="G301" s="27"/>
-      <c r="H301" s="27"/>
-      <c r="I301" s="27"/>
-      <c r="J301" s="27"/>
+      <c r="E301" s="25"/>
+      <c r="G301" s="18"/>
+      <c r="H301" s="18"/>
+      <c r="I301" s="18"/>
+      <c r="J301" s="18"/>
     </row>
     <row r="302" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
@@ -7700,10 +7705,10 @@
       <c r="E302" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G302" s="27"/>
-      <c r="H302" s="27"/>
-      <c r="I302" s="27"/>
-      <c r="J302" s="27"/>
+      <c r="G302" s="18"/>
+      <c r="H302" s="18"/>
+      <c r="I302" s="18"/>
+      <c r="J302" s="18"/>
     </row>
     <row r="303" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
@@ -7715,10 +7720,10 @@
       <c r="E303" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G303" s="27"/>
-      <c r="H303" s="27"/>
-      <c r="I303" s="27"/>
-      <c r="J303" s="27"/>
+      <c r="G303" s="18"/>
+      <c r="H303" s="18"/>
+      <c r="I303" s="18"/>
+      <c r="J303" s="18"/>
     </row>
     <row r="304" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
@@ -7730,10 +7735,10 @@
       <c r="E304" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G304" s="27"/>
-      <c r="H304" s="27"/>
-      <c r="I304" s="27"/>
-      <c r="J304" s="27"/>
+      <c r="G304" s="18"/>
+      <c r="H304" s="18"/>
+      <c r="I304" s="18"/>
+      <c r="J304" s="18"/>
     </row>
     <row r="305" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
@@ -7745,10 +7750,10 @@
       <c r="E305" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G305" s="27"/>
-      <c r="H305" s="27"/>
-      <c r="I305" s="27"/>
-      <c r="J305" s="27"/>
+      <c r="G305" s="18"/>
+      <c r="H305" s="18"/>
+      <c r="I305" s="18"/>
+      <c r="J305" s="18"/>
     </row>
     <row r="306" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
@@ -7760,10 +7765,10 @@
       <c r="E306" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G306" s="27"/>
-      <c r="H306" s="27"/>
-      <c r="I306" s="27"/>
-      <c r="J306" s="27"/>
+      <c r="G306" s="18"/>
+      <c r="H306" s="18"/>
+      <c r="I306" s="18"/>
+      <c r="J306" s="18"/>
     </row>
     <row r="307" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
@@ -7775,10 +7780,10 @@
       <c r="E307" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G307" s="27"/>
-      <c r="H307" s="27"/>
-      <c r="I307" s="27"/>
-      <c r="J307" s="27"/>
+      <c r="G307" s="18"/>
+      <c r="H307" s="18"/>
+      <c r="I307" s="18"/>
+      <c r="J307" s="18"/>
     </row>
     <row r="308" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
@@ -7789,11 +7794,11 @@
       <c r="D308" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E308" s="41"/>
-      <c r="G308" s="27"/>
-      <c r="H308" s="27"/>
-      <c r="I308" s="27"/>
-      <c r="J308" s="27"/>
+      <c r="E308" s="25"/>
+      <c r="G308" s="18"/>
+      <c r="H308" s="18"/>
+      <c r="I308" s="18"/>
+      <c r="J308" s="18"/>
     </row>
     <row r="309" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
@@ -7805,10 +7810,10 @@
       <c r="E309" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G309" s="27"/>
-      <c r="H309" s="27"/>
-      <c r="I309" s="27"/>
-      <c r="J309" s="27"/>
+      <c r="G309" s="18"/>
+      <c r="H309" s="18"/>
+      <c r="I309" s="18"/>
+      <c r="J309" s="18"/>
     </row>
     <row r="310" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
@@ -7820,10 +7825,10 @@
       <c r="E310" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G310" s="27"/>
-      <c r="H310" s="27"/>
-      <c r="I310" s="27"/>
-      <c r="J310" s="27"/>
+      <c r="G310" s="18"/>
+      <c r="H310" s="18"/>
+      <c r="I310" s="18"/>
+      <c r="J310" s="18"/>
     </row>
     <row r="311" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
@@ -7835,10 +7840,10 @@
       <c r="E311" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G311" s="27"/>
-      <c r="H311" s="27"/>
-      <c r="I311" s="27"/>
-      <c r="J311" s="27"/>
+      <c r="G311" s="18"/>
+      <c r="H311" s="18"/>
+      <c r="I311" s="18"/>
+      <c r="J311" s="18"/>
     </row>
     <row r="312" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
@@ -7850,10 +7855,10 @@
       <c r="E312" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G312" s="27"/>
-      <c r="H312" s="27"/>
-      <c r="I312" s="27"/>
-      <c r="J312" s="27"/>
+      <c r="G312" s="18"/>
+      <c r="H312" s="18"/>
+      <c r="I312" s="18"/>
+      <c r="J312" s="18"/>
     </row>
     <row r="313" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
@@ -7865,10 +7870,10 @@
       <c r="E313" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G313" s="27"/>
-      <c r="H313" s="27"/>
-      <c r="I313" s="27"/>
-      <c r="J313" s="27"/>
+      <c r="G313" s="18"/>
+      <c r="H313" s="18"/>
+      <c r="I313" s="18"/>
+      <c r="J313" s="18"/>
     </row>
     <row r="314" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
@@ -7880,10 +7885,10 @@
       <c r="E314" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G314" s="27"/>
-      <c r="H314" s="27"/>
-      <c r="I314" s="27"/>
-      <c r="J314" s="27"/>
+      <c r="G314" s="18"/>
+      <c r="H314" s="18"/>
+      <c r="I314" s="18"/>
+      <c r="J314" s="18"/>
     </row>
     <row r="315" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
@@ -7894,11 +7899,11 @@
       <c r="D315" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E315" s="41"/>
-      <c r="G315" s="27"/>
-      <c r="H315" s="27"/>
-      <c r="I315" s="27"/>
-      <c r="J315" s="27"/>
+      <c r="E315" s="25"/>
+      <c r="G315" s="18"/>
+      <c r="H315" s="18"/>
+      <c r="I315" s="18"/>
+      <c r="J315" s="18"/>
     </row>
     <row r="316" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
@@ -7910,10 +7915,10 @@
       <c r="E316" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G316" s="27"/>
-      <c r="H316" s="27"/>
-      <c r="I316" s="27"/>
-      <c r="J316" s="27"/>
+      <c r="G316" s="18"/>
+      <c r="H316" s="18"/>
+      <c r="I316" s="18"/>
+      <c r="J316" s="18"/>
     </row>
     <row r="317" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
@@ -7925,10 +7930,10 @@
       <c r="E317" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G317" s="27"/>
-      <c r="H317" s="27"/>
-      <c r="I317" s="27"/>
-      <c r="J317" s="27"/>
+      <c r="G317" s="18"/>
+      <c r="H317" s="18"/>
+      <c r="I317" s="18"/>
+      <c r="J317" s="18"/>
     </row>
     <row r="318" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
@@ -7940,10 +7945,10 @@
       <c r="E318" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G318" s="27"/>
-      <c r="H318" s="27"/>
-      <c r="I318" s="27"/>
-      <c r="J318" s="27"/>
+      <c r="G318" s="18"/>
+      <c r="H318" s="18"/>
+      <c r="I318" s="18"/>
+      <c r="J318" s="18"/>
     </row>
     <row r="319" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
@@ -7955,10 +7960,10 @@
       <c r="E319" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G319" s="27"/>
-      <c r="H319" s="27"/>
-      <c r="I319" s="27"/>
-      <c r="J319" s="27"/>
+      <c r="G319" s="18"/>
+      <c r="H319" s="18"/>
+      <c r="I319" s="18"/>
+      <c r="J319" s="18"/>
     </row>
     <row r="320" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
@@ -7970,10 +7975,10 @@
       <c r="E320" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G320" s="27"/>
-      <c r="H320" s="27"/>
-      <c r="I320" s="27"/>
-      <c r="J320" s="27"/>
+      <c r="G320" s="18"/>
+      <c r="H320" s="18"/>
+      <c r="I320" s="18"/>
+      <c r="J320" s="18"/>
     </row>
     <row r="321" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
@@ -7984,13 +7989,13 @@
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
-      <c r="E321" s="41"/>
-      <c r="G321" s="27">
+      <c r="E321" s="25"/>
+      <c r="G321" s="18">
         <v>50</v>
       </c>
-      <c r="H321" s="27"/>
-      <c r="I321" s="27"/>
-      <c r="J321" s="27"/>
+      <c r="H321" s="18"/>
+      <c r="I321" s="18"/>
+      <c r="J321" s="18"/>
     </row>
     <row r="322" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
@@ -8000,12 +8005,12 @@
       <c r="C322" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D322" s="41"/>
-      <c r="E322" s="41"/>
-      <c r="G322" s="27"/>
-      <c r="H322" s="27"/>
-      <c r="I322" s="27"/>
-      <c r="J322" s="27"/>
+      <c r="D322" s="25"/>
+      <c r="E322" s="25"/>
+      <c r="G322" s="18"/>
+      <c r="H322" s="18"/>
+      <c r="I322" s="18"/>
+      <c r="J322" s="18"/>
     </row>
     <row r="323" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
@@ -8016,11 +8021,11 @@
       <c r="D323" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E323" s="41"/>
-      <c r="G323" s="27"/>
-      <c r="H323" s="27"/>
-      <c r="I323" s="27"/>
-      <c r="J323" s="27"/>
+      <c r="E323" s="25"/>
+      <c r="G323" s="18"/>
+      <c r="H323" s="18"/>
+      <c r="I323" s="18"/>
+      <c r="J323" s="18"/>
     </row>
     <row r="324" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
@@ -8031,11 +8036,11 @@
       <c r="D324" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E324" s="41"/>
-      <c r="G324" s="27"/>
-      <c r="H324" s="27"/>
-      <c r="I324" s="27"/>
-      <c r="J324" s="27"/>
+      <c r="E324" s="25"/>
+      <c r="G324" s="18"/>
+      <c r="H324" s="18"/>
+      <c r="I324" s="18"/>
+      <c r="J324" s="18"/>
     </row>
     <row r="325" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
@@ -8046,11 +8051,11 @@
       <c r="D325" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E325" s="41"/>
-      <c r="G325" s="27"/>
-      <c r="H325" s="27"/>
-      <c r="I325" s="27"/>
-      <c r="J325" s="27"/>
+      <c r="E325" s="25"/>
+      <c r="G325" s="18"/>
+      <c r="H325" s="18"/>
+      <c r="I325" s="18"/>
+      <c r="J325" s="18"/>
     </row>
     <row r="326" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
@@ -8061,11 +8066,11 @@
       <c r="D326" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E326" s="41"/>
-      <c r="G326" s="27"/>
-      <c r="H326" s="27"/>
-      <c r="I326" s="27"/>
-      <c r="J326" s="27"/>
+      <c r="E326" s="25"/>
+      <c r="G326" s="18"/>
+      <c r="H326" s="18"/>
+      <c r="I326" s="18"/>
+      <c r="J326" s="18"/>
     </row>
     <row r="327" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
@@ -8076,11 +8081,11 @@
       <c r="D327" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E327" s="41"/>
-      <c r="G327" s="27"/>
-      <c r="H327" s="27"/>
-      <c r="I327" s="27"/>
-      <c r="J327" s="27"/>
+      <c r="E327" s="25"/>
+      <c r="G327" s="18"/>
+      <c r="H327" s="18"/>
+      <c r="I327" s="18"/>
+      <c r="J327" s="18"/>
     </row>
     <row r="328" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
@@ -8091,11 +8096,11 @@
       <c r="D328" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E328" s="41"/>
-      <c r="G328" s="27"/>
-      <c r="H328" s="27"/>
-      <c r="I328" s="27"/>
-      <c r="J328" s="27"/>
+      <c r="E328" s="25"/>
+      <c r="G328" s="18"/>
+      <c r="H328" s="18"/>
+      <c r="I328" s="18"/>
+      <c r="J328" s="18"/>
     </row>
     <row r="329" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
@@ -8105,12 +8110,12 @@
       <c r="C329" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D329" s="41"/>
-      <c r="E329" s="41"/>
-      <c r="G329" s="27"/>
-      <c r="H329" s="27"/>
-      <c r="I329" s="27"/>
-      <c r="J329" s="27"/>
+      <c r="D329" s="25"/>
+      <c r="E329" s="25"/>
+      <c r="G329" s="18"/>
+      <c r="H329" s="18"/>
+      <c r="I329" s="18"/>
+      <c r="J329" s="18"/>
     </row>
     <row r="330" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
@@ -8121,11 +8126,11 @@
       <c r="D330" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E330" s="41"/>
-      <c r="G330" s="27"/>
-      <c r="H330" s="27"/>
-      <c r="I330" s="27"/>
-      <c r="J330" s="27"/>
+      <c r="E330" s="25"/>
+      <c r="G330" s="18"/>
+      <c r="H330" s="18"/>
+      <c r="I330" s="18"/>
+      <c r="J330" s="18"/>
     </row>
     <row r="331" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
@@ -8136,11 +8141,11 @@
       <c r="D331" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E331" s="41"/>
-      <c r="G331" s="27"/>
-      <c r="H331" s="27"/>
-      <c r="I331" s="27"/>
-      <c r="J331" s="27"/>
+      <c r="E331" s="25"/>
+      <c r="G331" s="18"/>
+      <c r="H331" s="18"/>
+      <c r="I331" s="18"/>
+      <c r="J331" s="18"/>
     </row>
     <row r="332" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
@@ -8151,11 +8156,11 @@
       <c r="D332" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E332" s="41"/>
-      <c r="G332" s="27"/>
-      <c r="H332" s="27"/>
-      <c r="I332" s="27"/>
-      <c r="J332" s="27"/>
+      <c r="E332" s="25"/>
+      <c r="G332" s="18"/>
+      <c r="H332" s="18"/>
+      <c r="I332" s="18"/>
+      <c r="J332" s="18"/>
     </row>
     <row r="333" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
@@ -8166,11 +8171,11 @@
       <c r="D333" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E333" s="41"/>
-      <c r="G333" s="27"/>
-      <c r="H333" s="27"/>
-      <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
+      <c r="E333" s="25"/>
+      <c r="G333" s="18"/>
+      <c r="H333" s="18"/>
+      <c r="I333" s="18"/>
+      <c r="J333" s="18"/>
     </row>
     <row r="334" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
@@ -8181,11 +8186,11 @@
       <c r="D334" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E334" s="41"/>
-      <c r="G334" s="27"/>
-      <c r="H334" s="27"/>
-      <c r="I334" s="27"/>
-      <c r="J334" s="27"/>
+      <c r="E334" s="25"/>
+      <c r="G334" s="18"/>
+      <c r="H334" s="18"/>
+      <c r="I334" s="18"/>
+      <c r="J334" s="18"/>
     </row>
     <row r="335" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
@@ -8196,11 +8201,11 @@
       <c r="D335" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E335" s="41"/>
-      <c r="G335" s="27"/>
-      <c r="H335" s="27"/>
-      <c r="I335" s="27"/>
-      <c r="J335" s="27"/>
+      <c r="E335" s="25"/>
+      <c r="G335" s="18"/>
+      <c r="H335" s="18"/>
+      <c r="I335" s="18"/>
+      <c r="J335" s="18"/>
     </row>
     <row r="336" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
@@ -8210,12 +8215,12 @@
       <c r="C336" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D336" s="41"/>
-      <c r="E336" s="41"/>
-      <c r="G336" s="27"/>
-      <c r="H336" s="27"/>
-      <c r="I336" s="27"/>
-      <c r="J336" s="27"/>
+      <c r="D336" s="25"/>
+      <c r="E336" s="25"/>
+      <c r="G336" s="18"/>
+      <c r="H336" s="18"/>
+      <c r="I336" s="18"/>
+      <c r="J336" s="18"/>
     </row>
     <row r="337" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
@@ -8226,11 +8231,11 @@
       <c r="D337" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E337" s="41"/>
-      <c r="G337" s="27"/>
-      <c r="H337" s="27"/>
-      <c r="I337" s="27"/>
-      <c r="J337" s="27"/>
+      <c r="E337" s="25"/>
+      <c r="G337" s="18"/>
+      <c r="H337" s="18"/>
+      <c r="I337" s="18"/>
+      <c r="J337" s="18"/>
     </row>
     <row r="338" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
@@ -8241,11 +8246,11 @@
       <c r="D338" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E338" s="41"/>
-      <c r="G338" s="27"/>
-      <c r="H338" s="27"/>
-      <c r="I338" s="27"/>
-      <c r="J338" s="27"/>
+      <c r="E338" s="25"/>
+      <c r="G338" s="18"/>
+      <c r="H338" s="18"/>
+      <c r="I338" s="18"/>
+      <c r="J338" s="18"/>
     </row>
     <row r="339" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
@@ -8256,11 +8261,11 @@
       <c r="D339" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E339" s="41"/>
-      <c r="G339" s="27"/>
-      <c r="H339" s="27"/>
-      <c r="I339" s="27"/>
-      <c r="J339" s="27"/>
+      <c r="E339" s="25"/>
+      <c r="G339" s="18"/>
+      <c r="H339" s="18"/>
+      <c r="I339" s="18"/>
+      <c r="J339" s="18"/>
     </row>
     <row r="340" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
@@ -8271,11 +8276,11 @@
       <c r="D340" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E340" s="41"/>
-      <c r="G340" s="27"/>
-      <c r="H340" s="27"/>
-      <c r="I340" s="27"/>
-      <c r="J340" s="27"/>
+      <c r="E340" s="25"/>
+      <c r="G340" s="18"/>
+      <c r="H340" s="18"/>
+      <c r="I340" s="18"/>
+      <c r="J340" s="18"/>
     </row>
     <row r="341" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
@@ -8286,11 +8291,11 @@
       <c r="D341" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E341" s="41"/>
-      <c r="G341" s="27"/>
-      <c r="H341" s="27"/>
-      <c r="I341" s="27"/>
-      <c r="J341" s="27"/>
+      <c r="E341" s="25"/>
+      <c r="G341" s="18"/>
+      <c r="H341" s="18"/>
+      <c r="I341" s="18"/>
+      <c r="J341" s="18"/>
     </row>
     <row r="342" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
@@ -8301,11 +8306,11 @@
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
-      <c r="E342" s="41"/>
-      <c r="G342" s="27"/>
-      <c r="H342" s="27"/>
-      <c r="I342" s="27"/>
-      <c r="J342" s="27"/>
+      <c r="E342" s="25"/>
+      <c r="G342" s="18"/>
+      <c r="H342" s="18"/>
+      <c r="I342" s="18"/>
+      <c r="J342" s="18"/>
     </row>
     <row r="343" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
@@ -8316,11 +8321,11 @@
         <v>157</v>
       </c>
       <c r="D343" s="4"/>
-      <c r="E343" s="41"/>
-      <c r="G343" s="27"/>
-      <c r="H343" s="27"/>
-      <c r="I343" s="27"/>
-      <c r="J343" s="27"/>
+      <c r="E343" s="25"/>
+      <c r="G343" s="18"/>
+      <c r="H343" s="18"/>
+      <c r="I343" s="18"/>
+      <c r="J343" s="18"/>
     </row>
     <row r="344" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
@@ -8331,11 +8336,11 @@
       <c r="D344" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E344" s="41"/>
-      <c r="G344" s="27"/>
-      <c r="H344" s="27"/>
-      <c r="I344" s="27"/>
-      <c r="J344" s="27"/>
+      <c r="E344" s="25"/>
+      <c r="G344" s="18"/>
+      <c r="H344" s="18"/>
+      <c r="I344" s="18"/>
+      <c r="J344" s="18"/>
     </row>
     <row r="345" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
@@ -8347,10 +8352,10 @@
       <c r="E345" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G345" s="27"/>
-      <c r="H345" s="27"/>
-      <c r="I345" s="27"/>
-      <c r="J345" s="27"/>
+      <c r="G345" s="18"/>
+      <c r="H345" s="18"/>
+      <c r="I345" s="18"/>
+      <c r="J345" s="18"/>
     </row>
     <row r="346" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
@@ -8362,10 +8367,10 @@
       <c r="E346" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G346" s="27"/>
-      <c r="H346" s="27"/>
-      <c r="I346" s="27"/>
-      <c r="J346" s="27"/>
+      <c r="G346" s="18"/>
+      <c r="H346" s="18"/>
+      <c r="I346" s="18"/>
+      <c r="J346" s="18"/>
     </row>
     <row r="347" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
@@ -8377,10 +8382,10 @@
       <c r="E347" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G347" s="27"/>
-      <c r="H347" s="27"/>
-      <c r="I347" s="27"/>
-      <c r="J347" s="27"/>
+      <c r="G347" s="18"/>
+      <c r="H347" s="18"/>
+      <c r="I347" s="18"/>
+      <c r="J347" s="18"/>
     </row>
     <row r="348" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
@@ -8392,10 +8397,10 @@
       <c r="E348" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G348" s="27"/>
-      <c r="H348" s="27"/>
-      <c r="I348" s="27"/>
-      <c r="J348" s="27"/>
+      <c r="G348" s="18"/>
+      <c r="H348" s="18"/>
+      <c r="I348" s="18"/>
+      <c r="J348" s="18"/>
     </row>
     <row r="349" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
@@ -8407,10 +8412,10 @@
       <c r="E349" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G349" s="27"/>
-      <c r="H349" s="27"/>
-      <c r="I349" s="27"/>
-      <c r="J349" s="27"/>
+      <c r="G349" s="18"/>
+      <c r="H349" s="18"/>
+      <c r="I349" s="18"/>
+      <c r="J349" s="18"/>
     </row>
     <row r="350" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
@@ -8422,10 +8427,10 @@
       <c r="E350" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G350" s="27"/>
-      <c r="H350" s="27"/>
-      <c r="I350" s="27"/>
-      <c r="J350" s="27"/>
+      <c r="G350" s="18"/>
+      <c r="H350" s="18"/>
+      <c r="I350" s="18"/>
+      <c r="J350" s="18"/>
     </row>
     <row r="351" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
@@ -8436,11 +8441,11 @@
       <c r="D351" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E351" s="41"/>
-      <c r="G351" s="27"/>
-      <c r="H351" s="27"/>
-      <c r="I351" s="27"/>
-      <c r="J351" s="27"/>
+      <c r="E351" s="25"/>
+      <c r="G351" s="18"/>
+      <c r="H351" s="18"/>
+      <c r="I351" s="18"/>
+      <c r="J351" s="18"/>
     </row>
     <row r="352" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
@@ -8452,10 +8457,10 @@
       <c r="E352" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G352" s="27"/>
-      <c r="H352" s="27"/>
-      <c r="I352" s="27"/>
-      <c r="J352" s="27"/>
+      <c r="G352" s="18"/>
+      <c r="H352" s="18"/>
+      <c r="I352" s="18"/>
+      <c r="J352" s="18"/>
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
@@ -8467,10 +8472,10 @@
       <c r="E353" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G353" s="27"/>
-      <c r="H353" s="27"/>
-      <c r="I353" s="27"/>
-      <c r="J353" s="27"/>
+      <c r="G353" s="18"/>
+      <c r="H353" s="18"/>
+      <c r="I353" s="18"/>
+      <c r="J353" s="18"/>
     </row>
     <row r="354" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
@@ -8482,10 +8487,10 @@
       <c r="E354" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G354" s="27"/>
-      <c r="H354" s="27"/>
-      <c r="I354" s="27"/>
-      <c r="J354" s="27"/>
+      <c r="G354" s="18"/>
+      <c r="H354" s="18"/>
+      <c r="I354" s="18"/>
+      <c r="J354" s="18"/>
     </row>
     <row r="355" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
@@ -8497,10 +8502,10 @@
       <c r="E355" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G355" s="27"/>
-      <c r="H355" s="27"/>
-      <c r="I355" s="27"/>
-      <c r="J355" s="27"/>
+      <c r="G355" s="18"/>
+      <c r="H355" s="18"/>
+      <c r="I355" s="18"/>
+      <c r="J355" s="18"/>
     </row>
     <row r="356" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
@@ -8512,10 +8517,10 @@
       <c r="E356" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G356" s="27"/>
-      <c r="H356" s="27"/>
-      <c r="I356" s="27"/>
-      <c r="J356" s="27"/>
+      <c r="G356" s="18"/>
+      <c r="H356" s="18"/>
+      <c r="I356" s="18"/>
+      <c r="J356" s="18"/>
     </row>
     <row r="357" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
@@ -8527,10 +8532,10 @@
       <c r="E357" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G357" s="27"/>
-      <c r="H357" s="27"/>
-      <c r="I357" s="27"/>
-      <c r="J357" s="27"/>
+      <c r="G357" s="18"/>
+      <c r="H357" s="18"/>
+      <c r="I357" s="18"/>
+      <c r="J357" s="18"/>
     </row>
     <row r="358" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
@@ -8541,11 +8546,11 @@
       <c r="D358" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E358" s="41"/>
-      <c r="G358" s="27"/>
-      <c r="H358" s="27"/>
-      <c r="I358" s="27"/>
-      <c r="J358" s="27"/>
+      <c r="E358" s="25"/>
+      <c r="G358" s="18"/>
+      <c r="H358" s="18"/>
+      <c r="I358" s="18"/>
+      <c r="J358" s="18"/>
     </row>
     <row r="359" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
@@ -8557,10 +8562,10 @@
       <c r="E359" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G359" s="27"/>
-      <c r="H359" s="27"/>
-      <c r="I359" s="27"/>
-      <c r="J359" s="27"/>
+      <c r="G359" s="18"/>
+      <c r="H359" s="18"/>
+      <c r="I359" s="18"/>
+      <c r="J359" s="18"/>
     </row>
     <row r="360" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
@@ -8572,10 +8577,10 @@
       <c r="E360" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G360" s="27"/>
-      <c r="H360" s="27"/>
-      <c r="I360" s="27"/>
-      <c r="J360" s="27"/>
+      <c r="G360" s="18"/>
+      <c r="H360" s="18"/>
+      <c r="I360" s="18"/>
+      <c r="J360" s="18"/>
     </row>
     <row r="361" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
@@ -8587,10 +8592,10 @@
       <c r="E361" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G361" s="27"/>
-      <c r="H361" s="27"/>
-      <c r="I361" s="27"/>
-      <c r="J361" s="27"/>
+      <c r="G361" s="18"/>
+      <c r="H361" s="18"/>
+      <c r="I361" s="18"/>
+      <c r="J361" s="18"/>
     </row>
     <row r="362" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
@@ -8602,10 +8607,10 @@
       <c r="E362" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G362" s="27"/>
-      <c r="H362" s="27"/>
-      <c r="I362" s="27"/>
-      <c r="J362" s="27"/>
+      <c r="G362" s="18"/>
+      <c r="H362" s="18"/>
+      <c r="I362" s="18"/>
+      <c r="J362" s="18"/>
     </row>
     <row r="363" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
@@ -8617,10 +8622,10 @@
       <c r="E363" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G363" s="27"/>
-      <c r="H363" s="27"/>
-      <c r="I363" s="27"/>
-      <c r="J363" s="27"/>
+      <c r="G363" s="18"/>
+      <c r="H363" s="18"/>
+      <c r="I363" s="18"/>
+      <c r="J363" s="18"/>
     </row>
     <row r="364" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
@@ -8631,11 +8636,11 @@
         <v>32</v>
       </c>
       <c r="D364" s="4"/>
-      <c r="E364" s="41"/>
-      <c r="G364" s="27"/>
-      <c r="H364" s="27"/>
-      <c r="I364" s="27"/>
-      <c r="J364" s="27"/>
+      <c r="E364" s="25"/>
+      <c r="G364" s="18"/>
+      <c r="H364" s="18"/>
+      <c r="I364" s="18"/>
+      <c r="J364" s="18"/>
     </row>
     <row r="365" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
@@ -8646,11 +8651,11 @@
         <v>33</v>
       </c>
       <c r="D365" s="4"/>
-      <c r="E365" s="41"/>
-      <c r="G365" s="27"/>
-      <c r="H365" s="27"/>
-      <c r="I365" s="27"/>
-      <c r="J365" s="27"/>
+      <c r="E365" s="25"/>
+      <c r="G365" s="18"/>
+      <c r="H365" s="18"/>
+      <c r="I365" s="18"/>
+      <c r="J365" s="18"/>
     </row>
     <row r="366" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
@@ -8661,11 +8666,11 @@
         <v>34</v>
       </c>
       <c r="D366" s="4"/>
-      <c r="E366" s="41"/>
-      <c r="G366" s="27"/>
-      <c r="H366" s="27"/>
-      <c r="I366" s="27"/>
-      <c r="J366" s="27"/>
+      <c r="E366" s="25"/>
+      <c r="G366" s="18"/>
+      <c r="H366" s="18"/>
+      <c r="I366" s="18"/>
+      <c r="J366" s="18"/>
     </row>
     <row r="367" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
@@ -8676,11 +8681,11 @@
         <v>31</v>
       </c>
       <c r="D367" s="4"/>
-      <c r="E367" s="41"/>
-      <c r="G367" s="27"/>
-      <c r="H367" s="27"/>
-      <c r="I367" s="27"/>
-      <c r="J367" s="27"/>
+      <c r="E367" s="25"/>
+      <c r="G367" s="18"/>
+      <c r="H367" s="18"/>
+      <c r="I367" s="18"/>
+      <c r="J367" s="18"/>
     </row>
     <row r="368" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
@@ -8691,11 +8696,11 @@
         <v>35</v>
       </c>
       <c r="D368" s="4"/>
-      <c r="E368" s="41"/>
-      <c r="G368" s="27"/>
-      <c r="H368" s="27"/>
-      <c r="I368" s="27"/>
-      <c r="J368" s="27"/>
+      <c r="E368" s="25"/>
+      <c r="G368" s="18"/>
+      <c r="H368" s="18"/>
+      <c r="I368" s="18"/>
+      <c r="J368" s="18"/>
     </row>
     <row r="369" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
@@ -8706,11 +8711,11 @@
         <v>33</v>
       </c>
       <c r="D369" s="4"/>
-      <c r="E369" s="41"/>
-      <c r="G369" s="27"/>
-      <c r="H369" s="27"/>
-      <c r="I369" s="27"/>
-      <c r="J369" s="27"/>
+      <c r="E369" s="25"/>
+      <c r="G369" s="18"/>
+      <c r="H369" s="18"/>
+      <c r="I369" s="18"/>
+      <c r="J369" s="18"/>
     </row>
     <row r="370" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
@@ -8721,35 +8726,35 @@
         <v>34</v>
       </c>
       <c r="D370" s="4"/>
-      <c r="E370" s="41"/>
-      <c r="G370" s="27"/>
-      <c r="H370" s="27"/>
-      <c r="I370" s="27"/>
-      <c r="J370" s="27"/>
+      <c r="E370" s="25"/>
+      <c r="G370" s="18"/>
+      <c r="H370" s="18"/>
+      <c r="I370" s="18"/>
+      <c r="J370" s="18"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A371" s="24" t="s">
+      <c r="A371" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B371" s="24"/>
-      <c r="C371" s="24"/>
-      <c r="D371" s="24"/>
-      <c r="E371" s="24"/>
-      <c r="G371" s="27"/>
-      <c r="H371" s="27"/>
-      <c r="I371" s="27"/>
-      <c r="J371" s="27"/>
+      <c r="B371" s="34"/>
+      <c r="C371" s="34"/>
+      <c r="D371" s="34"/>
+      <c r="E371" s="34"/>
+      <c r="G371" s="18"/>
+      <c r="H371" s="18"/>
+      <c r="I371" s="18"/>
+      <c r="J371" s="18"/>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A372" s="24"/>
-      <c r="B372" s="24"/>
-      <c r="C372" s="24"/>
-      <c r="D372" s="24"/>
-      <c r="E372" s="24"/>
-      <c r="G372" s="27"/>
-      <c r="H372" s="27"/>
-      <c r="I372" s="27"/>
-      <c r="J372" s="27"/>
+      <c r="A372" s="34"/>
+      <c r="B372" s="34"/>
+      <c r="C372" s="34"/>
+      <c r="D372" s="34"/>
+      <c r="E372" s="34"/>
+      <c r="G372" s="18"/>
+      <c r="H372" s="18"/>
+      <c r="I372" s="18"/>
+      <c r="J372" s="18"/>
     </row>
     <row r="373" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
@@ -8760,11 +8765,11 @@
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="41"/>
-      <c r="G373" s="27"/>
-      <c r="H373" s="27"/>
-      <c r="I373" s="27"/>
-      <c r="J373" s="27"/>
+      <c r="E373" s="25"/>
+      <c r="G373" s="18"/>
+      <c r="H373" s="18"/>
+      <c r="I373" s="18"/>
+      <c r="J373" s="18"/>
     </row>
     <row r="374" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
@@ -8775,11 +8780,11 @@
         <v>156</v>
       </c>
       <c r="D374" s="4"/>
-      <c r="E374" s="41"/>
-      <c r="G374" s="27"/>
-      <c r="H374" s="27"/>
-      <c r="I374" s="27"/>
-      <c r="J374" s="27"/>
+      <c r="E374" s="25"/>
+      <c r="G374" s="18"/>
+      <c r="H374" s="18"/>
+      <c r="I374" s="18"/>
+      <c r="J374" s="18"/>
     </row>
     <row r="375" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
@@ -8790,11 +8795,11 @@
       <c r="D375" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E375" s="41"/>
-      <c r="G375" s="27"/>
-      <c r="H375" s="27"/>
-      <c r="I375" s="27"/>
-      <c r="J375" s="27"/>
+      <c r="E375" s="25"/>
+      <c r="G375" s="18"/>
+      <c r="H375" s="18"/>
+      <c r="I375" s="18"/>
+      <c r="J375" s="18"/>
     </row>
     <row r="376" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
@@ -8805,11 +8810,11 @@
       <c r="D376" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E376" s="41"/>
-      <c r="G376" s="27"/>
-      <c r="H376" s="27"/>
-      <c r="I376" s="27"/>
-      <c r="J376" s="27"/>
+      <c r="E376" s="25"/>
+      <c r="G376" s="18"/>
+      <c r="H376" s="18"/>
+      <c r="I376" s="18"/>
+      <c r="J376" s="18"/>
     </row>
     <row r="377" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
@@ -8820,11 +8825,11 @@
       <c r="D377" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E377" s="41"/>
-      <c r="G377" s="27"/>
-      <c r="H377" s="27"/>
-      <c r="I377" s="27"/>
-      <c r="J377" s="27"/>
+      <c r="E377" s="25"/>
+      <c r="G377" s="18"/>
+      <c r="H377" s="18"/>
+      <c r="I377" s="18"/>
+      <c r="J377" s="18"/>
     </row>
     <row r="378" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
@@ -8835,11 +8840,11 @@
         <v>152</v>
       </c>
       <c r="D378" s="4"/>
-      <c r="E378" s="41"/>
-      <c r="G378" s="27"/>
-      <c r="H378" s="27"/>
-      <c r="I378" s="27"/>
-      <c r="J378" s="27"/>
+      <c r="E378" s="25"/>
+      <c r="G378" s="18"/>
+      <c r="H378" s="18"/>
+      <c r="I378" s="18"/>
+      <c r="J378" s="18"/>
     </row>
     <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
@@ -8850,11 +8855,11 @@
       <c r="D379" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E379" s="41"/>
-      <c r="G379" s="27"/>
-      <c r="H379" s="27"/>
-      <c r="I379" s="27"/>
-      <c r="J379" s="27"/>
+      <c r="E379" s="25"/>
+      <c r="G379" s="18"/>
+      <c r="H379" s="18"/>
+      <c r="I379" s="18"/>
+      <c r="J379" s="18"/>
     </row>
     <row r="380" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
@@ -8866,10 +8871,10 @@
       <c r="E380" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G380" s="27"/>
-      <c r="H380" s="27"/>
-      <c r="I380" s="27"/>
-      <c r="J380" s="27"/>
+      <c r="G380" s="18"/>
+      <c r="H380" s="18"/>
+      <c r="I380" s="18"/>
+      <c r="J380" s="18"/>
     </row>
     <row r="381" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
@@ -8880,11 +8885,11 @@
       <c r="D381" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E381" s="41"/>
-      <c r="G381" s="27"/>
-      <c r="H381" s="27"/>
-      <c r="I381" s="27"/>
-      <c r="J381" s="27"/>
+      <c r="E381" s="25"/>
+      <c r="G381" s="18"/>
+      <c r="H381" s="18"/>
+      <c r="I381" s="18"/>
+      <c r="J381" s="18"/>
     </row>
     <row r="382" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
@@ -8896,10 +8901,10 @@
       <c r="E382" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G382" s="27"/>
-      <c r="H382" s="27"/>
-      <c r="I382" s="27"/>
-      <c r="J382" s="27"/>
+      <c r="G382" s="18"/>
+      <c r="H382" s="18"/>
+      <c r="I382" s="18"/>
+      <c r="J382" s="18"/>
     </row>
     <row r="383" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
@@ -8911,10 +8916,10 @@
       <c r="E383" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G383" s="27"/>
-      <c r="H383" s="27"/>
-      <c r="I383" s="27"/>
-      <c r="J383" s="27"/>
+      <c r="G383" s="18"/>
+      <c r="H383" s="18"/>
+      <c r="I383" s="18"/>
+      <c r="J383" s="18"/>
     </row>
     <row r="384" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
@@ -8926,10 +8931,10 @@
       <c r="E384" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G384" s="27"/>
-      <c r="H384" s="27"/>
-      <c r="I384" s="27"/>
-      <c r="J384" s="27"/>
+      <c r="G384" s="18"/>
+      <c r="H384" s="18"/>
+      <c r="I384" s="18"/>
+      <c r="J384" s="18"/>
     </row>
     <row r="385" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
@@ -8941,10 +8946,10 @@
       <c r="E385" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G385" s="27"/>
-      <c r="H385" s="27"/>
-      <c r="I385" s="27"/>
-      <c r="J385" s="27"/>
+      <c r="G385" s="18"/>
+      <c r="H385" s="18"/>
+      <c r="I385" s="18"/>
+      <c r="J385" s="18"/>
     </row>
     <row r="386" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
@@ -8956,10 +8961,10 @@
       <c r="E386" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G386" s="27"/>
-      <c r="H386" s="27"/>
-      <c r="I386" s="27"/>
-      <c r="J386" s="27"/>
+      <c r="G386" s="18"/>
+      <c r="H386" s="18"/>
+      <c r="I386" s="18"/>
+      <c r="J386" s="18"/>
     </row>
     <row r="387" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
@@ -8971,10 +8976,10 @@
       <c r="E387" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G387" s="27"/>
-      <c r="H387" s="27"/>
-      <c r="I387" s="27"/>
-      <c r="J387" s="27"/>
+      <c r="G387" s="18"/>
+      <c r="H387" s="18"/>
+      <c r="I387" s="18"/>
+      <c r="J387" s="18"/>
     </row>
     <row r="388" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
@@ -8986,10 +8991,10 @@
       <c r="E388" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G388" s="27"/>
-      <c r="H388" s="27"/>
-      <c r="I388" s="27"/>
-      <c r="J388" s="27"/>
+      <c r="G388" s="18"/>
+      <c r="H388" s="18"/>
+      <c r="I388" s="18"/>
+      <c r="J388" s="18"/>
     </row>
     <row r="389" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
@@ -9000,11 +9005,11 @@
         <v>151</v>
       </c>
       <c r="D389" s="4"/>
-      <c r="E389" s="41"/>
-      <c r="G389" s="27"/>
-      <c r="H389" s="27"/>
-      <c r="I389" s="27"/>
-      <c r="J389" s="27"/>
+      <c r="E389" s="25"/>
+      <c r="G389" s="18"/>
+      <c r="H389" s="18"/>
+      <c r="I389" s="18"/>
+      <c r="J389" s="18"/>
     </row>
     <row r="390" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
@@ -9015,11 +9020,11 @@
       <c r="D390" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E390" s="41"/>
-      <c r="G390" s="27"/>
-      <c r="H390" s="27"/>
-      <c r="I390" s="27"/>
-      <c r="J390" s="27"/>
+      <c r="E390" s="25"/>
+      <c r="G390" s="18"/>
+      <c r="H390" s="18"/>
+      <c r="I390" s="18"/>
+      <c r="J390" s="18"/>
     </row>
     <row r="391" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
@@ -9030,11 +9035,11 @@
       <c r="D391" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E391" s="41"/>
-      <c r="G391" s="27"/>
-      <c r="H391" s="27"/>
-      <c r="I391" s="27"/>
-      <c r="J391" s="27"/>
+      <c r="E391" s="25"/>
+      <c r="G391" s="18"/>
+      <c r="H391" s="18"/>
+      <c r="I391" s="18"/>
+      <c r="J391" s="18"/>
     </row>
     <row r="392" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
@@ -9045,11 +9050,11 @@
         <v>24</v>
       </c>
       <c r="D392" s="4"/>
-      <c r="E392" s="41"/>
-      <c r="G392" s="27"/>
-      <c r="H392" s="27"/>
-      <c r="I392" s="27"/>
-      <c r="J392" s="27"/>
+      <c r="E392" s="25"/>
+      <c r="G392" s="18"/>
+      <c r="H392" s="18"/>
+      <c r="I392" s="18"/>
+      <c r="J392" s="18"/>
     </row>
     <row r="393" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
@@ -9060,11 +9065,11 @@
       <c r="D393" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E393" s="41"/>
-      <c r="G393" s="27"/>
-      <c r="H393" s="27"/>
-      <c r="I393" s="27"/>
-      <c r="J393" s="27"/>
+      <c r="E393" s="25"/>
+      <c r="G393" s="18"/>
+      <c r="H393" s="18"/>
+      <c r="I393" s="18"/>
+      <c r="J393" s="18"/>
     </row>
     <row r="394" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
@@ -9076,10 +9081,10 @@
       <c r="E394" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G394" s="27"/>
-      <c r="H394" s="27"/>
-      <c r="I394" s="27"/>
-      <c r="J394" s="27"/>
+      <c r="G394" s="18"/>
+      <c r="H394" s="18"/>
+      <c r="I394" s="18"/>
+      <c r="J394" s="18"/>
     </row>
     <row r="395" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
@@ -9090,11 +9095,11 @@
       <c r="D395" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E395" s="41"/>
-      <c r="G395" s="27"/>
-      <c r="H395" s="27"/>
-      <c r="I395" s="27"/>
-      <c r="J395" s="27"/>
+      <c r="E395" s="25"/>
+      <c r="G395" s="18"/>
+      <c r="H395" s="18"/>
+      <c r="I395" s="18"/>
+      <c r="J395" s="18"/>
     </row>
     <row r="396" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
@@ -9106,10 +9111,10 @@
       <c r="E396" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G396" s="27"/>
-      <c r="H396" s="27"/>
-      <c r="I396" s="27"/>
-      <c r="J396" s="27"/>
+      <c r="G396" s="18"/>
+      <c r="H396" s="18"/>
+      <c r="I396" s="18"/>
+      <c r="J396" s="18"/>
     </row>
     <row r="397" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
@@ -9121,10 +9126,10 @@
       <c r="E397" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G397" s="27"/>
-      <c r="H397" s="27"/>
-      <c r="I397" s="27"/>
-      <c r="J397" s="27"/>
+      <c r="G397" s="18"/>
+      <c r="H397" s="18"/>
+      <c r="I397" s="18"/>
+      <c r="J397" s="18"/>
     </row>
     <row r="398" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
@@ -9136,10 +9141,10 @@
       <c r="E398" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G398" s="27"/>
-      <c r="H398" s="27"/>
-      <c r="I398" s="27"/>
-      <c r="J398" s="27"/>
+      <c r="G398" s="18"/>
+      <c r="H398" s="18"/>
+      <c r="I398" s="18"/>
+      <c r="J398" s="18"/>
     </row>
     <row r="399" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
@@ -9151,10 +9156,10 @@
       <c r="E399" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G399" s="27"/>
-      <c r="H399" s="27"/>
-      <c r="I399" s="27"/>
-      <c r="J399" s="27"/>
+      <c r="G399" s="18"/>
+      <c r="H399" s="18"/>
+      <c r="I399" s="18"/>
+      <c r="J399" s="18"/>
     </row>
     <row r="400" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
@@ -9166,10 +9171,10 @@
       <c r="E400" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G400" s="27"/>
-      <c r="H400" s="27"/>
-      <c r="I400" s="27"/>
-      <c r="J400" s="27"/>
+      <c r="G400" s="18"/>
+      <c r="H400" s="18"/>
+      <c r="I400" s="18"/>
+      <c r="J400" s="18"/>
     </row>
     <row r="401" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
@@ -9181,10 +9186,10 @@
       <c r="E401" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G401" s="27"/>
-      <c r="H401" s="27"/>
-      <c r="I401" s="27"/>
-      <c r="J401" s="27"/>
+      <c r="G401" s="18"/>
+      <c r="H401" s="18"/>
+      <c r="I401" s="18"/>
+      <c r="J401" s="18"/>
     </row>
     <row r="402" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
@@ -9196,10 +9201,10 @@
       <c r="E402" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G402" s="27"/>
-      <c r="H402" s="27"/>
-      <c r="I402" s="27"/>
-      <c r="J402" s="27"/>
+      <c r="G402" s="18"/>
+      <c r="H402" s="18"/>
+      <c r="I402" s="18"/>
+      <c r="J402" s="18"/>
     </row>
     <row r="403" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
@@ -9209,164 +9214,164 @@
         <v>25</v>
       </c>
       <c r="C403" s="4"/>
-      <c r="D403" s="44"/>
-      <c r="E403" s="45"/>
-      <c r="G403" s="27">
+      <c r="D403" s="28"/>
+      <c r="E403" s="29"/>
+      <c r="G403" s="18">
         <v>50</v>
       </c>
-      <c r="H403" s="27"/>
-      <c r="I403" s="27"/>
-      <c r="J403" s="27"/>
+      <c r="H403" s="18"/>
+      <c r="I403" s="18"/>
+      <c r="J403" s="18"/>
     </row>
     <row r="404" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>37.1</v>
       </c>
       <c r="B404" s="4"/>
-      <c r="C404" s="43" t="s">
+      <c r="C404" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D404" s="46"/>
-      <c r="E404" s="47"/>
-      <c r="G404" s="27"/>
-      <c r="H404" s="27"/>
-      <c r="I404" s="27"/>
-      <c r="J404" s="27"/>
+      <c r="D404" s="30"/>
+      <c r="E404" s="31"/>
+      <c r="G404" s="18"/>
+      <c r="H404" s="18"/>
+      <c r="I404" s="18"/>
+      <c r="J404" s="18"/>
     </row>
     <row r="405" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B405" s="4"/>
-      <c r="C405" s="43"/>
-      <c r="D405" s="48" t="s">
+      <c r="C405" s="27"/>
+      <c r="D405" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E405" s="47"/>
-      <c r="G405" s="27"/>
-      <c r="H405" s="27"/>
-      <c r="I405" s="27"/>
-      <c r="J405" s="27"/>
+      <c r="E405" s="31"/>
+      <c r="G405" s="18"/>
+      <c r="H405" s="18"/>
+      <c r="I405" s="18"/>
+      <c r="J405" s="18"/>
     </row>
     <row r="406" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>37.200000000000003</v>
       </c>
       <c r="B406" s="4"/>
-      <c r="C406" s="43" t="s">
+      <c r="C406" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D406" s="46"/>
-      <c r="E406" s="47"/>
-      <c r="G406" s="27"/>
-      <c r="H406" s="27"/>
-      <c r="I406" s="27"/>
-      <c r="J406" s="27"/>
+      <c r="D406" s="30"/>
+      <c r="E406" s="31"/>
+      <c r="G406" s="18"/>
+      <c r="H406" s="18"/>
+      <c r="I406" s="18"/>
+      <c r="J406" s="18"/>
     </row>
     <row r="407" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B407" s="4"/>
-      <c r="C407" s="43"/>
-      <c r="D407" s="49" t="s">
+      <c r="C407" s="27"/>
+      <c r="D407" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E407" s="47"/>
-      <c r="G407" s="27"/>
-      <c r="H407" s="27"/>
-      <c r="I407" s="27"/>
-      <c r="J407" s="27"/>
+      <c r="E407" s="31"/>
+      <c r="G407" s="18"/>
+      <c r="H407" s="18"/>
+      <c r="I407" s="18"/>
+      <c r="J407" s="18"/>
     </row>
     <row r="408" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B408" s="4"/>
-      <c r="C408" s="43"/>
-      <c r="D408" s="49" t="s">
+      <c r="C408" s="27"/>
+      <c r="D408" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E408" s="47"/>
-      <c r="G408" s="27"/>
-      <c r="H408" s="27"/>
-      <c r="I408" s="27"/>
-      <c r="J408" s="27"/>
+      <c r="E408" s="31"/>
+      <c r="G408" s="18"/>
+      <c r="H408" s="18"/>
+      <c r="I408" s="18"/>
+      <c r="J408" s="18"/>
     </row>
     <row r="409" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B409" s="4"/>
-      <c r="C409" s="43"/>
-      <c r="D409" s="49" t="s">
+      <c r="C409" s="27"/>
+      <c r="D409" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="E409" s="47"/>
-      <c r="G409" s="27"/>
-      <c r="H409" s="27"/>
-      <c r="I409" s="27"/>
-      <c r="J409" s="27"/>
+      <c r="E409" s="31"/>
+      <c r="G409" s="18"/>
+      <c r="H409" s="18"/>
+      <c r="I409" s="18"/>
+      <c r="J409" s="18"/>
     </row>
     <row r="410" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B410" s="4"/>
-      <c r="C410" s="43"/>
-      <c r="D410" s="49" t="s">
+      <c r="C410" s="27"/>
+      <c r="D410" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E410" s="47"/>
-      <c r="G410" s="27"/>
-      <c r="H410" s="27"/>
-      <c r="I410" s="27"/>
-      <c r="J410" s="27"/>
+      <c r="E410" s="31"/>
+      <c r="G410" s="18"/>
+      <c r="H410" s="18"/>
+      <c r="I410" s="18"/>
+      <c r="J410" s="18"/>
     </row>
     <row r="411" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B411" s="4"/>
-      <c r="C411" s="43"/>
-      <c r="D411" s="49" t="s">
+      <c r="C411" s="27"/>
+      <c r="D411" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E411" s="47"/>
-      <c r="G411" s="27"/>
-      <c r="H411" s="27"/>
-      <c r="I411" s="27"/>
-      <c r="J411" s="27"/>
+      <c r="E411" s="31"/>
+      <c r="G411" s="18"/>
+      <c r="H411" s="18"/>
+      <c r="I411" s="18"/>
+      <c r="J411" s="18"/>
     </row>
     <row r="412" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B412" s="4"/>
-      <c r="C412" s="43"/>
-      <c r="D412" s="48" t="s">
+      <c r="C412" s="27"/>
+      <c r="D412" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E412" s="47"/>
-      <c r="G412" s="27"/>
-      <c r="H412" s="27"/>
-      <c r="I412" s="27"/>
-      <c r="J412" s="27"/>
+      <c r="E412" s="31"/>
+      <c r="G412" s="18"/>
+      <c r="H412" s="18"/>
+      <c r="I412" s="18"/>
+      <c r="J412" s="18"/>
     </row>
     <row r="413" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B413" s="4"/>
-      <c r="C413" s="43"/>
-      <c r="D413" s="49" t="s">
+      <c r="C413" s="27"/>
+      <c r="D413" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E413" s="47"/>
-      <c r="G413" s="27"/>
-      <c r="H413" s="27"/>
-      <c r="I413" s="27"/>
-      <c r="J413" s="27"/>
+      <c r="E413" s="31"/>
+      <c r="G413" s="18"/>
+      <c r="H413" s="18"/>
+      <c r="I413" s="18"/>
+      <c r="J413" s="18"/>
     </row>
     <row r="414" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
@@ -9377,11 +9382,11 @@
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="14"/>
-      <c r="E414" s="40"/>
-      <c r="G414" s="27"/>
-      <c r="H414" s="27"/>
-      <c r="I414" s="27"/>
-      <c r="J414" s="27"/>
+      <c r="E414" s="24"/>
+      <c r="G414" s="18"/>
+      <c r="H414" s="18"/>
+      <c r="I414" s="18"/>
+      <c r="J414" s="18"/>
     </row>
     <row r="415" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
@@ -9392,11 +9397,11 @@
         <v>157</v>
       </c>
       <c r="D415" s="4"/>
-      <c r="E415" s="41"/>
-      <c r="G415" s="27"/>
-      <c r="H415" s="27"/>
-      <c r="I415" s="27"/>
-      <c r="J415" s="27"/>
+      <c r="E415" s="25"/>
+      <c r="G415" s="18"/>
+      <c r="H415" s="18"/>
+      <c r="I415" s="18"/>
+      <c r="J415" s="18"/>
     </row>
     <row r="416" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
@@ -9407,11 +9412,11 @@
       <c r="D416" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E416" s="41"/>
-      <c r="G416" s="27"/>
-      <c r="H416" s="27"/>
-      <c r="I416" s="27"/>
-      <c r="J416" s="27"/>
+      <c r="E416" s="25"/>
+      <c r="G416" s="18"/>
+      <c r="H416" s="18"/>
+      <c r="I416" s="18"/>
+      <c r="J416" s="18"/>
     </row>
     <row r="417" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
@@ -9423,10 +9428,10 @@
       <c r="E417" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G417" s="27"/>
-      <c r="H417" s="27"/>
-      <c r="I417" s="27"/>
-      <c r="J417" s="27"/>
+      <c r="G417" s="18"/>
+      <c r="H417" s="18"/>
+      <c r="I417" s="18"/>
+      <c r="J417" s="18"/>
     </row>
     <row r="418" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
@@ -9437,11 +9442,11 @@
       <c r="D418" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E418" s="41"/>
-      <c r="G418" s="27"/>
-      <c r="H418" s="27"/>
-      <c r="I418" s="27"/>
-      <c r="J418" s="27"/>
+      <c r="E418" s="25"/>
+      <c r="G418" s="18"/>
+      <c r="H418" s="18"/>
+      <c r="I418" s="18"/>
+      <c r="J418" s="18"/>
     </row>
     <row r="419" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
@@ -9453,10 +9458,10 @@
       <c r="E419" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G419" s="27"/>
-      <c r="H419" s="27"/>
-      <c r="I419" s="27"/>
-      <c r="J419" s="27"/>
+      <c r="G419" s="18"/>
+      <c r="H419" s="18"/>
+      <c r="I419" s="18"/>
+      <c r="J419" s="18"/>
     </row>
     <row r="420" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
@@ -9468,10 +9473,10 @@
       <c r="E420" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G420" s="27"/>
-      <c r="H420" s="27"/>
-      <c r="I420" s="27"/>
-      <c r="J420" s="27"/>
+      <c r="G420" s="18"/>
+      <c r="H420" s="18"/>
+      <c r="I420" s="18"/>
+      <c r="J420" s="18"/>
     </row>
     <row r="421" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
@@ -9483,10 +9488,10 @@
       <c r="E421" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G421" s="27"/>
-      <c r="H421" s="27"/>
-      <c r="I421" s="27"/>
-      <c r="J421" s="27"/>
+      <c r="G421" s="18"/>
+      <c r="H421" s="18"/>
+      <c r="I421" s="18"/>
+      <c r="J421" s="18"/>
     </row>
     <row r="422" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
@@ -9498,10 +9503,10 @@
       <c r="E422" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G422" s="27"/>
-      <c r="H422" s="27"/>
-      <c r="I422" s="27"/>
-      <c r="J422" s="27"/>
+      <c r="G422" s="18"/>
+      <c r="H422" s="18"/>
+      <c r="I422" s="18"/>
+      <c r="J422" s="18"/>
     </row>
     <row r="423" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
@@ -9513,10 +9518,10 @@
       <c r="E423" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G423" s="27"/>
-      <c r="H423" s="27"/>
-      <c r="I423" s="27"/>
-      <c r="J423" s="27"/>
+      <c r="G423" s="18"/>
+      <c r="H423" s="18"/>
+      <c r="I423" s="18"/>
+      <c r="J423" s="18"/>
     </row>
     <row r="424" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
@@ -9528,10 +9533,10 @@
       <c r="E424" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G424" s="27"/>
-      <c r="H424" s="27"/>
-      <c r="I424" s="27"/>
-      <c r="J424" s="27"/>
+      <c r="G424" s="18"/>
+      <c r="H424" s="18"/>
+      <c r="I424" s="18"/>
+      <c r="J424" s="18"/>
     </row>
     <row r="425" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
@@ -9543,10 +9548,10 @@
       <c r="E425" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G425" s="27"/>
-      <c r="H425" s="27"/>
-      <c r="I425" s="27"/>
-      <c r="J425" s="27"/>
+      <c r="G425" s="18"/>
+      <c r="H425" s="18"/>
+      <c r="I425" s="18"/>
+      <c r="J425" s="18"/>
     </row>
     <row r="426" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
@@ -9557,11 +9562,11 @@
         <v>32</v>
       </c>
       <c r="D426" s="4"/>
-      <c r="E426" s="41"/>
-      <c r="G426" s="27"/>
-      <c r="H426" s="27"/>
-      <c r="I426" s="27"/>
-      <c r="J426" s="27"/>
+      <c r="E426" s="25"/>
+      <c r="G426" s="18"/>
+      <c r="H426" s="18"/>
+      <c r="I426" s="18"/>
+      <c r="J426" s="18"/>
     </row>
     <row r="427" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
@@ -9572,11 +9577,11 @@
         <v>33</v>
       </c>
       <c r="D427" s="4"/>
-      <c r="E427" s="41"/>
-      <c r="G427" s="27"/>
-      <c r="H427" s="27"/>
-      <c r="I427" s="27"/>
-      <c r="J427" s="27"/>
+      <c r="E427" s="25"/>
+      <c r="G427" s="18"/>
+      <c r="H427" s="18"/>
+      <c r="I427" s="18"/>
+      <c r="J427" s="18"/>
     </row>
     <row r="428" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
@@ -9587,11 +9592,11 @@
         <v>34</v>
       </c>
       <c r="D428" s="4"/>
-      <c r="E428" s="41"/>
-      <c r="G428" s="27"/>
-      <c r="H428" s="27"/>
-      <c r="I428" s="27"/>
-      <c r="J428" s="27"/>
+      <c r="E428" s="25"/>
+      <c r="G428" s="18"/>
+      <c r="H428" s="18"/>
+      <c r="I428" s="18"/>
+      <c r="J428" s="18"/>
     </row>
     <row r="429" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
@@ -9602,11 +9607,11 @@
         <v>31</v>
       </c>
       <c r="D429" s="4"/>
-      <c r="E429" s="41"/>
-      <c r="G429" s="27"/>
-      <c r="H429" s="27"/>
-      <c r="I429" s="27"/>
-      <c r="J429" s="27"/>
+      <c r="E429" s="25"/>
+      <c r="G429" s="18"/>
+      <c r="H429" s="18"/>
+      <c r="I429" s="18"/>
+      <c r="J429" s="18"/>
     </row>
     <row r="430" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
@@ -9617,11 +9622,11 @@
         <v>35</v>
       </c>
       <c r="D430" s="4"/>
-      <c r="E430" s="41"/>
-      <c r="G430" s="27"/>
-      <c r="H430" s="27"/>
-      <c r="I430" s="27"/>
-      <c r="J430" s="27"/>
+      <c r="E430" s="25"/>
+      <c r="G430" s="18"/>
+      <c r="H430" s="18"/>
+      <c r="I430" s="18"/>
+      <c r="J430" s="18"/>
     </row>
     <row r="431" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
@@ -9632,11 +9637,11 @@
         <v>33</v>
       </c>
       <c r="D431" s="4"/>
-      <c r="E431" s="41"/>
-      <c r="G431" s="27"/>
-      <c r="H431" s="27"/>
-      <c r="I431" s="27"/>
-      <c r="J431" s="27"/>
+      <c r="E431" s="25"/>
+      <c r="G431" s="18"/>
+      <c r="H431" s="18"/>
+      <c r="I431" s="18"/>
+      <c r="J431" s="18"/>
     </row>
     <row r="432" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
@@ -9647,35 +9652,35 @@
         <v>34</v>
       </c>
       <c r="D432" s="4"/>
-      <c r="E432" s="41"/>
-      <c r="G432" s="27"/>
-      <c r="H432" s="27"/>
-      <c r="I432" s="27"/>
-      <c r="J432" s="27"/>
+      <c r="E432" s="25"/>
+      <c r="G432" s="18"/>
+      <c r="H432" s="18"/>
+      <c r="I432" s="18"/>
+      <c r="J432" s="18"/>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="17" t="s">
+      <c r="A433" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B433" s="18"/>
-      <c r="C433" s="18"/>
-      <c r="D433" s="18"/>
-      <c r="E433" s="19"/>
-      <c r="G433" s="27"/>
-      <c r="H433" s="27"/>
-      <c r="I433" s="27"/>
-      <c r="J433" s="27"/>
+      <c r="B433" s="36"/>
+      <c r="C433" s="36"/>
+      <c r="D433" s="36"/>
+      <c r="E433" s="37"/>
+      <c r="G433" s="18"/>
+      <c r="H433" s="18"/>
+      <c r="I433" s="18"/>
+      <c r="J433" s="18"/>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A434" s="20"/>
-      <c r="B434" s="21"/>
-      <c r="C434" s="21"/>
-      <c r="D434" s="21"/>
-      <c r="E434" s="22"/>
-      <c r="G434" s="27"/>
-      <c r="H434" s="27"/>
-      <c r="I434" s="27"/>
-      <c r="J434" s="27"/>
+      <c r="A434" s="38"/>
+      <c r="B434" s="39"/>
+      <c r="C434" s="39"/>
+      <c r="D434" s="39"/>
+      <c r="E434" s="40"/>
+      <c r="G434" s="18"/>
+      <c r="H434" s="18"/>
+      <c r="I434" s="18"/>
+      <c r="J434" s="18"/>
     </row>
     <row r="435" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
@@ -9686,11 +9691,11 @@
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
-      <c r="E435" s="41"/>
-      <c r="G435" s="27"/>
-      <c r="H435" s="27"/>
-      <c r="I435" s="27"/>
-      <c r="J435" s="27"/>
+      <c r="E435" s="25"/>
+      <c r="G435" s="18"/>
+      <c r="H435" s="18"/>
+      <c r="I435" s="18"/>
+      <c r="J435" s="18"/>
     </row>
     <row r="436" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
@@ -9701,11 +9706,11 @@
         <v>42</v>
       </c>
       <c r="D436" s="4"/>
-      <c r="E436" s="41"/>
-      <c r="G436" s="27"/>
-      <c r="H436" s="27"/>
-      <c r="I436" s="27"/>
-      <c r="J436" s="27"/>
+      <c r="E436" s="25"/>
+      <c r="G436" s="18"/>
+      <c r="H436" s="18"/>
+      <c r="I436" s="18"/>
+      <c r="J436" s="18"/>
     </row>
     <row r="437" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
@@ -9716,11 +9721,11 @@
         <v>43</v>
       </c>
       <c r="D437" s="4"/>
-      <c r="E437" s="41"/>
-      <c r="G437" s="27"/>
-      <c r="H437" s="27"/>
-      <c r="I437" s="27"/>
-      <c r="J437" s="27"/>
+      <c r="E437" s="25"/>
+      <c r="G437" s="18"/>
+      <c r="H437" s="18"/>
+      <c r="I437" s="18"/>
+      <c r="J437" s="18"/>
     </row>
     <row r="438" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
@@ -9731,11 +9736,11 @@
         <v>44</v>
       </c>
       <c r="D438" s="4"/>
-      <c r="E438" s="41"/>
-      <c r="G438" s="27"/>
-      <c r="H438" s="27"/>
-      <c r="I438" s="27"/>
-      <c r="J438" s="27"/>
+      <c r="E438" s="25"/>
+      <c r="G438" s="18"/>
+      <c r="H438" s="18"/>
+      <c r="I438" s="18"/>
+      <c r="J438" s="18"/>
     </row>
     <row r="439" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
@@ -9746,11 +9751,11 @@
         <v>45</v>
       </c>
       <c r="D439" s="4"/>
-      <c r="E439" s="41"/>
-      <c r="G439" s="27"/>
-      <c r="H439" s="27"/>
-      <c r="I439" s="27"/>
-      <c r="J439" s="27"/>
+      <c r="E439" s="25"/>
+      <c r="G439" s="18"/>
+      <c r="H439" s="18"/>
+      <c r="I439" s="18"/>
+      <c r="J439" s="18"/>
     </row>
     <row r="440" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
@@ -9761,11 +9766,11 @@
         <v>46</v>
       </c>
       <c r="D440" s="4"/>
-      <c r="E440" s="41"/>
-      <c r="G440" s="27"/>
-      <c r="H440" s="27"/>
-      <c r="I440" s="27"/>
-      <c r="J440" s="27"/>
+      <c r="E440" s="25"/>
+      <c r="G440" s="18"/>
+      <c r="H440" s="18"/>
+      <c r="I440" s="18"/>
+      <c r="J440" s="18"/>
     </row>
     <row r="441" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
@@ -9776,13 +9781,13 @@
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
-      <c r="E441" s="41"/>
-      <c r="G441" s="27">
+      <c r="E441" s="25"/>
+      <c r="G441" s="18">
         <v>5</v>
       </c>
-      <c r="H441" s="27"/>
-      <c r="I441" s="27"/>
-      <c r="J441" s="27"/>
+      <c r="H441" s="18"/>
+      <c r="I441" s="18"/>
+      <c r="J441" s="18"/>
     </row>
     <row r="442" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
@@ -9793,11 +9798,11 @@
         <v>41</v>
       </c>
       <c r="D442" s="4"/>
-      <c r="E442" s="41"/>
-      <c r="G442" s="27"/>
-      <c r="H442" s="27"/>
-      <c r="I442" s="27"/>
-      <c r="J442" s="27"/>
+      <c r="E442" s="25"/>
+      <c r="G442" s="18"/>
+      <c r="H442" s="18"/>
+      <c r="I442" s="18"/>
+      <c r="J442" s="18"/>
     </row>
     <row r="443" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
@@ -9808,11 +9813,11 @@
         <v>40</v>
       </c>
       <c r="D443" s="4"/>
-      <c r="E443" s="41"/>
-      <c r="G443" s="27"/>
-      <c r="H443" s="27"/>
-      <c r="I443" s="27"/>
-      <c r="J443" s="27"/>
+      <c r="E443" s="25"/>
+      <c r="G443" s="18"/>
+      <c r="H443" s="18"/>
+      <c r="I443" s="18"/>
+      <c r="J443" s="18"/>
     </row>
     <row r="444" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="12"/>
@@ -9855,14 +9860,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="A3:E4"/>
     <mergeCell ref="A371:E372"/>
     <mergeCell ref="A269:E270"/>
     <mergeCell ref="A433:E434"/>
     <mergeCell ref="A107:E108"/>
     <mergeCell ref="A101:E102"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
+++ b/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="467">
   <si>
     <t>ID</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Manage Banners</t>
   </si>
   <si>
-    <t>Manage Q/A</t>
-  </si>
-  <si>
     <t>Manage Language</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>Manage Examination</t>
   </si>
   <si>
-    <t>Manage Resource</t>
-  </si>
-  <si>
     <t>Manage Homepage</t>
   </si>
   <si>
@@ -607,9 +601,6 @@
     <t>25.1.9</t>
   </si>
   <si>
-    <t>25.1.10</t>
-  </si>
-  <si>
     <t>26.4.1</t>
   </si>
   <si>
@@ -1424,6 +1415,9 @@
   </si>
   <si>
     <t>38.1.2.7</t>
+  </si>
+  <si>
+    <t>Manage Q&amp;A</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1841,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,35 +1891,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2240,11 +2234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K484"/>
+  <dimension ref="A1:K483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,31 +2257,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="48" t="s">
+      <c r="G1" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="K1" s="36" t="s">
         <v>116</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -2296,37 +2290,37 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
@@ -2338,19 +2332,19 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="24"/>
-      <c r="G5" s="50">
+      <c r="G5" s="37">
         <v>2</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="37">
         <v>4</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="37">
         <v>1</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="37">
         <v>3</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="38">
         <v>3</v>
       </c>
     </row>
@@ -2364,19 +2358,19 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="25"/>
-      <c r="G6" s="50">
+      <c r="G6" s="37">
         <v>2</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="37">
         <v>2</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="37">
         <v>1</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="37">
         <v>1</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="38">
         <v>2</v>
       </c>
     </row>
@@ -2390,19 +2384,19 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="25"/>
-      <c r="G7" s="50">
+      <c r="G7" s="37">
         <v>4</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="37">
         <v>2</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="37">
         <v>2</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="37">
         <v>4</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="38">
         <v>2</v>
       </c>
     </row>
@@ -2416,47 +2410,47 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="25"/>
-      <c r="G8" s="50">
+      <c r="G8" s="37">
         <v>5</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="37">
         <v>3</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="37">
         <v>4</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="37">
         <v>3</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -2468,11 +2462,11 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="25"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -2480,7 +2474,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="25"/>
@@ -2714,7 +2708,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="25"/>
@@ -2870,7 +2864,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="25"/>
@@ -3025,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3051,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3077,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="25"/>
       <c r="G35" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -3094,7 +3088,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3172,7 +3166,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3198,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3250,7 +3244,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3302,7 +3296,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3380,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3406,7 +3400,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3428,24 +3422,24 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
+      <c r="A49" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
@@ -3643,7 +3637,7 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="25"/>
@@ -3669,7 +3663,7 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="25"/>
@@ -3747,7 +3741,7 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="25"/>
@@ -3855,7 +3849,7 @@
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="25"/>
@@ -3866,7 +3860,7 @@
     </row>
     <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="25"/>
@@ -3892,7 +3886,7 @@
     </row>
     <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="25"/>
@@ -3918,7 +3912,7 @@
     </row>
     <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="25"/>
@@ -3944,7 +3938,7 @@
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="25"/>
@@ -3970,7 +3964,7 @@
     </row>
     <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="25"/>
@@ -3996,12 +3990,12 @@
     </row>
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="25"/>
       <c r="D74" s="4" t="s">
-        <v>88</v>
+        <v>466</v>
       </c>
       <c r="E74" s="25"/>
       <c r="G74" s="18">
@@ -4022,12 +4016,12 @@
     </row>
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="25"/>
       <c r="D75" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75" s="25"/>
       <c r="G75" s="18">
@@ -4048,12 +4042,12 @@
     </row>
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="25"/>
       <c r="D76" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E76" s="25"/>
       <c r="G76" s="18">
@@ -4074,45 +4068,45 @@
     </row>
     <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="25"/>
       <c r="D77" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E77" s="25"/>
       <c r="G77" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H77" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I77" s="18">
         <v>6</v>
       </c>
       <c r="J77" s="18">
+        <v>6</v>
+      </c>
+      <c r="K77" s="19">
         <v>5</v>
       </c>
-      <c r="K77" s="19">
-        <v>2</v>
-      </c>
     </row>
     <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>196</v>
+      <c r="A78" s="11">
+        <v>25.2</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="C78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="10"/>
       <c r="E78" s="25"/>
       <c r="G78" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H78" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I78" s="18">
         <v>6</v>
@@ -4125,53 +4119,53 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
-        <v>25.2</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" s="10"/>
+      <c r="A79" s="3">
+        <v>26</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="25"/>
-      <c r="G79" s="18">
-        <v>10</v>
-      </c>
-      <c r="H79" s="18">
-        <v>10</v>
-      </c>
-      <c r="I79" s="18">
-        <v>6</v>
-      </c>
-      <c r="J79" s="18">
-        <v>6</v>
-      </c>
-      <c r="K79" s="19">
-        <v>5</v>
-      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>26</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="4"/>
+        <v>26.1</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D80" s="4"/>
       <c r="E80" s="25"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
+      <c r="G80" s="18">
+        <v>1</v>
+      </c>
+      <c r="H80" s="18">
+        <v>1</v>
+      </c>
+      <c r="I80" s="18">
+        <v>1</v>
+      </c>
+      <c r="J80" s="18">
+        <v>1</v>
+      </c>
+      <c r="K80" s="19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="25"/>
@@ -4185,87 +4179,87 @@
         <v>1</v>
       </c>
       <c r="J81" s="18">
+        <v>2</v>
+      </c>
+      <c r="K81" s="19">
         <v>1</v>
-      </c>
-      <c r="K81" s="19">
-        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="25"/>
       <c r="G82" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="18">
         <v>1</v>
       </c>
       <c r="I82" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" s="18">
         <v>2</v>
       </c>
       <c r="K82" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="25"/>
-      <c r="G83" s="18">
-        <v>2</v>
-      </c>
-      <c r="H83" s="18">
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" s="25"/>
+      <c r="G84" s="18">
         <v>1</v>
       </c>
-      <c r="I83" s="18">
-        <v>2</v>
-      </c>
-      <c r="J83" s="18">
-        <v>2</v>
-      </c>
-      <c r="K83" s="19">
+      <c r="H84" s="18">
+        <v>1</v>
+      </c>
+      <c r="I84" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>26.4</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="25"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-    </row>
-    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J84" s="18">
+        <v>1</v>
+      </c>
+      <c r="K84" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E85" s="25"/>
       <c r="G85" s="18">
@@ -4278,190 +4272,190 @@
         <v>0.5</v>
       </c>
       <c r="J85" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K85" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>198</v>
+    <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>26.5</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="C86" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="4"/>
       <c r="E86" s="25"/>
       <c r="G86" s="18">
         <v>1</v>
       </c>
       <c r="H86" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86" s="18">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J86" s="18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K86" s="19">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="25"/>
       <c r="G87" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87" s="18">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I87" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J87" s="18">
-        <v>5</v>
-      </c>
-      <c r="K87" s="19">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="K87" s="19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="25"/>
       <c r="G88" s="18">
+        <v>5</v>
+      </c>
+      <c r="H88" s="18">
+        <v>10</v>
+      </c>
+      <c r="I88" s="18">
+        <v>6</v>
+      </c>
+      <c r="J88" s="18">
+        <v>5</v>
+      </c>
+      <c r="K88" s="19">
         <v>4</v>
-      </c>
-      <c r="H88" s="18">
-        <v>12</v>
-      </c>
-      <c r="I88" s="18">
-        <v>8</v>
-      </c>
-      <c r="J88" s="18">
-        <v>10</v>
-      </c>
-      <c r="K88" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>26.7</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="25"/>
-      <c r="G89" s="18">
-        <v>5</v>
-      </c>
-      <c r="H89" s="18">
-        <v>10</v>
-      </c>
-      <c r="I89" s="18">
-        <v>6</v>
-      </c>
-      <c r="J89" s="18">
-        <v>5</v>
-      </c>
-      <c r="K89" s="19">
-        <v>4</v>
-      </c>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
     </row>
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>27</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="4"/>
+        <v>27.1</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D90" s="4"/>
       <c r="E90" s="25"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
+      <c r="G90" s="18">
+        <v>15</v>
+      </c>
+      <c r="H90" s="18">
+        <v>24</v>
+      </c>
+      <c r="I90" s="18">
+        <v>20</v>
+      </c>
+      <c r="J90" s="18">
+        <v>25</v>
+      </c>
+      <c r="K90" s="19">
+        <v>36</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="25"/>
       <c r="G91" s="18">
+        <v>10</v>
+      </c>
+      <c r="H91" s="18">
+        <v>12</v>
+      </c>
+      <c r="I91" s="18">
         <v>15</v>
       </c>
-      <c r="H91" s="18">
-        <v>24</v>
-      </c>
-      <c r="I91" s="18">
-        <v>20</v>
-      </c>
       <c r="J91" s="18">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K91" s="19">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="25"/>
       <c r="G92" s="18">
+        <v>8</v>
+      </c>
+      <c r="H92" s="18">
+        <v>8</v>
+      </c>
+      <c r="I92" s="18">
         <v>10</v>
       </c>
-      <c r="H92" s="18">
-        <v>12</v>
-      </c>
-      <c r="I92" s="18">
-        <v>15</v>
-      </c>
       <c r="J92" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K92" s="19">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="25"/>
@@ -4469,30 +4463,30 @@
         <v>8</v>
       </c>
       <c r="H93" s="18">
+        <v>6</v>
+      </c>
+      <c r="I93" s="18">
         <v>8</v>
-      </c>
-      <c r="I93" s="18">
-        <v>10</v>
       </c>
       <c r="J93" s="18">
         <v>5</v>
       </c>
       <c r="K93" s="19">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="25"/>
       <c r="G94" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H94" s="18">
         <v>6</v>
@@ -4504,27 +4498,27 @@
         <v>5</v>
       </c>
       <c r="K94" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>87</v>
+        <v>466</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="25"/>
       <c r="G95" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H95" s="18">
+        <v>4</v>
+      </c>
+      <c r="I95" s="18">
         <v>6</v>
-      </c>
-      <c r="I95" s="18">
-        <v>8</v>
       </c>
       <c r="J95" s="18">
         <v>5</v>
@@ -4533,155 +4527,144 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="25"/>
       <c r="G96" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H96" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I96" s="18">
         <v>6</v>
       </c>
       <c r="J96" s="18">
+        <v>8</v>
+      </c>
+      <c r="K96" s="19">
         <v>5</v>
       </c>
-      <c r="K96" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="25"/>
       <c r="G97" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H97" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I97" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J97" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K97" s="19">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="25"/>
       <c r="G98" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J98" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K98" s="19">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>27.9</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="25"/>
       <c r="G99" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I99" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J99" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K99" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>28</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="25"/>
-      <c r="G100" s="18">
         <v>1</v>
       </c>
-      <c r="H100" s="18">
-        <v>1</v>
-      </c>
-      <c r="I100" s="18">
-        <v>1</v>
-      </c>
-      <c r="J100" s="18">
-        <v>1</v>
-      </c>
-      <c r="K100" s="19">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
       <c r="J101" s="18"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
+    <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>29</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="25"/>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
@@ -4689,34 +4672,45 @@
     </row>
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>29</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="4"/>
+        <v>29.1</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D103" s="4"/>
       <c r="E103" s="25"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
+      <c r="G103" s="18">
+        <v>10</v>
+      </c>
+      <c r="H103" s="18">
+        <v>15</v>
+      </c>
+      <c r="I103" s="18">
+        <v>10</v>
+      </c>
+      <c r="J103" s="18">
+        <v>8</v>
+      </c>
+      <c r="K103" s="19">
+        <v>11</v>
+      </c>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="25"/>
       <c r="G104" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H104" s="18">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I104" s="18">
         <v>10</v>
@@ -4725,80 +4719,69 @@
         <v>8</v>
       </c>
       <c r="K104" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="25"/>
       <c r="G105" s="18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H105" s="18">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I105" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J105" s="18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K105" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>29.3</v>
-      </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="25"/>
-      <c r="G106" s="18">
-        <v>15</v>
-      </c>
-      <c r="H106" s="18">
-        <v>20</v>
-      </c>
-      <c r="I106" s="18">
-        <v>12</v>
-      </c>
-      <c r="J106" s="18">
-        <v>15</v>
-      </c>
-      <c r="K106" s="19">
         <v>13</v>
       </c>
     </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+    </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
       <c r="I107" s="18"/>
       <c r="J107" s="18"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
+    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>30</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="25"/>
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
       <c r="I108" s="18"/>
@@ -4806,12 +4789,12 @@
     </row>
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>30</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="4"/>
+        <v>30.1</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D109" s="4"/>
       <c r="E109" s="25"/>
       <c r="G109" s="18"/>
@@ -4819,15 +4802,15 @@
       <c r="I109" s="18"/>
       <c r="J109" s="18"/>
     </row>
-    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>30.1</v>
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B110" s="4"/>
-      <c r="C110" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E110" s="25"/>
       <c r="G110" s="18"/>
       <c r="H110" s="18"/>
@@ -4836,12 +4819,12 @@
     </row>
     <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E111" s="25"/>
       <c r="G111" s="18"/>
@@ -4849,14 +4832,14 @@
       <c r="I111" s="18"/>
       <c r="J111" s="18"/>
     </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E112" s="25"/>
       <c r="G112" s="18"/>
@@ -4865,29 +4848,29 @@
       <c r="J112" s="18"/>
     </row>
     <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>201</v>
+      <c r="A113" s="3">
+        <v>30.2</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C113" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="4"/>
       <c r="E113" s="25"/>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
       <c r="I113" s="18"/>
       <c r="J113" s="18"/>
     </row>
-    <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <v>30.2</v>
+    <row r="114" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="E114" s="25"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
@@ -4896,14 +4879,14 @@
     </row>
     <row r="115" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E115" s="25"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
       <c r="I115" s="18"/>
@@ -4911,13 +4894,13 @@
     </row>
     <row r="116" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="15" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
@@ -4926,13 +4909,13 @@
     </row>
     <row r="117" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="15" t="s">
-        <v>129</v>
+      <c r="E117" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
@@ -4941,13 +4924,13 @@
     </row>
     <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
@@ -4956,13 +4939,13 @@
     </row>
     <row r="119" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="16" t="s">
-        <v>131</v>
+      <c r="E119" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
@@ -4971,13 +4954,13 @@
     </row>
     <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
@@ -4986,13 +4969,13 @@
     </row>
     <row r="121" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G121" s="18"/>
       <c r="H121" s="18"/>
@@ -5001,13 +4984,13 @@
     </row>
     <row r="122" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G122" s="18"/>
       <c r="H122" s="18"/>
@@ -5016,13 +4999,13 @@
     </row>
     <row r="123" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="15" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
@@ -5031,13 +5014,13 @@
     </row>
     <row r="124" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="15" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G124" s="18"/>
       <c r="H124" s="18"/>
@@ -5046,13 +5029,13 @@
     </row>
     <row r="125" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="15" t="s">
-        <v>136</v>
+      <c r="E125" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G125" s="18"/>
       <c r="H125" s="18"/>
@@ -5061,13 +5044,13 @@
     </row>
     <row r="126" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G126" s="18"/>
       <c r="H126" s="18"/>
@@ -5076,13 +5059,13 @@
     </row>
     <row r="127" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="16" t="s">
-        <v>138</v>
+      <c r="E127" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G127" s="18"/>
       <c r="H127" s="18"/>
@@ -5091,14 +5074,14 @@
     </row>
     <row r="128" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="D128" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="25"/>
       <c r="G128" s="18"/>
       <c r="H128" s="18"/>
       <c r="I128" s="18"/>
@@ -5106,14 +5089,14 @@
     </row>
     <row r="129" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E129" s="25"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G129" s="18"/>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
@@ -5121,13 +5104,13 @@
     </row>
     <row r="130" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="18"/>
@@ -5136,13 +5119,13 @@
     </row>
     <row r="131" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G131" s="18"/>
       <c r="H131" s="18"/>
@@ -5151,13 +5134,13 @@
     </row>
     <row r="132" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G132" s="18"/>
       <c r="H132" s="18"/>
@@ -5166,13 +5149,13 @@
     </row>
     <row r="133" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G133" s="18"/>
       <c r="H133" s="18"/>
@@ -5181,13 +5164,13 @@
     </row>
     <row r="134" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G134" s="18"/>
       <c r="H134" s="18"/>
@@ -5196,13 +5179,13 @@
     </row>
     <row r="135" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="G135" s="18"/>
       <c r="H135" s="18"/>
@@ -5211,13 +5194,13 @@
     </row>
     <row r="136" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
@@ -5226,13 +5209,13 @@
     </row>
     <row r="137" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G137" s="18"/>
       <c r="H137" s="18"/>
@@ -5241,13 +5224,13 @@
     </row>
     <row r="138" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
@@ -5256,13 +5239,13 @@
     </row>
     <row r="139" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G139" s="18"/>
       <c r="H139" s="18"/>
@@ -5271,14 +5254,14 @@
     </row>
     <row r="140" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="D140" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" s="25"/>
       <c r="G140" s="18"/>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
@@ -5286,14 +5269,14 @@
     </row>
     <row r="141" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E141" s="25"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G141" s="18"/>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
@@ -5301,13 +5284,13 @@
     </row>
     <row r="142" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="G142" s="18"/>
       <c r="H142" s="18"/>
@@ -5316,13 +5299,13 @@
     </row>
     <row r="143" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G143" s="18"/>
       <c r="H143" s="18"/>
@@ -5331,29 +5314,29 @@
     </row>
     <row r="144" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="D144" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144" s="25"/>
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
       <c r="I144" s="18"/>
       <c r="J144" s="18"/>
     </row>
     <row r="145" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>232</v>
+      <c r="A145" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E145" s="25"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G145" s="18"/>
       <c r="H145" s="18"/>
       <c r="I145" s="18"/>
@@ -5361,13 +5344,13 @@
     </row>
     <row r="146" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="15" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
@@ -5376,13 +5359,13 @@
     </row>
     <row r="147" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="15" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
@@ -5391,43 +5374,43 @@
     </row>
     <row r="148" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
       <c r="J148" s="18"/>
     </row>
-    <row r="149" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26" t="s">
-        <v>236</v>
+    <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>30.3</v>
       </c>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="D149" s="4"/>
-      <c r="E149" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="E149" s="25"/>
       <c r="G149" s="18"/>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
       <c r="J149" s="18"/>
     </row>
     <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>30.3</v>
+      <c r="A150" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B150" s="4"/>
-      <c r="C150" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E150" s="25"/>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
@@ -5436,12 +5419,12 @@
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E151" s="25"/>
       <c r="G151" s="18"/>
@@ -5450,14 +5433,14 @@
       <c r="J151" s="18"/>
     </row>
     <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>238</v>
+      <c r="A152" s="3">
+        <v>30.4</v>
       </c>
       <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C152" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="4"/>
       <c r="E152" s="25"/>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
@@ -5465,14 +5448,14 @@
       <c r="J152" s="18"/>
     </row>
     <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
-        <v>30.4</v>
+      <c r="A153" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="B153" s="4"/>
-      <c r="C153" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="E153" s="25"/>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
@@ -5481,14 +5464,14 @@
     </row>
     <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E154" s="25"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
@@ -5496,13 +5479,13 @@
     </row>
     <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="15" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G155" s="18"/>
       <c r="H155" s="18"/>
@@ -5511,13 +5494,13 @@
     </row>
     <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="15" t="s">
-        <v>129</v>
+      <c r="E156" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G156" s="18"/>
       <c r="H156" s="18"/>
@@ -5526,13 +5509,13 @@
     </row>
     <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
@@ -5541,13 +5524,13 @@
     </row>
     <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="16" t="s">
-        <v>131</v>
+      <c r="E158" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
@@ -5556,13 +5539,13 @@
     </row>
     <row r="159" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
@@ -5571,13 +5554,13 @@
     </row>
     <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
@@ -5586,13 +5569,13 @@
     </row>
     <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G161" s="18"/>
       <c r="H161" s="18"/>
@@ -5601,13 +5584,13 @@
     </row>
     <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="15" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
@@ -5616,13 +5599,13 @@
     </row>
     <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="15" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G163" s="18"/>
       <c r="H163" s="18"/>
@@ -5631,13 +5614,13 @@
     </row>
     <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="15" t="s">
-        <v>136</v>
+      <c r="E164" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
@@ -5646,13 +5629,13 @@
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
@@ -5661,13 +5644,13 @@
     </row>
     <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="16" t="s">
-        <v>138</v>
+      <c r="E166" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
@@ -5676,14 +5659,14 @@
     </row>
     <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="D167" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E167" s="25"/>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
@@ -5691,14 +5674,14 @@
     </row>
     <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E168" s="25"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
       <c r="I168" s="18"/>
@@ -5706,13 +5689,13 @@
     </row>
     <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
@@ -5721,13 +5704,13 @@
     </row>
     <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
@@ -5736,13 +5719,13 @@
     </row>
     <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
@@ -5751,13 +5734,13 @@
     </row>
     <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
@@ -5766,13 +5749,13 @@
     </row>
     <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G173" s="18"/>
       <c r="H173" s="18"/>
@@ -5781,13 +5764,13 @@
     </row>
     <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="G174" s="18"/>
       <c r="H174" s="18"/>
@@ -5796,13 +5779,13 @@
     </row>
     <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G175" s="18"/>
       <c r="H175" s="18"/>
@@ -5811,13 +5794,13 @@
     </row>
     <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
@@ -5826,13 +5809,13 @@
     </row>
     <row r="177" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
@@ -5841,13 +5824,13 @@
     </row>
     <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G178" s="18"/>
       <c r="H178" s="18"/>
@@ -5856,29 +5839,29 @@
     </row>
     <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="D179" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E179" s="25"/>
       <c r="G179" s="18"/>
       <c r="H179" s="18"/>
       <c r="I179" s="18"/>
       <c r="J179" s="18"/>
     </row>
-    <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E180" s="25"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
       <c r="I180" s="18"/>
@@ -5886,13 +5869,13 @@
     </row>
     <row r="181" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>
@@ -5901,29 +5884,29 @@
     </row>
     <row r="182" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
       <c r="I182" s="18"/>
       <c r="J182" s="18"/>
     </row>
-    <row r="183" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="D183" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E183" s="25"/>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
@@ -5931,14 +5914,14 @@
     </row>
     <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
-      <c r="D184" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E184" s="25"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
       <c r="I184" s="18"/>
@@ -5946,13 +5929,13 @@
     </row>
     <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="15" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G185" s="18"/>
       <c r="H185" s="18"/>
@@ -5961,13 +5944,13 @@
     </row>
     <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="15" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="G186" s="18"/>
       <c r="H186" s="18"/>
@@ -5976,13 +5959,13 @@
     </row>
     <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G187" s="18"/>
       <c r="H187" s="18"/>
@@ -5990,46 +5973,46 @@
       <c r="J187" s="18"/>
     </row>
     <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B188" s="4"/>
+      <c r="A188" s="3">
+        <v>31</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G188" s="18"/>
+      <c r="E188" s="25"/>
+      <c r="G188" s="18">
+        <v>50</v>
+      </c>
       <c r="H188" s="18"/>
       <c r="I188" s="18"/>
       <c r="J188" s="18"/>
     </row>
     <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>31</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C189" s="4"/>
+        <v>31.1</v>
+      </c>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="D189" s="4"/>
       <c r="E189" s="25"/>
-      <c r="G189" s="18">
-        <v>50</v>
-      </c>
+      <c r="G189" s="18"/>
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
       <c r="J189" s="18"/>
     </row>
     <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
-        <v>31.1</v>
+      <c r="A190" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B190" s="4"/>
-      <c r="C190" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="E190" s="25"/>
       <c r="G190" s="18"/>
       <c r="H190" s="18"/>
@@ -6038,12 +6021,12 @@
     </row>
     <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="15" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E191" s="25"/>
       <c r="G191" s="18"/>
@@ -6053,12 +6036,12 @@
     </row>
     <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
-      <c r="D192" s="15" t="s">
-        <v>129</v>
+      <c r="D192" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="E192" s="25"/>
       <c r="G192" s="18"/>
@@ -6068,12 +6051,12 @@
     </row>
     <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E193" s="25"/>
       <c r="G193" s="18"/>
@@ -6083,12 +6066,12 @@
     </row>
     <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="16" t="s">
-        <v>131</v>
+      <c r="D194" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E194" s="25"/>
       <c r="G194" s="18"/>
@@ -6098,12 +6081,12 @@
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E195" s="25"/>
       <c r="G195" s="18"/>
@@ -6113,12 +6096,12 @@
     </row>
     <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E196" s="25"/>
       <c r="G196" s="18"/>
@@ -6128,12 +6111,12 @@
     </row>
     <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+      <c r="C197" s="25"/>
       <c r="D197" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E197" s="25"/>
       <c r="G197" s="18"/>
@@ -6143,12 +6126,12 @@
     </row>
     <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B198" s="4"/>
-      <c r="C198" s="25"/>
+      <c r="C198" s="4"/>
       <c r="D198" s="15" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="E198" s="25"/>
       <c r="G198" s="18"/>
@@ -6158,12 +6141,12 @@
     </row>
     <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="15" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E199" s="25"/>
       <c r="G199" s="18"/>
@@ -6173,12 +6156,12 @@
     </row>
     <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="15" t="s">
-        <v>136</v>
+      <c r="D200" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="E200" s="25"/>
       <c r="G200" s="18"/>
@@ -6188,12 +6171,12 @@
     </row>
     <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E201" s="25"/>
       <c r="G201" s="18"/>
@@ -6203,12 +6186,12 @@
     </row>
     <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="16" t="s">
-        <v>138</v>
+      <c r="D202" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E202" s="25"/>
       <c r="G202" s="18"/>
@@ -6217,14 +6200,14 @@
       <c r="J202" s="18"/>
     </row>
     <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
-        <v>286</v>
+      <c r="A203" s="3">
+        <v>31.2</v>
       </c>
       <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="C203" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D203" s="4"/>
       <c r="E203" s="25"/>
       <c r="G203" s="18"/>
       <c r="H203" s="18"/>
@@ -6232,14 +6215,14 @@
       <c r="J203" s="18"/>
     </row>
     <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
-        <v>31.2</v>
+      <c r="A204" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B204" s="4"/>
-      <c r="C204" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="E204" s="25"/>
       <c r="G204" s="18"/>
       <c r="H204" s="18"/>
@@ -6248,12 +6231,12 @@
     </row>
     <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E205" s="25"/>
       <c r="G205" s="18"/>
@@ -6263,12 +6246,12 @@
     </row>
     <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E206" s="25"/>
       <c r="G206" s="18"/>
@@ -6278,12 +6261,12 @@
     </row>
     <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E207" s="25"/>
       <c r="G207" s="18"/>
@@ -6293,12 +6276,12 @@
     </row>
     <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E208" s="25"/>
       <c r="G208" s="18"/>
@@ -6308,12 +6291,12 @@
     </row>
     <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="E209" s="25"/>
       <c r="G209" s="18"/>
@@ -6323,12 +6306,12 @@
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="E210" s="25"/>
       <c r="G210" s="18"/>
@@ -6338,12 +6321,12 @@
     </row>
     <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E211" s="25"/>
       <c r="G211" s="18"/>
@@ -6353,12 +6336,12 @@
     </row>
     <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E212" s="25"/>
       <c r="G212" s="18"/>
@@ -6368,12 +6351,12 @@
     </row>
     <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E213" s="25"/>
       <c r="G213" s="18"/>
@@ -6383,12 +6366,12 @@
     </row>
     <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E214" s="25"/>
       <c r="G214" s="18"/>
@@ -6396,30 +6379,30 @@
       <c r="I214" s="18"/>
       <c r="J214" s="18"/>
     </row>
-    <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>297</v>
+    <row r="215" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>31.3</v>
       </c>
       <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="C215" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D215" s="25"/>
       <c r="E215" s="25"/>
       <c r="G215" s="18"/>
       <c r="H215" s="18"/>
       <c r="I215" s="18"/>
       <c r="J215" s="18"/>
     </row>
-    <row r="216" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
-        <v>31.3</v>
+    <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="B216" s="4"/>
-      <c r="C216" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D216" s="25"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E216" s="25"/>
       <c r="G216" s="18"/>
       <c r="H216" s="18"/>
@@ -6428,12 +6411,12 @@
     </row>
     <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="E217" s="25"/>
       <c r="G217" s="18"/>
@@ -6443,12 +6426,12 @@
     </row>
     <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E218" s="25"/>
       <c r="G218" s="18"/>
@@ -6457,14 +6440,14 @@
       <c r="J218" s="18"/>
     </row>
     <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
-        <v>300</v>
+      <c r="A219" s="3">
+        <v>31.4</v>
       </c>
       <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="C219" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D219" s="4"/>
       <c r="E219" s="25"/>
       <c r="G219" s="18"/>
       <c r="H219" s="18"/>
@@ -6472,14 +6455,14 @@
       <c r="J219" s="18"/>
     </row>
     <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
-        <v>31.4</v>
+      <c r="A220" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="B220" s="4"/>
-      <c r="C220" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="E220" s="25"/>
       <c r="G220" s="18"/>
       <c r="H220" s="18"/>
@@ -6488,12 +6471,12 @@
     </row>
     <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="15" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="E221" s="25"/>
       <c r="G221" s="18"/>
@@ -6503,12 +6486,12 @@
     </row>
     <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="15" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="E222" s="25"/>
       <c r="G222" s="18"/>
@@ -6518,12 +6501,12 @@
     </row>
     <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E223" s="25"/>
       <c r="G223" s="18"/>
@@ -6532,14 +6515,14 @@
       <c r="J223" s="18"/>
     </row>
     <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B224" s="4"/>
+      <c r="A224" s="3">
+        <v>32</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C224" s="4"/>
-      <c r="D224" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="D224" s="4"/>
       <c r="E224" s="25"/>
       <c r="G224" s="18"/>
       <c r="H224" s="18"/>
@@ -6548,12 +6531,12 @@
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
-        <v>32</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C225" s="4"/>
+        <v>32.1</v>
+      </c>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="D225" s="4"/>
       <c r="E225" s="25"/>
       <c r="G225" s="18"/>
@@ -6562,14 +6545,14 @@
       <c r="J225" s="18"/>
     </row>
     <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
-        <v>32.1</v>
+      <c r="A226" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="B226" s="4"/>
-      <c r="C226" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="E226" s="25"/>
       <c r="G226" s="18"/>
       <c r="H226" s="18"/>
@@ -6578,14 +6561,14 @@
     </row>
     <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E227" s="25"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="G227" s="18"/>
       <c r="H227" s="18"/>
       <c r="I227" s="18"/>
@@ -6593,13 +6576,13 @@
     </row>
     <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="15" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G228" s="18"/>
       <c r="H228" s="18"/>
@@ -6608,13 +6591,13 @@
     </row>
     <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
-      <c r="E229" s="15" t="s">
-        <v>129</v>
+      <c r="E229" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G229" s="18"/>
       <c r="H229" s="18"/>
@@ -6623,13 +6606,13 @@
     </row>
     <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G230" s="18"/>
       <c r="H230" s="18"/>
@@ -6638,13 +6621,13 @@
     </row>
     <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="16" t="s">
-        <v>131</v>
+      <c r="E231" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="G231" s="18"/>
       <c r="H231" s="18"/>
@@ -6653,13 +6636,13 @@
     </row>
     <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G232" s="18"/>
       <c r="H232" s="18"/>
@@ -6668,13 +6651,13 @@
     </row>
     <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G233" s="18"/>
       <c r="H233" s="18"/>
@@ -6683,13 +6666,13 @@
     </row>
     <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G234" s="18"/>
       <c r="H234" s="18"/>
@@ -6698,13 +6681,13 @@
     </row>
     <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="15" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G235" s="18"/>
       <c r="H235" s="18"/>
@@ -6713,13 +6696,13 @@
     </row>
     <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="15" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G236" s="18"/>
       <c r="H236" s="18"/>
@@ -6728,13 +6711,13 @@
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="15" t="s">
-        <v>136</v>
+      <c r="E237" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G237" s="18"/>
       <c r="H237" s="18"/>
@@ -6743,13 +6726,13 @@
     </row>
     <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G238" s="18"/>
       <c r="H238" s="18"/>
@@ -6758,13 +6741,13 @@
     </row>
     <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="16" t="s">
-        <v>138</v>
+      <c r="E239" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G239" s="18"/>
       <c r="H239" s="18"/>
@@ -6773,14 +6756,14 @@
     </row>
     <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="D240" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E240" s="25"/>
       <c r="G240" s="18"/>
       <c r="H240" s="18"/>
       <c r="I240" s="18"/>
@@ -6788,14 +6771,14 @@
     </row>
     <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E241" s="25"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G241" s="18"/>
       <c r="H241" s="18"/>
       <c r="I241" s="18"/>
@@ -6803,13 +6786,13 @@
     </row>
     <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G242" s="18"/>
       <c r="H242" s="18"/>
@@ -6818,13 +6801,13 @@
     </row>
     <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G243" s="18"/>
       <c r="H243" s="18"/>
@@ -6833,13 +6816,13 @@
     </row>
     <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G244" s="18"/>
       <c r="H244" s="18"/>
@@ -6848,13 +6831,13 @@
     </row>
     <row r="245" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G245" s="18"/>
       <c r="H245" s="18"/>
@@ -6863,13 +6846,13 @@
     </row>
     <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G246" s="18"/>
       <c r="H246" s="18"/>
@@ -6878,13 +6861,13 @@
     </row>
     <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="G247" s="18"/>
       <c r="H247" s="18"/>
@@ -6893,13 +6876,13 @@
     </row>
     <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G248" s="18"/>
       <c r="H248" s="18"/>
@@ -6908,13 +6891,13 @@
     </row>
     <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G249" s="18"/>
       <c r="H249" s="18"/>
@@ -6923,13 +6906,13 @@
     </row>
     <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G250" s="18"/>
       <c r="H250" s="18"/>
@@ -6938,29 +6921,29 @@
     </row>
     <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G251" s="18"/>
       <c r="H251" s="18"/>
       <c r="I251" s="18"/>
       <c r="J251" s="18"/>
     </row>
-    <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="D252" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E252" s="25"/>
       <c r="G252" s="18"/>
       <c r="H252" s="18"/>
       <c r="I252" s="18"/>
@@ -6968,14 +6951,14 @@
     </row>
     <row r="253" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E253" s="25"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
       <c r="I253" s="18"/>
@@ -6983,13 +6966,13 @@
     </row>
     <row r="254" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="G254" s="18"/>
       <c r="H254" s="18"/>
@@ -6998,29 +6981,29 @@
     </row>
     <row r="255" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G255" s="18"/>
       <c r="H255" s="18"/>
       <c r="I255" s="18"/>
       <c r="J255" s="18"/>
     </row>
-    <row r="256" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="D256" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E256" s="25"/>
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
       <c r="I256" s="18"/>
@@ -7028,14 +7011,14 @@
     </row>
     <row r="257" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E257" s="25"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
       <c r="I257" s="18"/>
@@ -7043,13 +7026,13 @@
     </row>
     <row r="258" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="15" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G258" s="18"/>
       <c r="H258" s="18"/>
@@ -7058,13 +7041,13 @@
     </row>
     <row r="259" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="15" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="G259" s="18"/>
       <c r="H259" s="18"/>
@@ -7073,13 +7056,13 @@
     </row>
     <row r="260" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G260" s="18"/>
       <c r="H260" s="18"/>
@@ -7088,14 +7071,14 @@
     </row>
     <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
+      <c r="C261" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D261" s="4"/>
-      <c r="E261" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="E261" s="25"/>
       <c r="G261" s="18"/>
       <c r="H261" s="18"/>
       <c r="I261" s="18"/>
@@ -7103,11 +7086,11 @@
     </row>
     <row r="262" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262" s="25"/>
@@ -7118,11 +7101,11 @@
     </row>
     <row r="263" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D263" s="4"/>
       <c r="E263" s="25"/>
@@ -7133,11 +7116,11 @@
     </row>
     <row r="264" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D264" s="4"/>
       <c r="E264" s="25"/>
@@ -7148,11 +7131,11 @@
     </row>
     <row r="265" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D265" s="4"/>
       <c r="E265" s="25"/>
@@ -7163,11 +7146,11 @@
     </row>
     <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D266" s="4"/>
       <c r="E266" s="25"/>
@@ -7178,11 +7161,11 @@
     </row>
     <row r="267" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267" s="25"/>
@@ -7191,40 +7174,40 @@
       <c r="I267" s="18"/>
       <c r="J267" s="18"/>
     </row>
-    <row r="268" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B268" s="4"/>
-      <c r="C268" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D268" s="4"/>
-      <c r="E268" s="25"/>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B268" s="39"/>
+      <c r="C268" s="39"/>
+      <c r="D268" s="39"/>
+      <c r="E268" s="39"/>
       <c r="G268" s="18"/>
       <c r="H268" s="18"/>
       <c r="I268" s="18"/>
       <c r="J268" s="18"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B269" s="34"/>
-      <c r="C269" s="34"/>
-      <c r="D269" s="34"/>
-      <c r="E269" s="34"/>
+      <c r="A269" s="39"/>
+      <c r="B269" s="39"/>
+      <c r="C269" s="39"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="39"/>
       <c r="G269" s="18"/>
       <c r="H269" s="18"/>
       <c r="I269" s="18"/>
       <c r="J269" s="18"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="34"/>
-      <c r="B270" s="34"/>
-      <c r="C270" s="34"/>
-      <c r="D270" s="34"/>
-      <c r="E270" s="34"/>
+    <row r="270" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>33</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="25"/>
       <c r="G270" s="18"/>
       <c r="H270" s="18"/>
       <c r="I270" s="18"/>
@@ -7232,12 +7215,12 @@
     </row>
     <row r="271" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <v>33</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C271" s="4"/>
+        <v>33.1</v>
+      </c>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D271" s="4"/>
       <c r="E271" s="25"/>
       <c r="G271" s="18"/>
@@ -7246,14 +7229,14 @@
       <c r="J271" s="18"/>
     </row>
     <row r="272" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
-        <v>33.1</v>
+      <c r="A272" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="B272" s="4"/>
-      <c r="C272" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E272" s="25"/>
       <c r="G272" s="18"/>
       <c r="H272" s="18"/>
@@ -7262,12 +7245,12 @@
     </row>
     <row r="273" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E273" s="25"/>
       <c r="G273" s="18"/>
@@ -7277,12 +7260,12 @@
     </row>
     <row r="274" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E274" s="25"/>
       <c r="G274" s="18"/>
@@ -7291,14 +7274,14 @@
       <c r="J274" s="18"/>
     </row>
     <row r="275" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
-        <v>346</v>
+      <c r="A275" s="3">
+        <v>33.200000000000003</v>
       </c>
       <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C275" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D275" s="4"/>
       <c r="E275" s="25"/>
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
@@ -7306,14 +7289,14 @@
       <c r="J275" s="18"/>
     </row>
     <row r="276" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
-        <v>33.200000000000003</v>
+      <c r="A276" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="B276" s="4"/>
-      <c r="C276" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="E276" s="25"/>
       <c r="G276" s="18"/>
       <c r="H276" s="18"/>
@@ -7322,14 +7305,14 @@
     </row>
     <row r="277" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E277" s="25"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G277" s="18"/>
       <c r="H277" s="18"/>
       <c r="I277" s="18"/>
@@ -7337,13 +7320,13 @@
     </row>
     <row r="278" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="4" t="s">
-        <v>95</v>
+      <c r="E278" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="G278" s="18"/>
       <c r="H278" s="18"/>
@@ -7352,13 +7335,13 @@
     </row>
     <row r="279" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="G279" s="18"/>
       <c r="H279" s="18"/>
@@ -7367,13 +7350,13 @@
     </row>
     <row r="280" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="G280" s="18"/>
       <c r="H280" s="18"/>
@@ -7382,13 +7365,13 @@
     </row>
     <row r="281" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
-      <c r="E281" s="15" t="s">
-        <v>92</v>
+      <c r="E281" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G281" s="18"/>
       <c r="H281" s="18"/>
@@ -7397,44 +7380,44 @@
     </row>
     <row r="282" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G282" s="18"/>
       <c r="H282" s="18"/>
       <c r="I282" s="18"/>
       <c r="J282" s="18"/>
     </row>
-    <row r="283" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
-      <c r="E283" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="D283" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E283" s="25"/>
       <c r="G283" s="18"/>
       <c r="H283" s="18"/>
       <c r="I283" s="18"/>
       <c r="J283" s="18"/>
     </row>
-    <row r="284" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E284" s="25"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G284" s="18"/>
       <c r="H284" s="18"/>
       <c r="I284" s="18"/>
@@ -7442,13 +7425,13 @@
     </row>
     <row r="285" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
-      <c r="E285" s="4" t="s">
-        <v>95</v>
+      <c r="E285" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="G285" s="18"/>
       <c r="H285" s="18"/>
@@ -7457,13 +7440,13 @@
     </row>
     <row r="286" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="G286" s="18"/>
       <c r="H286" s="18"/>
@@ -7472,13 +7455,13 @@
     </row>
     <row r="287" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="G287" s="18"/>
       <c r="H287" s="18"/>
@@ -7487,13 +7470,13 @@
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="15" t="s">
-        <v>92</v>
+      <c r="E288" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G288" s="18"/>
       <c r="H288" s="18"/>
@@ -7502,13 +7485,13 @@
     </row>
     <row r="289" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G289" s="18"/>
       <c r="H289" s="18"/>
@@ -7517,14 +7500,14 @@
     </row>
     <row r="290" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="D290" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E290" s="25"/>
       <c r="G290" s="18"/>
       <c r="H290" s="18"/>
       <c r="I290" s="18"/>
@@ -7532,14 +7515,14 @@
     </row>
     <row r="291" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E291" s="25"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="G291" s="18"/>
       <c r="H291" s="18"/>
       <c r="I291" s="18"/>
@@ -7547,13 +7530,13 @@
     </row>
     <row r="292" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G292" s="18"/>
       <c r="H292" s="18"/>
@@ -7562,13 +7545,13 @@
     </row>
     <row r="293" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G293" s="18"/>
       <c r="H293" s="18"/>
@@ -7577,13 +7560,13 @@
     </row>
     <row r="294" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G294" s="18"/>
       <c r="H294" s="18"/>
@@ -7592,13 +7575,13 @@
     </row>
     <row r="295" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
-      <c r="E295" s="15" t="s">
-        <v>167</v>
+      <c r="E295" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="G295" s="18"/>
       <c r="H295" s="18"/>
@@ -7606,29 +7589,29 @@
       <c r="J295" s="18"/>
     </row>
     <row r="296" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
-        <v>366</v>
+      <c r="A296" s="3">
+        <v>33.299999999999997</v>
       </c>
       <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
+      <c r="C296" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="D296" s="4"/>
-      <c r="E296" s="16" t="s">
-        <v>168</v>
-      </c>
+      <c r="E296" s="25"/>
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
       <c r="I296" s="18"/>
       <c r="J296" s="18"/>
     </row>
     <row r="297" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
-        <v>33.299999999999997</v>
+      <c r="A297" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="B297" s="4"/>
-      <c r="C297" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E297" s="25"/>
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
@@ -7637,12 +7620,12 @@
     </row>
     <row r="298" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E298" s="25"/>
       <c r="G298" s="18"/>
@@ -7651,14 +7634,14 @@
       <c r="J298" s="18"/>
     </row>
     <row r="299" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
-        <v>368</v>
+      <c r="A299" s="3">
+        <v>33.4</v>
       </c>
       <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C299" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D299" s="4"/>
       <c r="E299" s="25"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
@@ -7666,14 +7649,14 @@
       <c r="J299" s="18"/>
     </row>
     <row r="300" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
-        <v>33.4</v>
+      <c r="A300" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="B300" s="4"/>
-      <c r="C300" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="E300" s="25"/>
       <c r="G300" s="18"/>
       <c r="H300" s="18"/>
@@ -7682,14 +7665,14 @@
     </row>
     <row r="301" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E301" s="25"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G301" s="18"/>
       <c r="H301" s="18"/>
       <c r="I301" s="18"/>
@@ -7697,13 +7680,13 @@
     </row>
     <row r="302" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
-      <c r="E302" s="4" t="s">
-        <v>95</v>
+      <c r="E302" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="G302" s="18"/>
       <c r="H302" s="18"/>
@@ -7712,13 +7695,13 @@
     </row>
     <row r="303" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="G303" s="18"/>
       <c r="H303" s="18"/>
@@ -7727,13 +7710,13 @@
     </row>
     <row r="304" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="G304" s="18"/>
       <c r="H304" s="18"/>
@@ -7742,13 +7725,13 @@
     </row>
     <row r="305" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="15" t="s">
-        <v>92</v>
+      <c r="E305" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G305" s="18"/>
       <c r="H305" s="18"/>
@@ -7757,44 +7740,44 @@
     </row>
     <row r="306" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G306" s="18"/>
       <c r="H306" s="18"/>
       <c r="I306" s="18"/>
       <c r="J306" s="18"/>
     </row>
-    <row r="307" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="D307" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E307" s="25"/>
       <c r="G307" s="18"/>
       <c r="H307" s="18"/>
       <c r="I307" s="18"/>
       <c r="J307" s="18"/>
     </row>
-    <row r="308" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E308" s="25"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G308" s="18"/>
       <c r="H308" s="18"/>
       <c r="I308" s="18"/>
@@ -7802,13 +7785,13 @@
     </row>
     <row r="309" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
-      <c r="E309" s="4" t="s">
-        <v>95</v>
+      <c r="E309" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="G309" s="18"/>
       <c r="H309" s="18"/>
@@ -7817,13 +7800,13 @@
     </row>
     <row r="310" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="G310" s="18"/>
       <c r="H310" s="18"/>
@@ -7832,13 +7815,13 @@
     </row>
     <row r="311" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="G311" s="18"/>
       <c r="H311" s="18"/>
@@ -7847,13 +7830,13 @@
     </row>
     <row r="312" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
-      <c r="E312" s="15" t="s">
-        <v>92</v>
+      <c r="E312" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G312" s="18"/>
       <c r="H312" s="18"/>
@@ -7862,13 +7845,13 @@
     </row>
     <row r="313" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G313" s="18"/>
       <c r="H313" s="18"/>
@@ -7877,14 +7860,14 @@
     </row>
     <row r="314" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="D314" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E314" s="25"/>
       <c r="G314" s="18"/>
       <c r="H314" s="18"/>
       <c r="I314" s="18"/>
@@ -7892,14 +7875,14 @@
     </row>
     <row r="315" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E315" s="25"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="G315" s="18"/>
       <c r="H315" s="18"/>
       <c r="I315" s="18"/>
@@ -7907,13 +7890,13 @@
     </row>
     <row r="316" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G316" s="18"/>
       <c r="H316" s="18"/>
@@ -7922,13 +7905,13 @@
     </row>
     <row r="317" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G317" s="18"/>
       <c r="H317" s="18"/>
@@ -7937,13 +7920,13 @@
     </row>
     <row r="318" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G318" s="18"/>
       <c r="H318" s="18"/>
@@ -7952,13 +7935,13 @@
     </row>
     <row r="319" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="15" t="s">
-        <v>167</v>
+      <c r="E319" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="G319" s="18"/>
       <c r="H319" s="18"/>
@@ -7966,46 +7949,46 @@
       <c r="J319" s="18"/>
     </row>
     <row r="320" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B320" s="4"/>
+      <c r="A320" s="3">
+        <v>34</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
-      <c r="E320" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="G320" s="18"/>
+      <c r="E320" s="25"/>
+      <c r="G320" s="18">
+        <v>50</v>
+      </c>
       <c r="H320" s="18"/>
       <c r="I320" s="18"/>
       <c r="J320" s="18"/>
     </row>
     <row r="321" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
-        <v>34</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
+        <v>34.1</v>
+      </c>
+      <c r="B321" s="4"/>
+      <c r="C321" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D321" s="25"/>
       <c r="E321" s="25"/>
-      <c r="G321" s="18">
-        <v>50</v>
-      </c>
+      <c r="G321" s="18"/>
       <c r="H321" s="18"/>
       <c r="I321" s="18"/>
       <c r="J321" s="18"/>
     </row>
     <row r="322" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A322" s="3">
-        <v>34.1</v>
+      <c r="A322" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="B322" s="4"/>
-      <c r="C322" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D322" s="25"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="E322" s="25"/>
       <c r="G322" s="18"/>
       <c r="H322" s="18"/>
@@ -8014,12 +7997,12 @@
     </row>
     <row r="323" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
-      <c r="D323" s="4" t="s">
-        <v>95</v>
+      <c r="D323" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="E323" s="25"/>
       <c r="G323" s="18"/>
@@ -8029,12 +8012,12 @@
     </row>
     <row r="324" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="E324" s="25"/>
       <c r="G324" s="18"/>
@@ -8044,12 +8027,12 @@
     </row>
     <row r="325" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="E325" s="25"/>
       <c r="G325" s="18"/>
@@ -8059,12 +8042,12 @@
     </row>
     <row r="326" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
-      <c r="D326" s="15" t="s">
-        <v>92</v>
+      <c r="D326" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E326" s="25"/>
       <c r="G326" s="18"/>
@@ -8074,12 +8057,12 @@
     </row>
     <row r="327" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="E327" s="25"/>
       <c r="G327" s="18"/>
@@ -8087,30 +8070,30 @@
       <c r="I327" s="18"/>
       <c r="J327" s="18"/>
     </row>
-    <row r="328" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
-        <v>394</v>
+    <row r="328" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3">
+        <v>34.200000000000003</v>
       </c>
       <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
-      <c r="D328" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="C328" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D328" s="25"/>
       <c r="E328" s="25"/>
       <c r="G328" s="18"/>
       <c r="H328" s="18"/>
       <c r="I328" s="18"/>
       <c r="J328" s="18"/>
     </row>
-    <row r="329" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="3">
-        <v>34.200000000000003</v>
+    <row r="329" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="B329" s="4"/>
-      <c r="C329" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D329" s="25"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="E329" s="25"/>
       <c r="G329" s="18"/>
       <c r="H329" s="18"/>
@@ -8119,12 +8102,12 @@
     </row>
     <row r="330" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
-      <c r="D330" s="4" t="s">
-        <v>95</v>
+      <c r="D330" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="E330" s="25"/>
       <c r="G330" s="18"/>
@@ -8134,12 +8117,12 @@
     </row>
     <row r="331" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="E331" s="25"/>
       <c r="G331" s="18"/>
@@ -8149,12 +8132,12 @@
     </row>
     <row r="332" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="E332" s="25"/>
       <c r="G332" s="18"/>
@@ -8164,12 +8147,12 @@
     </row>
     <row r="333" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
-      <c r="D333" s="15" t="s">
-        <v>92</v>
+      <c r="D333" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E333" s="25"/>
       <c r="G333" s="18"/>
@@ -8179,12 +8162,12 @@
     </row>
     <row r="334" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="E334" s="25"/>
       <c r="G334" s="18"/>
@@ -8193,14 +8176,14 @@
       <c r="J334" s="18"/>
     </row>
     <row r="335" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
-        <v>400</v>
+      <c r="A335" s="3">
+        <v>34.299999999999997</v>
       </c>
       <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
-      <c r="D335" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="C335" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D335" s="25"/>
       <c r="E335" s="25"/>
       <c r="G335" s="18"/>
       <c r="H335" s="18"/>
@@ -8208,14 +8191,14 @@
       <c r="J335" s="18"/>
     </row>
     <row r="336" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A336" s="3">
-        <v>34.299999999999997</v>
+      <c r="A336" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="B336" s="4"/>
-      <c r="C336" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D336" s="25"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="E336" s="25"/>
       <c r="G336" s="18"/>
       <c r="H336" s="18"/>
@@ -8224,12 +8207,12 @@
     </row>
     <row r="337" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E337" s="25"/>
       <c r="G337" s="18"/>
@@ -8239,12 +8222,12 @@
     </row>
     <row r="338" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E338" s="25"/>
       <c r="G338" s="18"/>
@@ -8254,12 +8237,12 @@
     </row>
     <row r="339" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E339" s="25"/>
       <c r="G339" s="18"/>
@@ -8269,12 +8252,12 @@
     </row>
     <row r="340" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
-      <c r="D340" s="15" t="s">
-        <v>167</v>
+      <c r="D340" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E340" s="25"/>
       <c r="G340" s="18"/>
@@ -8283,14 +8266,14 @@
       <c r="J340" s="18"/>
     </row>
     <row r="341" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B341" s="4"/>
+      <c r="A341" s="3">
+        <v>35</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C341" s="4"/>
-      <c r="D341" s="16" t="s">
-        <v>168</v>
-      </c>
+      <c r="D341" s="4"/>
       <c r="E341" s="25"/>
       <c r="G341" s="18"/>
       <c r="H341" s="18"/>
@@ -8299,12 +8282,12 @@
     </row>
     <row r="342" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
-        <v>35</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C342" s="4"/>
+        <v>35.1</v>
+      </c>
+      <c r="B342" s="4"/>
+      <c r="C342" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="D342" s="4"/>
       <c r="E342" s="25"/>
       <c r="G342" s="18"/>
@@ -8313,14 +8296,14 @@
       <c r="J342" s="18"/>
     </row>
     <row r="343" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A343" s="3">
-        <v>35.1</v>
+      <c r="A343" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="B343" s="4"/>
-      <c r="C343" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D343" s="4"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="E343" s="25"/>
       <c r="G343" s="18"/>
       <c r="H343" s="18"/>
@@ -8329,14 +8312,14 @@
     </row>
     <row r="344" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
-      <c r="D344" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E344" s="25"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G344" s="18"/>
       <c r="H344" s="18"/>
       <c r="I344" s="18"/>
@@ -8344,13 +8327,13 @@
     </row>
     <row r="345" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
-      <c r="E345" s="4" t="s">
-        <v>95</v>
+      <c r="E345" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="G345" s="18"/>
       <c r="H345" s="18"/>
@@ -8359,13 +8342,13 @@
     </row>
     <row r="346" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="G346" s="18"/>
       <c r="H346" s="18"/>
@@ -8374,13 +8357,13 @@
     </row>
     <row r="347" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="G347" s="18"/>
       <c r="H347" s="18"/>
@@ -8389,13 +8372,13 @@
     </row>
     <row r="348" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="15" t="s">
-        <v>92</v>
+      <c r="E348" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G348" s="18"/>
       <c r="H348" s="18"/>
@@ -8404,44 +8387,44 @@
     </row>
     <row r="349" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G349" s="18"/>
       <c r="H349" s="18"/>
       <c r="I349" s="18"/>
       <c r="J349" s="18"/>
     </row>
-    <row r="350" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
-      <c r="E350" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="D350" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E350" s="25"/>
       <c r="G350" s="18"/>
       <c r="H350" s="18"/>
       <c r="I350" s="18"/>
       <c r="J350" s="18"/>
     </row>
-    <row r="351" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
-      <c r="D351" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E351" s="25"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G351" s="18"/>
       <c r="H351" s="18"/>
       <c r="I351" s="18"/>
@@ -8449,13 +8432,13 @@
     </row>
     <row r="352" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
-      <c r="E352" s="4" t="s">
-        <v>95</v>
+      <c r="E352" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="G352" s="18"/>
       <c r="H352" s="18"/>
@@ -8464,13 +8447,13 @@
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="15" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="G353" s="18"/>
       <c r="H353" s="18"/>
@@ -8479,13 +8462,13 @@
     </row>
     <row r="354" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="G354" s="18"/>
       <c r="H354" s="18"/>
@@ -8494,13 +8477,13 @@
     </row>
     <row r="355" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
-      <c r="E355" s="15" t="s">
-        <v>92</v>
+      <c r="E355" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G355" s="18"/>
       <c r="H355" s="18"/>
@@ -8509,13 +8492,13 @@
     </row>
     <row r="356" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G356" s="18"/>
       <c r="H356" s="18"/>
@@ -8524,14 +8507,14 @@
     </row>
     <row r="357" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="D357" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E357" s="25"/>
       <c r="G357" s="18"/>
       <c r="H357" s="18"/>
       <c r="I357" s="18"/>
@@ -8539,14 +8522,14 @@
     </row>
     <row r="358" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E358" s="25"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="G358" s="18"/>
       <c r="H358" s="18"/>
       <c r="I358" s="18"/>
@@ -8554,13 +8537,13 @@
     </row>
     <row r="359" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G359" s="18"/>
       <c r="H359" s="18"/>
@@ -8569,13 +8552,13 @@
     </row>
     <row r="360" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G360" s="18"/>
       <c r="H360" s="18"/>
@@ -8584,13 +8567,13 @@
     </row>
     <row r="361" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G361" s="18"/>
       <c r="H361" s="18"/>
@@ -8599,13 +8582,13 @@
     </row>
     <row r="362" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
-      <c r="E362" s="15" t="s">
-        <v>167</v>
+      <c r="E362" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="G362" s="18"/>
       <c r="H362" s="18"/>
@@ -8613,15 +8596,15 @@
       <c r="J362" s="18"/>
     </row>
     <row r="363" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A363" s="3" t="s">
-        <v>425</v>
+      <c r="A363" s="3">
+        <v>35.200000000000003</v>
       </c>
       <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
+      <c r="C363" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D363" s="4"/>
-      <c r="E363" s="16" t="s">
-        <v>168</v>
-      </c>
+      <c r="E363" s="25"/>
       <c r="G363" s="18"/>
       <c r="H363" s="18"/>
       <c r="I363" s="18"/>
@@ -8629,11 +8612,11 @@
     </row>
     <row r="364" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
-        <v>35.200000000000003</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="B364" s="4"/>
       <c r="C364" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="25"/>
@@ -8644,11 +8627,11 @@
     </row>
     <row r="365" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
-        <v>35.299999999999997</v>
+        <v>35.4</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="25"/>
@@ -8659,11 +8642,11 @@
     </row>
     <row r="366" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D366" s="4"/>
       <c r="E366" s="25"/>
@@ -8674,11 +8657,11 @@
     </row>
     <row r="367" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D367" s="4"/>
       <c r="E367" s="25"/>
@@ -8689,11 +8672,11 @@
     </row>
     <row r="368" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
-        <v>35.6</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D368" s="4"/>
       <c r="E368" s="25"/>
@@ -8704,11 +8687,11 @@
     </row>
     <row r="369" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
-        <v>35.700000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D369" s="4"/>
       <c r="E369" s="25"/>
@@ -8717,40 +8700,40 @@
       <c r="I369" s="18"/>
       <c r="J369" s="18"/>
     </row>
-    <row r="370" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A370" s="3">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="B370" s="4"/>
-      <c r="C370" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D370" s="4"/>
-      <c r="E370" s="25"/>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B370" s="39"/>
+      <c r="C370" s="39"/>
+      <c r="D370" s="39"/>
+      <c r="E370" s="39"/>
       <c r="G370" s="18"/>
       <c r="H370" s="18"/>
       <c r="I370" s="18"/>
       <c r="J370" s="18"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A371" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B371" s="34"/>
-      <c r="C371" s="34"/>
-      <c r="D371" s="34"/>
-      <c r="E371" s="34"/>
+      <c r="A371" s="39"/>
+      <c r="B371" s="39"/>
+      <c r="C371" s="39"/>
+      <c r="D371" s="39"/>
+      <c r="E371" s="39"/>
       <c r="G371" s="18"/>
       <c r="H371" s="18"/>
       <c r="I371" s="18"/>
       <c r="J371" s="18"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A372" s="34"/>
-      <c r="B372" s="34"/>
-      <c r="C372" s="34"/>
-      <c r="D372" s="34"/>
-      <c r="E372" s="34"/>
+    <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A372" s="3">
+        <v>36</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+      <c r="E372" s="25"/>
       <c r="G372" s="18"/>
       <c r="H372" s="18"/>
       <c r="I372" s="18"/>
@@ -8758,12 +8741,12 @@
     </row>
     <row r="373" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
-        <v>36</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C373" s="4"/>
+        <v>36.1</v>
+      </c>
+      <c r="B373" s="4"/>
+      <c r="C373" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D373" s="4"/>
       <c r="E373" s="25"/>
       <c r="G373" s="18"/>
@@ -8772,14 +8755,14 @@
       <c r="J373" s="18"/>
     </row>
     <row r="374" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A374" s="3">
-        <v>36.1</v>
+      <c r="A374" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="B374" s="4"/>
-      <c r="C374" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D374" s="4"/>
+      <c r="C374" s="4"/>
+      <c r="D374" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E374" s="25"/>
       <c r="G374" s="18"/>
       <c r="H374" s="18"/>
@@ -8788,12 +8771,12 @@
     </row>
     <row r="375" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E375" s="25"/>
       <c r="G375" s="18"/>
@@ -8803,12 +8786,12 @@
     </row>
     <row r="376" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E376" s="25"/>
       <c r="G376" s="18"/>
@@ -8817,14 +8800,14 @@
       <c r="J376" s="18"/>
     </row>
     <row r="377" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A377" s="3" t="s">
-        <v>428</v>
+      <c r="A377" s="3">
+        <v>36.200000000000003</v>
       </c>
       <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
-      <c r="D377" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C377" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D377" s="4"/>
       <c r="E377" s="25"/>
       <c r="G377" s="18"/>
       <c r="H377" s="18"/>
@@ -8832,14 +8815,14 @@
       <c r="J377" s="18"/>
     </row>
     <row r="378" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A378" s="3">
-        <v>36.200000000000003</v>
+      <c r="A378" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="B378" s="4"/>
-      <c r="C378" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D378" s="4"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="E378" s="25"/>
       <c r="G378" s="18"/>
       <c r="H378" s="18"/>
@@ -8848,14 +8831,14 @@
     </row>
     <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
-      <c r="D379" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E379" s="25"/>
+      <c r="D379" s="4"/>
+      <c r="E379" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G379" s="18"/>
       <c r="H379" s="18"/>
       <c r="I379" s="18"/>
@@ -8863,14 +8846,14 @@
     </row>
     <row r="380" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
-      <c r="E380" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="D380" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E380" s="25"/>
       <c r="G380" s="18"/>
       <c r="H380" s="18"/>
       <c r="I380" s="18"/>
@@ -8878,14 +8861,14 @@
     </row>
     <row r="381" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
-      <c r="D381" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E381" s="25"/>
+      <c r="D381" s="4"/>
+      <c r="E381" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="G381" s="18"/>
       <c r="H381" s="18"/>
       <c r="I381" s="18"/>
@@ -8893,13 +8876,13 @@
     </row>
     <row r="382" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G382" s="18"/>
       <c r="H382" s="18"/>
@@ -8908,13 +8891,13 @@
     </row>
     <row r="383" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G383" s="18"/>
       <c r="H383" s="18"/>
@@ -8923,13 +8906,13 @@
     </row>
     <row r="384" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G384" s="18"/>
       <c r="H384" s="18"/>
@@ -8938,13 +8921,13 @@
     </row>
     <row r="385" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G385" s="18"/>
       <c r="H385" s="18"/>
@@ -8953,13 +8936,13 @@
     </row>
     <row r="386" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
-      <c r="E386" s="15" t="s">
-        <v>176</v>
+      <c r="E386" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G386" s="18"/>
       <c r="H386" s="18"/>
@@ -8968,13 +8951,13 @@
     </row>
     <row r="387" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
-      <c r="E387" s="4" t="s">
-        <v>177</v>
+      <c r="E387" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="G387" s="18"/>
       <c r="H387" s="18"/>
@@ -8982,29 +8965,29 @@
       <c r="J387" s="18"/>
     </row>
     <row r="388" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A388" s="3" t="s">
-        <v>438</v>
+      <c r="A388" s="3">
+        <v>36.299999999999997</v>
       </c>
       <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
+      <c r="C388" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="D388" s="4"/>
-      <c r="E388" s="15" t="s">
-        <v>178</v>
-      </c>
+      <c r="E388" s="25"/>
       <c r="G388" s="18"/>
       <c r="H388" s="18"/>
       <c r="I388" s="18"/>
       <c r="J388" s="18"/>
     </row>
     <row r="389" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A389" s="3">
-        <v>36.299999999999997</v>
+      <c r="A389" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="B389" s="4"/>
-      <c r="C389" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D389" s="4"/>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E389" s="25"/>
       <c r="G389" s="18"/>
       <c r="H389" s="18"/>
@@ -9013,12 +8996,12 @@
     </row>
     <row r="390" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E390" s="25"/>
       <c r="G390" s="18"/>
@@ -9027,14 +9010,14 @@
       <c r="J390" s="18"/>
     </row>
     <row r="391" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A391" s="3" t="s">
-        <v>440</v>
+      <c r="A391" s="3">
+        <v>36.4</v>
       </c>
       <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C391" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D391" s="4"/>
       <c r="E391" s="25"/>
       <c r="G391" s="18"/>
       <c r="H391" s="18"/>
@@ -9042,14 +9025,14 @@
       <c r="J391" s="18"/>
     </row>
     <row r="392" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A392" s="3">
-        <v>36.4</v>
+      <c r="A392" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="B392" s="4"/>
-      <c r="C392" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D392" s="4"/>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="E392" s="25"/>
       <c r="G392" s="18"/>
       <c r="H392" s="18"/>
@@ -9058,14 +9041,14 @@
     </row>
     <row r="393" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
-      <c r="D393" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E393" s="25"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G393" s="18"/>
       <c r="H393" s="18"/>
       <c r="I393" s="18"/>
@@ -9073,14 +9056,14 @@
     </row>
     <row r="394" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
-      <c r="D394" s="4"/>
-      <c r="E394" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="D394" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E394" s="25"/>
       <c r="G394" s="18"/>
       <c r="H394" s="18"/>
       <c r="I394" s="18"/>
@@ -9088,14 +9071,14 @@
     </row>
     <row r="395" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
-      <c r="D395" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E395" s="25"/>
+      <c r="D395" s="4"/>
+      <c r="E395" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="G395" s="18"/>
       <c r="H395" s="18"/>
       <c r="I395" s="18"/>
@@ -9103,13 +9086,13 @@
     </row>
     <row r="396" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G396" s="18"/>
       <c r="H396" s="18"/>
@@ -9118,13 +9101,13 @@
     </row>
     <row r="397" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G397" s="18"/>
       <c r="H397" s="18"/>
@@ -9133,13 +9116,13 @@
     </row>
     <row r="398" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G398" s="18"/>
       <c r="H398" s="18"/>
@@ -9148,13 +9131,13 @@
     </row>
     <row r="399" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G399" s="18"/>
       <c r="H399" s="18"/>
@@ -9163,13 +9146,13 @@
     </row>
     <row r="400" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
-      <c r="E400" s="15" t="s">
-        <v>176</v>
+      <c r="E400" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G400" s="18"/>
       <c r="H400" s="18"/>
@@ -9178,13 +9161,13 @@
     </row>
     <row r="401" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
-      <c r="E401" s="4" t="s">
-        <v>177</v>
+      <c r="E401" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="G401" s="18"/>
       <c r="H401" s="18"/>
@@ -9192,46 +9175,46 @@
       <c r="J401" s="18"/>
     </row>
     <row r="402" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B402" s="4"/>
+      <c r="A402" s="3">
+        <v>37</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G402" s="18"/>
+      <c r="D402" s="28"/>
+      <c r="E402" s="29"/>
+      <c r="G402" s="18">
+        <v>50</v>
+      </c>
       <c r="H402" s="18"/>
       <c r="I402" s="18"/>
       <c r="J402" s="18"/>
     </row>
     <row r="403" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
-        <v>37</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C403" s="4"/>
-      <c r="D403" s="28"/>
-      <c r="E403" s="29"/>
-      <c r="G403" s="18">
-        <v>50</v>
-      </c>
+        <v>37.1</v>
+      </c>
+      <c r="B403" s="4"/>
+      <c r="C403" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D403" s="30"/>
+      <c r="E403" s="31"/>
+      <c r="G403" s="18"/>
       <c r="H403" s="18"/>
       <c r="I403" s="18"/>
       <c r="J403" s="18"/>
     </row>
     <row r="404" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A404" s="3">
-        <v>37.1</v>
+      <c r="A404" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="B404" s="4"/>
-      <c r="C404" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D404" s="30"/>
+      <c r="C404" s="27"/>
+      <c r="D404" s="32" t="s">
+        <v>177</v>
+      </c>
       <c r="E404" s="31"/>
       <c r="G404" s="18"/>
       <c r="H404" s="18"/>
@@ -9239,14 +9222,14 @@
       <c r="J404" s="18"/>
     </row>
     <row r="405" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A405" s="3" t="s">
-        <v>451</v>
+      <c r="A405" s="3">
+        <v>37.200000000000003</v>
       </c>
       <c r="B405" s="4"/>
-      <c r="C405" s="27"/>
-      <c r="D405" s="32" t="s">
-        <v>179</v>
-      </c>
+      <c r="C405" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D405" s="30"/>
       <c r="E405" s="31"/>
       <c r="G405" s="18"/>
       <c r="H405" s="18"/>
@@ -9254,14 +9237,14 @@
       <c r="J405" s="18"/>
     </row>
     <row r="406" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A406" s="3">
-        <v>37.200000000000003</v>
+      <c r="A406" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="B406" s="4"/>
-      <c r="C406" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D406" s="30"/>
+      <c r="C406" s="27"/>
+      <c r="D406" s="33" t="s">
+        <v>170</v>
+      </c>
       <c r="E406" s="31"/>
       <c r="G406" s="18"/>
       <c r="H406" s="18"/>
@@ -9270,12 +9253,12 @@
     </row>
     <row r="407" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="27"/>
       <c r="D407" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E407" s="31"/>
       <c r="G407" s="18"/>
@@ -9285,12 +9268,12 @@
     </row>
     <row r="408" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="27"/>
       <c r="D408" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E408" s="31"/>
       <c r="G408" s="18"/>
@@ -9300,12 +9283,12 @@
     </row>
     <row r="409" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="27"/>
       <c r="D409" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E409" s="31"/>
       <c r="G409" s="18"/>
@@ -9315,12 +9298,12 @@
     </row>
     <row r="410" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="27"/>
       <c r="D410" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E410" s="31"/>
       <c r="G410" s="18"/>
@@ -9330,12 +9313,12 @@
     </row>
     <row r="411" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="27"/>
-      <c r="D411" s="33" t="s">
-        <v>176</v>
+      <c r="D411" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="E411" s="31"/>
       <c r="G411" s="18"/>
@@ -9345,12 +9328,12 @@
     </row>
     <row r="412" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B412" s="4"/>
       <c r="C412" s="27"/>
-      <c r="D412" s="32" t="s">
-        <v>177</v>
+      <c r="D412" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="E412" s="31"/>
       <c r="G412" s="18"/>
@@ -9359,15 +9342,15 @@
       <c r="J412" s="18"/>
     </row>
     <row r="413" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B413" s="4"/>
-      <c r="C413" s="27"/>
-      <c r="D413" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E413" s="31"/>
+      <c r="A413" s="3">
+        <v>38</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C413" s="4"/>
+      <c r="D413" s="14"/>
+      <c r="E413" s="24"/>
       <c r="G413" s="18"/>
       <c r="H413" s="18"/>
       <c r="I413" s="18"/>
@@ -9375,28 +9358,28 @@
     </row>
     <row r="414" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
-        <v>38</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C414" s="4"/>
-      <c r="D414" s="14"/>
-      <c r="E414" s="24"/>
+        <v>38.1</v>
+      </c>
+      <c r="B414" s="4"/>
+      <c r="C414" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="25"/>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
       <c r="I414" s="18"/>
       <c r="J414" s="18"/>
     </row>
     <row r="415" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A415" s="3">
-        <v>38.1</v>
+      <c r="A415" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="B415" s="4"/>
-      <c r="C415" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D415" s="4"/>
+      <c r="C415" s="4"/>
+      <c r="D415" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="E415" s="25"/>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
@@ -9405,14 +9388,14 @@
     </row>
     <row r="416" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
-      <c r="D416" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E416" s="25"/>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
       <c r="I416" s="18"/>
@@ -9420,14 +9403,14 @@
     </row>
     <row r="417" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
-      <c r="E417" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="D417" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E417" s="25"/>
       <c r="G417" s="18"/>
       <c r="H417" s="18"/>
       <c r="I417" s="18"/>
@@ -9435,14 +9418,14 @@
     </row>
     <row r="418" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
-      <c r="D418" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E418" s="25"/>
+      <c r="D418" s="4"/>
+      <c r="E418" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="G418" s="18"/>
       <c r="H418" s="18"/>
       <c r="I418" s="18"/>
@@ -9450,13 +9433,13 @@
     </row>
     <row r="419" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G419" s="18"/>
       <c r="H419" s="18"/>
@@ -9465,13 +9448,13 @@
     </row>
     <row r="420" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G420" s="18"/>
       <c r="H420" s="18"/>
@@ -9480,13 +9463,13 @@
     </row>
     <row r="421" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G421" s="18"/>
       <c r="H421" s="18"/>
@@ -9495,13 +9478,13 @@
     </row>
     <row r="422" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G422" s="18"/>
       <c r="H422" s="18"/>
@@ -9510,13 +9493,13 @@
     </row>
     <row r="423" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
-      <c r="E423" s="15" t="s">
-        <v>176</v>
+      <c r="E423" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G423" s="18"/>
       <c r="H423" s="18"/>
@@ -9525,13 +9508,13 @@
     </row>
     <row r="424" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
-      <c r="E424" s="4" t="s">
-        <v>177</v>
+      <c r="E424" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="G424" s="18"/>
       <c r="H424" s="18"/>
@@ -9539,15 +9522,15 @@
       <c r="J424" s="18"/>
     </row>
     <row r="425" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A425" s="3" t="s">
-        <v>468</v>
+      <c r="A425" s="3">
+        <v>38.200000000000003</v>
       </c>
       <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
+      <c r="C425" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D425" s="4"/>
-      <c r="E425" s="15" t="s">
-        <v>178</v>
-      </c>
+      <c r="E425" s="25"/>
       <c r="G425" s="18"/>
       <c r="H425" s="18"/>
       <c r="I425" s="18"/>
@@ -9555,11 +9538,11 @@
     </row>
     <row r="426" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
-        <v>38.200000000000003</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="B426" s="4"/>
       <c r="C426" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426" s="25"/>
@@ -9570,11 +9553,11 @@
     </row>
     <row r="427" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
-        <v>38.299999999999997</v>
+        <v>38.4</v>
       </c>
       <c r="B427" s="4"/>
       <c r="C427" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427" s="25"/>
@@ -9585,11 +9568,11 @@
     </row>
     <row r="428" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="B428" s="4"/>
       <c r="C428" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428" s="25"/>
@@ -9600,11 +9583,11 @@
     </row>
     <row r="429" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="B429" s="4"/>
       <c r="C429" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429" s="25"/>
@@ -9615,11 +9598,11 @@
     </row>
     <row r="430" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
-        <v>38.6</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="B430" s="4"/>
       <c r="C430" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430" s="25"/>
@@ -9630,11 +9613,11 @@
     </row>
     <row r="431" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
-        <v>38.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="B431" s="4"/>
       <c r="C431" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431" s="25"/>
@@ -9643,40 +9626,40 @@
       <c r="I431" s="18"/>
       <c r="J431" s="18"/>
     </row>
-    <row r="432" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A432" s="3">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="B432" s="4"/>
-      <c r="C432" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D432" s="4"/>
-      <c r="E432" s="25"/>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B432" s="47"/>
+      <c r="C432" s="47"/>
+      <c r="D432" s="47"/>
+      <c r="E432" s="48"/>
       <c r="G432" s="18"/>
       <c r="H432" s="18"/>
       <c r="I432" s="18"/>
       <c r="J432" s="18"/>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B433" s="36"/>
-      <c r="C433" s="36"/>
-      <c r="D433" s="36"/>
-      <c r="E433" s="37"/>
+      <c r="A433" s="49"/>
+      <c r="B433" s="50"/>
+      <c r="C433" s="50"/>
+      <c r="D433" s="50"/>
+      <c r="E433" s="51"/>
       <c r="G433" s="18"/>
       <c r="H433" s="18"/>
       <c r="I433" s="18"/>
       <c r="J433" s="18"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A434" s="38"/>
-      <c r="B434" s="39"/>
-      <c r="C434" s="39"/>
-      <c r="D434" s="39"/>
-      <c r="E434" s="40"/>
+    <row r="434" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A434" s="3">
+        <v>39</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
+      <c r="E434" s="25"/>
       <c r="G434" s="18"/>
       <c r="H434" s="18"/>
       <c r="I434" s="18"/>
@@ -9684,12 +9667,12 @@
     </row>
     <row r="435" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
-        <v>39</v>
-      </c>
-      <c r="B435" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C435" s="4"/>
+        <v>39.1</v>
+      </c>
+      <c r="B435" s="4"/>
+      <c r="C435" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D435" s="4"/>
       <c r="E435" s="25"/>
       <c r="G435" s="18"/>
@@ -9699,11 +9682,11 @@
     </row>
     <row r="436" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
-        <v>39.1</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B436" s="4"/>
       <c r="C436" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436" s="25"/>
@@ -9714,11 +9697,11 @@
     </row>
     <row r="437" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
-        <v>39.200000000000003</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="B437" s="4"/>
       <c r="C437" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D437" s="4"/>
       <c r="E437" s="25"/>
@@ -9729,11 +9712,11 @@
     </row>
     <row r="438" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
-        <v>39.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="B438" s="4"/>
       <c r="C438" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438" s="25"/>
@@ -9744,11 +9727,11 @@
     </row>
     <row r="439" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="B439" s="4"/>
       <c r="C439" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439" s="25"/>
@@ -9759,43 +9742,43 @@
     </row>
     <row r="440" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
-        <v>39.5</v>
-      </c>
-      <c r="B440" s="4"/>
-      <c r="C440" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="25"/>
-      <c r="G440" s="18"/>
+      <c r="G440" s="18">
+        <v>5</v>
+      </c>
       <c r="H440" s="18"/>
       <c r="I440" s="18"/>
       <c r="J440" s="18"/>
     </row>
     <row r="441" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
-        <v>40</v>
-      </c>
-      <c r="B441" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C441" s="4"/>
+        <v>40.1</v>
+      </c>
+      <c r="B441" s="4"/>
+      <c r="C441" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D441" s="4"/>
       <c r="E441" s="25"/>
-      <c r="G441" s="18">
-        <v>5</v>
-      </c>
+      <c r="G441" s="18"/>
       <c r="H441" s="18"/>
       <c r="I441" s="18"/>
       <c r="J441" s="18"/>
     </row>
-    <row r="442" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
-        <v>40.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="B442" s="4"/>
       <c r="C442" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D442" s="4"/>
       <c r="E442" s="25"/>
@@ -9804,33 +9787,21 @@
       <c r="I442" s="18"/>
       <c r="J442" s="18"/>
     </row>
-    <row r="443" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="3">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="B443" s="4"/>
-      <c r="C443" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D443" s="4"/>
-      <c r="E443" s="25"/>
-      <c r="G443" s="18"/>
-      <c r="H443" s="18"/>
-      <c r="I443" s="18"/>
-      <c r="J443" s="18"/>
-    </row>
-    <row r="444" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="12"/>
-      <c r="B444" s="13"/>
-      <c r="C444" s="13"/>
-      <c r="D444" s="13"/>
-    </row>
-    <row r="445" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="12"/>
+      <c r="B443" s="13"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="13"/>
+    </row>
+    <row r="444" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="2"/>
+    </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
     </row>
@@ -9855,19 +9826,16 @@
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A432:E433"/>
+    <mergeCell ref="A106:E107"/>
+    <mergeCell ref="A100:E101"/>
     <mergeCell ref="A49:E50"/>
     <mergeCell ref="A9:E10"/>
     <mergeCell ref="A3:E4"/>
-    <mergeCell ref="A371:E372"/>
-    <mergeCell ref="A269:E270"/>
-    <mergeCell ref="A433:E434"/>
-    <mergeCell ref="A107:E108"/>
-    <mergeCell ref="A101:E102"/>
+    <mergeCell ref="A370:E371"/>
+    <mergeCell ref="A268:E269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
+++ b/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="485">
   <si>
     <t>ID</t>
   </si>
@@ -1418,6 +1418,60 @@
   </si>
   <si>
     <t>Manage Q&amp;A</t>
+  </si>
+  <si>
+    <t>25.2.1</t>
+  </si>
+  <si>
+    <t>25.2.2</t>
+  </si>
+  <si>
+    <t>25.2.3</t>
+  </si>
+  <si>
+    <t>25.2.4</t>
+  </si>
+  <si>
+    <t>25.2.5</t>
+  </si>
+  <si>
+    <t>25.2.6</t>
+  </si>
+  <si>
+    <t>25.2.7</t>
+  </si>
+  <si>
+    <t>25.2.8</t>
+  </si>
+  <si>
+    <t>25.2.9</t>
+  </si>
+  <si>
+    <t>26.6.1</t>
+  </si>
+  <si>
+    <t>26.6.2</t>
+  </si>
+  <si>
+    <t>26.6.3</t>
+  </si>
+  <si>
+    <t>26.6.4</t>
+  </si>
+  <si>
+    <t>26.6.5</t>
+  </si>
+  <si>
+    <t>26.6.6</t>
+  </si>
+  <si>
+    <t>26.6.7</t>
+  </si>
+  <si>
+    <t>26.6.8</t>
+  </si>
+  <si>
+    <t>26.6.9</t>
   </si>
 </sst>
 </file>
@@ -1852,6 +1906,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1871,24 +1943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2234,11 +2288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K483"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,13 +2351,13 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -2311,11 +2365,11 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -2427,13 +2481,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
@@ -2441,11 +2495,11 @@
       <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
@@ -3422,24 +3476,24 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
@@ -4119,654 +4173,721 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>26</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="A79" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E79" s="25"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
+      <c r="G79" s="18">
+        <v>10</v>
+      </c>
+      <c r="H79" s="18">
+        <v>24</v>
+      </c>
+      <c r="I79" s="18">
+        <v>20</v>
+      </c>
+      <c r="J79" s="18">
+        <v>25</v>
+      </c>
+      <c r="K79" s="19">
+        <v>8</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>26.1</v>
+      <c r="A80" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D80" s="4"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E80" s="25"/>
       <c r="G80" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H80" s="18">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I80" s="18">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J80" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K80" s="19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>26.2</v>
+      <c r="A81" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="4"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E81" s="25"/>
       <c r="G81" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H81" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I81" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J81" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K81" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>26.3</v>
+      <c r="A82" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="4"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E82" s="25"/>
       <c r="G82" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I82" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J82" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K82" s="19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>26.4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83" s="4"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="E83" s="25"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
+      <c r="G83" s="18">
+        <v>4</v>
+      </c>
+      <c r="H83" s="18">
+        <v>8</v>
+      </c>
+      <c r="I83" s="18">
+        <v>8</v>
+      </c>
+      <c r="J83" s="18">
+        <v>6</v>
+      </c>
+      <c r="K83" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>194</v>
+        <v>472</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="4" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
       <c r="E84" s="25"/>
       <c r="G84" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I84" s="18">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="J84" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K84" s="19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>195</v>
+        <v>473</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E85" s="25"/>
       <c r="G85" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H85" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I85" s="18">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="J85" s="18">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="K85" s="19">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>26.5</v>
+      <c r="A86" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="4"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E86" s="25"/>
       <c r="G86" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86" s="18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I86" s="18">
         <v>3</v>
       </c>
       <c r="J86" s="18">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K86" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
-        <v>26.6</v>
+      <c r="A87" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="B87" s="4"/>
-      <c r="C87" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="4"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="E87" s="25"/>
       <c r="G87" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H87" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I87" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J87" s="18">
-        <v>10</v>
-      </c>
-      <c r="K87" s="19" t="s">
-        <v>126</v>
+        <v>6</v>
+      </c>
+      <c r="K87" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>26.7</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="25"/>
-      <c r="G88" s="18">
-        <v>5</v>
-      </c>
-      <c r="H88" s="18">
-        <v>10</v>
-      </c>
-      <c r="I88" s="18">
-        <v>6</v>
-      </c>
-      <c r="J88" s="18">
-        <v>5</v>
-      </c>
-      <c r="K88" s="19">
-        <v>4</v>
-      </c>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>27</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="4"/>
+        <v>26.1</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D89" s="4"/>
       <c r="E89" s="25"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
+      <c r="G89" s="18">
+        <v>1</v>
+      </c>
+      <c r="H89" s="18">
+        <v>1</v>
+      </c>
+      <c r="I89" s="18">
+        <v>1</v>
+      </c>
+      <c r="J89" s="18">
+        <v>1</v>
+      </c>
+      <c r="K89" s="19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="25"/>
       <c r="G90" s="18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H90" s="18">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I90" s="18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J90" s="18">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K90" s="19">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="25"/>
       <c r="G91" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H91" s="18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I91" s="18">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J91" s="18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K91" s="19">
-        <v>17</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="25"/>
-      <c r="G92" s="18">
-        <v>8</v>
-      </c>
-      <c r="H92" s="18">
-        <v>8</v>
-      </c>
-      <c r="I92" s="18">
-        <v>10</v>
-      </c>
-      <c r="J92" s="18">
-        <v>5</v>
-      </c>
-      <c r="K92" s="19">
-        <v>11</v>
-      </c>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>27.4</v>
+      <c r="A93" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B93" s="4"/>
-      <c r="C93" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="E93" s="25"/>
       <c r="G93" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H93" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I93" s="18">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J93" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>27.5</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B94" s="4"/>
-      <c r="C94" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="E94" s="25"/>
       <c r="G94" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I94" s="18">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J94" s="18">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K94" s="19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="25"/>
       <c r="G95" s="18">
+        <v>1</v>
+      </c>
+      <c r="H95" s="18">
         <v>3</v>
       </c>
-      <c r="H95" s="18">
-        <v>4</v>
-      </c>
       <c r="I95" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J95" s="18">
         <v>5</v>
       </c>
       <c r="K95" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="25"/>
       <c r="G96" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H96" s="18">
+        <v>12</v>
+      </c>
+      <c r="I96" s="18">
         <v>8</v>
       </c>
-      <c r="I96" s="18">
-        <v>6</v>
-      </c>
       <c r="J96" s="18">
-        <v>8</v>
-      </c>
-      <c r="K96" s="19">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>27.8</v>
+      <c r="A97" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="C97" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D97" s="4"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E97" s="25"/>
       <c r="G97" s="18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H97" s="18">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I97" s="18">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J97" s="18">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K97" s="19">
-        <v>1.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>27.9</v>
+      <c r="A98" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="B98" s="4"/>
-      <c r="C98" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" s="4"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E98" s="25"/>
       <c r="G98" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H98" s="18">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I98" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J98" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K98" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>28</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="A99" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E99" s="25"/>
       <c r="G99" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H99" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I99" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J99" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K99" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="G100" s="18">
+        <v>4</v>
+      </c>
+      <c r="H100" s="18">
+        <v>8</v>
+      </c>
+      <c r="I100" s="18">
+        <v>8</v>
+      </c>
+      <c r="J100" s="18">
+        <v>6</v>
+      </c>
+      <c r="K100" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="25"/>
+      <c r="G101" s="18">
+        <v>4</v>
+      </c>
+      <c r="H101" s="18">
+        <v>8</v>
+      </c>
+      <c r="I101" s="18">
+        <v>8</v>
+      </c>
+      <c r="J101" s="18">
+        <v>6</v>
+      </c>
+      <c r="K101" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>29</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="A102" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="E102" s="25"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
+      <c r="G102" s="18">
+        <v>3</v>
+      </c>
+      <c r="H102" s="18">
+        <v>8</v>
+      </c>
+      <c r="I102" s="18">
+        <v>6</v>
+      </c>
+      <c r="J102" s="18">
+        <v>8</v>
+      </c>
+      <c r="K102" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>29.1</v>
+      <c r="A103" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="B103" s="4"/>
-      <c r="C103" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="4"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="E103" s="25"/>
       <c r="G103" s="18">
+        <v>6</v>
+      </c>
+      <c r="H103" s="18">
         <v>10</v>
       </c>
-      <c r="H103" s="18">
-        <v>15</v>
-      </c>
       <c r="I103" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J103" s="18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K103" s="19">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>29.2</v>
+      <c r="A104" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="4"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E104" s="25"/>
       <c r="G104" s="18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H104" s="18">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I104" s="18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J104" s="18">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="K104" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>29.3</v>
+      <c r="A105" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="B105" s="4"/>
-      <c r="C105" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="4"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="E105" s="25"/>
       <c r="G105" s="18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H105" s="18">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I105" s="18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J105" s="18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K105" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="25"/>
+      <c r="G106" s="18">
+        <v>5</v>
+      </c>
+      <c r="H106" s="18">
+        <v>10</v>
+      </c>
+      <c r="I106" s="18">
+        <v>6</v>
+      </c>
+      <c r="J106" s="18">
+        <v>5</v>
+      </c>
+      <c r="K106" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>27</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="25"/>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
       <c r="I107" s="18"/>
@@ -4774,312 +4895,443 @@
     </row>
     <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>30</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="4"/>
+        <v>27.1</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="25"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
+      <c r="G108" s="18">
+        <v>15</v>
+      </c>
+      <c r="H108" s="18">
+        <v>24</v>
+      </c>
+      <c r="I108" s="18">
+        <v>20</v>
+      </c>
+      <c r="J108" s="18">
+        <v>25</v>
+      </c>
+      <c r="K108" s="19">
+        <v>36</v>
+      </c>
     </row>
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>30.1</v>
+        <v>27.2</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="25"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-    </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>196</v>
+      <c r="G109" s="18">
+        <v>10</v>
+      </c>
+      <c r="H109" s="18">
+        <v>12</v>
+      </c>
+      <c r="I109" s="18">
+        <v>15</v>
+      </c>
+      <c r="J109" s="18">
+        <v>8</v>
+      </c>
+      <c r="K109" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>27.3</v>
       </c>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="C110" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D110" s="4"/>
       <c r="E110" s="25"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-    </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>197</v>
+      <c r="G110" s="18">
+        <v>8</v>
+      </c>
+      <c r="H110" s="18">
+        <v>8</v>
+      </c>
+      <c r="I110" s="18">
+        <v>10</v>
+      </c>
+      <c r="J110" s="18">
+        <v>5</v>
+      </c>
+      <c r="K110" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>27.4</v>
       </c>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C111" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="4"/>
       <c r="E111" s="25"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
+      <c r="G111" s="18">
+        <v>8</v>
+      </c>
+      <c r="H111" s="18">
+        <v>6</v>
+      </c>
+      <c r="I111" s="18">
+        <v>8</v>
+      </c>
+      <c r="J111" s="18">
+        <v>5</v>
+      </c>
+      <c r="K111" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>198</v>
+      <c r="A112" s="3">
+        <v>27.5</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C112" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D112" s="4"/>
       <c r="E112" s="25"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-    </row>
-    <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G112" s="18">
+        <v>5</v>
+      </c>
+      <c r="H112" s="18">
+        <v>6</v>
+      </c>
+      <c r="I112" s="18">
+        <v>8</v>
+      </c>
+      <c r="J112" s="18">
+        <v>5</v>
+      </c>
+      <c r="K112" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>30.2</v>
+        <v>27.6</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>150</v>
+        <v>466</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="25"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-    </row>
-    <row r="114" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>199</v>
+      <c r="G113" s="18">
+        <v>3</v>
+      </c>
+      <c r="H113" s="18">
+        <v>4</v>
+      </c>
+      <c r="I113" s="18">
+        <v>6</v>
+      </c>
+      <c r="J113" s="18">
+        <v>5</v>
+      </c>
+      <c r="K113" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>27.7</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="C114" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="4"/>
       <c r="E114" s="25"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-    </row>
-    <row r="115" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>200</v>
+      <c r="G114" s="18">
+        <v>5</v>
+      </c>
+      <c r="H114" s="18">
+        <v>8</v>
+      </c>
+      <c r="I114" s="18">
+        <v>6</v>
+      </c>
+      <c r="J114" s="18">
+        <v>8</v>
+      </c>
+      <c r="K114" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>27.8</v>
       </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D115" s="4"/>
-      <c r="E115" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-    </row>
-    <row r="116" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>201</v>
+      <c r="E115" s="25"/>
+      <c r="G115" s="18">
+        <v>3</v>
+      </c>
+      <c r="H115" s="18">
+        <v>1</v>
+      </c>
+      <c r="I115" s="18">
+        <v>2</v>
+      </c>
+      <c r="J115" s="18">
+        <v>1</v>
+      </c>
+      <c r="K115" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>27.9</v>
       </c>
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="D116" s="4"/>
-      <c r="E116" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-    </row>
-    <row r="117" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" s="4"/>
+      <c r="E116" s="25"/>
+      <c r="G116" s="18">
+        <v>4</v>
+      </c>
+      <c r="H116" s="18">
+        <v>5</v>
+      </c>
+      <c r="I116" s="18">
+        <v>5</v>
+      </c>
+      <c r="J116" s="18">
+        <v>6</v>
+      </c>
+      <c r="K116" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>28</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-    </row>
-    <row r="118" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="E117" s="25"/>
+      <c r="G117" s="18">
+        <v>1</v>
+      </c>
+      <c r="H117" s="18">
+        <v>1</v>
+      </c>
+      <c r="I117" s="18">
+        <v>1</v>
+      </c>
+      <c r="J117" s="18">
+        <v>1</v>
+      </c>
+      <c r="K117" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
     </row>
-    <row r="119" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="15" t="s">
-        <v>130</v>
-      </c>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
       <c r="I119" s="18"/>
       <c r="J119" s="18"/>
     </row>
-    <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B120" s="4"/>
+    <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>29</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="E120" s="25"/>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
       <c r="I120" s="18"/>
       <c r="J120" s="18"/>
     </row>
-    <row r="121" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>206</v>
+    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>29.1</v>
       </c>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D121" s="4"/>
-      <c r="E121" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-    </row>
-    <row r="122" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>207</v>
+      <c r="E121" s="25"/>
+      <c r="G121" s="18">
+        <v>10</v>
+      </c>
+      <c r="H121" s="18">
+        <v>15</v>
+      </c>
+      <c r="I121" s="18">
+        <v>10</v>
+      </c>
+      <c r="J121" s="18">
+        <v>8</v>
+      </c>
+      <c r="K121" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>29.2</v>
       </c>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="C122" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D122" s="4"/>
-      <c r="E122" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-    </row>
-    <row r="123" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>208</v>
+      <c r="E122" s="25"/>
+      <c r="G122" s="18">
+        <v>8</v>
+      </c>
+      <c r="H122" s="18">
+        <v>5</v>
+      </c>
+      <c r="I122" s="18">
+        <v>10</v>
+      </c>
+      <c r="J122" s="18">
+        <v>8</v>
+      </c>
+      <c r="K122" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>29.3</v>
       </c>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D123" s="4"/>
-      <c r="E123" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-    </row>
-    <row r="124" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="E123" s="25"/>
+      <c r="G123" s="18">
+        <v>15</v>
+      </c>
+      <c r="H123" s="18">
+        <v>20</v>
+      </c>
+      <c r="I123" s="18">
+        <v>12</v>
+      </c>
+      <c r="J123" s="18">
+        <v>15</v>
+      </c>
+      <c r="K123" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
       <c r="G124" s="18"/>
       <c r="H124" s="18"/>
       <c r="I124" s="18"/>
       <c r="J124" s="18"/>
     </row>
-    <row r="125" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="16" t="s">
-        <v>135</v>
-      </c>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
       <c r="G125" s="18"/>
       <c r="H125" s="18"/>
       <c r="I125" s="18"/>
       <c r="J125" s="18"/>
     </row>
-    <row r="126" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B126" s="4"/>
+    <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>30</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="E126" s="25"/>
       <c r="G126" s="18"/>
       <c r="H126" s="18"/>
       <c r="I126" s="18"/>
       <c r="J126" s="18"/>
     </row>
-    <row r="127" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>212</v>
+    <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>30.1</v>
       </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="C127" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="E127" s="25"/>
       <c r="G127" s="18"/>
       <c r="H127" s="18"/>
       <c r="I127" s="18"/>
       <c r="J127" s="18"/>
     </row>
-    <row r="128" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="E128" s="25"/>
       <c r="G128" s="18"/>
@@ -5087,46 +5339,46 @@
       <c r="I128" s="18"/>
       <c r="J128" s="18"/>
     </row>
-    <row r="129" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="D129" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129" s="25"/>
       <c r="G129" s="18"/>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
     </row>
-    <row r="130" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="D130" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="25"/>
       <c r="G130" s="18"/>
       <c r="H130" s="18"/>
       <c r="I130" s="18"/>
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>216</v>
+    <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>30.2</v>
       </c>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="C131" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="D131" s="4"/>
-      <c r="E131" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="E131" s="25"/>
       <c r="G131" s="18"/>
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
@@ -5134,14 +5386,14 @@
     </row>
     <row r="132" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="D132" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" s="25"/>
       <c r="G132" s="18"/>
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
@@ -5149,13 +5401,13 @@
     </row>
     <row r="133" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="4" t="s">
-        <v>142</v>
+      <c r="E133" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="G133" s="18"/>
       <c r="H133" s="18"/>
@@ -5164,13 +5416,13 @@
     </row>
     <row r="134" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="4" t="s">
-        <v>96</v>
+      <c r="E134" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G134" s="18"/>
       <c r="H134" s="18"/>
@@ -5179,13 +5431,13 @@
     </row>
     <row r="135" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="4" t="s">
-        <v>143</v>
+      <c r="E135" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G135" s="18"/>
       <c r="H135" s="18"/>
@@ -5194,13 +5446,13 @@
     </row>
     <row r="136" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="4" t="s">
-        <v>144</v>
+      <c r="E136" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
@@ -5209,13 +5461,13 @@
     </row>
     <row r="137" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4" t="s">
-        <v>145</v>
+      <c r="E137" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="G137" s="18"/>
       <c r="H137" s="18"/>
@@ -5224,13 +5476,13 @@
     </row>
     <row r="138" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="4" t="s">
-        <v>146</v>
+      <c r="E138" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
@@ -5239,13 +5491,13 @@
     </row>
     <row r="139" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="4" t="s">
-        <v>147</v>
+      <c r="E139" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="G139" s="18"/>
       <c r="H139" s="18"/>
@@ -5254,14 +5506,14 @@
     </row>
     <row r="140" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E140" s="25"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="G140" s="18"/>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
@@ -5269,13 +5521,13 @@
     </row>
     <row r="141" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="4" t="s">
-        <v>148</v>
+      <c r="E141" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="G141" s="18"/>
       <c r="H141" s="18"/>
@@ -5284,13 +5536,13 @@
     </row>
     <row r="142" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="4" t="s">
-        <v>91</v>
+      <c r="E142" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G142" s="18"/>
       <c r="H142" s="18"/>
@@ -5299,13 +5551,13 @@
     </row>
     <row r="143" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="4" t="s">
-        <v>90</v>
+      <c r="E143" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G143" s="18"/>
       <c r="H143" s="18"/>
@@ -5314,28 +5566,28 @@
     </row>
     <row r="144" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E144" s="25"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
       <c r="I144" s="18"/>
       <c r="J144" s="18"/>
     </row>
     <row r="145" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="26" t="s">
-        <v>230</v>
+      <c r="A145" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="15" t="s">
-        <v>92</v>
+      <c r="E145" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G145" s="18"/>
       <c r="H145" s="18"/>
@@ -5343,29 +5595,29 @@
       <c r="J145" s="18"/>
     </row>
     <row r="146" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="26" t="s">
-        <v>231</v>
+      <c r="A146" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="15" t="s">
-        <v>148</v>
-      </c>
+      <c r="D146" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="25"/>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
       <c r="J146" s="18"/>
     </row>
     <row r="147" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="26" t="s">
-        <v>232</v>
+      <c r="A147" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="15" t="s">
-        <v>91</v>
+      <c r="E147" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
@@ -5373,284 +5625,284 @@
       <c r="J147" s="18"/>
     </row>
     <row r="148" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="26" t="s">
-        <v>233</v>
+      <c r="A148" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="15" t="s">
-        <v>90</v>
+      <c r="E148" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
       <c r="J148" s="18"/>
     </row>
-    <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
-        <v>30.3</v>
+    <row r="149" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B149" s="4"/>
-      <c r="C149" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="25"/>
+      <c r="E149" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="G149" s="18"/>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
       <c r="J149" s="18"/>
     </row>
-    <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="25"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
       <c r="J150" s="18"/>
     </row>
-    <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E151" s="25"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G151" s="18"/>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
       <c r="J151" s="18"/>
     </row>
-    <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
-        <v>30.4</v>
+    <row r="152" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B152" s="4"/>
-      <c r="C152" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="25"/>
+      <c r="E152" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
       <c r="J152" s="18"/>
     </row>
-    <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E153" s="25"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
       <c r="I153" s="18"/>
       <c r="J153" s="18"/>
     </row>
-    <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="15" t="s">
-        <v>89</v>
+      <c r="E154" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
       <c r="J154" s="18"/>
     </row>
-    <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="15" t="s">
-        <v>127</v>
+      <c r="E155" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G155" s="18"/>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
       <c r="J155" s="18"/>
     </row>
-    <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="16" t="s">
-        <v>128</v>
+      <c r="E156" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G156" s="18"/>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
       <c r="J156" s="18"/>
     </row>
-    <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="16" t="s">
-        <v>129</v>
+      <c r="E157" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
       <c r="J157" s="18"/>
     </row>
-    <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="D158" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E158" s="25"/>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
       <c r="J158" s="18"/>
     </row>
-    <row r="159" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="15" t="s">
-        <v>131</v>
+      <c r="E159" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
       <c r="J159" s="18"/>
     </row>
-    <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="15" t="s">
-        <v>132</v>
+      <c r="E160" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
       <c r="I160" s="18"/>
       <c r="J160" s="18"/>
     </row>
-    <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="15" t="s">
-        <v>133</v>
+      <c r="E161" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G161" s="18"/>
       <c r="H161" s="18"/>
       <c r="I161" s="18"/>
       <c r="J161" s="18"/>
     </row>
-    <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="D162" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E162" s="25"/>
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
       <c r="J162" s="18"/>
     </row>
-    <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>246</v>
+    <row r="163" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="15" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="G163" s="18"/>
       <c r="H163" s="18"/>
       <c r="I163" s="18"/>
       <c r="J163" s="18"/>
     </row>
-    <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>247</v>
+    <row r="164" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="16" t="s">
-        <v>135</v>
+      <c r="E164" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
       <c r="I164" s="18"/>
       <c r="J164" s="18"/>
     </row>
-    <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>248</v>
+    <row r="165" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="16" t="s">
-        <v>136</v>
+      <c r="E165" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
       <c r="J165" s="18"/>
     </row>
-    <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>249</v>
+    <row r="166" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="26" t="s">
+        <v>233</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="4" t="s">
-        <v>137</v>
+      <c r="E166" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
@@ -5658,14 +5910,14 @@
       <c r="J166" s="18"/>
     </row>
     <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>250</v>
+      <c r="A167" s="3">
+        <v>30.3</v>
       </c>
       <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="C167" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D167" s="4"/>
       <c r="E167" s="25"/>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
@@ -5674,14 +5926,14 @@
     </row>
     <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="D168" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="25"/>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
       <c r="I168" s="18"/>
@@ -5689,29 +5941,29 @@
     </row>
     <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="D169" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="25"/>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
       <c r="I169" s="18"/>
       <c r="J169" s="18"/>
     </row>
     <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>253</v>
+      <c r="A170" s="3">
+        <v>30.4</v>
       </c>
       <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="C170" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D170" s="4"/>
-      <c r="E170" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="E170" s="25"/>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="18"/>
@@ -5719,14 +5971,14 @@
     </row>
     <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="D171" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E171" s="25"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
@@ -5734,13 +5986,13 @@
     </row>
     <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="4" t="s">
-        <v>142</v>
+      <c r="E172" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
@@ -5749,13 +6001,13 @@
     </row>
     <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="4" t="s">
-        <v>96</v>
+      <c r="E173" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G173" s="18"/>
       <c r="H173" s="18"/>
@@ -5764,13 +6016,13 @@
     </row>
     <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="4" t="s">
-        <v>143</v>
+      <c r="E174" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G174" s="18"/>
       <c r="H174" s="18"/>
@@ -5779,13 +6031,13 @@
     </row>
     <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="4" t="s">
-        <v>144</v>
+      <c r="E175" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G175" s="18"/>
       <c r="H175" s="18"/>
@@ -5794,13 +6046,13 @@
     </row>
     <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="4" t="s">
-        <v>145</v>
+      <c r="E176" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
@@ -5809,13 +6061,13 @@
     </row>
     <row r="177" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="4" t="s">
-        <v>146</v>
+      <c r="E177" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
@@ -5824,13 +6076,13 @@
     </row>
     <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="4" t="s">
-        <v>147</v>
+      <c r="E178" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="G178" s="18"/>
       <c r="H178" s="18"/>
@@ -5839,58 +6091,58 @@
     </row>
     <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E179" s="25"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="G179" s="18"/>
       <c r="H179" s="18"/>
       <c r="I179" s="18"/>
       <c r="J179" s="18"/>
     </row>
-    <row r="180" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="4" t="s">
-        <v>148</v>
+      <c r="E180" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
       <c r="I180" s="18"/>
       <c r="J180" s="18"/>
     </row>
-    <row r="181" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="4" t="s">
-        <v>91</v>
+      <c r="E181" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>
       <c r="I181" s="18"/>
       <c r="J181" s="18"/>
     </row>
-    <row r="182" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="4" t="s">
-        <v>90</v>
+      <c r="E182" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
@@ -5899,14 +6151,14 @@
     </row>
     <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E183" s="25"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
@@ -5914,13 +6166,13 @@
     </row>
     <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="15" t="s">
-        <v>92</v>
+      <c r="E184" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
@@ -5929,14 +6181,14 @@
     </row>
     <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="15" t="s">
-        <v>148</v>
-      </c>
+      <c r="D185" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E185" s="25"/>
       <c r="G185" s="18"/>
       <c r="H185" s="18"/>
       <c r="I185" s="18"/>
@@ -5944,13 +6196,13 @@
     </row>
     <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="15" t="s">
-        <v>91</v>
+      <c r="E186" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G186" s="18"/>
       <c r="H186" s="18"/>
@@ -5959,13 +6211,13 @@
     </row>
     <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="15" t="s">
-        <v>90</v>
+      <c r="E187" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="G187" s="18"/>
       <c r="H187" s="18"/>
@@ -5973,32 +6225,30 @@
       <c r="J187" s="18"/>
     </row>
     <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
-        <v>31</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A188" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="25"/>
-      <c r="G188" s="18">
-        <v>50</v>
-      </c>
+      <c r="E188" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G188" s="18"/>
       <c r="H188" s="18"/>
       <c r="I188" s="18"/>
       <c r="J188" s="18"/>
     </row>
     <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
-        <v>31.1</v>
+      <c r="A189" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="B189" s="4"/>
-      <c r="C189" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="C189" s="4"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="25"/>
+      <c r="E189" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
@@ -6006,14 +6256,14 @@
     </row>
     <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
-      <c r="D190" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E190" s="25"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G190" s="18"/>
       <c r="H190" s="18"/>
       <c r="I190" s="18"/>
@@ -6021,14 +6271,14 @@
     </row>
     <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
-      <c r="D191" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E191" s="25"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="G191" s="18"/>
       <c r="H191" s="18"/>
       <c r="I191" s="18"/>
@@ -6036,14 +6286,14 @@
     </row>
     <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
-      <c r="D192" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E192" s="25"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G192" s="18"/>
       <c r="H192" s="18"/>
       <c r="I192" s="18"/>
@@ -6051,14 +6301,14 @@
     </row>
     <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
-      <c r="D193" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E193" s="25"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="G193" s="18"/>
       <c r="H193" s="18"/>
       <c r="I193" s="18"/>
@@ -6066,14 +6316,14 @@
     </row>
     <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E194" s="25"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="G194" s="18"/>
       <c r="H194" s="18"/>
       <c r="I194" s="18"/>
@@ -6081,14 +6331,14 @@
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
-      <c r="D195" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E195" s="25"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G195" s="18"/>
       <c r="H195" s="18"/>
       <c r="I195" s="18"/>
@@ -6096,14 +6346,14 @@
     </row>
     <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
-      <c r="D196" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E196" s="25"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="G196" s="18"/>
       <c r="H196" s="18"/>
       <c r="I196" s="18"/>
@@ -6111,12 +6361,12 @@
     </row>
     <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B197" s="4"/>
-      <c r="C197" s="25"/>
-      <c r="D197" s="15" t="s">
-        <v>133</v>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="E197" s="25"/>
       <c r="G197" s="18"/>
@@ -6124,46 +6374,46 @@
       <c r="I197" s="18"/>
       <c r="J197" s="18"/>
     </row>
-    <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
-      <c r="D198" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E198" s="25"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G198" s="18"/>
       <c r="H198" s="18"/>
       <c r="I198" s="18"/>
       <c r="J198" s="18"/>
     </row>
-    <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
-      <c r="D199" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E199" s="25"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
       <c r="I199" s="18"/>
       <c r="J199" s="18"/>
     </row>
-    <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E200" s="25"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
       <c r="I200" s="18"/>
@@ -6171,12 +6421,12 @@
     </row>
     <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="16" t="s">
-        <v>136</v>
+      <c r="D201" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="E201" s="25"/>
       <c r="G201" s="18"/>
@@ -6186,29 +6436,29 @@
     </row>
     <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E202" s="25"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G202" s="18"/>
       <c r="H202" s="18"/>
       <c r="I202" s="18"/>
       <c r="J202" s="18"/>
     </row>
     <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
-        <v>31.2</v>
+      <c r="A203" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="B203" s="4"/>
-      <c r="C203" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="25"/>
+      <c r="E203" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="G203" s="18"/>
       <c r="H203" s="18"/>
       <c r="I203" s="18"/>
@@ -6216,14 +6466,14 @@
     </row>
     <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
-      <c r="D204" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E204" s="25"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G204" s="18"/>
       <c r="H204" s="18"/>
       <c r="I204" s="18"/>
@@ -6231,43 +6481,45 @@
     </row>
     <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
-      <c r="D205" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E205" s="25"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G205" s="18"/>
       <c r="H205" s="18"/>
       <c r="I205" s="18"/>
       <c r="J205" s="18"/>
     </row>
     <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B206" s="4"/>
+      <c r="A206" s="3">
+        <v>31</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C206" s="4"/>
-      <c r="D206" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="D206" s="4"/>
       <c r="E206" s="25"/>
-      <c r="G206" s="18"/>
+      <c r="G206" s="18">
+        <v>50</v>
+      </c>
       <c r="H206" s="18"/>
       <c r="I206" s="18"/>
       <c r="J206" s="18"/>
     </row>
     <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
-        <v>287</v>
+      <c r="A207" s="3">
+        <v>31.1</v>
       </c>
       <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="C207" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D207" s="4"/>
       <c r="E207" s="25"/>
       <c r="G207" s="18"/>
       <c r="H207" s="18"/>
@@ -6276,12 +6528,12 @@
     </row>
     <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
-      <c r="D208" s="4" t="s">
-        <v>142</v>
+      <c r="D208" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="E208" s="25"/>
       <c r="G208" s="18"/>
@@ -6291,12 +6543,12 @@
     </row>
     <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
-      <c r="D209" s="4" t="s">
-        <v>96</v>
+      <c r="D209" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="E209" s="25"/>
       <c r="G209" s="18"/>
@@ -6306,12 +6558,12 @@
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
-      <c r="D210" s="4" t="s">
-        <v>143</v>
+      <c r="D210" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="E210" s="25"/>
       <c r="G210" s="18"/>
@@ -6321,12 +6573,12 @@
     </row>
     <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
-      <c r="D211" s="4" t="s">
-        <v>144</v>
+      <c r="D211" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="E211" s="25"/>
       <c r="G211" s="18"/>
@@ -6336,12 +6588,12 @@
     </row>
     <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="4" t="s">
-        <v>145</v>
+      <c r="D212" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E212" s="25"/>
       <c r="G212" s="18"/>
@@ -6351,12 +6603,12 @@
     </row>
     <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="4" t="s">
-        <v>146</v>
+      <c r="D213" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="E213" s="25"/>
       <c r="G213" s="18"/>
@@ -6366,12 +6618,12 @@
     </row>
     <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="4" t="s">
-        <v>147</v>
+      <c r="D214" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="E214" s="25"/>
       <c r="G214" s="18"/>
@@ -6379,15 +6631,15 @@
       <c r="I214" s="18"/>
       <c r="J214" s="18"/>
     </row>
-    <row r="215" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
-        <v>31.3</v>
+    <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B215" s="4"/>
-      <c r="C215" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D215" s="25"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="E215" s="25"/>
       <c r="G215" s="18"/>
       <c r="H215" s="18"/>
@@ -6396,12 +6648,12 @@
     </row>
     <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
-      <c r="D216" s="4" t="s">
-        <v>148</v>
+      <c r="D216" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="E216" s="25"/>
       <c r="G216" s="18"/>
@@ -6411,12 +6663,12 @@
     </row>
     <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
-      <c r="D217" s="4" t="s">
-        <v>91</v>
+      <c r="D217" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="E217" s="25"/>
       <c r="G217" s="18"/>
@@ -6426,12 +6678,12 @@
     </row>
     <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
-      <c r="D218" s="4" t="s">
-        <v>90</v>
+      <c r="D218" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="E218" s="25"/>
       <c r="G218" s="18"/>
@@ -6440,14 +6692,14 @@
       <c r="J218" s="18"/>
     </row>
     <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
-        <v>31.4</v>
+      <c r="A219" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="B219" s="4"/>
-      <c r="C219" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="E219" s="25"/>
       <c r="G219" s="18"/>
       <c r="H219" s="18"/>
@@ -6456,12 +6708,12 @@
     </row>
     <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
-      <c r="D220" s="15" t="s">
-        <v>92</v>
+      <c r="D220" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E220" s="25"/>
       <c r="G220" s="18"/>
@@ -6470,14 +6722,14 @@
       <c r="J220" s="18"/>
     </row>
     <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>299</v>
+      <c r="A221" s="3">
+        <v>31.2</v>
       </c>
       <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="15" t="s">
-        <v>148</v>
-      </c>
+      <c r="C221" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D221" s="4"/>
       <c r="E221" s="25"/>
       <c r="G221" s="18"/>
       <c r="H221" s="18"/>
@@ -6486,12 +6738,12 @@
     </row>
     <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="15" t="s">
-        <v>91</v>
+      <c r="D222" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E222" s="25"/>
       <c r="G222" s="18"/>
@@ -6501,12 +6753,12 @@
     </row>
     <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="15" t="s">
-        <v>90</v>
+      <c r="D223" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E223" s="25"/>
       <c r="G223" s="18"/>
@@ -6515,14 +6767,14 @@
       <c r="J223" s="18"/>
     </row>
     <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
-        <v>32</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A224" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B224" s="4"/>
       <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="D224" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="E224" s="25"/>
       <c r="G224" s="18"/>
       <c r="H224" s="18"/>
@@ -6530,14 +6782,14 @@
       <c r="J224" s="18"/>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
-        <v>32.1</v>
+      <c r="A225" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="B225" s="4"/>
-      <c r="C225" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E225" s="25"/>
       <c r="G225" s="18"/>
       <c r="H225" s="18"/>
@@ -6546,12 +6798,12 @@
     </row>
     <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E226" s="25"/>
       <c r="G226" s="18"/>
@@ -6561,14 +6813,14 @@
     </row>
     <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="D227" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E227" s="25"/>
       <c r="G227" s="18"/>
       <c r="H227" s="18"/>
       <c r="I227" s="18"/>
@@ -6576,14 +6828,14 @@
     </row>
     <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="D228" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E228" s="25"/>
       <c r="G228" s="18"/>
       <c r="H228" s="18"/>
       <c r="I228" s="18"/>
@@ -6591,14 +6843,14 @@
     </row>
     <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="D229" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E229" s="25"/>
       <c r="G229" s="18"/>
       <c r="H229" s="18"/>
       <c r="I229" s="18"/>
@@ -6606,14 +6858,14 @@
     </row>
     <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="D230" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E230" s="25"/>
       <c r="G230" s="18"/>
       <c r="H230" s="18"/>
       <c r="I230" s="18"/>
@@ -6621,14 +6873,14 @@
     </row>
     <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="D231" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E231" s="25"/>
       <c r="G231" s="18"/>
       <c r="H231" s="18"/>
       <c r="I231" s="18"/>
@@ -6636,29 +6888,29 @@
     </row>
     <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="D232" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E232" s="25"/>
       <c r="G232" s="18"/>
       <c r="H232" s="18"/>
       <c r="I232" s="18"/>
       <c r="J232" s="18"/>
     </row>
-    <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
-        <v>309</v>
+    <row r="233" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
+        <v>31.3</v>
       </c>
       <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="C233" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D233" s="25"/>
+      <c r="E233" s="25"/>
       <c r="G233" s="18"/>
       <c r="H233" s="18"/>
       <c r="I233" s="18"/>
@@ -6666,14 +6918,14 @@
     </row>
     <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="D234" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E234" s="25"/>
       <c r="G234" s="18"/>
       <c r="H234" s="18"/>
       <c r="I234" s="18"/>
@@ -6681,14 +6933,14 @@
     </row>
     <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="D235" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E235" s="25"/>
       <c r="G235" s="18"/>
       <c r="H235" s="18"/>
       <c r="I235" s="18"/>
@@ -6696,29 +6948,29 @@
     </row>
     <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="D236" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E236" s="25"/>
       <c r="G236" s="18"/>
       <c r="H236" s="18"/>
       <c r="I236" s="18"/>
       <c r="J236" s="18"/>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
-        <v>313</v>
+      <c r="A237" s="3">
+        <v>31.4</v>
       </c>
       <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
+      <c r="C237" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D237" s="4"/>
-      <c r="E237" s="16" t="s">
-        <v>135</v>
-      </c>
+      <c r="E237" s="25"/>
       <c r="G237" s="18"/>
       <c r="H237" s="18"/>
       <c r="I237" s="18"/>
@@ -6726,14 +6978,14 @@
     </row>
     <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="D238" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E238" s="25"/>
       <c r="G238" s="18"/>
       <c r="H238" s="18"/>
       <c r="I238" s="18"/>
@@ -6741,14 +6993,14 @@
     </row>
     <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="D239" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E239" s="25"/>
       <c r="G239" s="18"/>
       <c r="H239" s="18"/>
       <c r="I239" s="18"/>
@@ -6756,12 +7008,12 @@
     </row>
     <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="4" t="s">
-        <v>152</v>
+      <c r="D240" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E240" s="25"/>
       <c r="G240" s="18"/>
@@ -6771,44 +7023,44 @@
     </row>
     <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="D241" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E241" s="25"/>
       <c r="G241" s="18"/>
       <c r="H241" s="18"/>
       <c r="I241" s="18"/>
       <c r="J241" s="18"/>
     </row>
     <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B242" s="4"/>
+      <c r="A242" s="3">
+        <v>32</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
-      <c r="E242" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="E242" s="25"/>
       <c r="G242" s="18"/>
       <c r="H242" s="18"/>
       <c r="I242" s="18"/>
       <c r="J242" s="18"/>
     </row>
     <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
-        <v>319</v>
+      <c r="A243" s="3">
+        <v>32.1</v>
       </c>
       <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
+      <c r="C243" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="D243" s="4"/>
-      <c r="E243" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="E243" s="25"/>
       <c r="G243" s="18"/>
       <c r="H243" s="18"/>
       <c r="I243" s="18"/>
@@ -6816,14 +7068,14 @@
     </row>
     <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="D244" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E244" s="25"/>
       <c r="G244" s="18"/>
       <c r="H244" s="18"/>
       <c r="I244" s="18"/>
@@ -6831,13 +7083,13 @@
     </row>
     <row r="245" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="4" t="s">
-        <v>142</v>
+      <c r="E245" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="G245" s="18"/>
       <c r="H245" s="18"/>
@@ -6846,13 +7098,13 @@
     </row>
     <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="4" t="s">
-        <v>96</v>
+      <c r="E246" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G246" s="18"/>
       <c r="H246" s="18"/>
@@ -6861,13 +7113,13 @@
     </row>
     <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="4" t="s">
-        <v>143</v>
+      <c r="E247" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G247" s="18"/>
       <c r="H247" s="18"/>
@@ -6876,13 +7128,13 @@
     </row>
     <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
-      <c r="E248" s="4" t="s">
-        <v>144</v>
+      <c r="E248" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G248" s="18"/>
       <c r="H248" s="18"/>
@@ -6891,13 +7143,13 @@
     </row>
     <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
-      <c r="E249" s="4" t="s">
-        <v>145</v>
+      <c r="E249" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="G249" s="18"/>
       <c r="H249" s="18"/>
@@ -6906,13 +7158,13 @@
     </row>
     <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
-      <c r="E250" s="4" t="s">
-        <v>146</v>
+      <c r="E250" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G250" s="18"/>
       <c r="H250" s="18"/>
@@ -6921,73 +7173,73 @@
     </row>
     <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="4" t="s">
-        <v>147</v>
+      <c r="E251" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="G251" s="18"/>
       <c r="H251" s="18"/>
       <c r="I251" s="18"/>
       <c r="J251" s="18"/>
     </row>
-    <row r="252" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E252" s="25"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="G252" s="18"/>
       <c r="H252" s="18"/>
       <c r="I252" s="18"/>
       <c r="J252" s="18"/>
     </row>
-    <row r="253" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
-      <c r="E253" s="4" t="s">
-        <v>148</v>
+      <c r="E253" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
       <c r="I253" s="18"/>
       <c r="J253" s="18"/>
     </row>
-    <row r="254" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="4" t="s">
-        <v>91</v>
+      <c r="E254" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G254" s="18"/>
       <c r="H254" s="18"/>
       <c r="I254" s="18"/>
       <c r="J254" s="18"/>
     </row>
-    <row r="255" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="4" t="s">
-        <v>90</v>
+      <c r="E255" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G255" s="18"/>
       <c r="H255" s="18"/>
@@ -6996,14 +7248,14 @@
     </row>
     <row r="256" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E256" s="25"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
       <c r="I256" s="18"/>
@@ -7011,13 +7263,13 @@
     </row>
     <row r="257" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="15" t="s">
-        <v>92</v>
+      <c r="E257" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
@@ -7026,14 +7278,14 @@
     </row>
     <row r="258" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="15" t="s">
-        <v>148</v>
-      </c>
+      <c r="D258" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E258" s="25"/>
       <c r="G258" s="18"/>
       <c r="H258" s="18"/>
       <c r="I258" s="18"/>
@@ -7041,13 +7293,13 @@
     </row>
     <row r="259" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="15" t="s">
-        <v>91</v>
+      <c r="E259" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G259" s="18"/>
       <c r="H259" s="18"/>
@@ -7056,13 +7308,13 @@
     </row>
     <row r="260" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="15" t="s">
-        <v>90</v>
+      <c r="E260" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="G260" s="18"/>
       <c r="H260" s="18"/>
@@ -7071,14 +7323,14 @@
     </row>
     <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B261" s="4"/>
-      <c r="C261" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="25"/>
+      <c r="E261" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="G261" s="18"/>
       <c r="H261" s="18"/>
       <c r="I261" s="18"/>
@@ -7086,14 +7338,14 @@
     </row>
     <row r="262" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B262" s="4"/>
-      <c r="C262" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C262" s="4"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="25"/>
+      <c r="E262" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="G262" s="18"/>
       <c r="H262" s="18"/>
       <c r="I262" s="18"/>
@@ -7101,14 +7353,14 @@
     </row>
     <row r="263" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B263" s="4"/>
-      <c r="C263" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="25"/>
+      <c r="E263" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G263" s="18"/>
       <c r="H263" s="18"/>
       <c r="I263" s="18"/>
@@ -7116,14 +7368,14 @@
     </row>
     <row r="264" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B264" s="4"/>
-      <c r="C264" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C264" s="4"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="25"/>
+      <c r="E264" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
       <c r="I264" s="18"/>
@@ -7131,14 +7383,14 @@
     </row>
     <row r="265" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B265" s="4"/>
-      <c r="C265" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="25"/>
+      <c r="E265" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G265" s="18"/>
       <c r="H265" s="18"/>
       <c r="I265" s="18"/>
@@ -7146,14 +7398,14 @@
     </row>
     <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B266" s="4"/>
-      <c r="C266" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C266" s="4"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="25"/>
+      <c r="E266" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="G266" s="18"/>
       <c r="H266" s="18"/>
       <c r="I266" s="18"/>
@@ -7161,98 +7413,104 @@
     </row>
     <row r="267" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B267" s="4"/>
-      <c r="C267" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C267" s="4"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="25"/>
+      <c r="E267" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="G267" s="18"/>
       <c r="H267" s="18"/>
       <c r="I267" s="18"/>
       <c r="J267" s="18"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B268" s="39"/>
-      <c r="C268" s="39"/>
-      <c r="D268" s="39"/>
-      <c r="E268" s="39"/>
+    <row r="268" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G268" s="18"/>
       <c r="H268" s="18"/>
       <c r="I268" s="18"/>
       <c r="J268" s="18"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="39"/>
-      <c r="B269" s="39"/>
-      <c r="C269" s="39"/>
-      <c r="D269" s="39"/>
-      <c r="E269" s="39"/>
+    <row r="269" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="G269" s="18"/>
       <c r="H269" s="18"/>
       <c r="I269" s="18"/>
       <c r="J269" s="18"/>
     </row>
-    <row r="270" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
-        <v>33</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>23</v>
-      </c>
+    <row r="270" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="D270" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="E270" s="25"/>
       <c r="G270" s="18"/>
       <c r="H270" s="18"/>
       <c r="I270" s="18"/>
       <c r="J270" s="18"/>
     </row>
-    <row r="271" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
-        <v>33.1</v>
+    <row r="271" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="B271" s="4"/>
-      <c r="C271" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="C271" s="4"/>
       <c r="D271" s="4"/>
-      <c r="E271" s="25"/>
+      <c r="E271" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G271" s="18"/>
       <c r="H271" s="18"/>
       <c r="I271" s="18"/>
       <c r="J271" s="18"/>
     </row>
-    <row r="272" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E272" s="25"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G272" s="18"/>
       <c r="H272" s="18"/>
       <c r="I272" s="18"/>
       <c r="J272" s="18"/>
     </row>
-    <row r="273" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E273" s="25"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G273" s="18"/>
       <c r="H273" s="18"/>
       <c r="I273" s="18"/>
@@ -7260,12 +7518,12 @@
     </row>
     <row r="274" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="E274" s="25"/>
       <c r="G274" s="18"/>
@@ -7274,15 +7532,15 @@
       <c r="J274" s="18"/>
     </row>
     <row r="275" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
-        <v>33.200000000000003</v>
+      <c r="A275" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="B275" s="4"/>
-      <c r="C275" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="25"/>
+      <c r="E275" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
       <c r="I275" s="18"/>
@@ -7290,14 +7548,14 @@
     </row>
     <row r="276" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E276" s="25"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="G276" s="18"/>
       <c r="H276" s="18"/>
       <c r="I276" s="18"/>
@@ -7305,13 +7563,13 @@
     </row>
     <row r="277" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="4" t="s">
-        <v>94</v>
+      <c r="E277" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="G277" s="18"/>
       <c r="H277" s="18"/>
@@ -7320,13 +7578,13 @@
     </row>
     <row r="278" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G278" s="18"/>
       <c r="H278" s="18"/>
@@ -7335,14 +7593,14 @@
     </row>
     <row r="279" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
+      <c r="C279" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D279" s="4"/>
-      <c r="E279" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="E279" s="25"/>
       <c r="G279" s="18"/>
       <c r="H279" s="18"/>
       <c r="I279" s="18"/>
@@ -7350,14 +7608,14 @@
     </row>
     <row r="280" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
+      <c r="C280" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D280" s="4"/>
-      <c r="E280" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="E280" s="25"/>
       <c r="G280" s="18"/>
       <c r="H280" s="18"/>
       <c r="I280" s="18"/>
@@ -7365,14 +7623,14 @@
     </row>
     <row r="281" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
+      <c r="C281" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D281" s="4"/>
-      <c r="E281" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="E281" s="25"/>
       <c r="G281" s="18"/>
       <c r="H281" s="18"/>
       <c r="I281" s="18"/>
@@ -7380,28 +7638,28 @@
     </row>
     <row r="282" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
+      <c r="C282" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D282" s="4"/>
-      <c r="E282" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="E282" s="25"/>
       <c r="G282" s="18"/>
       <c r="H282" s="18"/>
       <c r="I282" s="18"/>
       <c r="J282" s="18"/>
     </row>
-    <row r="283" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="C283" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D283" s="4"/>
       <c r="E283" s="25"/>
       <c r="G283" s="18"/>
       <c r="H283" s="18"/>
@@ -7410,14 +7668,14 @@
     </row>
     <row r="284" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
+      <c r="C284" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D284" s="4"/>
-      <c r="E284" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="E284" s="25"/>
       <c r="G284" s="18"/>
       <c r="H284" s="18"/>
       <c r="I284" s="18"/>
@@ -7425,74 +7683,68 @@
     </row>
     <row r="285" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
+      <c r="C285" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D285" s="4"/>
-      <c r="E285" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="E285" s="25"/>
       <c r="G285" s="18"/>
       <c r="H285" s="18"/>
       <c r="I285" s="18"/>
       <c r="J285" s="18"/>
     </row>
-    <row r="286" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A286" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="15" t="s">
-        <v>160</v>
-      </c>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B286" s="45"/>
+      <c r="C286" s="45"/>
+      <c r="D286" s="45"/>
+      <c r="E286" s="45"/>
       <c r="G286" s="18"/>
       <c r="H286" s="18"/>
       <c r="I286" s="18"/>
       <c r="J286" s="18"/>
     </row>
-    <row r="287" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A287" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="15" t="s">
-        <v>91</v>
-      </c>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="45"/>
+      <c r="B287" s="45"/>
+      <c r="C287" s="45"/>
+      <c r="D287" s="45"/>
+      <c r="E287" s="45"/>
       <c r="G287" s="18"/>
       <c r="H287" s="18"/>
       <c r="I287" s="18"/>
       <c r="J287" s="18"/>
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A288" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B288" s="4"/>
+      <c r="A288" s="3">
+        <v>33</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="E288" s="25"/>
       <c r="G288" s="18"/>
       <c r="H288" s="18"/>
       <c r="I288" s="18"/>
       <c r="J288" s="18"/>
     </row>
     <row r="289" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
-        <v>357</v>
+      <c r="A289" s="3">
+        <v>33.1</v>
       </c>
       <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
+      <c r="C289" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D289" s="4"/>
-      <c r="E289" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="E289" s="25"/>
       <c r="G289" s="18"/>
       <c r="H289" s="18"/>
       <c r="I289" s="18"/>
@@ -7500,12 +7752,12 @@
     </row>
     <row r="290" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="E290" s="25"/>
       <c r="G290" s="18"/>
@@ -7515,14 +7767,14 @@
     </row>
     <row r="291" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="D291" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E291" s="25"/>
       <c r="G291" s="18"/>
       <c r="H291" s="18"/>
       <c r="I291" s="18"/>
@@ -7530,29 +7782,29 @@
     </row>
     <row r="292" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="D292" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E292" s="25"/>
       <c r="G292" s="18"/>
       <c r="H292" s="18"/>
       <c r="I292" s="18"/>
       <c r="J292" s="18"/>
     </row>
     <row r="293" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
-        <v>361</v>
+      <c r="A293" s="3">
+        <v>33.200000000000003</v>
       </c>
       <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="C293" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="D293" s="4"/>
-      <c r="E293" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="E293" s="25"/>
       <c r="G293" s="18"/>
       <c r="H293" s="18"/>
       <c r="I293" s="18"/>
@@ -7560,14 +7812,14 @@
     </row>
     <row r="294" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
-      <c r="E294" s="15" t="s">
-        <v>165</v>
-      </c>
+      <c r="D294" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E294" s="25"/>
       <c r="G294" s="18"/>
       <c r="H294" s="18"/>
       <c r="I294" s="18"/>
@@ -7575,13 +7827,13 @@
     </row>
     <row r="295" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
-      <c r="E295" s="16" t="s">
-        <v>166</v>
+      <c r="E295" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G295" s="18"/>
       <c r="H295" s="18"/>
@@ -7589,15 +7841,15 @@
       <c r="J295" s="18"/>
     </row>
     <row r="296" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
-        <v>33.299999999999997</v>
+      <c r="A296" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="B296" s="4"/>
-      <c r="C296" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="C296" s="4"/>
       <c r="D296" s="4"/>
-      <c r="E296" s="25"/>
+      <c r="E296" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
       <c r="I296" s="18"/>
@@ -7605,14 +7857,14 @@
     </row>
     <row r="297" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E297" s="25"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
       <c r="I297" s="18"/>
@@ -7620,29 +7872,29 @@
     </row>
     <row r="298" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
-      <c r="D298" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E298" s="25"/>
+      <c r="D298" s="4"/>
+      <c r="E298" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G298" s="18"/>
       <c r="H298" s="18"/>
       <c r="I298" s="18"/>
       <c r="J298" s="18"/>
     </row>
     <row r="299" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
-        <v>33.4</v>
+      <c r="A299" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="B299" s="4"/>
-      <c r="C299" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C299" s="4"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="25"/>
+      <c r="E299" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
       <c r="I299" s="18"/>
@@ -7650,29 +7902,29 @@
     </row>
     <row r="300" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E300" s="25"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G300" s="18"/>
       <c r="H300" s="18"/>
       <c r="I300" s="18"/>
       <c r="J300" s="18"/>
     </row>
-    <row r="301" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D301" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E301" s="25"/>
       <c r="G301" s="18"/>
       <c r="H301" s="18"/>
       <c r="I301" s="18"/>
@@ -7680,13 +7932,13 @@
     </row>
     <row r="302" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
-      <c r="E302" s="15" t="s">
-        <v>92</v>
+      <c r="E302" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G302" s="18"/>
       <c r="H302" s="18"/>
@@ -7695,13 +7947,13 @@
     </row>
     <row r="303" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="15" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="G303" s="18"/>
       <c r="H303" s="18"/>
@@ -7710,13 +7962,13 @@
     </row>
     <row r="304" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="15" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="G304" s="18"/>
       <c r="H304" s="18"/>
@@ -7725,13 +7977,13 @@
     </row>
     <row r="305" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="4" t="s">
-        <v>90</v>
+      <c r="E305" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="G305" s="18"/>
       <c r="H305" s="18"/>
@@ -7740,29 +7992,29 @@
     </row>
     <row r="306" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="G306" s="18"/>
       <c r="H306" s="18"/>
       <c r="I306" s="18"/>
       <c r="J306" s="18"/>
     </row>
-    <row r="307" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
-      <c r="D307" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E307" s="25"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G307" s="18"/>
       <c r="H307" s="18"/>
       <c r="I307" s="18"/>
@@ -7770,14 +8022,14 @@
     </row>
     <row r="308" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D308" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E308" s="25"/>
       <c r="G308" s="18"/>
       <c r="H308" s="18"/>
       <c r="I308" s="18"/>
@@ -7785,13 +8037,13 @@
     </row>
     <row r="309" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="15" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="G309" s="18"/>
       <c r="H309" s="18"/>
@@ -7800,13 +8052,13 @@
     </row>
     <row r="310" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G310" s="18"/>
       <c r="H310" s="18"/>
@@ -7815,13 +8067,13 @@
     </row>
     <row r="311" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="15" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="G311" s="18"/>
       <c r="H311" s="18"/>
@@ -7830,13 +8082,13 @@
     </row>
     <row r="312" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
-      <c r="E312" s="4" t="s">
-        <v>90</v>
+      <c r="E312" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="G312" s="18"/>
       <c r="H312" s="18"/>
@@ -7845,13 +8097,13 @@
     </row>
     <row r="313" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
-      <c r="E313" s="4" t="s">
-        <v>161</v>
+      <c r="E313" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="G313" s="18"/>
       <c r="H313" s="18"/>
@@ -7859,14 +8111,14 @@
       <c r="J313" s="18"/>
     </row>
     <row r="314" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
-        <v>380</v>
+      <c r="A314" s="3">
+        <v>33.299999999999997</v>
       </c>
       <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C314" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D314" s="4"/>
       <c r="E314" s="25"/>
       <c r="G314" s="18"/>
       <c r="H314" s="18"/>
@@ -7875,14 +8127,14 @@
     </row>
     <row r="315" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="D315" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="25"/>
       <c r="G315" s="18"/>
       <c r="H315" s="18"/>
       <c r="I315" s="18"/>
@@ -7890,29 +8142,29 @@
     </row>
     <row r="316" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="D316" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E316" s="25"/>
       <c r="G316" s="18"/>
       <c r="H316" s="18"/>
       <c r="I316" s="18"/>
       <c r="J316" s="18"/>
     </row>
     <row r="317" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
-        <v>383</v>
+      <c r="A317" s="3">
+        <v>33.4</v>
       </c>
       <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
+      <c r="C317" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D317" s="4"/>
-      <c r="E317" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="E317" s="25"/>
       <c r="G317" s="18"/>
       <c r="H317" s="18"/>
       <c r="I317" s="18"/>
@@ -7920,14 +8172,14 @@
     </row>
     <row r="318" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="15" t="s">
-        <v>165</v>
-      </c>
+      <c r="D318" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E318" s="25"/>
       <c r="G318" s="18"/>
       <c r="H318" s="18"/>
       <c r="I318" s="18"/>
@@ -7935,13 +8187,13 @@
     </row>
     <row r="319" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="16" t="s">
-        <v>166</v>
+      <c r="E319" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G319" s="18"/>
       <c r="H319" s="18"/>
@@ -7949,32 +8201,30 @@
       <c r="J319" s="18"/>
     </row>
     <row r="320" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A320" s="3">
-        <v>34</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A320" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
-      <c r="E320" s="25"/>
-      <c r="G320" s="18">
-        <v>50</v>
-      </c>
+      <c r="E320" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G320" s="18"/>
       <c r="H320" s="18"/>
       <c r="I320" s="18"/>
       <c r="J320" s="18"/>
     </row>
     <row r="321" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A321" s="3">
-        <v>34.1</v>
+      <c r="A321" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="B321" s="4"/>
-      <c r="C321" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D321" s="25"/>
-      <c r="E321" s="25"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="G321" s="18"/>
       <c r="H321" s="18"/>
       <c r="I321" s="18"/>
@@ -7982,14 +8232,14 @@
     </row>
     <row r="322" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
-      <c r="D322" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E322" s="25"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G322" s="18"/>
       <c r="H322" s="18"/>
       <c r="I322" s="18"/>
@@ -7997,14 +8247,14 @@
     </row>
     <row r="323" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
-      <c r="D323" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E323" s="25"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G323" s="18"/>
       <c r="H323" s="18"/>
       <c r="I323" s="18"/>
@@ -8012,27 +8262,27 @@
     </row>
     <row r="324" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
-      <c r="D324" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E324" s="25"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G324" s="18"/>
       <c r="H324" s="18"/>
       <c r="I324" s="18"/>
       <c r="J324" s="18"/>
     </row>
-    <row r="325" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
-      <c r="D325" s="15" t="s">
-        <v>91</v>
+      <c r="D325" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E325" s="25"/>
       <c r="G325" s="18"/>
@@ -8042,14 +8292,14 @@
     </row>
     <row r="326" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
-      <c r="D326" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E326" s="25"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G326" s="18"/>
       <c r="H326" s="18"/>
       <c r="I326" s="18"/>
@@ -8057,29 +8307,29 @@
     </row>
     <row r="327" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
-      <c r="D327" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E327" s="25"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G327" s="18"/>
       <c r="H327" s="18"/>
       <c r="I327" s="18"/>
       <c r="J327" s="18"/>
     </row>
-    <row r="328" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="3">
-        <v>34.200000000000003</v>
+    <row r="328" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B328" s="4"/>
-      <c r="C328" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D328" s="25"/>
-      <c r="E328" s="25"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="G328" s="18"/>
       <c r="H328" s="18"/>
       <c r="I328" s="18"/>
@@ -8087,14 +8337,14 @@
     </row>
     <row r="329" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
-      <c r="D329" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E329" s="25"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G329" s="18"/>
       <c r="H329" s="18"/>
       <c r="I329" s="18"/>
@@ -8102,14 +8352,14 @@
     </row>
     <row r="330" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
-      <c r="D330" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E330" s="25"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G330" s="18"/>
       <c r="H330" s="18"/>
       <c r="I330" s="18"/>
@@ -8117,14 +8367,14 @@
     </row>
     <row r="331" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
-      <c r="D331" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E331" s="25"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G331" s="18"/>
       <c r="H331" s="18"/>
       <c r="I331" s="18"/>
@@ -8132,12 +8382,12 @@
     </row>
     <row r="332" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
-      <c r="D332" s="15" t="s">
-        <v>91</v>
+      <c r="D332" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E332" s="25"/>
       <c r="G332" s="18"/>
@@ -8147,14 +8397,14 @@
     </row>
     <row r="333" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
-      <c r="D333" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E333" s="25"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="G333" s="18"/>
       <c r="H333" s="18"/>
       <c r="I333" s="18"/>
@@ -8162,29 +8412,29 @@
     </row>
     <row r="334" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
-      <c r="D334" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E334" s="25"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="G334" s="18"/>
       <c r="H334" s="18"/>
       <c r="I334" s="18"/>
       <c r="J334" s="18"/>
     </row>
     <row r="335" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A335" s="3">
-        <v>34.299999999999997</v>
+      <c r="A335" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="B335" s="4"/>
-      <c r="C335" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D335" s="25"/>
-      <c r="E335" s="25"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="G335" s="18"/>
       <c r="H335" s="18"/>
       <c r="I335" s="18"/>
@@ -8192,14 +8442,14 @@
     </row>
     <row r="336" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
-      <c r="D336" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E336" s="25"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="G336" s="18"/>
       <c r="H336" s="18"/>
       <c r="I336" s="18"/>
@@ -8207,43 +8457,45 @@
     </row>
     <row r="337" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
-      <c r="D337" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E337" s="25"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="G337" s="18"/>
       <c r="H337" s="18"/>
       <c r="I337" s="18"/>
       <c r="J337" s="18"/>
     </row>
     <row r="338" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A338" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B338" s="4"/>
+      <c r="A338" s="3">
+        <v>34</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C338" s="4"/>
-      <c r="D338" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="D338" s="4"/>
       <c r="E338" s="25"/>
-      <c r="G338" s="18"/>
+      <c r="G338" s="18">
+        <v>50</v>
+      </c>
       <c r="H338" s="18"/>
       <c r="I338" s="18"/>
       <c r="J338" s="18"/>
     </row>
     <row r="339" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A339" s="3" t="s">
-        <v>401</v>
+      <c r="A339" s="3">
+        <v>34.1</v>
       </c>
       <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
-      <c r="D339" s="15" t="s">
-        <v>165</v>
-      </c>
+      <c r="C339" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D339" s="25"/>
       <c r="E339" s="25"/>
       <c r="G339" s="18"/>
       <c r="H339" s="18"/>
@@ -8252,12 +8504,12 @@
     </row>
     <row r="340" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
-      <c r="D340" s="16" t="s">
-        <v>166</v>
+      <c r="D340" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E340" s="25"/>
       <c r="G340" s="18"/>
@@ -8266,14 +8518,14 @@
       <c r="J340" s="18"/>
     </row>
     <row r="341" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A341" s="3">
-        <v>35</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A341" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B341" s="4"/>
       <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
+      <c r="D341" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="E341" s="25"/>
       <c r="G341" s="18"/>
       <c r="H341" s="18"/>
@@ -8281,14 +8533,14 @@
       <c r="J341" s="18"/>
     </row>
     <row r="342" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A342" s="3">
-        <v>35.1</v>
+      <c r="A342" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="B342" s="4"/>
-      <c r="C342" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="E342" s="25"/>
       <c r="G342" s="18"/>
       <c r="H342" s="18"/>
@@ -8297,12 +8549,12 @@
     </row>
     <row r="343" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
-      <c r="D343" s="4" t="s">
-        <v>156</v>
+      <c r="D343" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E343" s="25"/>
       <c r="G343" s="18"/>
@@ -8312,14 +8564,14 @@
     </row>
     <row r="344" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
-      <c r="E344" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D344" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E344" s="25"/>
       <c r="G344" s="18"/>
       <c r="H344" s="18"/>
       <c r="I344" s="18"/>
@@ -8327,29 +8579,29 @@
     </row>
     <row r="345" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
-      <c r="E345" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="D345" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E345" s="25"/>
       <c r="G345" s="18"/>
       <c r="H345" s="18"/>
       <c r="I345" s="18"/>
       <c r="J345" s="18"/>
     </row>
-    <row r="346" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A346" s="3" t="s">
-        <v>406</v>
+    <row r="346" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="3">
+        <v>34.200000000000003</v>
       </c>
       <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
-      <c r="E346" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="C346" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D346" s="25"/>
+      <c r="E346" s="25"/>
       <c r="G346" s="18"/>
       <c r="H346" s="18"/>
       <c r="I346" s="18"/>
@@ -8357,14 +8609,14 @@
     </row>
     <row r="347" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
-      <c r="E347" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="D347" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E347" s="25"/>
       <c r="G347" s="18"/>
       <c r="H347" s="18"/>
       <c r="I347" s="18"/>
@@ -8372,14 +8624,14 @@
     </row>
     <row r="348" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="D348" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E348" s="25"/>
       <c r="G348" s="18"/>
       <c r="H348" s="18"/>
       <c r="I348" s="18"/>
@@ -8387,27 +8639,27 @@
     </row>
     <row r="349" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="D349" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E349" s="25"/>
       <c r="G349" s="18"/>
       <c r="H349" s="18"/>
       <c r="I349" s="18"/>
       <c r="J349" s="18"/>
     </row>
-    <row r="350" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
-      <c r="D350" s="4" t="s">
-        <v>157</v>
+      <c r="D350" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E350" s="25"/>
       <c r="G350" s="18"/>
@@ -8417,14 +8669,14 @@
     </row>
     <row r="351" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
-      <c r="E351" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D351" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E351" s="25"/>
       <c r="G351" s="18"/>
       <c r="H351" s="18"/>
       <c r="I351" s="18"/>
@@ -8432,29 +8684,29 @@
     </row>
     <row r="352" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
-      <c r="E352" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="D352" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E352" s="25"/>
       <c r="G352" s="18"/>
       <c r="H352" s="18"/>
       <c r="I352" s="18"/>
       <c r="J352" s="18"/>
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A353" s="3" t="s">
-        <v>413</v>
+      <c r="A353" s="3">
+        <v>34.299999999999997</v>
       </c>
       <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
-      <c r="E353" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="C353" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D353" s="25"/>
+      <c r="E353" s="25"/>
       <c r="G353" s="18"/>
       <c r="H353" s="18"/>
       <c r="I353" s="18"/>
@@ -8462,14 +8714,14 @@
     </row>
     <row r="354" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
-      <c r="E354" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="D354" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E354" s="25"/>
       <c r="G354" s="18"/>
       <c r="H354" s="18"/>
       <c r="I354" s="18"/>
@@ -8477,14 +8729,14 @@
     </row>
     <row r="355" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
-      <c r="E355" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="D355" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E355" s="25"/>
       <c r="G355" s="18"/>
       <c r="H355" s="18"/>
       <c r="I355" s="18"/>
@@ -8492,14 +8744,14 @@
     </row>
     <row r="356" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
-      <c r="E356" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="D356" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E356" s="25"/>
       <c r="G356" s="18"/>
       <c r="H356" s="18"/>
       <c r="I356" s="18"/>
@@ -8507,12 +8759,12 @@
     </row>
     <row r="357" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
-      <c r="D357" s="4" t="s">
-        <v>159</v>
+      <c r="D357" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="E357" s="25"/>
       <c r="G357" s="18"/>
@@ -8522,44 +8774,44 @@
     </row>
     <row r="358" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
-      <c r="E358" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="D358" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E358" s="25"/>
       <c r="G358" s="18"/>
       <c r="H358" s="18"/>
       <c r="I358" s="18"/>
       <c r="J358" s="18"/>
     </row>
     <row r="359" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A359" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B359" s="4"/>
+      <c r="A359" s="3">
+        <v>35</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
-      <c r="E359" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="E359" s="25"/>
       <c r="G359" s="18"/>
       <c r="H359" s="18"/>
       <c r="I359" s="18"/>
       <c r="J359" s="18"/>
     </row>
     <row r="360" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A360" s="3" t="s">
-        <v>420</v>
+      <c r="A360" s="3">
+        <v>35.1</v>
       </c>
       <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
+      <c r="C360" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="D360" s="4"/>
-      <c r="E360" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="E360" s="25"/>
       <c r="G360" s="18"/>
       <c r="H360" s="18"/>
       <c r="I360" s="18"/>
@@ -8567,14 +8819,14 @@
     </row>
     <row r="361" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
-      <c r="E361" s="15" t="s">
-        <v>165</v>
-      </c>
+      <c r="D361" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E361" s="25"/>
       <c r="G361" s="18"/>
       <c r="H361" s="18"/>
       <c r="I361" s="18"/>
@@ -8582,13 +8834,13 @@
     </row>
     <row r="362" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
-      <c r="E362" s="16" t="s">
-        <v>166</v>
+      <c r="E362" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G362" s="18"/>
       <c r="H362" s="18"/>
@@ -8596,89 +8848,89 @@
       <c r="J362" s="18"/>
     </row>
     <row r="363" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A363" s="3">
-        <v>35.200000000000003</v>
+      <c r="A363" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="B363" s="4"/>
-      <c r="C363" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C363" s="4"/>
       <c r="D363" s="4"/>
-      <c r="E363" s="25"/>
+      <c r="E363" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G363" s="18"/>
       <c r="H363" s="18"/>
       <c r="I363" s="18"/>
       <c r="J363" s="18"/>
     </row>
     <row r="364" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A364" s="3">
-        <v>35.299999999999997</v>
+      <c r="A364" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="B364" s="4"/>
-      <c r="C364" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C364" s="4"/>
       <c r="D364" s="4"/>
-      <c r="E364" s="25"/>
+      <c r="E364" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="G364" s="18"/>
       <c r="H364" s="18"/>
       <c r="I364" s="18"/>
       <c r="J364" s="18"/>
     </row>
     <row r="365" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A365" s="3">
-        <v>35.4</v>
+      <c r="A365" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B365" s="4"/>
-      <c r="C365" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C365" s="4"/>
       <c r="D365" s="4"/>
-      <c r="E365" s="25"/>
+      <c r="E365" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G365" s="18"/>
       <c r="H365" s="18"/>
       <c r="I365" s="18"/>
       <c r="J365" s="18"/>
     </row>
     <row r="366" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A366" s="3">
-        <v>35.5</v>
+      <c r="A366" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B366" s="4"/>
-      <c r="C366" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C366" s="4"/>
       <c r="D366" s="4"/>
-      <c r="E366" s="25"/>
+      <c r="E366" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G366" s="18"/>
       <c r="H366" s="18"/>
       <c r="I366" s="18"/>
       <c r="J366" s="18"/>
     </row>
     <row r="367" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A367" s="3">
-        <v>35.6</v>
+      <c r="A367" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B367" s="4"/>
-      <c r="C367" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C367" s="4"/>
       <c r="D367" s="4"/>
-      <c r="E367" s="25"/>
+      <c r="E367" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G367" s="18"/>
       <c r="H367" s="18"/>
       <c r="I367" s="18"/>
       <c r="J367" s="18"/>
     </row>
-    <row r="368" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A368" s="3">
-        <v>35.700000000000003</v>
+    <row r="368" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="B368" s="4"/>
-      <c r="C368" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D368" s="4"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E368" s="25"/>
       <c r="G368" s="18"/>
       <c r="H368" s="18"/>
@@ -8686,69 +8938,75 @@
       <c r="J368" s="18"/>
     </row>
     <row r="369" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A369" s="3">
-        <v>35.799999999999997</v>
+      <c r="A369" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="B369" s="4"/>
-      <c r="C369" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C369" s="4"/>
       <c r="D369" s="4"/>
-      <c r="E369" s="25"/>
+      <c r="E369" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G369" s="18"/>
       <c r="H369" s="18"/>
       <c r="I369" s="18"/>
       <c r="J369" s="18"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A370" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B370" s="39"/>
-      <c r="C370" s="39"/>
-      <c r="D370" s="39"/>
-      <c r="E370" s="39"/>
+    <row r="370" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B370" s="4"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G370" s="18"/>
       <c r="H370" s="18"/>
       <c r="I370" s="18"/>
       <c r="J370" s="18"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A371" s="39"/>
-      <c r="B371" s="39"/>
-      <c r="C371" s="39"/>
-      <c r="D371" s="39"/>
-      <c r="E371" s="39"/>
+    <row r="371" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B371" s="4"/>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="G371" s="18"/>
       <c r="H371" s="18"/>
       <c r="I371" s="18"/>
       <c r="J371" s="18"/>
     </row>
     <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A372" s="3">
-        <v>36</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A372" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
-      <c r="E372" s="25"/>
+      <c r="E372" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G372" s="18"/>
       <c r="H372" s="18"/>
       <c r="I372" s="18"/>
       <c r="J372" s="18"/>
     </row>
     <row r="373" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A373" s="3">
-        <v>36.1</v>
+      <c r="A373" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="B373" s="4"/>
-      <c r="C373" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="C373" s="4"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="25"/>
+      <c r="E373" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G373" s="18"/>
       <c r="H373" s="18"/>
       <c r="I373" s="18"/>
@@ -8756,14 +9014,14 @@
     </row>
     <row r="374" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
-      <c r="D374" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E374" s="25"/>
+      <c r="D374" s="4"/>
+      <c r="E374" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G374" s="18"/>
       <c r="H374" s="18"/>
       <c r="I374" s="18"/>
@@ -8771,12 +9029,12 @@
     </row>
     <row r="375" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="E375" s="25"/>
       <c r="G375" s="18"/>
@@ -8786,29 +9044,29 @@
     </row>
     <row r="376" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
-      <c r="D376" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E376" s="25"/>
+      <c r="D376" s="4"/>
+      <c r="E376" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="G376" s="18"/>
       <c r="H376" s="18"/>
       <c r="I376" s="18"/>
       <c r="J376" s="18"/>
     </row>
     <row r="377" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A377" s="3">
-        <v>36.200000000000003</v>
+      <c r="A377" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="B377" s="4"/>
-      <c r="C377" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C377" s="4"/>
       <c r="D377" s="4"/>
-      <c r="E377" s="25"/>
+      <c r="E377" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="G377" s="18"/>
       <c r="H377" s="18"/>
       <c r="I377" s="18"/>
@@ -8816,14 +9074,14 @@
     </row>
     <row r="378" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
-      <c r="D378" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E378" s="25"/>
+      <c r="D378" s="4"/>
+      <c r="E378" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="G378" s="18"/>
       <c r="H378" s="18"/>
       <c r="I378" s="18"/>
@@ -8831,13 +9089,13 @@
     </row>
     <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
-      <c r="E379" s="4" t="s">
-        <v>177</v>
+      <c r="E379" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="G379" s="18"/>
       <c r="H379" s="18"/>
@@ -8846,163 +9104,157 @@
     </row>
     <row r="380" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
-      <c r="D380" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E380" s="25"/>
+      <c r="D380" s="4"/>
+      <c r="E380" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="G380" s="18"/>
       <c r="H380" s="18"/>
       <c r="I380" s="18"/>
       <c r="J380" s="18"/>
     </row>
     <row r="381" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A381" s="3" t="s">
-        <v>429</v>
+      <c r="A381" s="3">
+        <v>35.200000000000003</v>
       </c>
       <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
+      <c r="C381" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D381" s="4"/>
-      <c r="E381" s="15" t="s">
-        <v>170</v>
-      </c>
+      <c r="E381" s="25"/>
       <c r="G381" s="18"/>
       <c r="H381" s="18"/>
       <c r="I381" s="18"/>
       <c r="J381" s="18"/>
     </row>
     <row r="382" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A382" s="3" t="s">
-        <v>430</v>
+      <c r="A382" s="3">
+        <v>35.299999999999997</v>
       </c>
       <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
+      <c r="C382" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D382" s="4"/>
-      <c r="E382" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="E382" s="25"/>
       <c r="G382" s="18"/>
       <c r="H382" s="18"/>
       <c r="I382" s="18"/>
       <c r="J382" s="18"/>
     </row>
     <row r="383" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A383" s="3" t="s">
-        <v>431</v>
+      <c r="A383" s="3">
+        <v>35.4</v>
       </c>
       <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
+      <c r="C383" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D383" s="4"/>
-      <c r="E383" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="E383" s="25"/>
       <c r="G383" s="18"/>
       <c r="H383" s="18"/>
       <c r="I383" s="18"/>
       <c r="J383" s="18"/>
     </row>
     <row r="384" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
-        <v>432</v>
+      <c r="A384" s="3">
+        <v>35.5</v>
       </c>
       <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
+      <c r="C384" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D384" s="4"/>
-      <c r="E384" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="E384" s="25"/>
       <c r="G384" s="18"/>
       <c r="H384" s="18"/>
       <c r="I384" s="18"/>
       <c r="J384" s="18"/>
     </row>
     <row r="385" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A385" s="3" t="s">
-        <v>433</v>
+      <c r="A385" s="3">
+        <v>35.6</v>
       </c>
       <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
+      <c r="C385" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D385" s="4"/>
-      <c r="E385" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="E385" s="25"/>
       <c r="G385" s="18"/>
       <c r="H385" s="18"/>
       <c r="I385" s="18"/>
       <c r="J385" s="18"/>
     </row>
     <row r="386" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
-        <v>434</v>
+      <c r="A386" s="3">
+        <v>35.700000000000003</v>
       </c>
       <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
+      <c r="C386" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D386" s="4"/>
-      <c r="E386" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="E386" s="25"/>
       <c r="G386" s="18"/>
       <c r="H386" s="18"/>
       <c r="I386" s="18"/>
       <c r="J386" s="18"/>
     </row>
     <row r="387" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A387" s="3" t="s">
-        <v>435</v>
+      <c r="A387" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
+      <c r="C387" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D387" s="4"/>
-      <c r="E387" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="E387" s="25"/>
       <c r="G387" s="18"/>
       <c r="H387" s="18"/>
       <c r="I387" s="18"/>
       <c r="J387" s="18"/>
     </row>
-    <row r="388" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A388" s="3">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="B388" s="4"/>
-      <c r="C388" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D388" s="4"/>
-      <c r="E388" s="25"/>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B388" s="45"/>
+      <c r="C388" s="45"/>
+      <c r="D388" s="45"/>
+      <c r="E388" s="45"/>
       <c r="G388" s="18"/>
       <c r="H388" s="18"/>
       <c r="I388" s="18"/>
       <c r="J388" s="18"/>
     </row>
-    <row r="389" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A389" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
-      <c r="D389" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E389" s="25"/>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="45"/>
+      <c r="B389" s="45"/>
+      <c r="C389" s="45"/>
+      <c r="D389" s="45"/>
+      <c r="E389" s="45"/>
       <c r="G389" s="18"/>
       <c r="H389" s="18"/>
       <c r="I389" s="18"/>
       <c r="J389" s="18"/>
     </row>
     <row r="390" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A390" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B390" s="4"/>
+      <c r="A390" s="3">
+        <v>36</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C390" s="4"/>
-      <c r="D390" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="D390" s="4"/>
       <c r="E390" s="25"/>
       <c r="G390" s="18"/>
       <c r="H390" s="18"/>
@@ -9011,11 +9263,11 @@
     </row>
     <row r="391" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="B391" s="4"/>
       <c r="C391" s="4" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="25"/>
@@ -9026,12 +9278,12 @@
     </row>
     <row r="392" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="E392" s="25"/>
       <c r="G392" s="18"/>
@@ -9041,14 +9293,14 @@
     </row>
     <row r="393" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="D393" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E393" s="25"/>
       <c r="G393" s="18"/>
       <c r="H393" s="18"/>
       <c r="I393" s="18"/>
@@ -9056,12 +9308,12 @@
     </row>
     <row r="394" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="E394" s="25"/>
       <c r="G394" s="18"/>
@@ -9070,15 +9322,15 @@
       <c r="J394" s="18"/>
     </row>
     <row r="395" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A395" s="3" t="s">
-        <v>441</v>
+      <c r="A395" s="3">
+        <v>36.200000000000003</v>
       </c>
       <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
+      <c r="C395" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="D395" s="4"/>
-      <c r="E395" s="15" t="s">
-        <v>170</v>
-      </c>
+      <c r="E395" s="25"/>
       <c r="G395" s="18"/>
       <c r="H395" s="18"/>
       <c r="I395" s="18"/>
@@ -9086,14 +9338,14 @@
     </row>
     <row r="396" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
-      <c r="E396" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="D396" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E396" s="25"/>
       <c r="G396" s="18"/>
       <c r="H396" s="18"/>
       <c r="I396" s="18"/>
@@ -9101,13 +9353,13 @@
     </row>
     <row r="397" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
-      <c r="E397" s="15" t="s">
-        <v>172</v>
+      <c r="E397" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="G397" s="18"/>
       <c r="H397" s="18"/>
@@ -9116,14 +9368,14 @@
     </row>
     <row r="398" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
-      <c r="E398" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="D398" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E398" s="25"/>
       <c r="G398" s="18"/>
       <c r="H398" s="18"/>
       <c r="I398" s="18"/>
@@ -9131,13 +9383,13 @@
     </row>
     <row r="399" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G399" s="18"/>
       <c r="H399" s="18"/>
@@ -9146,13 +9398,13 @@
     </row>
     <row r="400" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
-      <c r="E400" s="4" t="s">
-        <v>175</v>
+      <c r="E400" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="G400" s="18"/>
       <c r="H400" s="18"/>
@@ -9161,13 +9413,13 @@
     </row>
     <row r="401" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G401" s="18"/>
       <c r="H401" s="18"/>
@@ -9175,32 +9427,30 @@
       <c r="J401" s="18"/>
     </row>
     <row r="402" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A402" s="3">
-        <v>37</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A402" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B402" s="4"/>
       <c r="C402" s="4"/>
-      <c r="D402" s="28"/>
-      <c r="E402" s="29"/>
-      <c r="G402" s="18">
-        <v>50</v>
-      </c>
+      <c r="D402" s="4"/>
+      <c r="E402" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G402" s="18"/>
       <c r="H402" s="18"/>
       <c r="I402" s="18"/>
       <c r="J402" s="18"/>
     </row>
     <row r="403" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A403" s="3">
-        <v>37.1</v>
+      <c r="A403" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="B403" s="4"/>
-      <c r="C403" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D403" s="30"/>
-      <c r="E403" s="31"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="G403" s="18"/>
       <c r="H403" s="18"/>
       <c r="I403" s="18"/>
@@ -9208,44 +9458,44 @@
     </row>
     <row r="404" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B404" s="4"/>
-      <c r="C404" s="27"/>
-      <c r="D404" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="E404" s="31"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="G404" s="18"/>
       <c r="H404" s="18"/>
       <c r="I404" s="18"/>
       <c r="J404" s="18"/>
     </row>
     <row r="405" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A405" s="3">
-        <v>37.200000000000003</v>
+      <c r="A405" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="B405" s="4"/>
-      <c r="C405" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D405" s="30"/>
-      <c r="E405" s="31"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+      <c r="E405" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="G405" s="18"/>
       <c r="H405" s="18"/>
       <c r="I405" s="18"/>
       <c r="J405" s="18"/>
     </row>
     <row r="406" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="s">
-        <v>449</v>
+      <c r="A406" s="3">
+        <v>36.299999999999997</v>
       </c>
       <c r="B406" s="4"/>
-      <c r="C406" s="27"/>
-      <c r="D406" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E406" s="31"/>
+      <c r="C406" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D406" s="4"/>
+      <c r="E406" s="25"/>
       <c r="G406" s="18"/>
       <c r="H406" s="18"/>
       <c r="I406" s="18"/>
@@ -9253,14 +9503,14 @@
     </row>
     <row r="407" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B407" s="4"/>
-      <c r="C407" s="27"/>
-      <c r="D407" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="E407" s="31"/>
+      <c r="C407" s="4"/>
+      <c r="D407" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E407" s="25"/>
       <c r="G407" s="18"/>
       <c r="H407" s="18"/>
       <c r="I407" s="18"/>
@@ -9268,29 +9518,29 @@
     </row>
     <row r="408" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B408" s="4"/>
-      <c r="C408" s="27"/>
-      <c r="D408" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E408" s="31"/>
+      <c r="C408" s="4"/>
+      <c r="D408" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E408" s="25"/>
       <c r="G408" s="18"/>
       <c r="H408" s="18"/>
       <c r="I408" s="18"/>
       <c r="J408" s="18"/>
     </row>
     <row r="409" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A409" s="3" t="s">
-        <v>452</v>
+      <c r="A409" s="3">
+        <v>36.4</v>
       </c>
       <c r="B409" s="4"/>
-      <c r="C409" s="27"/>
-      <c r="D409" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="E409" s="31"/>
+      <c r="C409" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D409" s="4"/>
+      <c r="E409" s="25"/>
       <c r="G409" s="18"/>
       <c r="H409" s="18"/>
       <c r="I409" s="18"/>
@@ -9298,14 +9548,14 @@
     </row>
     <row r="410" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B410" s="4"/>
-      <c r="C410" s="27"/>
-      <c r="D410" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E410" s="31"/>
+      <c r="C410" s="4"/>
+      <c r="D410" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E410" s="25"/>
       <c r="G410" s="18"/>
       <c r="H410" s="18"/>
       <c r="I410" s="18"/>
@@ -9313,14 +9563,14 @@
     </row>
     <row r="411" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B411" s="4"/>
-      <c r="C411" s="27"/>
-      <c r="D411" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E411" s="31"/>
+      <c r="C411" s="4"/>
+      <c r="D411" s="4"/>
+      <c r="E411" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G411" s="18"/>
       <c r="H411" s="18"/>
       <c r="I411" s="18"/>
@@ -9328,44 +9578,44 @@
     </row>
     <row r="412" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B412" s="4"/>
-      <c r="C412" s="27"/>
-      <c r="D412" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E412" s="31"/>
+      <c r="C412" s="4"/>
+      <c r="D412" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E412" s="25"/>
       <c r="G412" s="18"/>
       <c r="H412" s="18"/>
       <c r="I412" s="18"/>
       <c r="J412" s="18"/>
     </row>
     <row r="413" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A413" s="3">
-        <v>38</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A413" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B413" s="4"/>
       <c r="C413" s="4"/>
-      <c r="D413" s="14"/>
-      <c r="E413" s="24"/>
+      <c r="D413" s="4"/>
+      <c r="E413" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="G413" s="18"/>
       <c r="H413" s="18"/>
       <c r="I413" s="18"/>
       <c r="J413" s="18"/>
     </row>
     <row r="414" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A414" s="3">
-        <v>38.1</v>
+      <c r="A414" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="B414" s="4"/>
-      <c r="C414" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="C414" s="4"/>
       <c r="D414" s="4"/>
-      <c r="E414" s="25"/>
+      <c r="E414" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
       <c r="I414" s="18"/>
@@ -9373,14 +9623,14 @@
     </row>
     <row r="415" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
-      <c r="D415" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E415" s="25"/>
+      <c r="D415" s="4"/>
+      <c r="E415" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
       <c r="I415" s="18"/>
@@ -9388,13 +9638,13 @@
     </row>
     <row r="416" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
-      <c r="E416" s="4" t="s">
-        <v>177</v>
+      <c r="E416" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
@@ -9403,14 +9653,14 @@
     </row>
     <row r="417" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
-      <c r="D417" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E417" s="25"/>
+      <c r="D417" s="4"/>
+      <c r="E417" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="G417" s="18"/>
       <c r="H417" s="18"/>
       <c r="I417" s="18"/>
@@ -9418,13 +9668,13 @@
     </row>
     <row r="418" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
-      <c r="E418" s="15" t="s">
-        <v>170</v>
+      <c r="E418" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G418" s="18"/>
       <c r="H418" s="18"/>
@@ -9433,13 +9683,13 @@
     </row>
     <row r="419" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G419" s="18"/>
       <c r="H419" s="18"/>
@@ -9447,30 +9697,32 @@
       <c r="J419" s="18"/>
     </row>
     <row r="420" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A420" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B420" s="4"/>
+      <c r="A420" s="3">
+        <v>37</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
-      <c r="E420" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="G420" s="18"/>
+      <c r="D420" s="28"/>
+      <c r="E420" s="29"/>
+      <c r="G420" s="18">
+        <v>50</v>
+      </c>
       <c r="H420" s="18"/>
       <c r="I420" s="18"/>
       <c r="J420" s="18"/>
     </row>
     <row r="421" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A421" s="3" t="s">
-        <v>462</v>
+      <c r="A421" s="3">
+        <v>37.1</v>
       </c>
       <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="C421" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D421" s="30"/>
+      <c r="E421" s="31"/>
       <c r="G421" s="18"/>
       <c r="H421" s="18"/>
       <c r="I421" s="18"/>
@@ -9478,29 +9730,29 @@
     </row>
     <row r="422" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
-      <c r="E422" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="C422" s="27"/>
+      <c r="D422" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E422" s="31"/>
       <c r="G422" s="18"/>
       <c r="H422" s="18"/>
       <c r="I422" s="18"/>
       <c r="J422" s="18"/>
     </row>
     <row r="423" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A423" s="3" t="s">
-        <v>464</v>
+      <c r="A423" s="3">
+        <v>37.200000000000003</v>
       </c>
       <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
-      <c r="E423" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="C423" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D423" s="30"/>
+      <c r="E423" s="31"/>
       <c r="G423" s="18"/>
       <c r="H423" s="18"/>
       <c r="I423" s="18"/>
@@ -9508,104 +9760,104 @@
     </row>
     <row r="424" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="C424" s="27"/>
+      <c r="D424" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E424" s="31"/>
       <c r="G424" s="18"/>
       <c r="H424" s="18"/>
       <c r="I424" s="18"/>
       <c r="J424" s="18"/>
     </row>
     <row r="425" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A425" s="3">
-        <v>38.200000000000003</v>
+      <c r="A425" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="B425" s="4"/>
-      <c r="C425" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D425" s="4"/>
-      <c r="E425" s="25"/>
+      <c r="C425" s="27"/>
+      <c r="D425" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E425" s="31"/>
       <c r="G425" s="18"/>
       <c r="H425" s="18"/>
       <c r="I425" s="18"/>
       <c r="J425" s="18"/>
     </row>
     <row r="426" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A426" s="3">
-        <v>38.299999999999997</v>
+      <c r="A426" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="B426" s="4"/>
-      <c r="C426" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D426" s="4"/>
-      <c r="E426" s="25"/>
+      <c r="C426" s="27"/>
+      <c r="D426" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E426" s="31"/>
       <c r="G426" s="18"/>
       <c r="H426" s="18"/>
       <c r="I426" s="18"/>
       <c r="J426" s="18"/>
     </row>
     <row r="427" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A427" s="3">
-        <v>38.4</v>
+      <c r="A427" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="B427" s="4"/>
-      <c r="C427" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D427" s="4"/>
-      <c r="E427" s="25"/>
+      <c r="C427" s="27"/>
+      <c r="D427" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E427" s="31"/>
       <c r="G427" s="18"/>
       <c r="H427" s="18"/>
       <c r="I427" s="18"/>
       <c r="J427" s="18"/>
     </row>
     <row r="428" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A428" s="3">
-        <v>38.5</v>
+      <c r="A428" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="B428" s="4"/>
-      <c r="C428" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D428" s="4"/>
-      <c r="E428" s="25"/>
+      <c r="C428" s="27"/>
+      <c r="D428" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E428" s="31"/>
       <c r="G428" s="18"/>
       <c r="H428" s="18"/>
       <c r="I428" s="18"/>
       <c r="J428" s="18"/>
     </row>
     <row r="429" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A429" s="3">
-        <v>38.6</v>
+      <c r="A429" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="B429" s="4"/>
-      <c r="C429" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D429" s="4"/>
-      <c r="E429" s="25"/>
+      <c r="C429" s="27"/>
+      <c r="D429" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E429" s="31"/>
       <c r="G429" s="18"/>
       <c r="H429" s="18"/>
       <c r="I429" s="18"/>
       <c r="J429" s="18"/>
     </row>
     <row r="430" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A430" s="3">
-        <v>38.700000000000003</v>
+      <c r="A430" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="B430" s="4"/>
-      <c r="C430" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D430" s="4"/>
-      <c r="E430" s="25"/>
+      <c r="C430" s="27"/>
+      <c r="D430" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E430" s="31"/>
       <c r="G430" s="18"/>
       <c r="H430" s="18"/>
       <c r="I430" s="18"/>
@@ -9613,67 +9865,73 @@
     </row>
     <row r="431" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="B431" s="4"/>
-      <c r="C431" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D431" s="4"/>
-      <c r="E431" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C431" s="4"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="24"/>
       <c r="G431" s="18"/>
       <c r="H431" s="18"/>
       <c r="I431" s="18"/>
       <c r="J431" s="18"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A432" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B432" s="47"/>
-      <c r="C432" s="47"/>
-      <c r="D432" s="47"/>
-      <c r="E432" s="48"/>
+    <row r="432" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A432" s="3">
+        <v>38.1</v>
+      </c>
+      <c r="B432" s="4"/>
+      <c r="C432" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D432" s="4"/>
+      <c r="E432" s="25"/>
       <c r="G432" s="18"/>
       <c r="H432" s="18"/>
       <c r="I432" s="18"/>
       <c r="J432" s="18"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="49"/>
-      <c r="B433" s="50"/>
-      <c r="C433" s="50"/>
-      <c r="D433" s="50"/>
-      <c r="E433" s="51"/>
+    <row r="433" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B433" s="4"/>
+      <c r="C433" s="4"/>
+      <c r="D433" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E433" s="25"/>
       <c r="G433" s="18"/>
       <c r="H433" s="18"/>
       <c r="I433" s="18"/>
       <c r="J433" s="18"/>
     </row>
     <row r="434" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A434" s="3">
-        <v>39</v>
-      </c>
-      <c r="B434" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="A434" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
-      <c r="E434" s="25"/>
+      <c r="E434" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G434" s="18"/>
       <c r="H434" s="18"/>
       <c r="I434" s="18"/>
       <c r="J434" s="18"/>
     </row>
     <row r="435" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A435" s="3">
-        <v>39.1</v>
+      <c r="A435" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="B435" s="4"/>
-      <c r="C435" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D435" s="4"/>
+      <c r="C435" s="4"/>
+      <c r="D435" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="E435" s="25"/>
       <c r="G435" s="18"/>
       <c r="H435" s="18"/>
@@ -9681,161 +9939,425 @@
       <c r="J435" s="18"/>
     </row>
     <row r="436" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A436" s="3">
-        <v>39.200000000000003</v>
+      <c r="A436" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="B436" s="4"/>
-      <c r="C436" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="C436" s="4"/>
       <c r="D436" s="4"/>
-      <c r="E436" s="25"/>
+      <c r="E436" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="G436" s="18"/>
       <c r="H436" s="18"/>
       <c r="I436" s="18"/>
       <c r="J436" s="18"/>
     </row>
     <row r="437" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A437" s="3">
-        <v>39.299999999999997</v>
+      <c r="A437" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="B437" s="4"/>
-      <c r="C437" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="C437" s="4"/>
       <c r="D437" s="4"/>
-      <c r="E437" s="25"/>
+      <c r="E437" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="G437" s="18"/>
       <c r="H437" s="18"/>
       <c r="I437" s="18"/>
       <c r="J437" s="18"/>
     </row>
     <row r="438" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A438" s="3">
-        <v>39.4</v>
+      <c r="A438" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B438" s="4"/>
-      <c r="C438" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="C438" s="4"/>
       <c r="D438" s="4"/>
-      <c r="E438" s="25"/>
+      <c r="E438" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="G438" s="18"/>
       <c r="H438" s="18"/>
       <c r="I438" s="18"/>
       <c r="J438" s="18"/>
     </row>
     <row r="439" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A439" s="3">
-        <v>39.5</v>
+      <c r="A439" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="B439" s="4"/>
-      <c r="C439" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="C439" s="4"/>
       <c r="D439" s="4"/>
-      <c r="E439" s="25"/>
+      <c r="E439" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="G439" s="18"/>
       <c r="H439" s="18"/>
       <c r="I439" s="18"/>
       <c r="J439" s="18"/>
     </row>
     <row r="440" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A440" s="3">
-        <v>40</v>
-      </c>
-      <c r="B440" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A440" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
-      <c r="E440" s="25"/>
-      <c r="G440" s="18">
-        <v>5</v>
-      </c>
+      <c r="E440" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G440" s="18"/>
       <c r="H440" s="18"/>
       <c r="I440" s="18"/>
       <c r="J440" s="18"/>
     </row>
     <row r="441" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A441" s="3">
-        <v>40.1</v>
+      <c r="A441" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="B441" s="4"/>
-      <c r="C441" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C441" s="4"/>
       <c r="D441" s="4"/>
-      <c r="E441" s="25"/>
+      <c r="E441" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="G441" s="18"/>
       <c r="H441" s="18"/>
       <c r="I441" s="18"/>
       <c r="J441" s="18"/>
     </row>
-    <row r="442" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="3">
-        <v>40.200000000000003</v>
+    <row r="442" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A442" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="B442" s="4"/>
-      <c r="C442" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C442" s="4"/>
       <c r="D442" s="4"/>
-      <c r="E442" s="25"/>
+      <c r="E442" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="G442" s="18"/>
       <c r="H442" s="18"/>
       <c r="I442" s="18"/>
       <c r="J442" s="18"/>
     </row>
-    <row r="443" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="12"/>
-      <c r="B443" s="13"/>
-      <c r="C443" s="13"/>
-      <c r="D443" s="13"/>
-    </row>
-    <row r="444" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="2"/>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="2"/>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="2"/>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="2"/>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="2"/>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="2"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="2"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="2"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="2"/>
+    <row r="443" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A443" s="3">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="B443" s="4"/>
+      <c r="C443" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D443" s="4"/>
+      <c r="E443" s="25"/>
+      <c r="G443" s="18"/>
+      <c r="H443" s="18"/>
+      <c r="I443" s="18"/>
+      <c r="J443" s="18"/>
+    </row>
+    <row r="444" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A444" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="B444" s="4"/>
+      <c r="C444" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D444" s="4"/>
+      <c r="E444" s="25"/>
+      <c r="G444" s="18"/>
+      <c r="H444" s="18"/>
+      <c r="I444" s="18"/>
+      <c r="J444" s="18"/>
+    </row>
+    <row r="445" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A445" s="3">
+        <v>38.4</v>
+      </c>
+      <c r="B445" s="4"/>
+      <c r="C445" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D445" s="4"/>
+      <c r="E445" s="25"/>
+      <c r="G445" s="18"/>
+      <c r="H445" s="18"/>
+      <c r="I445" s="18"/>
+      <c r="J445" s="18"/>
+    </row>
+    <row r="446" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A446" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="B446" s="4"/>
+      <c r="C446" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D446" s="4"/>
+      <c r="E446" s="25"/>
+      <c r="G446" s="18"/>
+      <c r="H446" s="18"/>
+      <c r="I446" s="18"/>
+      <c r="J446" s="18"/>
+    </row>
+    <row r="447" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A447" s="3">
+        <v>38.6</v>
+      </c>
+      <c r="B447" s="4"/>
+      <c r="C447" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D447" s="4"/>
+      <c r="E447" s="25"/>
+      <c r="G447" s="18"/>
+      <c r="H447" s="18"/>
+      <c r="I447" s="18"/>
+      <c r="J447" s="18"/>
+    </row>
+    <row r="448" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A448" s="3">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="B448" s="4"/>
+      <c r="C448" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D448" s="4"/>
+      <c r="E448" s="25"/>
+      <c r="G448" s="18"/>
+      <c r="H448" s="18"/>
+      <c r="I448" s="18"/>
+      <c r="J448" s="18"/>
+    </row>
+    <row r="449" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A449" s="3">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="B449" s="4"/>
+      <c r="C449" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D449" s="4"/>
+      <c r="E449" s="25"/>
+      <c r="G449" s="18"/>
+      <c r="H449" s="18"/>
+      <c r="I449" s="18"/>
+      <c r="J449" s="18"/>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B450" s="40"/>
+      <c r="C450" s="40"/>
+      <c r="D450" s="40"/>
+      <c r="E450" s="41"/>
+      <c r="G450" s="18"/>
+      <c r="H450" s="18"/>
+      <c r="I450" s="18"/>
+      <c r="J450" s="18"/>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" s="42"/>
+      <c r="B451" s="43"/>
+      <c r="C451" s="43"/>
+      <c r="D451" s="43"/>
+      <c r="E451" s="44"/>
+      <c r="G451" s="18"/>
+      <c r="H451" s="18"/>
+      <c r="I451" s="18"/>
+      <c r="J451" s="18"/>
+    </row>
+    <row r="452" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A452" s="3">
+        <v>39</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="25"/>
+      <c r="G452" s="18"/>
+      <c r="H452" s="18"/>
+      <c r="I452" s="18"/>
+      <c r="J452" s="18"/>
+    </row>
+    <row r="453" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A453" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="B453" s="4"/>
+      <c r="C453" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D453" s="4"/>
+      <c r="E453" s="25"/>
+      <c r="G453" s="18"/>
+      <c r="H453" s="18"/>
+      <c r="I453" s="18"/>
+      <c r="J453" s="18"/>
+    </row>
+    <row r="454" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A454" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B454" s="4"/>
+      <c r="C454" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D454" s="4"/>
+      <c r="E454" s="25"/>
+      <c r="G454" s="18"/>
+      <c r="H454" s="18"/>
+      <c r="I454" s="18"/>
+      <c r="J454" s="18"/>
+    </row>
+    <row r="455" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A455" s="3">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="B455" s="4"/>
+      <c r="C455" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D455" s="4"/>
+      <c r="E455" s="25"/>
+      <c r="G455" s="18"/>
+      <c r="H455" s="18"/>
+      <c r="I455" s="18"/>
+      <c r="J455" s="18"/>
+    </row>
+    <row r="456" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A456" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="B456" s="4"/>
+      <c r="C456" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D456" s="4"/>
+      <c r="E456" s="25"/>
+      <c r="G456" s="18"/>
+      <c r="H456" s="18"/>
+      <c r="I456" s="18"/>
+      <c r="J456" s="18"/>
+    </row>
+    <row r="457" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A457" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="B457" s="4"/>
+      <c r="C457" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D457" s="4"/>
+      <c r="E457" s="25"/>
+      <c r="G457" s="18"/>
+      <c r="H457" s="18"/>
+      <c r="I457" s="18"/>
+      <c r="J457" s="18"/>
+    </row>
+    <row r="458" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A458" s="3">
+        <v>40</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="25"/>
+      <c r="G458" s="18">
+        <v>5</v>
+      </c>
+      <c r="H458" s="18"/>
+      <c r="I458" s="18"/>
+      <c r="J458" s="18"/>
+    </row>
+    <row r="459" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A459" s="3">
+        <v>40.1</v>
+      </c>
+      <c r="B459" s="4"/>
+      <c r="C459" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D459" s="4"/>
+      <c r="E459" s="25"/>
+      <c r="G459" s="18"/>
+      <c r="H459" s="18"/>
+      <c r="I459" s="18"/>
+      <c r="J459" s="18"/>
+    </row>
+    <row r="460" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="B460" s="4"/>
+      <c r="C460" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D460" s="4"/>
+      <c r="E460" s="25"/>
+      <c r="G460" s="18"/>
+      <c r="H460" s="18"/>
+      <c r="I460" s="18"/>
+      <c r="J460" s="18"/>
+    </row>
+    <row r="461" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="12"/>
+      <c r="B461" s="13"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="13"/>
+    </row>
+    <row r="462" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="2"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="2"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="2"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="2"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="2"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="2"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="2"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="2"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A432:E433"/>
-    <mergeCell ref="A106:E107"/>
-    <mergeCell ref="A100:E101"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="A388:E389"/>
+    <mergeCell ref="A286:E287"/>
+    <mergeCell ref="A450:E451"/>
+    <mergeCell ref="A124:E125"/>
+    <mergeCell ref="A118:E119"/>
     <mergeCell ref="A49:E50"/>
     <mergeCell ref="A9:E10"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="A370:E371"/>
-    <mergeCell ref="A268:E269"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
+++ b/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="485">
   <si>
     <t>ID</t>
   </si>
@@ -1906,6 +1906,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1922,27 +1943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2288,11 +2288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:K510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:A105"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,13 +2351,13 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -2365,11 +2365,11 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -5153,426 +5153,525 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B118" s="45"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
+    <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="25"/>
+      <c r="G118" s="18">
+        <v>15</v>
+      </c>
+      <c r="H118" s="18">
+        <v>24</v>
+      </c>
+      <c r="I118" s="18">
+        <v>20</v>
+      </c>
+      <c r="J118" s="18">
+        <v>25</v>
+      </c>
+      <c r="K118" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>28.2</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="25"/>
+      <c r="G119" s="18">
+        <v>10</v>
+      </c>
+      <c r="H119" s="18">
+        <v>12</v>
+      </c>
+      <c r="I119" s="18">
+        <v>15</v>
+      </c>
+      <c r="J119" s="18">
+        <v>8</v>
+      </c>
+      <c r="K119" s="19">
+        <v>17</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>29</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="4"/>
+        <v>28.3</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="D120" s="4"/>
       <c r="E120" s="25"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
+      <c r="G120" s="18">
+        <v>8</v>
+      </c>
+      <c r="H120" s="18">
+        <v>8</v>
+      </c>
+      <c r="I120" s="18">
+        <v>10</v>
+      </c>
+      <c r="J120" s="18">
+        <v>5</v>
+      </c>
+      <c r="K120" s="19">
+        <v>11</v>
+      </c>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="25"/>
       <c r="G121" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H121" s="18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I121" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J121" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K121" s="19">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>29.2</v>
+        <v>28.5</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="25"/>
       <c r="G122" s="18">
+        <v>5</v>
+      </c>
+      <c r="H122" s="18">
+        <v>6</v>
+      </c>
+      <c r="I122" s="18">
         <v>8</v>
       </c>
-      <c r="H122" s="18">
+      <c r="J122" s="18">
         <v>5</v>
       </c>
-      <c r="I122" s="18">
-        <v>10</v>
-      </c>
-      <c r="J122" s="18">
-        <v>8</v>
-      </c>
       <c r="K122" s="19">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>21</v>
+        <v>466</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="25"/>
       <c r="G123" s="18">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H123" s="18">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I123" s="18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J123" s="18">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K123" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B124" s="45"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="45"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="25"/>
+      <c r="G124" s="18">
+        <v>5</v>
+      </c>
+      <c r="H124" s="18">
+        <v>8</v>
+      </c>
+      <c r="I124" s="18">
+        <v>6</v>
+      </c>
+      <c r="J124" s="18">
+        <v>8</v>
+      </c>
+      <c r="K124" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="25"/>
+      <c r="G125" s="18">
+        <v>3</v>
+      </c>
+      <c r="H125" s="18">
+        <v>1</v>
+      </c>
+      <c r="I125" s="18">
+        <v>2</v>
+      </c>
+      <c r="J125" s="18">
+        <v>1</v>
+      </c>
+      <c r="K125" s="19">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>30</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="4"/>
+        <v>28.9</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="D126" s="4"/>
       <c r="E126" s="25"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-    </row>
-    <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
-        <v>30.1</v>
-      </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="25"/>
+      <c r="G126" s="18">
+        <v>4</v>
+      </c>
+      <c r="H126" s="18">
+        <v>5</v>
+      </c>
+      <c r="I126" s="18">
+        <v>5</v>
+      </c>
+      <c r="J126" s="18">
+        <v>6</v>
+      </c>
+      <c r="K126" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="48"/>
       <c r="G127" s="18"/>
       <c r="H127" s="18"/>
       <c r="I127" s="18"/>
       <c r="J127" s="18"/>
     </row>
-    <row r="128" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E128" s="25"/>
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="49"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="51"/>
       <c r="G128" s="18"/>
       <c r="H128" s="18"/>
       <c r="I128" s="18"/>
       <c r="J128" s="18"/>
     </row>
-    <row r="129" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B129" s="4"/>
+    <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>29</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C129" s="4"/>
-      <c r="D129" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="D129" s="4"/>
       <c r="E129" s="25"/>
       <c r="G129" s="18"/>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
     </row>
-    <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>198</v>
+    <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>29.1</v>
       </c>
       <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="4"/>
       <c r="E130" s="25"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-    </row>
-    <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G130" s="18">
+        <v>10</v>
+      </c>
+      <c r="H130" s="18">
+        <v>15</v>
+      </c>
+      <c r="I130" s="18">
+        <v>10</v>
+      </c>
+      <c r="J130" s="18">
+        <v>8</v>
+      </c>
+      <c r="K130" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="25"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-    </row>
-    <row r="132" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>199</v>
+      <c r="G131" s="18">
+        <v>8</v>
+      </c>
+      <c r="H131" s="18">
+        <v>5</v>
+      </c>
+      <c r="I131" s="18">
+        <v>10</v>
+      </c>
+      <c r="J131" s="18">
+        <v>8</v>
+      </c>
+      <c r="K131" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>29.3</v>
       </c>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="C132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="4"/>
       <c r="E132" s="25"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-    </row>
-    <row r="133" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="G132" s="18">
+        <v>15</v>
+      </c>
+      <c r="H132" s="18">
+        <v>20</v>
+      </c>
+      <c r="I132" s="18">
+        <v>12</v>
+      </c>
+      <c r="J132" s="18">
+        <v>15</v>
+      </c>
+      <c r="K132" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="48"/>
       <c r="G133" s="18"/>
       <c r="H133" s="18"/>
       <c r="I133" s="18"/>
       <c r="J133" s="18"/>
     </row>
-    <row r="134" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="15" t="s">
-        <v>127</v>
-      </c>
+    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="49"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="51"/>
       <c r="G134" s="18"/>
       <c r="H134" s="18"/>
       <c r="I134" s="18"/>
       <c r="J134" s="18"/>
     </row>
-    <row r="135" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B135" s="4"/>
+    <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>30</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="E135" s="25"/>
       <c r="G135" s="18"/>
       <c r="H135" s="18"/>
       <c r="I135" s="18"/>
       <c r="J135" s="18"/>
     </row>
-    <row r="136" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>203</v>
+    <row r="136" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>30.1</v>
       </c>
       <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="C136" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D136" s="4"/>
-      <c r="E136" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="E136" s="25"/>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
       <c r="J136" s="18"/>
     </row>
-    <row r="137" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="D137" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="25"/>
       <c r="G137" s="18"/>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
       <c r="J137" s="18"/>
     </row>
-    <row r="138" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="D138" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="25"/>
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
       <c r="J138" s="18"/>
     </row>
-    <row r="139" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="D139" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="25"/>
       <c r="G139" s="18"/>
       <c r="H139" s="18"/>
       <c r="I139" s="18"/>
       <c r="J139" s="18"/>
     </row>
-    <row r="140" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>207</v>
+    <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>30.2</v>
       </c>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="D140" s="4"/>
-      <c r="E140" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="E140" s="25"/>
       <c r="G140" s="18"/>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
       <c r="J140" s="18"/>
     </row>
-    <row r="141" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="D141" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="25"/>
       <c r="G141" s="18"/>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
       <c r="J141" s="18"/>
     </row>
-    <row r="142" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="15" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="G142" s="18"/>
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
       <c r="J142" s="18"/>
     </row>
-    <row r="143" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="16" t="s">
-        <v>135</v>
+      <c r="E143" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G143" s="18"/>
       <c r="H143" s="18"/>
       <c r="I143" s="18"/>
       <c r="J143" s="18"/>
     </row>
-    <row r="144" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="16" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
@@ -5581,13 +5680,13 @@
     </row>
     <row r="145" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="4" t="s">
-        <v>137</v>
+      <c r="E145" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G145" s="18"/>
       <c r="H145" s="18"/>
@@ -5596,14 +5695,14 @@
     </row>
     <row r="146" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E146" s="25"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
@@ -5611,13 +5710,13 @@
     </row>
     <row r="147" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="4" t="s">
-        <v>138</v>
+      <c r="E147" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
@@ -5626,13 +5725,13 @@
     </row>
     <row r="148" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="4" t="s">
-        <v>139</v>
+      <c r="E148" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
@@ -5641,13 +5740,13 @@
     </row>
     <row r="149" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
-        <v>140</v>
+      <c r="E149" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="G149" s="18"/>
       <c r="H149" s="18"/>
@@ -5656,13 +5755,13 @@
     </row>
     <row r="150" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4" t="s">
-        <v>141</v>
+      <c r="E150" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
@@ -5671,13 +5770,13 @@
     </row>
     <row r="151" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="4" t="s">
-        <v>142</v>
+      <c r="E151" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G151" s="18"/>
       <c r="H151" s="18"/>
@@ -5686,13 +5785,13 @@
     </row>
     <row r="152" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4" t="s">
-        <v>96</v>
+      <c r="E152" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
@@ -5701,13 +5800,13 @@
     </row>
     <row r="153" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="4" t="s">
-        <v>143</v>
+      <c r="E153" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
@@ -5716,13 +5815,13 @@
     </row>
     <row r="154" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
@@ -5731,14 +5830,14 @@
     </row>
     <row r="155" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="D155" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" s="25"/>
       <c r="G155" s="18"/>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
@@ -5746,13 +5845,13 @@
     </row>
     <row r="156" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G156" s="18"/>
       <c r="H156" s="18"/>
@@ -5761,13 +5860,13 @@
     </row>
     <row r="157" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
@@ -5776,14 +5875,14 @@
     </row>
     <row r="158" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E158" s="25"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
@@ -5791,13 +5890,13 @@
     </row>
     <row r="159" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
@@ -5806,13 +5905,13 @@
     </row>
     <row r="160" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
@@ -5821,13 +5920,13 @@
     </row>
     <row r="161" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G161" s="18"/>
       <c r="H161" s="18"/>
@@ -5836,28 +5935,28 @@
     </row>
     <row r="162" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E162" s="25"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
       <c r="J162" s="18"/>
     </row>
     <row r="163" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="26" t="s">
-        <v>230</v>
+      <c r="A163" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="15" t="s">
-        <v>92</v>
+      <c r="E163" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G163" s="18"/>
       <c r="H163" s="18"/>
@@ -5865,14 +5964,14 @@
       <c r="J163" s="18"/>
     </row>
     <row r="164" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="26" t="s">
-        <v>231</v>
+      <c r="A164" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="15" t="s">
-        <v>148</v>
+      <c r="E164" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
@@ -5880,14 +5979,14 @@
       <c r="J164" s="18"/>
     </row>
     <row r="165" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="26" t="s">
-        <v>232</v>
+      <c r="A165" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="15" t="s">
-        <v>91</v>
+      <c r="E165" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
@@ -5895,88 +5994,88 @@
       <c r="J165" s="18"/>
     </row>
     <row r="166" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="26" t="s">
-        <v>233</v>
+      <c r="A166" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="15" t="s">
-        <v>90</v>
+      <c r="E166" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
       <c r="J166" s="18"/>
     </row>
-    <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
-        <v>30.3</v>
+    <row r="167" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="B167" s="4"/>
-      <c r="C167" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="E167" s="25"/>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
       <c r="J167" s="18"/>
     </row>
-    <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E168" s="25"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
       <c r="I168" s="18"/>
       <c r="J168" s="18"/>
     </row>
-    <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169" s="25"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
       <c r="I169" s="18"/>
       <c r="J169" s="18"/>
     </row>
-    <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>30.4</v>
+    <row r="170" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B170" s="4"/>
-      <c r="C170" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="25"/>
+      <c r="E170" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="18"/>
       <c r="J170" s="18"/>
     </row>
-    <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E171" s="25"/>
       <c r="G171" s="18"/>
@@ -5984,60 +6083,60 @@
       <c r="I171" s="18"/>
       <c r="J171" s="18"/>
     </row>
-    <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>237</v>
+    <row r="172" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
       <c r="J172" s="18"/>
     </row>
-    <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>238</v>
+    <row r="173" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="15" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G173" s="18"/>
       <c r="H173" s="18"/>
       <c r="I173" s="18"/>
       <c r="J173" s="18"/>
     </row>
-    <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
-        <v>239</v>
+    <row r="174" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="16" t="s">
-        <v>128</v>
+      <c r="E174" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="G174" s="18"/>
       <c r="H174" s="18"/>
       <c r="I174" s="18"/>
       <c r="J174" s="18"/>
     </row>
-    <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
-        <v>240</v>
+    <row r="175" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="26" t="s">
+        <v>233</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="16" t="s">
-        <v>129</v>
+      <c r="E175" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="G175" s="18"/>
       <c r="H175" s="18"/>
@@ -6045,15 +6144,15 @@
       <c r="J175" s="18"/>
     </row>
     <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
-        <v>241</v>
+      <c r="A176" s="3">
+        <v>30.3</v>
       </c>
       <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="C176" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="D176" s="4"/>
-      <c r="E176" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="E176" s="25"/>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
       <c r="I176" s="18"/>
@@ -6061,14 +6160,14 @@
     </row>
     <row r="177" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="D177" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="25"/>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
       <c r="I177" s="18"/>
@@ -6076,29 +6175,29 @@
     </row>
     <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="D178" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="25"/>
       <c r="G178" s="18"/>
       <c r="H178" s="18"/>
       <c r="I178" s="18"/>
       <c r="J178" s="18"/>
     </row>
     <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>244</v>
+      <c r="A179" s="3">
+        <v>30.4</v>
       </c>
       <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="C179" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D179" s="4"/>
-      <c r="E179" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="E179" s="25"/>
       <c r="G179" s="18"/>
       <c r="H179" s="18"/>
       <c r="I179" s="18"/>
@@ -6106,14 +6205,14 @@
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="D180" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E180" s="25"/>
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
       <c r="I180" s="18"/>
@@ -6121,13 +6220,13 @@
     </row>
     <row r="181" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="15" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>
@@ -6136,13 +6235,13 @@
     </row>
     <row r="182" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="16" t="s">
-        <v>135</v>
+      <c r="E182" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
@@ -6151,13 +6250,13 @@
     </row>
     <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="16" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
@@ -6166,13 +6265,13 @@
     </row>
     <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="4" t="s">
-        <v>137</v>
+      <c r="E184" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
@@ -6181,14 +6280,14 @@
     </row>
     <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E185" s="25"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="G185" s="18"/>
       <c r="H185" s="18"/>
       <c r="I185" s="18"/>
@@ -6196,13 +6295,13 @@
     </row>
     <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="4" t="s">
-        <v>138</v>
+      <c r="E186" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G186" s="18"/>
       <c r="H186" s="18"/>
@@ -6211,13 +6310,13 @@
     </row>
     <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="4" t="s">
-        <v>139</v>
+      <c r="E187" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="G187" s="18"/>
       <c r="H187" s="18"/>
@@ -6226,13 +6325,13 @@
     </row>
     <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="4" t="s">
-        <v>140</v>
+      <c r="E188" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="G188" s="18"/>
       <c r="H188" s="18"/>
@@ -6241,13 +6340,13 @@
     </row>
     <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="4" t="s">
-        <v>141</v>
+      <c r="E189" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
@@ -6256,13 +6355,13 @@
     </row>
     <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="4" t="s">
-        <v>142</v>
+      <c r="E190" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G190" s="18"/>
       <c r="H190" s="18"/>
@@ -6271,13 +6370,13 @@
     </row>
     <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="4" t="s">
-        <v>96</v>
+      <c r="E191" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G191" s="18"/>
       <c r="H191" s="18"/>
@@ -6286,13 +6385,13 @@
     </row>
     <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="4" t="s">
-        <v>143</v>
+      <c r="E192" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="G192" s="18"/>
       <c r="H192" s="18"/>
@@ -6301,13 +6400,13 @@
     </row>
     <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G193" s="18"/>
       <c r="H193" s="18"/>
@@ -6316,14 +6415,14 @@
     </row>
     <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="D194" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E194" s="25"/>
       <c r="G194" s="18"/>
       <c r="H194" s="18"/>
       <c r="I194" s="18"/>
@@ -6331,13 +6430,13 @@
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G195" s="18"/>
       <c r="H195" s="18"/>
@@ -6346,13 +6445,13 @@
     </row>
     <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G196" s="18"/>
       <c r="H196" s="18"/>
@@ -6361,58 +6460,58 @@
     </row>
     <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
-      <c r="D197" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E197" s="25"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
       <c r="I197" s="18"/>
       <c r="J197" s="18"/>
     </row>
-    <row r="198" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G198" s="18"/>
       <c r="H198" s="18"/>
       <c r="I198" s="18"/>
       <c r="J198" s="18"/>
     </row>
-    <row r="199" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
       <c r="I199" s="18"/>
       <c r="J199" s="18"/>
     </row>
-    <row r="200" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
@@ -6421,14 +6520,14 @@
     </row>
     <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E201" s="25"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G201" s="18"/>
       <c r="H201" s="18"/>
       <c r="I201" s="18"/>
@@ -6436,13 +6535,13 @@
     </row>
     <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="15" t="s">
-        <v>92</v>
+      <c r="E202" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G202" s="18"/>
       <c r="H202" s="18"/>
@@ -6451,13 +6550,13 @@
     </row>
     <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="15" t="s">
-        <v>148</v>
+      <c r="E203" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G203" s="18"/>
       <c r="H203" s="18"/>
@@ -6466,13 +6565,13 @@
     </row>
     <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="15" t="s">
-        <v>91</v>
+      <c r="E204" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G204" s="18"/>
       <c r="H204" s="18"/>
@@ -6481,13 +6580,13 @@
     </row>
     <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="15" t="s">
-        <v>90</v>
+      <c r="E205" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G205" s="18"/>
       <c r="H205" s="18"/>
@@ -6495,62 +6594,60 @@
       <c r="J205" s="18"/>
     </row>
     <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
-        <v>31</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A206" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B206" s="4"/>
       <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="D206" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="E206" s="25"/>
-      <c r="G206" s="18">
-        <v>50</v>
-      </c>
+      <c r="G206" s="18"/>
       <c r="H206" s="18"/>
       <c r="I206" s="18"/>
       <c r="J206" s="18"/>
     </row>
-    <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
-        <v>31.1</v>
+    <row r="207" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="B207" s="4"/>
-      <c r="C207" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="C207" s="4"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="25"/>
+      <c r="E207" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G207" s="18"/>
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
       <c r="J207" s="18"/>
     </row>
-    <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
-      <c r="D208" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E208" s="25"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G208" s="18"/>
       <c r="H208" s="18"/>
       <c r="I208" s="18"/>
       <c r="J208" s="18"/>
     </row>
-    <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
-      <c r="D209" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E209" s="25"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G209" s="18"/>
       <c r="H209" s="18"/>
       <c r="I209" s="18"/>
@@ -6558,12 +6655,12 @@
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
-      <c r="D210" s="16" t="s">
-        <v>128</v>
+      <c r="D210" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="E210" s="25"/>
       <c r="G210" s="18"/>
@@ -6573,14 +6670,14 @@
     </row>
     <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
-      <c r="D211" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E211" s="25"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G211" s="18"/>
       <c r="H211" s="18"/>
       <c r="I211" s="18"/>
@@ -6588,14 +6685,14 @@
     </row>
     <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E212" s="25"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="G212" s="18"/>
       <c r="H212" s="18"/>
       <c r="I212" s="18"/>
@@ -6603,14 +6700,14 @@
     </row>
     <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E213" s="25"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G213" s="18"/>
       <c r="H213" s="18"/>
       <c r="I213" s="18"/>
@@ -6618,43 +6715,45 @@
     </row>
     <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E214" s="25"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G214" s="18"/>
       <c r="H214" s="18"/>
       <c r="I214" s="18"/>
       <c r="J214" s="18"/>
     </row>
     <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="A215" s="3">
+        <v>31</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
       <c r="E215" s="25"/>
-      <c r="G215" s="18"/>
+      <c r="G215" s="18">
+        <v>50</v>
+      </c>
       <c r="H215" s="18"/>
       <c r="I215" s="18"/>
       <c r="J215" s="18"/>
     </row>
     <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
-        <v>279</v>
+      <c r="A216" s="3">
+        <v>31.1</v>
       </c>
       <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="C216" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D216" s="4"/>
       <c r="E216" s="25"/>
       <c r="G216" s="18"/>
       <c r="H216" s="18"/>
@@ -6663,12 +6762,12 @@
     </row>
     <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="15" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E217" s="25"/>
       <c r="G217" s="18"/>
@@ -6678,12 +6777,12 @@
     </row>
     <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
-      <c r="D218" s="16" t="s">
-        <v>135</v>
+      <c r="D218" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="E218" s="25"/>
       <c r="G218" s="18"/>
@@ -6693,12 +6792,12 @@
     </row>
     <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="16" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E219" s="25"/>
       <c r="G219" s="18"/>
@@ -6708,12 +6807,12 @@
     </row>
     <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
-      <c r="D220" s="4" t="s">
-        <v>137</v>
+      <c r="D220" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="E220" s="25"/>
       <c r="G220" s="18"/>
@@ -6722,14 +6821,14 @@
       <c r="J220" s="18"/>
     </row>
     <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
-        <v>31.2</v>
+      <c r="A221" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="B221" s="4"/>
-      <c r="C221" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="E221" s="25"/>
       <c r="G221" s="18"/>
       <c r="H221" s="18"/>
@@ -6738,12 +6837,12 @@
     </row>
     <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="4" t="s">
-        <v>138</v>
+      <c r="D222" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="E222" s="25"/>
       <c r="G222" s="18"/>
@@ -6753,12 +6852,12 @@
     </row>
     <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="4" t="s">
-        <v>139</v>
+      <c r="D223" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="E223" s="25"/>
       <c r="G223" s="18"/>
@@ -6768,12 +6867,12 @@
     </row>
     <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4" t="s">
-        <v>140</v>
+      <c r="C224" s="25"/>
+      <c r="D224" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="E224" s="25"/>
       <c r="G224" s="18"/>
@@ -6783,12 +6882,12 @@
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="4" t="s">
-        <v>141</v>
+      <c r="D225" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="E225" s="25"/>
       <c r="G225" s="18"/>
@@ -6798,12 +6897,12 @@
     </row>
     <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="4" t="s">
-        <v>142</v>
+      <c r="D226" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="E226" s="25"/>
       <c r="G226" s="18"/>
@@ -6813,12 +6912,12 @@
     </row>
     <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="4" t="s">
-        <v>96</v>
+      <c r="D227" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="E227" s="25"/>
       <c r="G227" s="18"/>
@@ -6828,12 +6927,12 @@
     </row>
     <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="4" t="s">
-        <v>143</v>
+      <c r="D228" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="E228" s="25"/>
       <c r="G228" s="18"/>
@@ -6843,12 +6942,12 @@
     </row>
     <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E229" s="25"/>
       <c r="G229" s="18"/>
@@ -6857,14 +6956,14 @@
       <c r="J229" s="18"/>
     </row>
     <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
-        <v>292</v>
+      <c r="A230" s="3">
+        <v>31.2</v>
       </c>
       <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="C230" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D230" s="4"/>
       <c r="E230" s="25"/>
       <c r="G230" s="18"/>
       <c r="H230" s="18"/>
@@ -6873,12 +6972,12 @@
     </row>
     <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E231" s="25"/>
       <c r="G231" s="18"/>
@@ -6888,12 +6987,12 @@
     </row>
     <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E232" s="25"/>
       <c r="G232" s="18"/>
@@ -6901,15 +7000,15 @@
       <c r="I232" s="18"/>
       <c r="J232" s="18"/>
     </row>
-    <row r="233" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
-        <v>31.3</v>
+    <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="B233" s="4"/>
-      <c r="C233" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D233" s="25"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="E233" s="25"/>
       <c r="G233" s="18"/>
       <c r="H233" s="18"/>
@@ -6918,12 +7017,12 @@
     </row>
     <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E234" s="25"/>
       <c r="G234" s="18"/>
@@ -6933,12 +7032,12 @@
     </row>
     <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="E235" s="25"/>
       <c r="G235" s="18"/>
@@ -6948,12 +7047,12 @@
     </row>
     <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E236" s="25"/>
       <c r="G236" s="18"/>
@@ -6962,14 +7061,14 @@
       <c r="J236" s="18"/>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
-        <v>31.4</v>
+      <c r="A237" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="B237" s="4"/>
-      <c r="C237" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="E237" s="25"/>
       <c r="G237" s="18"/>
       <c r="H237" s="18"/>
@@ -6978,12 +7077,12 @@
     </row>
     <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="15" t="s">
-        <v>92</v>
+      <c r="D238" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E238" s="25"/>
       <c r="G238" s="18"/>
@@ -6993,12 +7092,12 @@
     </row>
     <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="15" t="s">
-        <v>148</v>
+      <c r="D239" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E239" s="25"/>
       <c r="G239" s="18"/>
@@ -7008,12 +7107,12 @@
     </row>
     <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="15" t="s">
-        <v>91</v>
+      <c r="D240" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="E240" s="25"/>
       <c r="G240" s="18"/>
@@ -7023,12 +7122,12 @@
     </row>
     <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="15" t="s">
-        <v>90</v>
+      <c r="D241" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E241" s="25"/>
       <c r="G241" s="18"/>
@@ -7036,15 +7135,15 @@
       <c r="I241" s="18"/>
       <c r="J241" s="18"/>
     </row>
-    <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
-        <v>32</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+        <v>31.3</v>
+      </c>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D242" s="25"/>
       <c r="E242" s="25"/>
       <c r="G242" s="18"/>
       <c r="H242" s="18"/>
@@ -7052,14 +7151,14 @@
       <c r="J242" s="18"/>
     </row>
     <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
-        <v>32.1</v>
+      <c r="A243" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="B243" s="4"/>
-      <c r="C243" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E243" s="25"/>
       <c r="G243" s="18"/>
       <c r="H243" s="18"/>
@@ -7068,12 +7167,12 @@
     </row>
     <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="E244" s="25"/>
       <c r="G244" s="18"/>
@@ -7083,29 +7182,29 @@
     </row>
     <row r="245" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="D245" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E245" s="25"/>
       <c r="G245" s="18"/>
       <c r="H245" s="18"/>
       <c r="I245" s="18"/>
       <c r="J245" s="18"/>
     </row>
     <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
-        <v>304</v>
+      <c r="A246" s="3">
+        <v>31.4</v>
       </c>
       <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
+      <c r="C246" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D246" s="4"/>
-      <c r="E246" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="E246" s="25"/>
       <c r="G246" s="18"/>
       <c r="H246" s="18"/>
       <c r="I246" s="18"/>
@@ -7113,14 +7212,14 @@
     </row>
     <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="D247" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E247" s="25"/>
       <c r="G247" s="18"/>
       <c r="H247" s="18"/>
       <c r="I247" s="18"/>
@@ -7128,14 +7227,14 @@
     </row>
     <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="D248" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E248" s="25"/>
       <c r="G248" s="18"/>
       <c r="H248" s="18"/>
       <c r="I248" s="18"/>
@@ -7143,14 +7242,14 @@
     </row>
     <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="D249" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E249" s="25"/>
       <c r="G249" s="18"/>
       <c r="H249" s="18"/>
       <c r="I249" s="18"/>
@@ -7158,44 +7257,44 @@
     </row>
     <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="D250" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E250" s="25"/>
       <c r="G250" s="18"/>
       <c r="H250" s="18"/>
       <c r="I250" s="18"/>
       <c r="J250" s="18"/>
     </row>
     <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B251" s="4"/>
+      <c r="A251" s="3">
+        <v>32</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="E251" s="25"/>
       <c r="G251" s="18"/>
       <c r="H251" s="18"/>
       <c r="I251" s="18"/>
       <c r="J251" s="18"/>
     </row>
     <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
-        <v>310</v>
+      <c r="A252" s="3">
+        <v>32.1</v>
       </c>
       <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
+      <c r="C252" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="D252" s="4"/>
-      <c r="E252" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="E252" s="25"/>
       <c r="G252" s="18"/>
       <c r="H252" s="18"/>
       <c r="I252" s="18"/>
@@ -7203,14 +7302,14 @@
     </row>
     <row r="253" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="D253" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E253" s="25"/>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
       <c r="I253" s="18"/>
@@ -7218,13 +7317,13 @@
     </row>
     <row r="254" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="15" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="G254" s="18"/>
       <c r="H254" s="18"/>
@@ -7233,13 +7332,13 @@
     </row>
     <row r="255" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="16" t="s">
-        <v>135</v>
+      <c r="E255" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G255" s="18"/>
       <c r="H255" s="18"/>
@@ -7248,13 +7347,13 @@
     </row>
     <row r="256" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="16" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
@@ -7263,13 +7362,13 @@
     </row>
     <row r="257" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="4" t="s">
-        <v>137</v>
+      <c r="E257" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
@@ -7278,14 +7377,14 @@
     </row>
     <row r="258" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E258" s="25"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="G258" s="18"/>
       <c r="H258" s="18"/>
       <c r="I258" s="18"/>
@@ -7293,13 +7392,13 @@
     </row>
     <row r="259" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="4" t="s">
-        <v>138</v>
+      <c r="E259" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G259" s="18"/>
       <c r="H259" s="18"/>
@@ -7308,13 +7407,13 @@
     </row>
     <row r="260" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="4" t="s">
-        <v>139</v>
+      <c r="E260" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="G260" s="18"/>
       <c r="H260" s="18"/>
@@ -7323,13 +7422,13 @@
     </row>
     <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="4" t="s">
-        <v>140</v>
+      <c r="E261" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="G261" s="18"/>
       <c r="H261" s="18"/>
@@ -7338,13 +7437,13 @@
     </row>
     <row r="262" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="4" t="s">
-        <v>141</v>
+      <c r="E262" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="G262" s="18"/>
       <c r="H262" s="18"/>
@@ -7353,13 +7452,13 @@
     </row>
     <row r="263" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="4" t="s">
-        <v>142</v>
+      <c r="E263" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G263" s="18"/>
       <c r="H263" s="18"/>
@@ -7368,13 +7467,13 @@
     </row>
     <row r="264" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="4" t="s">
-        <v>96</v>
+      <c r="E264" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
@@ -7383,13 +7482,13 @@
     </row>
     <row r="265" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="4" t="s">
-        <v>143</v>
+      <c r="E265" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="G265" s="18"/>
       <c r="H265" s="18"/>
@@ -7398,13 +7497,13 @@
     </row>
     <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G266" s="18"/>
       <c r="H266" s="18"/>
@@ -7413,14 +7512,14 @@
     </row>
     <row r="267" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="D267" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E267" s="25"/>
       <c r="G267" s="18"/>
       <c r="H267" s="18"/>
       <c r="I267" s="18"/>
@@ -7428,13 +7527,13 @@
     </row>
     <row r="268" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G268" s="18"/>
       <c r="H268" s="18"/>
@@ -7443,73 +7542,73 @@
     </row>
     <row r="269" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G269" s="18"/>
       <c r="H269" s="18"/>
       <c r="I269" s="18"/>
       <c r="J269" s="18"/>
     </row>
-    <row r="270" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E270" s="25"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="G270" s="18"/>
       <c r="H270" s="18"/>
       <c r="I270" s="18"/>
       <c r="J270" s="18"/>
     </row>
-    <row r="271" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G271" s="18"/>
       <c r="H271" s="18"/>
       <c r="I271" s="18"/>
       <c r="J271" s="18"/>
     </row>
-    <row r="272" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="G272" s="18"/>
       <c r="H272" s="18"/>
       <c r="I272" s="18"/>
       <c r="J272" s="18"/>
     </row>
-    <row r="273" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G273" s="18"/>
       <c r="H273" s="18"/>
@@ -7518,14 +7617,14 @@
     </row>
     <row r="274" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E274" s="25"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G274" s="18"/>
       <c r="H274" s="18"/>
       <c r="I274" s="18"/>
@@ -7533,13 +7632,13 @@
     </row>
     <row r="275" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="15" t="s">
-        <v>92</v>
+      <c r="E275" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
@@ -7548,13 +7647,13 @@
     </row>
     <row r="276" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="15" t="s">
-        <v>148</v>
+      <c r="E276" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G276" s="18"/>
       <c r="H276" s="18"/>
@@ -7563,13 +7662,13 @@
     </row>
     <row r="277" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="15" t="s">
-        <v>91</v>
+      <c r="E277" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G277" s="18"/>
       <c r="H277" s="18"/>
@@ -7578,74 +7677,74 @@
     </row>
     <row r="278" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="15" t="s">
-        <v>90</v>
+      <c r="E278" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G278" s="18"/>
       <c r="H278" s="18"/>
       <c r="I278" s="18"/>
       <c r="J278" s="18"/>
     </row>
-    <row r="279" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B279" s="4"/>
-      <c r="C279" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="E279" s="25"/>
       <c r="G279" s="18"/>
       <c r="H279" s="18"/>
       <c r="I279" s="18"/>
       <c r="J279" s="18"/>
     </row>
-    <row r="280" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B280" s="4"/>
-      <c r="C280" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C280" s="4"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="25"/>
+      <c r="E280" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G280" s="18"/>
       <c r="H280" s="18"/>
       <c r="I280" s="18"/>
       <c r="J280" s="18"/>
     </row>
-    <row r="281" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B281" s="4"/>
-      <c r="C281" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C281" s="4"/>
       <c r="D281" s="4"/>
-      <c r="E281" s="25"/>
+      <c r="E281" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G281" s="18"/>
       <c r="H281" s="18"/>
       <c r="I281" s="18"/>
       <c r="J281" s="18"/>
     </row>
-    <row r="282" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B282" s="4"/>
-      <c r="C282" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="25"/>
+      <c r="E282" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G282" s="18"/>
       <c r="H282" s="18"/>
       <c r="I282" s="18"/>
@@ -7653,13 +7752,13 @@
     </row>
     <row r="283" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B283" s="4"/>
-      <c r="C283" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="E283" s="25"/>
       <c r="G283" s="18"/>
       <c r="H283" s="18"/>
@@ -7668,14 +7767,14 @@
     </row>
     <row r="284" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B284" s="4"/>
-      <c r="C284" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="25"/>
+      <c r="E284" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="G284" s="18"/>
       <c r="H284" s="18"/>
       <c r="I284" s="18"/>
@@ -7683,51 +7782,57 @@
     </row>
     <row r="285" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B285" s="4"/>
-      <c r="C285" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C285" s="4"/>
       <c r="D285" s="4"/>
-      <c r="E285" s="25"/>
+      <c r="E285" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="G285" s="18"/>
       <c r="H285" s="18"/>
       <c r="I285" s="18"/>
       <c r="J285" s="18"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B286" s="45"/>
-      <c r="C286" s="45"/>
-      <c r="D286" s="45"/>
-      <c r="E286" s="45"/>
+    <row r="286" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G286" s="18"/>
       <c r="H286" s="18"/>
       <c r="I286" s="18"/>
       <c r="J286" s="18"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A287" s="45"/>
-      <c r="B287" s="45"/>
-      <c r="C287" s="45"/>
-      <c r="D287" s="45"/>
-      <c r="E287" s="45"/>
+    <row r="287" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G287" s="18"/>
       <c r="H287" s="18"/>
       <c r="I287" s="18"/>
       <c r="J287" s="18"/>
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
-        <v>33</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C288" s="4"/>
+      <c r="A288" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D288" s="4"/>
       <c r="E288" s="25"/>
       <c r="G288" s="18"/>
@@ -7736,12 +7841,12 @@
       <c r="J288" s="18"/>
     </row>
     <row r="289" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
-        <v>33.1</v>
+      <c r="A289" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="25"/>
@@ -7752,13 +7857,13 @@
     </row>
     <row r="290" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="C290" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D290" s="4"/>
       <c r="E290" s="25"/>
       <c r="G290" s="18"/>
       <c r="H290" s="18"/>
@@ -7767,13 +7872,13 @@
     </row>
     <row r="291" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C291" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D291" s="4"/>
       <c r="E291" s="25"/>
       <c r="G291" s="18"/>
       <c r="H291" s="18"/>
@@ -7782,13 +7887,13 @@
     </row>
     <row r="292" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C292" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D292" s="4"/>
       <c r="E292" s="25"/>
       <c r="G292" s="18"/>
       <c r="H292" s="18"/>
@@ -7796,12 +7901,12 @@
       <c r="J292" s="18"/>
     </row>
     <row r="293" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
-        <v>33.200000000000003</v>
+      <c r="A293" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="25"/>
@@ -7812,74 +7917,68 @@
     </row>
     <row r="294" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="C294" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D294" s="4"/>
       <c r="E294" s="25"/>
       <c r="G294" s="18"/>
       <c r="H294" s="18"/>
       <c r="I294" s="18"/>
       <c r="J294" s="18"/>
     </row>
-    <row r="295" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="4" t="s">
-        <v>94</v>
-      </c>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B295" s="45"/>
+      <c r="C295" s="45"/>
+      <c r="D295" s="45"/>
+      <c r="E295" s="45"/>
       <c r="G295" s="18"/>
       <c r="H295" s="18"/>
       <c r="I295" s="18"/>
       <c r="J295" s="18"/>
     </row>
-    <row r="296" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="15" t="s">
-        <v>92</v>
-      </c>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="45"/>
+      <c r="B296" s="45"/>
+      <c r="C296" s="45"/>
+      <c r="D296" s="45"/>
+      <c r="E296" s="45"/>
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
       <c r="I296" s="18"/>
       <c r="J296" s="18"/>
     </row>
     <row r="297" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B297" s="4"/>
+      <c r="A297" s="3">
+        <v>33</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
-      <c r="E297" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="E297" s="25"/>
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
       <c r="I297" s="18"/>
       <c r="J297" s="18"/>
     </row>
     <row r="298" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
-        <v>348</v>
+      <c r="A298" s="3">
+        <v>33.1</v>
       </c>
       <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
+      <c r="C298" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D298" s="4"/>
-      <c r="E298" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="E298" s="25"/>
       <c r="G298" s="18"/>
       <c r="H298" s="18"/>
       <c r="I298" s="18"/>
@@ -7887,14 +7986,14 @@
     </row>
     <row r="299" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="D299" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E299" s="25"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
       <c r="I299" s="18"/>
@@ -7902,27 +8001,27 @@
     </row>
     <row r="300" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="D300" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E300" s="25"/>
       <c r="G300" s="18"/>
       <c r="H300" s="18"/>
       <c r="I300" s="18"/>
       <c r="J300" s="18"/>
     </row>
-    <row r="301" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="E301" s="25"/>
       <c r="G301" s="18"/>
@@ -7931,15 +8030,15 @@
       <c r="J301" s="18"/>
     </row>
     <row r="302" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
-        <v>352</v>
+      <c r="A302" s="3">
+        <v>33.200000000000003</v>
       </c>
       <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
+      <c r="C302" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="D302" s="4"/>
-      <c r="E302" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="E302" s="25"/>
       <c r="G302" s="18"/>
       <c r="H302" s="18"/>
       <c r="I302" s="18"/>
@@ -7947,14 +8046,14 @@
     </row>
     <row r="303" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="D303" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E303" s="25"/>
       <c r="G303" s="18"/>
       <c r="H303" s="18"/>
       <c r="I303" s="18"/>
@@ -7962,13 +8061,13 @@
     </row>
     <row r="304" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="15" t="s">
-        <v>160</v>
+      <c r="E304" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G304" s="18"/>
       <c r="H304" s="18"/>
@@ -7977,13 +8076,13 @@
     </row>
     <row r="305" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G305" s="18"/>
       <c r="H305" s="18"/>
@@ -7992,13 +8091,13 @@
     </row>
     <row r="306" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
-      <c r="E306" s="4" t="s">
-        <v>90</v>
+      <c r="E306" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="G306" s="18"/>
       <c r="H306" s="18"/>
@@ -8007,13 +8106,13 @@
     </row>
     <row r="307" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
-      <c r="E307" s="4" t="s">
-        <v>161</v>
+      <c r="E307" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="G307" s="18"/>
       <c r="H307" s="18"/>
@@ -8022,14 +8121,14 @@
     </row>
     <row r="308" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E308" s="25"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G308" s="18"/>
       <c r="H308" s="18"/>
       <c r="I308" s="18"/>
@@ -8037,29 +8136,29 @@
     </row>
     <row r="309" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
-      <c r="E309" s="15" t="s">
-        <v>162</v>
+      <c r="E309" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="G309" s="18"/>
       <c r="H309" s="18"/>
       <c r="I309" s="18"/>
       <c r="J309" s="18"/>
     </row>
-    <row r="310" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="D310" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E310" s="25"/>
       <c r="G310" s="18"/>
       <c r="H310" s="18"/>
       <c r="I310" s="18"/>
@@ -8067,13 +8166,13 @@
     </row>
     <row r="311" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
-      <c r="E311" s="15" t="s">
-        <v>164</v>
+      <c r="E311" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G311" s="18"/>
       <c r="H311" s="18"/>
@@ -8082,13 +8181,13 @@
     </row>
     <row r="312" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="15" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="G312" s="18"/>
       <c r="H312" s="18"/>
@@ -8097,13 +8196,13 @@
     </row>
     <row r="313" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
-      <c r="E313" s="16" t="s">
-        <v>166</v>
+      <c r="E313" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="G313" s="18"/>
       <c r="H313" s="18"/>
@@ -8111,15 +8210,15 @@
       <c r="J313" s="18"/>
     </row>
     <row r="314" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
-        <v>33.299999999999997</v>
+      <c r="A314" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="B314" s="4"/>
-      <c r="C314" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="C314" s="4"/>
       <c r="D314" s="4"/>
-      <c r="E314" s="25"/>
+      <c r="E314" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G314" s="18"/>
       <c r="H314" s="18"/>
       <c r="I314" s="18"/>
@@ -8127,14 +8226,14 @@
     </row>
     <row r="315" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E315" s="25"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G315" s="18"/>
       <c r="H315" s="18"/>
       <c r="I315" s="18"/>
@@ -8142,28 +8241,28 @@
     </row>
     <row r="316" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
-      <c r="D316" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E316" s="25"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G316" s="18"/>
       <c r="H316" s="18"/>
       <c r="I316" s="18"/>
       <c r="J316" s="18"/>
     </row>
     <row r="317" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A317" s="3">
-        <v>33.4</v>
+      <c r="A317" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="B317" s="4"/>
-      <c r="C317" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="E317" s="25"/>
       <c r="G317" s="18"/>
       <c r="H317" s="18"/>
@@ -8172,14 +8271,14 @@
     </row>
     <row r="318" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
-      <c r="D318" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E318" s="25"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="G318" s="18"/>
       <c r="H318" s="18"/>
       <c r="I318" s="18"/>
@@ -8187,13 +8286,13 @@
     </row>
     <row r="319" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="4" t="s">
-        <v>94</v>
+      <c r="E319" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="G319" s="18"/>
       <c r="H319" s="18"/>
@@ -8202,13 +8301,13 @@
     </row>
     <row r="320" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="15" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="G320" s="18"/>
       <c r="H320" s="18"/>
@@ -8217,13 +8316,13 @@
     </row>
     <row r="321" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G321" s="18"/>
       <c r="H321" s="18"/>
@@ -8232,13 +8331,13 @@
     </row>
     <row r="322" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
-      <c r="E322" s="15" t="s">
-        <v>91</v>
+      <c r="E322" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="G322" s="18"/>
       <c r="H322" s="18"/>
@@ -8246,15 +8345,15 @@
       <c r="J322" s="18"/>
     </row>
     <row r="323" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A323" s="3" t="s">
-        <v>371</v>
+      <c r="A323" s="3">
+        <v>33.299999999999997</v>
       </c>
       <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
+      <c r="C323" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="D323" s="4"/>
-      <c r="E323" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="E323" s="25"/>
       <c r="G323" s="18"/>
       <c r="H323" s="18"/>
       <c r="I323" s="18"/>
@@ -8262,27 +8361,27 @@
     </row>
     <row r="324" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
-      <c r="E324" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="D324" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="25"/>
       <c r="G324" s="18"/>
       <c r="H324" s="18"/>
       <c r="I324" s="18"/>
       <c r="J324" s="18"/>
     </row>
-    <row r="325" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="E325" s="25"/>
       <c r="G325" s="18"/>
@@ -8291,15 +8390,15 @@
       <c r="J325" s="18"/>
     </row>
     <row r="326" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
-        <v>374</v>
+      <c r="A326" s="3">
+        <v>33.4</v>
       </c>
       <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
+      <c r="C326" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D326" s="4"/>
-      <c r="E326" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="E326" s="25"/>
       <c r="G326" s="18"/>
       <c r="H326" s="18"/>
       <c r="I326" s="18"/>
@@ -8307,14 +8406,14 @@
     </row>
     <row r="327" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="D327" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E327" s="25"/>
       <c r="G327" s="18"/>
       <c r="H327" s="18"/>
       <c r="I327" s="18"/>
@@ -8322,13 +8421,13 @@
     </row>
     <row r="328" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
-      <c r="E328" s="15" t="s">
-        <v>160</v>
+      <c r="E328" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G328" s="18"/>
       <c r="H328" s="18"/>
@@ -8337,13 +8436,13 @@
     </row>
     <row r="329" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G329" s="18"/>
       <c r="H329" s="18"/>
@@ -8352,13 +8451,13 @@
     </row>
     <row r="330" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
-      <c r="E330" s="4" t="s">
-        <v>90</v>
+      <c r="E330" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="G330" s="18"/>
       <c r="H330" s="18"/>
@@ -8367,13 +8466,13 @@
     </row>
     <row r="331" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
-      <c r="E331" s="4" t="s">
-        <v>161</v>
+      <c r="E331" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="G331" s="18"/>
       <c r="H331" s="18"/>
@@ -8382,14 +8481,14 @@
     </row>
     <row r="332" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
-      <c r="D332" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E332" s="25"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G332" s="18"/>
       <c r="H332" s="18"/>
       <c r="I332" s="18"/>
@@ -8397,29 +8496,29 @@
     </row>
     <row r="333" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
-      <c r="E333" s="15" t="s">
-        <v>162</v>
+      <c r="E333" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="G333" s="18"/>
       <c r="H333" s="18"/>
       <c r="I333" s="18"/>
       <c r="J333" s="18"/>
     </row>
-    <row r="334" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="D334" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E334" s="25"/>
       <c r="G334" s="18"/>
       <c r="H334" s="18"/>
       <c r="I334" s="18"/>
@@ -8427,13 +8526,13 @@
     </row>
     <row r="335" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
-      <c r="E335" s="15" t="s">
-        <v>164</v>
+      <c r="E335" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G335" s="18"/>
       <c r="H335" s="18"/>
@@ -8442,13 +8541,13 @@
     </row>
     <row r="336" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="15" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="G336" s="18"/>
       <c r="H336" s="18"/>
@@ -8457,13 +8556,13 @@
     </row>
     <row r="337" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
-      <c r="E337" s="16" t="s">
-        <v>166</v>
+      <c r="E337" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="G337" s="18"/>
       <c r="H337" s="18"/>
@@ -8471,32 +8570,30 @@
       <c r="J337" s="18"/>
     </row>
     <row r="338" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A338" s="3">
-        <v>34</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A338" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
-      <c r="E338" s="25"/>
-      <c r="G338" s="18">
-        <v>50</v>
-      </c>
+      <c r="E338" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G338" s="18"/>
       <c r="H338" s="18"/>
       <c r="I338" s="18"/>
       <c r="J338" s="18"/>
     </row>
     <row r="339" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A339" s="3">
-        <v>34.1</v>
+      <c r="A339" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="B339" s="4"/>
-      <c r="C339" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D339" s="25"/>
-      <c r="E339" s="25"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G339" s="18"/>
       <c r="H339" s="18"/>
       <c r="I339" s="18"/>
@@ -8504,14 +8601,14 @@
     </row>
     <row r="340" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
-      <c r="D340" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E340" s="25"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G340" s="18"/>
       <c r="H340" s="18"/>
       <c r="I340" s="18"/>
@@ -8519,12 +8616,12 @@
     </row>
     <row r="341" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
-      <c r="D341" s="15" t="s">
-        <v>92</v>
+      <c r="D341" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E341" s="25"/>
       <c r="G341" s="18"/>
@@ -8534,14 +8631,14 @@
     </row>
     <row r="342" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
-      <c r="D342" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E342" s="25"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="G342" s="18"/>
       <c r="H342" s="18"/>
       <c r="I342" s="18"/>
@@ -8549,14 +8646,14 @@
     </row>
     <row r="343" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
-      <c r="D343" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E343" s="25"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="G343" s="18"/>
       <c r="H343" s="18"/>
       <c r="I343" s="18"/>
@@ -8564,14 +8661,14 @@
     </row>
     <row r="344" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
-      <c r="D344" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E344" s="25"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="G344" s="18"/>
       <c r="H344" s="18"/>
       <c r="I344" s="18"/>
@@ -8579,58 +8676,60 @@
     </row>
     <row r="345" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
-      <c r="D345" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E345" s="25"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="G345" s="18"/>
       <c r="H345" s="18"/>
       <c r="I345" s="18"/>
       <c r="J345" s="18"/>
     </row>
-    <row r="346" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="3">
-        <v>34.200000000000003</v>
+    <row r="346" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A346" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="B346" s="4"/>
-      <c r="C346" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D346" s="25"/>
-      <c r="E346" s="25"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="G346" s="18"/>
       <c r="H346" s="18"/>
       <c r="I346" s="18"/>
       <c r="J346" s="18"/>
     </row>
     <row r="347" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A347" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B347" s="4"/>
+      <c r="A347" s="3">
+        <v>34</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C347" s="4"/>
-      <c r="D347" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D347" s="4"/>
       <c r="E347" s="25"/>
-      <c r="G347" s="18"/>
+      <c r="G347" s="18">
+        <v>50</v>
+      </c>
       <c r="H347" s="18"/>
       <c r="I347" s="18"/>
       <c r="J347" s="18"/>
     </row>
     <row r="348" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
-        <v>393</v>
+      <c r="A348" s="3">
+        <v>34.1</v>
       </c>
       <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="C348" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D348" s="25"/>
       <c r="E348" s="25"/>
       <c r="G348" s="18"/>
       <c r="H348" s="18"/>
@@ -8639,12 +8738,12 @@
     </row>
     <row r="349" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
-      <c r="D349" s="15" t="s">
-        <v>160</v>
+      <c r="D349" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E349" s="25"/>
       <c r="G349" s="18"/>
@@ -8654,12 +8753,12 @@
     </row>
     <row r="350" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E350" s="25"/>
       <c r="G350" s="18"/>
@@ -8669,12 +8768,12 @@
     </row>
     <row r="351" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
-      <c r="D351" s="4" t="s">
-        <v>90</v>
+      <c r="D351" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="E351" s="25"/>
       <c r="G351" s="18"/>
@@ -8684,12 +8783,12 @@
     </row>
     <row r="352" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="4" t="s">
-        <v>161</v>
+      <c r="D352" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E352" s="25"/>
       <c r="G352" s="18"/>
@@ -8698,14 +8797,14 @@
       <c r="J352" s="18"/>
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A353" s="3">
-        <v>34.299999999999997</v>
+      <c r="A353" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="B353" s="4"/>
-      <c r="C353" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D353" s="25"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E353" s="25"/>
       <c r="G353" s="18"/>
       <c r="H353" s="18"/>
@@ -8714,12 +8813,12 @@
     </row>
     <row r="354" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
-      <c r="D354" s="15" t="s">
-        <v>162</v>
+      <c r="D354" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E354" s="25"/>
       <c r="G354" s="18"/>
@@ -8727,15 +8826,15 @@
       <c r="I354" s="18"/>
       <c r="J354" s="18"/>
     </row>
-    <row r="355" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A355" s="3" t="s">
-        <v>399</v>
+    <row r="355" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="3">
+        <v>34.200000000000003</v>
       </c>
       <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
-      <c r="D355" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="C355" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D355" s="25"/>
       <c r="E355" s="25"/>
       <c r="G355" s="18"/>
       <c r="H355" s="18"/>
@@ -8744,12 +8843,12 @@
     </row>
     <row r="356" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
-      <c r="D356" s="15" t="s">
-        <v>164</v>
+      <c r="D356" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E356" s="25"/>
       <c r="G356" s="18"/>
@@ -8759,12 +8858,12 @@
     </row>
     <row r="357" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="15" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="E357" s="25"/>
       <c r="G357" s="18"/>
@@ -8774,12 +8873,12 @@
     </row>
     <row r="358" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="16" t="s">
-        <v>166</v>
+      <c r="D358" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="E358" s="25"/>
       <c r="G358" s="18"/>
@@ -8788,14 +8887,14 @@
       <c r="J358" s="18"/>
     </row>
     <row r="359" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A359" s="3">
-        <v>35</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A359" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B359" s="4"/>
       <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
+      <c r="D359" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="E359" s="25"/>
       <c r="G359" s="18"/>
       <c r="H359" s="18"/>
@@ -8803,14 +8902,14 @@
       <c r="J359" s="18"/>
     </row>
     <row r="360" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A360" s="3">
-        <v>35.1</v>
+      <c r="A360" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="B360" s="4"/>
-      <c r="C360" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D360" s="4"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E360" s="25"/>
       <c r="G360" s="18"/>
       <c r="H360" s="18"/>
@@ -8819,12 +8918,12 @@
     </row>
     <row r="361" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E361" s="25"/>
       <c r="G361" s="18"/>
@@ -8833,15 +8932,15 @@
       <c r="J361" s="18"/>
     </row>
     <row r="362" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
-        <v>404</v>
+      <c r="A362" s="3">
+        <v>34.299999999999997</v>
       </c>
       <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
-      <c r="E362" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="C362" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D362" s="25"/>
+      <c r="E362" s="25"/>
       <c r="G362" s="18"/>
       <c r="H362" s="18"/>
       <c r="I362" s="18"/>
@@ -8849,14 +8948,14 @@
     </row>
     <row r="363" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
-      <c r="E363" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="D363" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E363" s="25"/>
       <c r="G363" s="18"/>
       <c r="H363" s="18"/>
       <c r="I363" s="18"/>
@@ -8864,14 +8963,14 @@
     </row>
     <row r="364" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
-      <c r="E364" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="D364" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E364" s="25"/>
       <c r="G364" s="18"/>
       <c r="H364" s="18"/>
       <c r="I364" s="18"/>
@@ -8879,14 +8978,14 @@
     </row>
     <row r="365" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
-      <c r="E365" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="D365" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E365" s="25"/>
       <c r="G365" s="18"/>
       <c r="H365" s="18"/>
       <c r="I365" s="18"/>
@@ -8894,14 +8993,14 @@
     </row>
     <row r="366" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
-      <c r="E366" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="D366" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E366" s="25"/>
       <c r="G366" s="18"/>
       <c r="H366" s="18"/>
       <c r="I366" s="18"/>
@@ -8909,28 +9008,28 @@
     </row>
     <row r="367" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
-      <c r="E367" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="D367" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E367" s="25"/>
       <c r="G367" s="18"/>
       <c r="H367" s="18"/>
       <c r="I367" s="18"/>
       <c r="J367" s="18"/>
     </row>
-    <row r="368" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B368" s="4"/>
+    <row r="368" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A368" s="3">
+        <v>35</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C368" s="4"/>
-      <c r="D368" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="D368" s="4"/>
       <c r="E368" s="25"/>
       <c r="G368" s="18"/>
       <c r="H368" s="18"/>
@@ -8938,15 +9037,15 @@
       <c r="J368" s="18"/>
     </row>
     <row r="369" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A369" s="3" t="s">
-        <v>411</v>
+      <c r="A369" s="3">
+        <v>35.1</v>
       </c>
       <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
+      <c r="C369" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="D369" s="4"/>
-      <c r="E369" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="E369" s="25"/>
       <c r="G369" s="18"/>
       <c r="H369" s="18"/>
       <c r="I369" s="18"/>
@@ -8954,14 +9053,14 @@
     </row>
     <row r="370" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="D370" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E370" s="25"/>
       <c r="G370" s="18"/>
       <c r="H370" s="18"/>
       <c r="I370" s="18"/>
@@ -8969,13 +9068,13 @@
     </row>
     <row r="371" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
-      <c r="E371" s="15" t="s">
-        <v>160</v>
+      <c r="E371" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G371" s="18"/>
       <c r="H371" s="18"/>
@@ -8984,13 +9083,13 @@
     </row>
     <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G372" s="18"/>
       <c r="H372" s="18"/>
@@ -8999,13 +9098,13 @@
     </row>
     <row r="373" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="4" t="s">
-        <v>90</v>
+      <c r="E373" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="G373" s="18"/>
       <c r="H373" s="18"/>
@@ -9014,13 +9113,13 @@
     </row>
     <row r="374" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
-      <c r="E374" s="4" t="s">
-        <v>161</v>
+      <c r="E374" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="G374" s="18"/>
       <c r="H374" s="18"/>
@@ -9029,14 +9128,14 @@
     </row>
     <row r="375" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
-      <c r="D375" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E375" s="25"/>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G375" s="18"/>
       <c r="H375" s="18"/>
       <c r="I375" s="18"/>
@@ -9044,29 +9143,29 @@
     </row>
     <row r="376" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
-      <c r="E376" s="15" t="s">
-        <v>162</v>
+      <c r="E376" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="G376" s="18"/>
       <c r="H376" s="18"/>
       <c r="I376" s="18"/>
       <c r="J376" s="18"/>
     </row>
-    <row r="377" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
-      <c r="E377" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="D377" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E377" s="25"/>
       <c r="G377" s="18"/>
       <c r="H377" s="18"/>
       <c r="I377" s="18"/>
@@ -9074,13 +9173,13 @@
     </row>
     <row r="378" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
-      <c r="E378" s="15" t="s">
-        <v>164</v>
+      <c r="E378" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G378" s="18"/>
       <c r="H378" s="18"/>
@@ -9089,13 +9188,13 @@
     </row>
     <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="15" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="G379" s="18"/>
       <c r="H379" s="18"/>
@@ -9104,13 +9203,13 @@
     </row>
     <row r="380" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
-      <c r="E380" s="16" t="s">
-        <v>166</v>
+      <c r="E380" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="G380" s="18"/>
       <c r="H380" s="18"/>
@@ -9118,59 +9217,59 @@
       <c r="J380" s="18"/>
     </row>
     <row r="381" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A381" s="3">
-        <v>35.200000000000003</v>
+      <c r="A381" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="B381" s="4"/>
-      <c r="C381" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C381" s="4"/>
       <c r="D381" s="4"/>
-      <c r="E381" s="25"/>
+      <c r="E381" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="G381" s="18"/>
       <c r="H381" s="18"/>
       <c r="I381" s="18"/>
       <c r="J381" s="18"/>
     </row>
     <row r="382" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A382" s="3">
-        <v>35.299999999999997</v>
+      <c r="A382" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="B382" s="4"/>
-      <c r="C382" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C382" s="4"/>
       <c r="D382" s="4"/>
-      <c r="E382" s="25"/>
+      <c r="E382" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G382" s="18"/>
       <c r="H382" s="18"/>
       <c r="I382" s="18"/>
       <c r="J382" s="18"/>
     </row>
     <row r="383" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A383" s="3">
-        <v>35.4</v>
+      <c r="A383" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="B383" s="4"/>
-      <c r="C383" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C383" s="4"/>
       <c r="D383" s="4"/>
-      <c r="E383" s="25"/>
+      <c r="E383" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G383" s="18"/>
       <c r="H383" s="18"/>
       <c r="I383" s="18"/>
       <c r="J383" s="18"/>
     </row>
     <row r="384" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A384" s="3">
-        <v>35.5</v>
+      <c r="A384" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="B384" s="4"/>
-      <c r="C384" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D384" s="4"/>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="E384" s="25"/>
       <c r="G384" s="18"/>
       <c r="H384" s="18"/>
@@ -9178,69 +9277,75 @@
       <c r="J384" s="18"/>
     </row>
     <row r="385" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A385" s="3">
-        <v>35.6</v>
+      <c r="A385" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="B385" s="4"/>
-      <c r="C385" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C385" s="4"/>
       <c r="D385" s="4"/>
-      <c r="E385" s="25"/>
+      <c r="E385" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="G385" s="18"/>
       <c r="H385" s="18"/>
       <c r="I385" s="18"/>
       <c r="J385" s="18"/>
     </row>
     <row r="386" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A386" s="3">
-        <v>35.700000000000003</v>
+      <c r="A386" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="B386" s="4"/>
-      <c r="C386" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C386" s="4"/>
       <c r="D386" s="4"/>
-      <c r="E386" s="25"/>
+      <c r="E386" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="G386" s="18"/>
       <c r="H386" s="18"/>
       <c r="I386" s="18"/>
       <c r="J386" s="18"/>
     </row>
     <row r="387" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A387" s="3">
-        <v>35.799999999999997</v>
+      <c r="A387" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="B387" s="4"/>
-      <c r="C387" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C387" s="4"/>
       <c r="D387" s="4"/>
-      <c r="E387" s="25"/>
+      <c r="E387" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="G387" s="18"/>
       <c r="H387" s="18"/>
       <c r="I387" s="18"/>
       <c r="J387" s="18"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B388" s="45"/>
-      <c r="C388" s="45"/>
-      <c r="D388" s="45"/>
-      <c r="E388" s="45"/>
+    <row r="388" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B388" s="4"/>
+      <c r="C388" s="4"/>
+      <c r="D388" s="4"/>
+      <c r="E388" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="G388" s="18"/>
       <c r="H388" s="18"/>
       <c r="I388" s="18"/>
       <c r="J388" s="18"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A389" s="45"/>
-      <c r="B389" s="45"/>
-      <c r="C389" s="45"/>
-      <c r="D389" s="45"/>
-      <c r="E389" s="45"/>
+    <row r="389" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B389" s="4"/>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4"/>
+      <c r="E389" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="G389" s="18"/>
       <c r="H389" s="18"/>
       <c r="I389" s="18"/>
@@ -9248,12 +9353,12 @@
     </row>
     <row r="390" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
-        <v>36</v>
-      </c>
-      <c r="B390" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C390" s="4"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="B390" s="4"/>
+      <c r="C390" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D390" s="4"/>
       <c r="E390" s="25"/>
       <c r="G390" s="18"/>
@@ -9263,11 +9368,11 @@
     </row>
     <row r="391" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
-        <v>36.1</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="B391" s="4"/>
       <c r="C391" s="4" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="25"/>
@@ -9277,14 +9382,14 @@
       <c r="J391" s="18"/>
     </row>
     <row r="392" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A392" s="3" t="s">
-        <v>423</v>
+      <c r="A392" s="3">
+        <v>35.4</v>
       </c>
       <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="C392" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D392" s="4"/>
       <c r="E392" s="25"/>
       <c r="G392" s="18"/>
       <c r="H392" s="18"/>
@@ -9292,14 +9397,14 @@
       <c r="J392" s="18"/>
     </row>
     <row r="393" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A393" s="3" t="s">
-        <v>424</v>
+      <c r="A393" s="3">
+        <v>35.5</v>
       </c>
       <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
-      <c r="D393" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C393" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D393" s="4"/>
       <c r="E393" s="25"/>
       <c r="G393" s="18"/>
       <c r="H393" s="18"/>
@@ -9307,14 +9412,14 @@
       <c r="J393" s="18"/>
     </row>
     <row r="394" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A394" s="3" t="s">
-        <v>425</v>
+      <c r="A394" s="3">
+        <v>35.6</v>
       </c>
       <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
-      <c r="D394" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C394" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D394" s="4"/>
       <c r="E394" s="25"/>
       <c r="G394" s="18"/>
       <c r="H394" s="18"/>
@@ -9323,11 +9428,11 @@
     </row>
     <row r="395" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
-        <v>36.200000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395" s="25"/>
@@ -9337,75 +9442,69 @@
       <c r="J395" s="18"/>
     </row>
     <row r="396" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A396" s="3" t="s">
-        <v>426</v>
+      <c r="A396" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
-      <c r="D396" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="C396" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D396" s="4"/>
       <c r="E396" s="25"/>
       <c r="G396" s="18"/>
       <c r="H396" s="18"/>
       <c r="I396" s="18"/>
       <c r="J396" s="18"/>
     </row>
-    <row r="397" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A397" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
-      <c r="E397" s="4" t="s">
-        <v>177</v>
-      </c>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B397" s="45"/>
+      <c r="C397" s="45"/>
+      <c r="D397" s="45"/>
+      <c r="E397" s="45"/>
       <c r="G397" s="18"/>
       <c r="H397" s="18"/>
       <c r="I397" s="18"/>
       <c r="J397" s="18"/>
     </row>
-    <row r="398" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A398" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
-      <c r="D398" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E398" s="25"/>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="45"/>
+      <c r="B398" s="45"/>
+      <c r="C398" s="45"/>
+      <c r="D398" s="45"/>
+      <c r="E398" s="45"/>
       <c r="G398" s="18"/>
       <c r="H398" s="18"/>
       <c r="I398" s="18"/>
       <c r="J398" s="18"/>
     </row>
     <row r="399" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A399" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B399" s="4"/>
+      <c r="A399" s="3">
+        <v>36</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
-      <c r="E399" s="15" t="s">
-        <v>170</v>
-      </c>
+      <c r="E399" s="25"/>
       <c r="G399" s="18"/>
       <c r="H399" s="18"/>
       <c r="I399" s="18"/>
       <c r="J399" s="18"/>
     </row>
     <row r="400" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A400" s="3" t="s">
-        <v>430</v>
+      <c r="A400" s="3">
+        <v>36.1</v>
       </c>
       <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
+      <c r="C400" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D400" s="4"/>
-      <c r="E400" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="E400" s="25"/>
       <c r="G400" s="18"/>
       <c r="H400" s="18"/>
       <c r="I400" s="18"/>
@@ -9413,14 +9512,14 @@
     </row>
     <row r="401" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
-      <c r="E401" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="D401" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E401" s="25"/>
       <c r="G401" s="18"/>
       <c r="H401" s="18"/>
       <c r="I401" s="18"/>
@@ -9428,14 +9527,14 @@
     </row>
     <row r="402" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="D402" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E402" s="25"/>
       <c r="G402" s="18"/>
       <c r="H402" s="18"/>
       <c r="I402" s="18"/>
@@ -9443,29 +9542,29 @@
     </row>
     <row r="403" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="D403" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E403" s="25"/>
       <c r="G403" s="18"/>
       <c r="H403" s="18"/>
       <c r="I403" s="18"/>
       <c r="J403" s="18"/>
     </row>
     <row r="404" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A404" s="3" t="s">
-        <v>434</v>
+      <c r="A404" s="3">
+        <v>36.200000000000003</v>
       </c>
       <c r="B404" s="4"/>
-      <c r="C404" s="4"/>
+      <c r="C404" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="D404" s="4"/>
-      <c r="E404" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="E404" s="25"/>
       <c r="G404" s="18"/>
       <c r="H404" s="18"/>
       <c r="I404" s="18"/>
@@ -9473,29 +9572,29 @@
     </row>
     <row r="405" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="D405" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E405" s="25"/>
       <c r="G405" s="18"/>
       <c r="H405" s="18"/>
       <c r="I405" s="18"/>
       <c r="J405" s="18"/>
     </row>
     <row r="406" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A406" s="3">
-        <v>36.299999999999997</v>
+      <c r="A406" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="B406" s="4"/>
-      <c r="C406" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="C406" s="4"/>
       <c r="D406" s="4"/>
-      <c r="E406" s="25"/>
+      <c r="E406" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G406" s="18"/>
       <c r="H406" s="18"/>
       <c r="I406" s="18"/>
@@ -9503,12 +9602,12 @@
     </row>
     <row r="407" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="E407" s="25"/>
       <c r="G407" s="18"/>
@@ -9518,29 +9617,29 @@
     </row>
     <row r="408" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
-      <c r="D408" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E408" s="25"/>
+      <c r="D408" s="4"/>
+      <c r="E408" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="G408" s="18"/>
       <c r="H408" s="18"/>
       <c r="I408" s="18"/>
       <c r="J408" s="18"/>
     </row>
     <row r="409" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A409" s="3">
-        <v>36.4</v>
+      <c r="A409" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="B409" s="4"/>
-      <c r="C409" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C409" s="4"/>
       <c r="D409" s="4"/>
-      <c r="E409" s="25"/>
+      <c r="E409" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="G409" s="18"/>
       <c r="H409" s="18"/>
       <c r="I409" s="18"/>
@@ -9548,14 +9647,14 @@
     </row>
     <row r="410" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
-      <c r="D410" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E410" s="25"/>
+      <c r="D410" s="4"/>
+      <c r="E410" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="G410" s="18"/>
       <c r="H410" s="18"/>
       <c r="I410" s="18"/>
@@ -9563,13 +9662,13 @@
     </row>
     <row r="411" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
-      <c r="E411" s="4" t="s">
-        <v>177</v>
+      <c r="E411" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="G411" s="18"/>
       <c r="H411" s="18"/>
@@ -9578,14 +9677,14 @@
     </row>
     <row r="412" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
-      <c r="D412" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E412" s="25"/>
+      <c r="D412" s="4"/>
+      <c r="E412" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="G412" s="18"/>
       <c r="H412" s="18"/>
       <c r="I412" s="18"/>
@@ -9593,13 +9692,13 @@
     </row>
     <row r="413" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
-      <c r="E413" s="15" t="s">
-        <v>170</v>
+      <c r="E413" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G413" s="18"/>
       <c r="H413" s="18"/>
@@ -9608,13 +9707,13 @@
     </row>
     <row r="414" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
@@ -9622,15 +9721,15 @@
       <c r="J414" s="18"/>
     </row>
     <row r="415" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A415" s="3" t="s">
-        <v>443</v>
+      <c r="A415" s="3">
+        <v>36.299999999999997</v>
       </c>
       <c r="B415" s="4"/>
-      <c r="C415" s="4"/>
+      <c r="C415" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="D415" s="4"/>
-      <c r="E415" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="E415" s="25"/>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
       <c r="I415" s="18"/>
@@ -9638,14 +9737,14 @@
     </row>
     <row r="416" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
-      <c r="E416" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="D416" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" s="25"/>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
       <c r="I416" s="18"/>
@@ -9653,29 +9752,29 @@
     </row>
     <row r="417" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
-      <c r="E417" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="D417" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E417" s="25"/>
       <c r="G417" s="18"/>
       <c r="H417" s="18"/>
       <c r="I417" s="18"/>
       <c r="J417" s="18"/>
     </row>
     <row r="418" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A418" s="3" t="s">
-        <v>446</v>
+      <c r="A418" s="3">
+        <v>36.4</v>
       </c>
       <c r="B418" s="4"/>
-      <c r="C418" s="4"/>
+      <c r="C418" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D418" s="4"/>
-      <c r="E418" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="E418" s="25"/>
       <c r="G418" s="18"/>
       <c r="H418" s="18"/>
       <c r="I418" s="18"/>
@@ -9683,46 +9782,44 @@
     </row>
     <row r="419" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
-      <c r="E419" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="D419" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E419" s="25"/>
       <c r="G419" s="18"/>
       <c r="H419" s="18"/>
       <c r="I419" s="18"/>
       <c r="J419" s="18"/>
     </row>
     <row r="420" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A420" s="3">
-        <v>37</v>
-      </c>
-      <c r="B420" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A420" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B420" s="4"/>
       <c r="C420" s="4"/>
-      <c r="D420" s="28"/>
-      <c r="E420" s="29"/>
-      <c r="G420" s="18">
-        <v>50</v>
-      </c>
+      <c r="D420" s="4"/>
+      <c r="E420" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G420" s="18"/>
       <c r="H420" s="18"/>
       <c r="I420" s="18"/>
       <c r="J420" s="18"/>
     </row>
     <row r="421" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A421" s="3">
-        <v>37.1</v>
+      <c r="A421" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="B421" s="4"/>
-      <c r="C421" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D421" s="30"/>
-      <c r="E421" s="31"/>
+      <c r="C421" s="4"/>
+      <c r="D421" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E421" s="25"/>
       <c r="G421" s="18"/>
       <c r="H421" s="18"/>
       <c r="I421" s="18"/>
@@ -9730,29 +9827,29 @@
     </row>
     <row r="422" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B422" s="4"/>
-      <c r="C422" s="27"/>
-      <c r="D422" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="E422" s="31"/>
+      <c r="C422" s="4"/>
+      <c r="D422" s="4"/>
+      <c r="E422" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="G422" s="18"/>
       <c r="H422" s="18"/>
       <c r="I422" s="18"/>
       <c r="J422" s="18"/>
     </row>
     <row r="423" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A423" s="3">
-        <v>37.200000000000003</v>
+      <c r="A423" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="B423" s="4"/>
-      <c r="C423" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D423" s="30"/>
-      <c r="E423" s="31"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
+      <c r="E423" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="G423" s="18"/>
       <c r="H423" s="18"/>
       <c r="I423" s="18"/>
@@ -9760,14 +9857,14 @@
     </row>
     <row r="424" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B424" s="4"/>
-      <c r="C424" s="27"/>
-      <c r="D424" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E424" s="31"/>
+      <c r="C424" s="4"/>
+      <c r="D424" s="4"/>
+      <c r="E424" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="G424" s="18"/>
       <c r="H424" s="18"/>
       <c r="I424" s="18"/>
@@ -9775,14 +9872,14 @@
     </row>
     <row r="425" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B425" s="4"/>
-      <c r="C425" s="27"/>
-      <c r="D425" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="E425" s="31"/>
+      <c r="C425" s="4"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="G425" s="18"/>
       <c r="H425" s="18"/>
       <c r="I425" s="18"/>
@@ -9790,14 +9887,14 @@
     </row>
     <row r="426" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B426" s="4"/>
-      <c r="C426" s="27"/>
-      <c r="D426" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E426" s="31"/>
+      <c r="C426" s="4"/>
+      <c r="D426" s="4"/>
+      <c r="E426" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="G426" s="18"/>
       <c r="H426" s="18"/>
       <c r="I426" s="18"/>
@@ -9805,14 +9902,14 @@
     </row>
     <row r="427" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B427" s="4"/>
-      <c r="C427" s="27"/>
-      <c r="D427" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="E427" s="31"/>
+      <c r="C427" s="4"/>
+      <c r="D427" s="4"/>
+      <c r="E427" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="G427" s="18"/>
       <c r="H427" s="18"/>
       <c r="I427" s="18"/>
@@ -9820,43 +9917,45 @@
     </row>
     <row r="428" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B428" s="4"/>
-      <c r="C428" s="27"/>
-      <c r="D428" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E428" s="31"/>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
+      <c r="E428" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="G428" s="18"/>
       <c r="H428" s="18"/>
       <c r="I428" s="18"/>
       <c r="J428" s="18"/>
     </row>
     <row r="429" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A429" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B429" s="4"/>
-      <c r="C429" s="27"/>
-      <c r="D429" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E429" s="31"/>
-      <c r="G429" s="18"/>
+      <c r="A429" s="3">
+        <v>37</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C429" s="4"/>
+      <c r="D429" s="28"/>
+      <c r="E429" s="29"/>
+      <c r="G429" s="18">
+        <v>50</v>
+      </c>
       <c r="H429" s="18"/>
       <c r="I429" s="18"/>
       <c r="J429" s="18"/>
     </row>
     <row r="430" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A430" s="3" t="s">
-        <v>455</v>
+      <c r="A430" s="3">
+        <v>37.1</v>
       </c>
       <c r="B430" s="4"/>
-      <c r="C430" s="27"/>
-      <c r="D430" s="33" t="s">
-        <v>176</v>
-      </c>
+      <c r="C430" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D430" s="30"/>
       <c r="E430" s="31"/>
       <c r="G430" s="18"/>
       <c r="H430" s="18"/>
@@ -9864,15 +9963,15 @@
       <c r="J430" s="18"/>
     </row>
     <row r="431" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A431" s="3">
-        <v>38</v>
-      </c>
-      <c r="B431" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C431" s="4"/>
-      <c r="D431" s="14"/>
-      <c r="E431" s="24"/>
+      <c r="A431" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B431" s="4"/>
+      <c r="C431" s="27"/>
+      <c r="D431" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E431" s="31"/>
       <c r="G431" s="18"/>
       <c r="H431" s="18"/>
       <c r="I431" s="18"/>
@@ -9880,14 +9979,14 @@
     </row>
     <row r="432" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
-        <v>38.1</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="B432" s="4"/>
-      <c r="C432" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D432" s="4"/>
-      <c r="E432" s="25"/>
+      <c r="C432" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D432" s="30"/>
+      <c r="E432" s="31"/>
       <c r="G432" s="18"/>
       <c r="H432" s="18"/>
       <c r="I432" s="18"/>
@@ -9895,14 +9994,14 @@
     </row>
     <row r="433" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E433" s="25"/>
+      <c r="C433" s="27"/>
+      <c r="D433" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E433" s="31"/>
       <c r="G433" s="18"/>
       <c r="H433" s="18"/>
       <c r="I433" s="18"/>
@@ -9910,14 +10009,14 @@
     </row>
     <row r="434" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-      <c r="E434" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="C434" s="27"/>
+      <c r="D434" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E434" s="31"/>
       <c r="G434" s="18"/>
       <c r="H434" s="18"/>
       <c r="I434" s="18"/>
@@ -9925,14 +10024,14 @@
     </row>
     <row r="435" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E435" s="25"/>
+      <c r="C435" s="27"/>
+      <c r="D435" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E435" s="31"/>
       <c r="G435" s="18"/>
       <c r="H435" s="18"/>
       <c r="I435" s="18"/>
@@ -9940,14 +10039,14 @@
     </row>
     <row r="436" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B436" s="4"/>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
-      <c r="E436" s="15" t="s">
-        <v>170</v>
-      </c>
+      <c r="C436" s="27"/>
+      <c r="D436" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E436" s="31"/>
       <c r="G436" s="18"/>
       <c r="H436" s="18"/>
       <c r="I436" s="18"/>
@@ -9955,14 +10054,14 @@
     </row>
     <row r="437" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
-      <c r="E437" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="C437" s="27"/>
+      <c r="D437" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E437" s="31"/>
       <c r="G437" s="18"/>
       <c r="H437" s="18"/>
       <c r="I437" s="18"/>
@@ -9970,14 +10069,14 @@
     </row>
     <row r="438" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
-      <c r="E438" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="C438" s="27"/>
+      <c r="D438" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E438" s="31"/>
       <c r="G438" s="18"/>
       <c r="H438" s="18"/>
       <c r="I438" s="18"/>
@@ -9985,44 +10084,44 @@
     </row>
     <row r="439" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="C439" s="27"/>
+      <c r="D439" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E439" s="31"/>
       <c r="G439" s="18"/>
       <c r="H439" s="18"/>
       <c r="I439" s="18"/>
       <c r="J439" s="18"/>
     </row>
     <row r="440" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A440" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B440" s="4"/>
+      <c r="A440" s="3">
+        <v>38</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
-      <c r="E440" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="D440" s="14"/>
+      <c r="E440" s="24"/>
       <c r="G440" s="18"/>
       <c r="H440" s="18"/>
       <c r="I440" s="18"/>
       <c r="J440" s="18"/>
     </row>
     <row r="441" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A441" s="3" t="s">
-        <v>464</v>
+      <c r="A441" s="3">
+        <v>38.1</v>
       </c>
       <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
+      <c r="C441" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="D441" s="4"/>
-      <c r="E441" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="E441" s="25"/>
       <c r="G441" s="18"/>
       <c r="H441" s="18"/>
       <c r="I441" s="18"/>
@@ -10030,43 +10129,43 @@
     </row>
     <row r="442" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
-      <c r="E442" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="D442" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E442" s="25"/>
       <c r="G442" s="18"/>
       <c r="H442" s="18"/>
       <c r="I442" s="18"/>
       <c r="J442" s="18"/>
     </row>
     <row r="443" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A443" s="3">
-        <v>38.200000000000003</v>
+      <c r="A443" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="B443" s="4"/>
-      <c r="C443" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C443" s="4"/>
       <c r="D443" s="4"/>
-      <c r="E443" s="25"/>
+      <c r="E443" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G443" s="18"/>
       <c r="H443" s="18"/>
       <c r="I443" s="18"/>
       <c r="J443" s="18"/>
     </row>
     <row r="444" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A444" s="3">
-        <v>38.299999999999997</v>
+      <c r="A444" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="B444" s="4"/>
-      <c r="C444" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D444" s="4"/>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="E444" s="25"/>
       <c r="G444" s="18"/>
       <c r="H444" s="18"/>
@@ -10074,99 +10173,105 @@
       <c r="J444" s="18"/>
     </row>
     <row r="445" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A445" s="3">
-        <v>38.4</v>
+      <c r="A445" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="B445" s="4"/>
-      <c r="C445" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C445" s="4"/>
       <c r="D445" s="4"/>
-      <c r="E445" s="25"/>
+      <c r="E445" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="G445" s="18"/>
       <c r="H445" s="18"/>
       <c r="I445" s="18"/>
       <c r="J445" s="18"/>
     </row>
     <row r="446" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A446" s="3">
-        <v>38.5</v>
+      <c r="A446" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="B446" s="4"/>
-      <c r="C446" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C446" s="4"/>
       <c r="D446" s="4"/>
-      <c r="E446" s="25"/>
+      <c r="E446" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="G446" s="18"/>
       <c r="H446" s="18"/>
       <c r="I446" s="18"/>
       <c r="J446" s="18"/>
     </row>
     <row r="447" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A447" s="3">
-        <v>38.6</v>
+      <c r="A447" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B447" s="4"/>
-      <c r="C447" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C447" s="4"/>
       <c r="D447" s="4"/>
-      <c r="E447" s="25"/>
+      <c r="E447" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="G447" s="18"/>
       <c r="H447" s="18"/>
       <c r="I447" s="18"/>
       <c r="J447" s="18"/>
     </row>
     <row r="448" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A448" s="3">
-        <v>38.700000000000003</v>
+      <c r="A448" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="B448" s="4"/>
-      <c r="C448" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C448" s="4"/>
       <c r="D448" s="4"/>
-      <c r="E448" s="25"/>
+      <c r="E448" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="G448" s="18"/>
       <c r="H448" s="18"/>
       <c r="I448" s="18"/>
       <c r="J448" s="18"/>
     </row>
     <row r="449" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A449" s="3">
-        <v>38.799999999999997</v>
+      <c r="A449" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="B449" s="4"/>
-      <c r="C449" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C449" s="4"/>
       <c r="D449" s="4"/>
-      <c r="E449" s="25"/>
+      <c r="E449" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="G449" s="18"/>
       <c r="H449" s="18"/>
       <c r="I449" s="18"/>
       <c r="J449" s="18"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A450" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B450" s="40"/>
-      <c r="C450" s="40"/>
-      <c r="D450" s="40"/>
-      <c r="E450" s="41"/>
+    <row r="450" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A450" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B450" s="4"/>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+      <c r="E450" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="G450" s="18"/>
       <c r="H450" s="18"/>
       <c r="I450" s="18"/>
       <c r="J450" s="18"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="42"/>
-      <c r="B451" s="43"/>
-      <c r="C451" s="43"/>
-      <c r="D451" s="43"/>
-      <c r="E451" s="44"/>
+    <row r="451" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A451" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B451" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+      <c r="E451" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="G451" s="18"/>
       <c r="H451" s="18"/>
       <c r="I451" s="18"/>
@@ -10174,12 +10279,12 @@
     </row>
     <row r="452" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
-        <v>39</v>
-      </c>
-      <c r="B452" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C452" s="4"/>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="B452" s="4"/>
+      <c r="C452" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D452" s="4"/>
       <c r="E452" s="25"/>
       <c r="G452" s="18"/>
@@ -10189,11 +10294,11 @@
     </row>
     <row r="453" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A453" s="3">
-        <v>39.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="B453" s="4"/>
       <c r="C453" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D453" s="4"/>
       <c r="E453" s="25"/>
@@ -10204,11 +10309,11 @@
     </row>
     <row r="454" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
-        <v>39.200000000000003</v>
+        <v>38.4</v>
       </c>
       <c r="B454" s="4"/>
       <c r="C454" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454" s="25"/>
@@ -10219,11 +10324,11 @@
     </row>
     <row r="455" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
-        <v>39.299999999999997</v>
+        <v>38.5</v>
       </c>
       <c r="B455" s="4"/>
       <c r="C455" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D455" s="4"/>
       <c r="E455" s="25"/>
@@ -10234,11 +10339,11 @@
     </row>
     <row r="456" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
-        <v>39.4</v>
+        <v>38.6</v>
       </c>
       <c r="B456" s="4"/>
       <c r="C456" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D456" s="4"/>
       <c r="E456" s="25"/>
@@ -10249,11 +10354,11 @@
     </row>
     <row r="457" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
-        <v>39.5</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="B457" s="4"/>
       <c r="C457" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D457" s="4"/>
       <c r="E457" s="25"/>
@@ -10264,98 +10369,227 @@
     </row>
     <row r="458" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
-        <v>40</v>
-      </c>
-      <c r="B458" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C458" s="4"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="B458" s="4"/>
+      <c r="C458" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D458" s="4"/>
       <c r="E458" s="25"/>
-      <c r="G458" s="18">
-        <v>5</v>
-      </c>
+      <c r="G458" s="18"/>
       <c r="H458" s="18"/>
       <c r="I458" s="18"/>
       <c r="J458" s="18"/>
     </row>
-    <row r="459" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A459" s="3">
-        <v>40.1</v>
-      </c>
-      <c r="B459" s="4"/>
-      <c r="C459" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D459" s="4"/>
-      <c r="E459" s="25"/>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A459" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B459" s="47"/>
+      <c r="C459" s="47"/>
+      <c r="D459" s="47"/>
+      <c r="E459" s="48"/>
       <c r="G459" s="18"/>
       <c r="H459" s="18"/>
       <c r="I459" s="18"/>
       <c r="J459" s="18"/>
     </row>
-    <row r="460" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="3">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="B460" s="4"/>
-      <c r="C460" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D460" s="4"/>
-      <c r="E460" s="25"/>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A460" s="49"/>
+      <c r="B460" s="50"/>
+      <c r="C460" s="50"/>
+      <c r="D460" s="50"/>
+      <c r="E460" s="51"/>
       <c r="G460" s="18"/>
       <c r="H460" s="18"/>
       <c r="I460" s="18"/>
       <c r="J460" s="18"/>
     </row>
-    <row r="461" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="12"/>
-      <c r="B461" s="13"/>
-      <c r="C461" s="13"/>
-      <c r="D461" s="13"/>
-    </row>
-    <row r="462" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="2"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="2"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="2"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="2"/>
+    <row r="461" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A461" s="3">
+        <v>39</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C461" s="4"/>
+      <c r="D461" s="4"/>
+      <c r="E461" s="25"/>
+      <c r="G461" s="18"/>
+      <c r="H461" s="18"/>
+      <c r="I461" s="18"/>
+      <c r="J461" s="18"/>
+    </row>
+    <row r="462" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A462" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="B462" s="4"/>
+      <c r="C462" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D462" s="4"/>
+      <c r="E462" s="25"/>
+      <c r="G462" s="18"/>
+      <c r="H462" s="18"/>
+      <c r="I462" s="18"/>
+      <c r="J462" s="18"/>
+    </row>
+    <row r="463" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A463" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B463" s="4"/>
+      <c r="C463" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D463" s="4"/>
+      <c r="E463" s="25"/>
+      <c r="G463" s="18"/>
+      <c r="H463" s="18"/>
+      <c r="I463" s="18"/>
+      <c r="J463" s="18"/>
+    </row>
+    <row r="464" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A464" s="3">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="B464" s="4"/>
+      <c r="C464" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D464" s="4"/>
+      <c r="E464" s="25"/>
+      <c r="G464" s="18"/>
+      <c r="H464" s="18"/>
+      <c r="I464" s="18"/>
+      <c r="J464" s="18"/>
+    </row>
+    <row r="465" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A465" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="B465" s="4"/>
+      <c r="C465" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D465" s="4"/>
+      <c r="E465" s="25"/>
+      <c r="G465" s="18"/>
+      <c r="H465" s="18"/>
+      <c r="I465" s="18"/>
+      <c r="J465" s="18"/>
+    </row>
+    <row r="466" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A466" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="B466" s="4"/>
+      <c r="C466" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D466" s="4"/>
+      <c r="E466" s="25"/>
+      <c r="G466" s="18"/>
+      <c r="H466" s="18"/>
+      <c r="I466" s="18"/>
+      <c r="J466" s="18"/>
+    </row>
+    <row r="467" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A467" s="3">
+        <v>40</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C467" s="4"/>
+      <c r="D467" s="4"/>
+      <c r="E467" s="25"/>
+      <c r="G467" s="18">
+        <v>5</v>
+      </c>
+      <c r="H467" s="18"/>
+      <c r="I467" s="18"/>
+      <c r="J467" s="18"/>
+    </row>
+    <row r="468" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A468" s="3">
+        <v>40.1</v>
+      </c>
+      <c r="B468" s="4"/>
+      <c r="C468" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D468" s="4"/>
+      <c r="E468" s="25"/>
+      <c r="G468" s="18"/>
+      <c r="H468" s="18"/>
+      <c r="I468" s="18"/>
+      <c r="J468" s="18"/>
+    </row>
+    <row r="469" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="B469" s="4"/>
+      <c r="C469" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D469" s="4"/>
+      <c r="E469" s="25"/>
+      <c r="G469" s="18"/>
+      <c r="H469" s="18"/>
+      <c r="I469" s="18"/>
+      <c r="J469" s="18"/>
+    </row>
+    <row r="470" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="12"/>
+      <c r="B470" s="13"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="13"/>
+    </row>
+    <row r="471" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="2"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="2"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="2"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="2"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="2"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="2"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="2"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="2"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A3:E4"/>
-    <mergeCell ref="A388:E389"/>
-    <mergeCell ref="A286:E287"/>
-    <mergeCell ref="A450:E451"/>
-    <mergeCell ref="A124:E125"/>
-    <mergeCell ref="A118:E119"/>
+    <mergeCell ref="A397:E398"/>
+    <mergeCell ref="A295:E296"/>
+    <mergeCell ref="A459:E460"/>
+    <mergeCell ref="A133:E134"/>
+    <mergeCell ref="A127:E128"/>
     <mergeCell ref="A49:E50"/>
     <mergeCell ref="A9:E10"/>
   </mergeCells>

--- a/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
+++ b/SUBMIT_PLACE/HAI_TRAN/KICK_OFF/BSS_WBS_V2.0.xlsx
@@ -1478,7 +1478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,6 +1548,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1824,7 +1830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1944,6 +1950,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2291,8 +2306,8 @@
   <dimension ref="A1:K510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,19 +2337,19 @@
       <c r="E1" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="54" t="s">
         <v>116</v>
       </c>
     </row>
